--- a/AMR KAP+ Vendor 2.0.xlsx
+++ b/AMR KAP+ Vendor 2.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{579457AD-2FA4-406F-8556-7F8873B3F9EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A42D761-C7AC-4962-B5DF-C9E151220889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9490" yWindow="550" windowWidth="8280" windowHeight="8450" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -14018,8 +14018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:GC13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="FW9" sqref="FW9"/>
+    <sheetView topLeftCell="EY1" workbookViewId="0">
+      <selection activeCell="FG16" sqref="FG16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -15612,16 +15612,16 @@
         <f>IF(raw_data!EY4 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ4">
-        <f>IF(raw_data!EZ4 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA4">
-        <f>IF(raw_data!FA4 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB4">
-        <f>IF(raw_data!FB4 = "na", 0, 1)</f>
+      <c r="EZ4" s="88">
+        <f>IF(raw_data!EZ4="tv",1,IF(raw_data!EZ4="radio",1,IF(raw_data!EZ4="newspaper",1,IF(raw_data!EZ4="internet",1,IF(raw_data!EZ4="sns",1,IF(raw_data!EZ4="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA4" s="88">
+        <f>IF(raw_data!FA4="tv",1,IF(raw_data!FA4="radio",1,IF(raw_data!FA4="newspaper",1,IF(raw_data!FA4="internet",1,IF(raw_data!FA4="sns",1,IF(raw_data!FA4="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB4" s="88">
+        <f>IF(raw_data!FB4="tv",1,IF(raw_data!FB4="radio",1,IF(raw_data!FB4="newspaper",1,IF(raw_data!FB4="internet",1,IF(raw_data!FB4="sns",1,IF(raw_data!FB4="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FC4">
@@ -15636,16 +15636,16 @@
         <f>IF(raw_data!FE4 = "4+ hrs", 4, IF(raw_data!FE4 = "2-4 hrs", 3, IF(raw_data!FE4 = "1-2 hrs", 2, IF(raw_data!FE4 = "less than 1 hr", 1, 0))))</f>
         <v>4</v>
       </c>
-      <c r="FF4">
-        <f>IF(raw_data!FF4 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG4">
-        <f>IF(raw_data!FG4 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH4">
-        <f>IF(raw_data!FH4 = "na", 0, 1)</f>
+      <c r="FF4" s="88">
+        <f>IF(raw_data!FF4="tv",1,IF(raw_data!FF4="radio",1,IF(raw_data!FF4="newspaper",1,IF(raw_data!FF4="internet",1,IF(raw_data!FF4="sns",1,IF(raw_data!FF4="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG4" s="88">
+        <f>IF(raw_data!FG4="tv",1,IF(raw_data!FG4="radio",1,IF(raw_data!FG4="newspaper",1,IF(raw_data!FG4="internet",1,IF(raw_data!FG4="sns",1,IF(raw_data!FG4="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH4" s="88">
+        <f>IF(raw_data!FH4="tv",1,IF(raw_data!FH4="radio",1,IF(raw_data!FH4="newspaper",1,IF(raw_data!FH4="internet",1,IF(raw_data!FH4="sns",1,IF(raw_data!FH4="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FI4">
@@ -16321,16 +16321,16 @@
         <f>IF(raw_data!EY5 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ5">
-        <f>IF(raw_data!EZ5 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA5">
-        <f>IF(raw_data!FA5 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB5">
-        <f>IF(raw_data!FB5 = "na", 0, 1)</f>
+      <c r="EZ5" s="88">
+        <f>IF(raw_data!EZ5="tv",1,IF(raw_data!EZ5="radio",1,IF(raw_data!EZ5="newspaper",1,IF(raw_data!EZ5="internet",1,IF(raw_data!EZ5="sns",1,IF(raw_data!EZ5="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA5" s="88">
+        <f>IF(raw_data!FA5="tv",1,IF(raw_data!FA5="radio",1,IF(raw_data!FA5="newspaper",1,IF(raw_data!FA5="internet",1,IF(raw_data!FA5="sns",1,IF(raw_data!FA5="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB5" s="88">
+        <f>IF(raw_data!FB5="tv",1,IF(raw_data!FB5="radio",1,IF(raw_data!FB5="newspaper",1,IF(raw_data!FB5="internet",1,IF(raw_data!FB5="sns",1,IF(raw_data!FB5="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FC5">
@@ -16345,16 +16345,16 @@
         <f>IF(raw_data!FE5 = "4+ hrs", 4, IF(raw_data!FE5 = "2-4 hrs", 3, IF(raw_data!FE5 = "1-2 hrs", 2, IF(raw_data!FE5 = "less than 1 hr", 1, 0))))</f>
         <v>4</v>
       </c>
-      <c r="FF5">
-        <f>IF(raw_data!FF5 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG5">
-        <f>IF(raw_data!FG5 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH5">
-        <f>IF(raw_data!FH5 = "na", 0, 1)</f>
+      <c r="FF5" s="88">
+        <f>IF(raw_data!FF5="tv",1,IF(raw_data!FF5="radio",1,IF(raw_data!FF5="newspaper",1,IF(raw_data!FF5="internet",1,IF(raw_data!FF5="sns",1,IF(raw_data!FF5="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG5" s="88">
+        <f>IF(raw_data!FG5="tv",1,IF(raw_data!FG5="radio",1,IF(raw_data!FG5="newspaper",1,IF(raw_data!FG5="internet",1,IF(raw_data!FG5="sns",1,IF(raw_data!FG5="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH5" s="88">
+        <f>IF(raw_data!FH5="tv",1,IF(raw_data!FH5="radio",1,IF(raw_data!FH5="newspaper",1,IF(raw_data!FH5="internet",1,IF(raw_data!FH5="sns",1,IF(raw_data!FH5="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FI5">
@@ -17030,16 +17030,16 @@
         <f>IF(raw_data!EY6 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ6">
-        <f>IF(raw_data!EZ6 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA6">
-        <f>IF(raw_data!FA6 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB6">
-        <f>IF(raw_data!FB6 = "na", 0, 1)</f>
+      <c r="EZ6" s="88">
+        <f>IF(raw_data!EZ6="tv",1,IF(raw_data!EZ6="radio",1,IF(raw_data!EZ6="newspaper",1,IF(raw_data!EZ6="internet",1,IF(raw_data!EZ6="sns",1,IF(raw_data!EZ6="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA6" s="88">
+        <f>IF(raw_data!FA6="tv",1,IF(raw_data!FA6="radio",1,IF(raw_data!FA6="newspaper",1,IF(raw_data!FA6="internet",1,IF(raw_data!FA6="sns",1,IF(raw_data!FA6="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB6" s="88">
+        <f>IF(raw_data!FB6="tv",1,IF(raw_data!FB6="radio",1,IF(raw_data!FB6="newspaper",1,IF(raw_data!FB6="internet",1,IF(raw_data!FB6="sns",1,IF(raw_data!FB6="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FC6">
@@ -17054,16 +17054,16 @@
         <f>IF(raw_data!FE6 = "4+ hrs", 4, IF(raw_data!FE6 = "2-4 hrs", 3, IF(raw_data!FE6 = "1-2 hrs", 2, IF(raw_data!FE6 = "less than 1 hr", 1, 0))))</f>
         <v>0</v>
       </c>
-      <c r="FF6">
-        <f>IF(raw_data!FF6 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG6">
-        <f>IF(raw_data!FG6 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH6">
-        <f>IF(raw_data!FH6 = "na", 0, 1)</f>
+      <c r="FF6" s="88">
+        <f>IF(raw_data!FF6="tv",1,IF(raw_data!FF6="radio",1,IF(raw_data!FF6="newspaper",1,IF(raw_data!FF6="internet",1,IF(raw_data!FF6="sns",1,IF(raw_data!FF6="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG6" s="88">
+        <f>IF(raw_data!FG6="tv",1,IF(raw_data!FG6="radio",1,IF(raw_data!FG6="newspaper",1,IF(raw_data!FG6="internet",1,IF(raw_data!FG6="sns",1,IF(raw_data!FG6="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH6" s="88">
+        <f>IF(raw_data!FH6="tv",1,IF(raw_data!FH6="radio",1,IF(raw_data!FH6="newspaper",1,IF(raw_data!FH6="internet",1,IF(raw_data!FH6="sns",1,IF(raw_data!FH6="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FI6">
@@ -17739,16 +17739,16 @@
         <f>IF(raw_data!EY7 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ7">
-        <f>IF(raw_data!EZ7 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA7">
-        <f>IF(raw_data!FA7 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB7">
-        <f>IF(raw_data!FB7 = "na", 0, 1)</f>
+      <c r="EZ7" s="88">
+        <f>IF(raw_data!EZ7="tv",1,IF(raw_data!EZ7="radio",1,IF(raw_data!EZ7="newspaper",1,IF(raw_data!EZ7="internet",1,IF(raw_data!EZ7="sns",1,IF(raw_data!EZ7="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA7" s="88">
+        <f>IF(raw_data!FA7="tv",1,IF(raw_data!FA7="radio",1,IF(raw_data!FA7="newspaper",1,IF(raw_data!FA7="internet",1,IF(raw_data!FA7="sns",1,IF(raw_data!FA7="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB7" s="88">
+        <f>IF(raw_data!FB7="tv",1,IF(raw_data!FB7="radio",1,IF(raw_data!FB7="newspaper",1,IF(raw_data!FB7="internet",1,IF(raw_data!FB7="sns",1,IF(raw_data!FB7="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FC7">
@@ -17763,16 +17763,16 @@
         <f>IF(raw_data!FE7 = "4+ hrs", 4, IF(raw_data!FE7 = "2-4 hrs", 3, IF(raw_data!FE7 = "1-2 hrs", 2, IF(raw_data!FE7 = "less than 1 hr", 1, 0))))</f>
         <v>0</v>
       </c>
-      <c r="FF7">
-        <f>IF(raw_data!FF7 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG7">
-        <f>IF(raw_data!FG7 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH7">
-        <f>IF(raw_data!FH7 = "na", 0, 1)</f>
+      <c r="FF7" s="88">
+        <f>IF(raw_data!FF7="tv",1,IF(raw_data!FF7="radio",1,IF(raw_data!FF7="newspaper",1,IF(raw_data!FF7="internet",1,IF(raw_data!FF7="sns",1,IF(raw_data!FF7="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG7" s="88">
+        <f>IF(raw_data!FG7="tv",1,IF(raw_data!FG7="radio",1,IF(raw_data!FG7="newspaper",1,IF(raw_data!FG7="internet",1,IF(raw_data!FG7="sns",1,IF(raw_data!FG7="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH7" s="88">
+        <f>IF(raw_data!FH7="tv",1,IF(raw_data!FH7="radio",1,IF(raw_data!FH7="newspaper",1,IF(raw_data!FH7="internet",1,IF(raw_data!FH7="sns",1,IF(raw_data!FH7="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FI7">
@@ -18448,16 +18448,16 @@
         <f>IF(raw_data!EY8 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ8">
-        <f>IF(raw_data!EZ8 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA8">
-        <f>IF(raw_data!FA8 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB8">
-        <f>IF(raw_data!FB8 = "na", 0, 1)</f>
+      <c r="EZ8" s="88">
+        <f>IF(raw_data!EZ8="tv",1,IF(raw_data!EZ8="radio",1,IF(raw_data!EZ8="newspaper",1,IF(raw_data!EZ8="internet",1,IF(raw_data!EZ8="sns",1,IF(raw_data!EZ8="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA8" s="88">
+        <f>IF(raw_data!FA8="tv",1,IF(raw_data!FA8="radio",1,IF(raw_data!FA8="newspaper",1,IF(raw_data!FA8="internet",1,IF(raw_data!FA8="sns",1,IF(raw_data!FA8="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB8" s="88">
+        <f>IF(raw_data!FB8="tv",1,IF(raw_data!FB8="radio",1,IF(raw_data!FB8="newspaper",1,IF(raw_data!FB8="internet",1,IF(raw_data!FB8="sns",1,IF(raw_data!FB8="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FC8">
@@ -18472,16 +18472,16 @@
         <f>IF(raw_data!FE8 = "4+ hrs", 4, IF(raw_data!FE8 = "2-4 hrs", 3, IF(raw_data!FE8 = "1-2 hrs", 2, IF(raw_data!FE8 = "less than 1 hr", 1, 0))))</f>
         <v>0</v>
       </c>
-      <c r="FF8">
-        <f>IF(raw_data!FF8 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG8">
-        <f>IF(raw_data!FG8 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH8">
-        <f>IF(raw_data!FH8 = "na", 0, 1)</f>
+      <c r="FF8" s="88">
+        <f>IF(raw_data!FF8="tv",1,IF(raw_data!FF8="radio",1,IF(raw_data!FF8="newspaper",1,IF(raw_data!FF8="internet",1,IF(raw_data!FF8="sns",1,IF(raw_data!FF8="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG8" s="88">
+        <f>IF(raw_data!FG8="tv",1,IF(raw_data!FG8="radio",1,IF(raw_data!FG8="newspaper",1,IF(raw_data!FG8="internet",1,IF(raw_data!FG8="sns",1,IF(raw_data!FG8="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH8" s="88">
+        <f>IF(raw_data!FH8="tv",1,IF(raw_data!FH8="radio",1,IF(raw_data!FH8="newspaper",1,IF(raw_data!FH8="internet",1,IF(raw_data!FH8="sns",1,IF(raw_data!FH8="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FI8">
@@ -19157,16 +19157,16 @@
         <f>IF(raw_data!EY9 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ9">
-        <f>IF(raw_data!EZ9 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA9">
-        <f>IF(raw_data!FA9 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB9">
-        <f>IF(raw_data!FB9 = "na", 0, 1)</f>
+      <c r="EZ9" s="88">
+        <f>IF(raw_data!EZ9="tv",1,IF(raw_data!EZ9="radio",1,IF(raw_data!EZ9="newspaper",1,IF(raw_data!EZ9="internet",1,IF(raw_data!EZ9="sns",1,IF(raw_data!EZ9="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA9" s="88">
+        <f>IF(raw_data!FA9="tv",1,IF(raw_data!FA9="radio",1,IF(raw_data!FA9="newspaper",1,IF(raw_data!FA9="internet",1,IF(raw_data!FA9="sns",1,IF(raw_data!FA9="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB9" s="88">
+        <f>IF(raw_data!FB9="tv",1,IF(raw_data!FB9="radio",1,IF(raw_data!FB9="newspaper",1,IF(raw_data!FB9="internet",1,IF(raw_data!FB9="sns",1,IF(raw_data!FB9="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FC9">
@@ -19181,16 +19181,16 @@
         <f>IF(raw_data!FE9 = "4+ hrs", 4, IF(raw_data!FE9 = "2-4 hrs", 3, IF(raw_data!FE9 = "1-2 hrs", 2, IF(raw_data!FE9 = "less than 1 hr", 1, 0))))</f>
         <v>2</v>
       </c>
-      <c r="FF9">
-        <f>IF(raw_data!FF9 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG9">
-        <f>IF(raw_data!FG9 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH9">
-        <f>IF(raw_data!FH9 = "na", 0, 1)</f>
+      <c r="FF9" s="88">
+        <f>IF(raw_data!FF9="tv",1,IF(raw_data!FF9="radio",1,IF(raw_data!FF9="newspaper",1,IF(raw_data!FF9="internet",1,IF(raw_data!FF9="sns",1,IF(raw_data!FF9="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG9" s="88">
+        <f>IF(raw_data!FG9="tv",1,IF(raw_data!FG9="radio",1,IF(raw_data!FG9="newspaper",1,IF(raw_data!FG9="internet",1,IF(raw_data!FG9="sns",1,IF(raw_data!FG9="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH9" s="88">
+        <f>IF(raw_data!FH9="tv",1,IF(raw_data!FH9="radio",1,IF(raw_data!FH9="newspaper",1,IF(raw_data!FH9="internet",1,IF(raw_data!FH9="sns",1,IF(raw_data!FH9="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FI9">
@@ -19866,16 +19866,16 @@
         <f>IF(raw_data!EY10 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ10">
-        <f>IF(raw_data!EZ10 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA10">
-        <f>IF(raw_data!FA10 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB10">
-        <f>IF(raw_data!FB10 = "na", 0, 1)</f>
+      <c r="EZ10" s="88">
+        <f>IF(raw_data!EZ10="tv",1,IF(raw_data!EZ10="radio",1,IF(raw_data!EZ10="newspaper",1,IF(raw_data!EZ10="internet",1,IF(raw_data!EZ10="sns",1,IF(raw_data!EZ10="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA10" s="88">
+        <f>IF(raw_data!FA10="tv",1,IF(raw_data!FA10="radio",1,IF(raw_data!FA10="newspaper",1,IF(raw_data!FA10="internet",1,IF(raw_data!FA10="sns",1,IF(raw_data!FA10="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB10" s="88">
+        <f>IF(raw_data!FB10="tv",1,IF(raw_data!FB10="radio",1,IF(raw_data!FB10="newspaper",1,IF(raw_data!FB10="internet",1,IF(raw_data!FB10="sns",1,IF(raw_data!FB10="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FC10">
@@ -19890,16 +19890,16 @@
         <f>IF(raw_data!FE10 = "4+ hrs", 4, IF(raw_data!FE10 = "2-4 hrs", 3, IF(raw_data!FE10 = "1-2 hrs", 2, IF(raw_data!FE10 = "less than 1 hr", 1, 0))))</f>
         <v>2</v>
       </c>
-      <c r="FF10">
-        <f>IF(raw_data!FF10 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG10">
-        <f>IF(raw_data!FG10 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH10">
-        <f>IF(raw_data!FH10 = "na", 0, 1)</f>
+      <c r="FF10" s="88">
+        <f>IF(raw_data!FF10="tv",1,IF(raw_data!FF10="radio",1,IF(raw_data!FF10="newspaper",1,IF(raw_data!FF10="internet",1,IF(raw_data!FF10="sns",1,IF(raw_data!FF10="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG10" s="88">
+        <f>IF(raw_data!FG10="tv",1,IF(raw_data!FG10="radio",1,IF(raw_data!FG10="newspaper",1,IF(raw_data!FG10="internet",1,IF(raw_data!FG10="sns",1,IF(raw_data!FG10="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH10" s="88">
+        <f>IF(raw_data!FH10="tv",1,IF(raw_data!FH10="radio",1,IF(raw_data!FH10="newspaper",1,IF(raw_data!FH10="internet",1,IF(raw_data!FH10="sns",1,IF(raw_data!FH10="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FI10">
@@ -20575,17 +20575,17 @@
         <f>IF(raw_data!EY11 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ11">
-        <f>IF(raw_data!EZ11 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA11">
-        <f>IF(raw_data!FA11 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB11">
-        <f>IF(raw_data!FB11 = "na", 0, 1)</f>
-        <v>1</v>
+      <c r="EZ11" s="88">
+        <f>IF(raw_data!EZ11="tv",1,IF(raw_data!EZ11="radio",1,IF(raw_data!EZ11="newspaper",1,IF(raw_data!EZ11="internet",1,IF(raw_data!EZ11="sns",1,IF(raw_data!EZ11="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA11" s="88">
+        <f>IF(raw_data!FA11="tv",1,IF(raw_data!FA11="radio",1,IF(raw_data!FA11="newspaper",1,IF(raw_data!FA11="internet",1,IF(raw_data!FA11="sns",1,IF(raw_data!FA11="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB11" s="88">
+        <f>IF(raw_data!FB11="tv",1,IF(raw_data!FB11="radio",1,IF(raw_data!FB11="newspaper",1,IF(raw_data!FB11="internet",1,IF(raw_data!FB11="sns",1,IF(raw_data!FB11="na",0,2))))))</f>
+        <v>2</v>
       </c>
       <c r="FC11">
         <f>IF(raw_data!FC11 = "4+ hrs", 4, IF(raw_data!FC11 = "2-4 hrs", 3, IF(raw_data!FC11 = "1-2 hrs", 2, IF(raw_data!FC11 = "less than 1 hr", 1, 0))))</f>
@@ -20599,16 +20599,16 @@
         <f>IF(raw_data!FE11 = "4+ hrs", 4, IF(raw_data!FE11 = "2-4 hrs", 3, IF(raw_data!FE11 = "1-2 hrs", 2, IF(raw_data!FE11 = "less than 1 hr", 1, 0))))</f>
         <v>2</v>
       </c>
-      <c r="FF11">
-        <f>IF(raw_data!FF11 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG11">
-        <f>IF(raw_data!FG11 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH11">
-        <f>IF(raw_data!FH11 = "na", 0, 1)</f>
+      <c r="FF11" s="88">
+        <f>IF(raw_data!FF11="tv",1,IF(raw_data!FF11="radio",1,IF(raw_data!FF11="newspaper",1,IF(raw_data!FF11="internet",1,IF(raw_data!FF11="sns",1,IF(raw_data!FF11="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG11" s="88">
+        <f>IF(raw_data!FG11="tv",1,IF(raw_data!FG11="radio",1,IF(raw_data!FG11="newspaper",1,IF(raw_data!FG11="internet",1,IF(raw_data!FG11="sns",1,IF(raw_data!FG11="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH11" s="88">
+        <f>IF(raw_data!FH11="tv",1,IF(raw_data!FH11="radio",1,IF(raw_data!FH11="newspaper",1,IF(raw_data!FH11="internet",1,IF(raw_data!FH11="sns",1,IF(raw_data!FH11="na",0,2))))))</f>
         <v>1</v>
       </c>
       <c r="FI11">
@@ -21284,17 +21284,17 @@
         <f>IF(raw_data!EY12 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ12">
-        <f>IF(raw_data!EZ12 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA12">
-        <f>IF(raw_data!FA12 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB12">
-        <f>IF(raw_data!FB12 = "na", 0, 1)</f>
-        <v>1</v>
+      <c r="EZ12" s="88">
+        <f>IF(raw_data!EZ12="tv",1,IF(raw_data!EZ12="radio",1,IF(raw_data!EZ12="newspaper",1,IF(raw_data!EZ12="internet",1,IF(raw_data!EZ12="sns",1,IF(raw_data!EZ12="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA12" s="88">
+        <f>IF(raw_data!FA12="tv",1,IF(raw_data!FA12="radio",1,IF(raw_data!FA12="newspaper",1,IF(raw_data!FA12="internet",1,IF(raw_data!FA12="sns",1,IF(raw_data!FA12="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB12" s="88">
+        <f>IF(raw_data!FB12="tv",1,IF(raw_data!FB12="radio",1,IF(raw_data!FB12="newspaper",1,IF(raw_data!FB12="internet",1,IF(raw_data!FB12="sns",1,IF(raw_data!FB12="na",0,2))))))</f>
+        <v>2</v>
       </c>
       <c r="FC12">
         <f>IF(raw_data!FC12 = "4+ hrs", 4, IF(raw_data!FC12 = "2-4 hrs", 3, IF(raw_data!FC12 = "1-2 hrs", 2, IF(raw_data!FC12 = "less than 1 hr", 1, 0))))</f>
@@ -21308,16 +21308,16 @@
         <f>IF(raw_data!FE12 = "4+ hrs", 4, IF(raw_data!FE12 = "2-4 hrs", 3, IF(raw_data!FE12 = "1-2 hrs", 2, IF(raw_data!FE12 = "less than 1 hr", 1, 0))))</f>
         <v>1</v>
       </c>
-      <c r="FF12">
-        <f>IF(raw_data!FF12 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG12">
-        <f>IF(raw_data!FG12 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH12">
-        <f>IF(raw_data!FH12 = "na", 0, 1)</f>
+      <c r="FF12" s="88">
+        <f>IF(raw_data!FF12="tv",1,IF(raw_data!FF12="radio",1,IF(raw_data!FF12="newspaper",1,IF(raw_data!FF12="internet",1,IF(raw_data!FF12="sns",1,IF(raw_data!FF12="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG12" s="88">
+        <f>IF(raw_data!FG12="tv",1,IF(raw_data!FG12="radio",1,IF(raw_data!FG12="newspaper",1,IF(raw_data!FG12="internet",1,IF(raw_data!FG12="sns",1,IF(raw_data!FG12="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH12" s="88">
+        <f>IF(raw_data!FH12="tv",1,IF(raw_data!FH12="radio",1,IF(raw_data!FH12="newspaper",1,IF(raw_data!FH12="internet",1,IF(raw_data!FH12="sns",1,IF(raw_data!FH12="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FI12">
@@ -21993,16 +21993,16 @@
         <f>IF(raw_data!EY13 = "na", 0, 1)</f>
         <v>1</v>
       </c>
-      <c r="EZ13">
-        <f>IF(raw_data!EZ13 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FA13">
-        <f>IF(raw_data!FA13 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FB13">
-        <f>IF(raw_data!FB13 = "na", 0, 1)</f>
+      <c r="EZ13" s="88">
+        <f>IF(raw_data!EZ13="tv",1,IF(raw_data!EZ13="radio",1,IF(raw_data!EZ13="newspaper",1,IF(raw_data!EZ13="internet",1,IF(raw_data!EZ13="sns",1,IF(raw_data!EZ13="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FA13" s="88">
+        <f>IF(raw_data!FA13="tv",1,IF(raw_data!FA13="radio",1,IF(raw_data!FA13="newspaper",1,IF(raw_data!FA13="internet",1,IF(raw_data!FA13="sns",1,IF(raw_data!FA13="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FB13" s="88">
+        <f>IF(raw_data!FB13="tv",1,IF(raw_data!FB13="radio",1,IF(raw_data!FB13="newspaper",1,IF(raw_data!FB13="internet",1,IF(raw_data!FB13="sns",1,IF(raw_data!FB13="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FC13">
@@ -22017,16 +22017,16 @@
         <f>IF(raw_data!FE13 = "4+ hrs", 4, IF(raw_data!FE13 = "2-4 hrs", 3, IF(raw_data!FE13 = "1-2 hrs", 2, IF(raw_data!FE13 = "less than 1 hr", 1, 0))))</f>
         <v>0</v>
       </c>
-      <c r="FF13">
-        <f>IF(raw_data!FF13 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FG13">
-        <f>IF(raw_data!FG13 = "na", 0, 1)</f>
-        <v>1</v>
-      </c>
-      <c r="FH13">
-        <f>IF(raw_data!FH13 = "na", 0, 1)</f>
+      <c r="FF13" s="88">
+        <f>IF(raw_data!FF13="tv",1,IF(raw_data!FF13="radio",1,IF(raw_data!FF13="newspaper",1,IF(raw_data!FF13="internet",1,IF(raw_data!FF13="sns",1,IF(raw_data!FF13="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FG13" s="88">
+        <f>IF(raw_data!FG13="tv",1,IF(raw_data!FG13="radio",1,IF(raw_data!FG13="newspaper",1,IF(raw_data!FG13="internet",1,IF(raw_data!FG13="sns",1,IF(raw_data!FG13="na",0,2))))))</f>
+        <v>1</v>
+      </c>
+      <c r="FH13" s="88">
+        <f>IF(raw_data!FH13="tv",1,IF(raw_data!FH13="radio",1,IF(raw_data!FH13="newspaper",1,IF(raw_data!FH13="internet",1,IF(raw_data!FH13="sns",1,IF(raw_data!FH13="na",0,2))))))</f>
         <v>0</v>
       </c>
       <c r="FI13">
@@ -25761,7 +25761,7 @@
   <dimension ref="A1:BH41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AO1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -27442,27 +27442,27 @@
         <v>41</v>
       </c>
       <c r="AU11" s="5">
-        <f>COUNTIF(raw_data!EZ:EZ, AT11)</f>
-        <v>0</v>
-      </c>
-      <c r="AV11" s="5">
-        <f>COUNTIF(raw_data!FA:FA, AT11)</f>
-        <v>0</v>
-      </c>
-      <c r="AW11" s="5">
-        <f>COUNTIF(raw_data!FB:FB, AT11)</f>
-        <v>0</v>
+        <f>COUNTIF(coded_data!EZ:EZ, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="91">
+        <f>COUNTIF(coded_data!FA:FA, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="91">
+        <f>COUNTIF(coded_data!FB:FB, 2)</f>
+        <v>2</v>
       </c>
       <c r="AX11" s="5">
-        <f>COUNTIF(raw_data!FF:FF, AT11)</f>
-        <v>0</v>
-      </c>
-      <c r="AY11" s="5">
-        <f>COUNTIF(raw_data!FG:FG, AT11)</f>
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="71">
-        <f>COUNTIF(raw_data!FH:FH, AT11)</f>
+        <f>COUNTIF(coded_data!FF:FF, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="91">
+        <f>COUNTIF(coded_data!FG:FG, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="91">
+        <f>COUNTIF(coded_data!FH:FH, 2)</f>
         <v>0</v>
       </c>
       <c r="BB11" s="24" t="s">
@@ -29645,13 +29645,13 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AU6:AU12">
+  <conditionalFormatting sqref="AU6:AU12 AV11:AW11">
     <cfRule type="top10" dxfId="79" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV6:AV12">
+  <conditionalFormatting sqref="AV6:AV10 AV12">
     <cfRule type="top10" dxfId="78" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AW6:AW12">
+  <conditionalFormatting sqref="AW6:AW10 AW12">
     <cfRule type="top10" dxfId="77" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX6:AZ12">

--- a/AMR KAP+ Vendor 2.0.xlsx
+++ b/AMR KAP+ Vendor 2.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD5E181-3E0A-4D38-B7DD-75435A0706AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF079FC4-9079-4633-ADAA-5FE258A33EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18460" windowHeight="11020" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -3111,7 +3111,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3346,6 +3346,129 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3830,12 +3953,6 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3881,126 +3998,24 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="50" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="37" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4019,6 +4034,416 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4567,416 +4992,6 @@
           <color indexed="64"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6786,17 +6801,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="F3:K21" totalsRowShown="0" tableBorderDxfId="65">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="F3:K21" totalsRowShown="0" tableBorderDxfId="106">
   <autoFilter ref="F3:K21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:K21">
     <sortCondition descending="1" ref="I3:I21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="no." dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="no." dataDxfId="105"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="question"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sample score " dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="% of correct answers" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Index" dataDxfId="61">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sample score " dataDxfId="104"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="% of correct answers" dataDxfId="103"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Index" dataDxfId="102">
       <calculatedColumnFormula>IF(K4="very low",1,IF(K4="low",2,IF(K4="moderate",3,IF(K4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Quartile Index">
@@ -6814,17 +6829,17 @@
     <sortCondition descending="1" ref="I4:I8"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Array" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Array" dataDxfId="50"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Min." dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Max" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Mean" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Min." dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Max" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Mean" dataDxfId="47">
       <calculatedColumnFormula>AVERAGE(processed_data!F:F)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{80680A6E-7B95-4B8D-B5EE-986350767F66}" name="Median" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{07C2D696-8C4A-4BDC-9E25-8B5621F0CD44}" name="Mode" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Total score" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="(%) of correct" dataDxfId="2" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{80680A6E-7B95-4B8D-B5EE-986350767F66}" name="Median" dataDxfId="46"/>
+    <tableColumn id="11" xr3:uid="{07C2D696-8C4A-4BDC-9E25-8B5621F0CD44}" name="Mode" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Total score" dataDxfId="44"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="(%) of correct" dataDxfId="43" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Quartile Index">
       <calculatedColumnFormula>IF(I5&lt;=20%,"very low",IF(I5&lt;=40%,"low",IF(I5&lt;=60%,"moderate", IF(I5&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -6847,18 +6862,18 @@
     <sortCondition descending="1" ref="U3:U28"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="no." dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="no." dataDxfId="101"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="sample score" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="% of Agreement" dataDxfId="58">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="sample score" dataDxfId="100"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="% of Agreement" dataDxfId="99">
       <calculatedColumnFormula>T4/(COUNT(coded_data!A:A) * 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Index" dataDxfId="57">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Index" dataDxfId="98">
       <calculatedColumnFormula>IF(W4="very low",1,IF(W4="low",2,IF(W4="moderate",3,IF(W4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Quartile Index">
@@ -6876,14 +6891,14 @@
     <sortCondition descending="1" ref="AB3:AB20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="no." dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="no." dataDxfId="97"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="question"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sample score" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="% of correct " dataDxfId="54" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Index" dataDxfId="53" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sample score" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="% of correct " dataDxfId="95" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Index" dataDxfId="94" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(AD4="very low",1,IF(AD4="low",2,IF(AD4="moderate",3,IF(AD4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Quartile Index" dataDxfId="52">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Quartile Index" dataDxfId="93">
       <calculatedColumnFormula>IF(AB4&lt;20%,"very low",IF(AB4&lt;40%,"low",IF(AB4&lt;60%,"moderate",IF(AB4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6898,16 +6913,16 @@
     <sortCondition descending="1" ref="AI3:AI16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="no." dataDxfId="51"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="no." dataDxfId="92"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="% of correct answers" dataDxfId="50" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="% of correct answers" dataDxfId="91" dataCellStyle="Percent">
       <calculatedColumnFormula>AH4/COUNT(coded_data!A:A)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Index" dataDxfId="49">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Index" dataDxfId="90">
       <calculatedColumnFormula>IF(AK4="very low",1,IF(AK4="low",2,IF(AK4="moderate",3,IF(AK4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quartile Index" dataDxfId="48">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quartile Index" dataDxfId="89">
       <calculatedColumnFormula>IF(AI4&lt;20%,"very low",IF(AI4&lt;40%,"low",IF(AI4&lt;60%,"moderate",IF(AI4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6922,14 +6937,14 @@
     <sortCondition descending="1" ref="AP3:AP6"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="no." dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="no." dataDxfId="88"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="% of interest" dataDxfId="46" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Index" dataDxfId="45">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="% of interest" dataDxfId="87" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Index" dataDxfId="86">
       <calculatedColumnFormula>IF(AR4="very low",1,IF(AR4="low",2,IF(AR4="moderate",3,IF(AR4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Quartile Index" dataDxfId="44">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Quartile Index" dataDxfId="85">
       <calculatedColumnFormula>IF(AP4&lt;20%,"very low",IF(AP4&lt;40%,"low",IF(AP4&lt;60%,"moderate",IF(AP4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6938,29 +6953,29 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A10:M14" totalsRowShown="0">
-  <autoFilter ref="A10:M14" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A11:M14">
-    <sortCondition descending="1" ref="I10:I14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table7" displayName="Table7" ref="A11:M15" totalsRowShown="0">
+  <autoFilter ref="A11:M15" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:M15">
+    <sortCondition descending="1" ref="I11:I15"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Array" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Array" dataDxfId="84"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Min." dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Max" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Mean" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{1B51561E-BFC5-4871-AABD-A8232A52547A}" name="Median" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{AEA4A6A9-813F-4C27-BCD6-986F8B789C2A}" name="Mode" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Total score" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="(%) of Agreement" dataDxfId="36" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Min." dataDxfId="83"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Max" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Mean" dataDxfId="81"/>
+    <tableColumn id="9" xr3:uid="{1B51561E-BFC5-4871-AABD-A8232A52547A}" name="Median" dataDxfId="80"/>
+    <tableColumn id="10" xr3:uid="{AEA4A6A9-813F-4C27-BCD6-986F8B789C2A}" name="Mode" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Total score" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="(%) of Agreement" dataDxfId="77" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Quartile Index">
-      <calculatedColumnFormula>IF(I11&lt;=20%,"very low",IF(I11&lt;=40%,"low",IF(I11&lt;=60%,"moderate", IF(I11&lt;=80%,"high","very high"))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(I12&lt;=20%,"very low",IF(I12&lt;=40%,"low",IF(I12&lt;=60%,"moderate", IF(I12&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{1DABA668-7212-4B6E-B140-73F4C16D6C2F}" name="Index">
-      <calculatedColumnFormula>IF(J11="very high", 5, IF(J11="high", 4, IF(J11="moderate", 3, IF(J11="low", 2, 1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J12="very high", 5, IF(J12="high", 4, IF(J12="moderate", 3, IF(J12="low", 2, 1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{8A6C721C-47CF-4CD8-B3C4-94C5820BAF3E}" name="range">
-      <calculatedColumnFormula>D11-C11</calculatedColumnFormula>
+      <calculatedColumnFormula>D12-C12</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{ABFBFE77-A6E1-4C95-BE51-84E166E8256E}" name="std. deviation"/>
   </tableColumns>
@@ -6969,29 +6984,29 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A16:M23" totalsRowShown="0">
-  <autoFilter ref="A16:M23" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A17:M23">
-    <sortCondition descending="1" ref="I16:I23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A18:M25" totalsRowShown="0">
+  <autoFilter ref="A18:M25" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:M25">
+    <sortCondition descending="1" ref="I18:I25"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Array" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Array" dataDxfId="76"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Min." dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Max" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Mean" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{79CB9442-024E-458A-9549-515C36441BBF}" name="Median" dataDxfId="31"/>
-    <tableColumn id="10" xr3:uid="{62394534-8A7B-46CD-B9D0-D19DC543FD75}" name="Mode" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Total score" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="(%) of correct" dataDxfId="28" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Min." dataDxfId="75"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Max" dataDxfId="74"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Mean" dataDxfId="73"/>
+    <tableColumn id="9" xr3:uid="{79CB9442-024E-458A-9549-515C36441BBF}" name="Median" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{62394534-8A7B-46CD-B9D0-D19DC543FD75}" name="Mode" dataDxfId="71"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Total score" dataDxfId="70"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="(%) of correct" dataDxfId="69" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Quartile Index">
-      <calculatedColumnFormula>IF(I17&lt;=20%,"very low",IF(I17&lt;=40%,"low",IF(I17&lt;=60%,"moderate", IF(I17&lt;=80%,"high","very high"))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(I19&lt;=20%,"very low",IF(I19&lt;=40%,"low",IF(I19&lt;=60%,"moderate", IF(I19&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{2C4E3AB9-5E3D-4332-B14B-5FBF8A1ED899}" name="Index">
-      <calculatedColumnFormula>IF(J17="very high", 5, IF(J17="high", 4, IF(J17="moderate", 3, IF(J17="low", 2, 1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J19="very high", 5, IF(J19="high", 4, IF(J19="moderate", 3, IF(J19="low", 2, 1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{90368574-0D03-49C2-A074-FBEA770D7BBA}" name="range">
-      <calculatedColumnFormula>D17-C17</calculatedColumnFormula>
+      <calculatedColumnFormula>D19-C19</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{891F7852-5BDA-4379-9499-B59A197D35B2}" name="std. deviation"/>
   </tableColumns>
@@ -7000,31 +7015,31 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table9" displayName="Table9" ref="A25:M28" totalsRowShown="0">
-  <autoFilter ref="A25:M28" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A26:M28">
-    <sortCondition descending="1" ref="I25:I28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table9" displayName="Table9" ref="A28:M31" totalsRowShown="0">
+  <autoFilter ref="A28:M31" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A29:M31">
+    <sortCondition descending="1" ref="I28:I31"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Array" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Variables" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Min." dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Max" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Mean" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{8A107FE2-A46D-4A26-9A63-E29856770F22}" name="Median" dataDxfId="22"/>
-    <tableColumn id="10" xr3:uid="{D912FF90-5BCA-4056-B458-655547D96A6C}" name="Mode" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Total score" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="(%) of correct" dataDxfId="19" dataCellStyle="Percent">
-      <calculatedColumnFormula>H26/COUNT(processed_data!A:A)/ 8</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Array" dataDxfId="68"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Variables" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Min." dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Max" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Mean" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{8A107FE2-A46D-4A26-9A63-E29856770F22}" name="Median" dataDxfId="63"/>
+    <tableColumn id="10" xr3:uid="{D912FF90-5BCA-4056-B458-655547D96A6C}" name="Mode" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Total score" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="(%) of correct" dataDxfId="60" dataCellStyle="Percent">
+      <calculatedColumnFormula>H29/COUNT(processed_data!A:A)/ 8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Quartile Index">
-      <calculatedColumnFormula>IF(I26&lt;=20%,"very low",IF(I26&lt;=40%,"low",IF(I26&lt;=60%,"moderate", IF(I26&lt;=80%,"high","very high"))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(I29&lt;=20%,"very low",IF(I29&lt;=40%,"low",IF(I29&lt;=60%,"moderate", IF(I29&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="11" xr3:uid="{CF59B4F3-5643-4BCB-B096-AFCA4A2AD2D9}" name="Index">
-      <calculatedColumnFormula>IF(J26="very high", 5, IF(J26="high", 4, IF(J26="moderate", 3, IF(J26="low", 2, 1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J29="very high", 5, IF(J29="high", 4, IF(J29="moderate", 3, IF(J29="low", 2, 1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{0AFE4245-9C45-4722-9A8A-65F472F2F284}" name="range">
-      <calculatedColumnFormula>D26-C26</calculatedColumnFormula>
+      <calculatedColumnFormula>D29-C29</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{CAA63ECB-A771-4019-8A29-21AEC59728FE}" name="std. deviation"/>
   </tableColumns>
@@ -7033,38 +7048,38 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table10" displayName="Table10" ref="A30:M31" totalsRowShown="0">
-  <autoFilter ref="A30:M31" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table10" displayName="Table10" ref="A34:M35" totalsRowShown="0">
+  <autoFilter ref="A34:M35" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Array" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Variables" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Min." dataDxfId="16">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Array" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Variables" dataDxfId="58"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Min." dataDxfId="57">
       <calculatedColumnFormula>MIN(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Max" dataDxfId="15">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Max" dataDxfId="56">
       <calculatedColumnFormula>MAX(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Mean" dataDxfId="14">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Mean" dataDxfId="55">
       <calculatedColumnFormula>AVERAGE(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B1EF64A7-5967-430C-8BE2-306885DF3C50}" name="Median" dataDxfId="13">
+    <tableColumn id="9" xr3:uid="{B1EF64A7-5967-430C-8BE2-306885DF3C50}" name="Median" dataDxfId="54">
       <calculatedColumnFormula>MEDIAN(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{08DB4703-7F26-43C2-9A14-06B119F5312B}" name="Mode" dataDxfId="12">
+    <tableColumn id="10" xr3:uid="{08DB4703-7F26-43C2-9A14-06B119F5312B}" name="Mode" dataDxfId="53">
       <calculatedColumnFormula>MODE(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Total score" dataDxfId="11">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Total score" dataDxfId="52">
       <calculatedColumnFormula>SUM(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="(%) of Interest" dataDxfId="10" dataCellStyle="Percent">
-      <calculatedColumnFormula>H31/COUNT(processed_data!A:A)/ 8</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="(%) of Interest" dataDxfId="51" dataCellStyle="Percent">
+      <calculatedColumnFormula>H35/COUNT(processed_data!A:A)/ 8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Quartile Index"/>
     <tableColumn id="11" xr3:uid="{D34FCAE7-CB10-4A37-A2CD-FF4115D904F9}" name="Index">
-      <calculatedColumnFormula>IF(J31="very high", 5, IF(J31="high", 4, IF(J31="moderate", 3, IF(J31="low", 2, 1))))</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(J35="very high", 5, IF(J35="high", 4, IF(J35="moderate", 3, IF(J35="low", 2, 1))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{CAABC0D0-41B3-4744-91C9-FAD14C11FF05}" name="range">
-      <calculatedColumnFormula>D31-C31</calculatedColumnFormula>
+      <calculatedColumnFormula>D35-C35</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="13" xr3:uid="{AD391A8C-EBF7-45B4-ADB6-01B20549634A}" name="std. deviation">
       <calculatedColumnFormula>_xlfn.STDEV.P(processed_data!BV:BV)</calculatedColumnFormula>
@@ -7397,9 +7412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:K10"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -7422,14 +7435,14 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="126" t="s">
+      <c r="L1" s="181" t="s">
         <v>533</v>
       </c>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="128"/>
+      <c r="M1" s="182"/>
+      <c r="N1" s="182"/>
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="183"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18">
@@ -7465,11 +7478,11 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="62"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="134"/>
-      <c r="Q3" s="135"/>
+      <c r="M3" s="189"/>
+      <c r="N3" s="189"/>
+      <c r="O3" s="189"/>
+      <c r="P3" s="189"/>
+      <c r="Q3" s="190"/>
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18">
@@ -7485,11 +7498,11 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="62"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
-      <c r="P4" s="134"/>
-      <c r="Q4" s="135"/>
+      <c r="M4" s="189"/>
+      <c r="N4" s="189"/>
+      <c r="O4" s="189"/>
+      <c r="P4" s="189"/>
+      <c r="Q4" s="190"/>
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1">
@@ -7504,84 +7517,84 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="132"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="132"/>
-      <c r="Q5" s="133"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="188"/>
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="213" t="s">
         <v>419</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="160" t="s">
+      <c r="B6" s="214"/>
+      <c r="C6" s="214"/>
+      <c r="D6" s="214"/>
+      <c r="E6" s="214"/>
+      <c r="F6" s="214"/>
+      <c r="G6" s="215" t="s">
         <v>418</v>
       </c>
-      <c r="H6" s="161"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="162"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="132"/>
-      <c r="P6" s="132"/>
-      <c r="Q6" s="133"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="217"/>
+      <c r="L6" s="186"/>
+      <c r="M6" s="187"/>
+      <c r="N6" s="187"/>
+      <c r="O6" s="187"/>
+      <c r="P6" s="187"/>
+      <c r="Q6" s="188"/>
       <c r="R6" s="14"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="235" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181"/>
-      <c r="E7" s="181"/>
-      <c r="F7" s="181"/>
-      <c r="G7" s="144" t="s">
+      <c r="C7" s="236"/>
+      <c r="D7" s="236"/>
+      <c r="E7" s="236"/>
+      <c r="F7" s="236"/>
+      <c r="G7" s="199" t="s">
         <v>416</v>
       </c>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="131"/>
-      <c r="M7" s="132"/>
-      <c r="N7" s="132"/>
-      <c r="O7" s="132"/>
-      <c r="P7" s="132"/>
-      <c r="Q7" s="133"/>
+      <c r="H7" s="200"/>
+      <c r="I7" s="200"/>
+      <c r="J7" s="200"/>
+      <c r="K7" s="201"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="187"/>
+      <c r="O7" s="187"/>
+      <c r="P7" s="187"/>
+      <c r="Q7" s="188"/>
       <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="204" t="s">
         <v>427</v>
       </c>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
+      <c r="C8" s="205"/>
+      <c r="D8" s="205"/>
+      <c r="E8" s="205"/>
+      <c r="F8" s="205"/>
       <c r="G8" s="25" t="s">
         <v>414</v>
       </c>
-      <c r="H8" s="151" t="s">
+      <c r="H8" s="206" t="s">
         <v>423</v>
       </c>
-      <c r="I8" s="151"/>
-      <c r="J8" s="151"/>
-      <c r="K8" s="152"/>
+      <c r="I8" s="206"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="207"/>
       <c r="L8" s="56"/>
       <c r="M8" s="57"/>
       <c r="N8" s="57"/>
@@ -7594,23 +7607,23 @@
       <c r="A9" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="168" t="str">
+      <c r="B9" s="223" t="str">
         <f>CONCATENATE("(n =", COUNT(raw_data!A:A), ")")</f>
         <v>(n =10)</v>
       </c>
-      <c r="C9" s="169"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
       <c r="G9" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="H9" s="147" t="s">
+      <c r="H9" s="202" t="s">
         <v>424</v>
       </c>
-      <c r="I9" s="147"/>
-      <c r="J9" s="147"/>
-      <c r="K9" s="148"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="202"/>
+      <c r="K9" s="203"/>
       <c r="L9" s="56"/>
       <c r="M9" s="57"/>
       <c r="N9" s="57"/>
@@ -7623,22 +7636,22 @@
       <c r="A10" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="B10" s="149" t="s">
+      <c r="B10" s="204" t="s">
         <v>427</v>
       </c>
-      <c r="C10" s="150"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="150"/>
-      <c r="F10" s="150"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
+      <c r="E10" s="205"/>
+      <c r="F10" s="205"/>
       <c r="G10" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="H10" s="172" t="s">
+      <c r="H10" s="227" t="s">
         <v>612</v>
       </c>
-      <c r="I10" s="173"/>
-      <c r="J10" s="173"/>
-      <c r="K10" s="174"/>
+      <c r="I10" s="228"/>
+      <c r="J10" s="228"/>
+      <c r="K10" s="229"/>
       <c r="L10" s="56"/>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -7651,22 +7664,22 @@
       <c r="A11" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="B11" s="170" t="s">
+      <c r="B11" s="225" t="s">
         <v>427</v>
       </c>
-      <c r="C11" s="171"/>
-      <c r="D11" s="171"/>
-      <c r="E11" s="171"/>
-      <c r="F11" s="171"/>
+      <c r="C11" s="226"/>
+      <c r="D11" s="226"/>
+      <c r="E11" s="226"/>
+      <c r="F11" s="226"/>
       <c r="G11" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="H11" s="175" t="s">
+      <c r="H11" s="230" t="s">
         <v>413</v>
       </c>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="176"/>
+      <c r="I11" s="230"/>
+      <c r="J11" s="230"/>
+      <c r="K11" s="231"/>
       <c r="L11" s="56"/>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -7676,23 +7689,23 @@
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1">
-      <c r="A12" s="182" t="s">
+      <c r="A12" s="237" t="s">
         <v>409</v>
       </c>
-      <c r="B12" s="183"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
+      <c r="B12" s="238"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="238"/>
+      <c r="E12" s="238"/>
+      <c r="F12" s="238"/>
       <c r="G12" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="H12" s="177" t="s">
+      <c r="H12" s="232" t="s">
         <v>613</v>
       </c>
-      <c r="I12" s="178"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
+      <c r="I12" s="233"/>
+      <c r="J12" s="233"/>
+      <c r="K12" s="234"/>
       <c r="L12" s="56"/>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
@@ -7702,25 +7715,25 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="218" t="s">
         <v>432</v>
       </c>
-      <c r="B13" s="164"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="166" t="s">
+      <c r="B13" s="219"/>
+      <c r="C13" s="220"/>
+      <c r="D13" s="221" t="s">
         <v>408</v>
       </c>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
       <c r="G13" s="29" t="s">
         <v>422</v>
       </c>
-      <c r="H13" s="153" t="s">
+      <c r="H13" s="208" t="s">
         <v>425</v>
       </c>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="154"/>
+      <c r="I13" s="208"/>
+      <c r="J13" s="208"/>
+      <c r="K13" s="209"/>
       <c r="L13" s="56"/>
       <c r="M13" s="57"/>
       <c r="N13" s="57"/>
@@ -7730,25 +7743,25 @@
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="A14" s="139" t="s">
+      <c r="A14" s="194" t="s">
         <v>433</v>
       </c>
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="142" t="s">
+      <c r="B14" s="195"/>
+      <c r="C14" s="196"/>
+      <c r="D14" s="197" t="s">
         <v>408</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
+      <c r="E14" s="198"/>
+      <c r="F14" s="198"/>
       <c r="G14" s="101" t="s">
         <v>431</v>
       </c>
-      <c r="H14" s="155" t="s">
+      <c r="H14" s="210" t="s">
         <v>701</v>
       </c>
-      <c r="I14" s="155"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="157"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="211"/>
+      <c r="K14" s="212"/>
       <c r="L14" s="56"/>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
@@ -7761,16 +7774,16 @@
       <c r="A15" s="102" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="136" t="s">
+      <c r="B15" s="191" t="s">
         <v>408</v>
       </c>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="137"/>
-      <c r="I15" s="138"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="193"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="59"/>
@@ -7830,10 +7843,10 @@
     </row>
     <row r="22" spans="7:18">
       <c r="G22" s="16"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
-      <c r="K22" s="130"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="185"/>
     </row>
     <row r="23" spans="7:18">
       <c r="G23" s="17"/>
@@ -7896,8 +7909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU14"/>
   <sheetViews>
-    <sheetView topLeftCell="FN1" workbookViewId="0">
-      <selection activeCell="FX12" sqref="FX12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7917,422 +7930,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="15" thickBot="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="239" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="240" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="191" t="s">
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="246" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
-      <c r="AG1" s="191"/>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="191"/>
-      <c r="AK1" s="191"/>
-      <c r="AL1" s="191"/>
-      <c r="AM1" s="191"/>
-      <c r="AN1" s="191"/>
-      <c r="AO1" s="191"/>
-      <c r="AP1" s="192"/>
-      <c r="AQ1" s="196" t="s">
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
+      <c r="T1" s="246"/>
+      <c r="U1" s="246"/>
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="246"/>
+      <c r="AA1" s="246"/>
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="246"/>
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="246"/>
+      <c r="AG1" s="246"/>
+      <c r="AH1" s="246"/>
+      <c r="AI1" s="246"/>
+      <c r="AJ1" s="246"/>
+      <c r="AK1" s="246"/>
+      <c r="AL1" s="246"/>
+      <c r="AM1" s="246"/>
+      <c r="AN1" s="246"/>
+      <c r="AO1" s="246"/>
+      <c r="AP1" s="247"/>
+      <c r="AQ1" s="251" t="s">
         <v>398</v>
       </c>
-      <c r="AR1" s="197"/>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="197"/>
-      <c r="AW1" s="197"/>
-      <c r="AX1" s="197"/>
-      <c r="AY1" s="197"/>
-      <c r="AZ1" s="197"/>
-      <c r="BA1" s="197"/>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
-      <c r="BG1" s="197"/>
-      <c r="BH1" s="197"/>
-      <c r="BI1" s="197"/>
-      <c r="BJ1" s="197"/>
-      <c r="BK1" s="197"/>
-      <c r="BL1" s="197"/>
-      <c r="BM1" s="197"/>
-      <c r="BN1" s="197"/>
-      <c r="BO1" s="197"/>
-      <c r="BP1" s="198"/>
-      <c r="BQ1" s="199" t="s">
+      <c r="AR1" s="252"/>
+      <c r="AS1" s="252"/>
+      <c r="AT1" s="252"/>
+      <c r="AU1" s="252"/>
+      <c r="AV1" s="252"/>
+      <c r="AW1" s="252"/>
+      <c r="AX1" s="252"/>
+      <c r="AY1" s="252"/>
+      <c r="AZ1" s="252"/>
+      <c r="BA1" s="252"/>
+      <c r="BB1" s="252"/>
+      <c r="BC1" s="252"/>
+      <c r="BD1" s="252"/>
+      <c r="BE1" s="252"/>
+      <c r="BF1" s="252"/>
+      <c r="BG1" s="252"/>
+      <c r="BH1" s="252"/>
+      <c r="BI1" s="252"/>
+      <c r="BJ1" s="252"/>
+      <c r="BK1" s="252"/>
+      <c r="BL1" s="252"/>
+      <c r="BM1" s="252"/>
+      <c r="BN1" s="252"/>
+      <c r="BO1" s="252"/>
+      <c r="BP1" s="253"/>
+      <c r="BQ1" s="254" t="s">
         <v>399</v>
       </c>
-      <c r="BR1" s="200"/>
-      <c r="BS1" s="200"/>
-      <c r="BT1" s="200"/>
-      <c r="BU1" s="200"/>
-      <c r="BV1" s="200"/>
-      <c r="BW1" s="200"/>
-      <c r="BX1" s="200"/>
-      <c r="BY1" s="200"/>
-      <c r="BZ1" s="200"/>
-      <c r="CA1" s="200"/>
-      <c r="CB1" s="200"/>
-      <c r="CC1" s="200"/>
-      <c r="CD1" s="200"/>
-      <c r="CE1" s="200"/>
-      <c r="CF1" s="200"/>
-      <c r="CG1" s="200"/>
-      <c r="CH1" s="200"/>
-      <c r="CI1" s="200"/>
-      <c r="CJ1" s="200"/>
-      <c r="CK1" s="200"/>
-      <c r="CL1" s="200"/>
-      <c r="CM1" s="200"/>
-      <c r="CN1" s="200"/>
-      <c r="CO1" s="200"/>
-      <c r="CP1" s="200"/>
-      <c r="CQ1" s="200"/>
-      <c r="CR1" s="200"/>
-      <c r="CS1" s="200"/>
-      <c r="CT1" s="200"/>
-      <c r="CU1" s="200"/>
-      <c r="CV1" s="200"/>
-      <c r="CW1" s="200"/>
-      <c r="CX1" s="200"/>
-      <c r="CY1" s="200"/>
-      <c r="CZ1" s="200"/>
-      <c r="DA1" s="200"/>
-      <c r="DB1" s="200"/>
-      <c r="DC1" s="200"/>
-      <c r="DD1" s="200"/>
-      <c r="DE1" s="200"/>
-      <c r="DF1" s="200"/>
-      <c r="DG1" s="200"/>
-      <c r="DH1" s="200"/>
-      <c r="DI1" s="200"/>
-      <c r="DJ1" s="200"/>
-      <c r="DK1" s="200"/>
-      <c r="DL1" s="200"/>
-      <c r="DM1" s="200"/>
-      <c r="DN1" s="200"/>
-      <c r="DO1" s="200"/>
-      <c r="DP1" s="200"/>
-      <c r="DQ1" s="200"/>
-      <c r="DR1" s="200"/>
-      <c r="DS1" s="200"/>
-      <c r="DT1" s="200"/>
-      <c r="DU1" s="200"/>
-      <c r="DV1" s="200"/>
-      <c r="DW1" s="200"/>
-      <c r="DX1" s="200"/>
-      <c r="DY1" s="200"/>
-      <c r="DZ1" s="200"/>
-      <c r="EA1" s="201"/>
-      <c r="EB1" s="202" t="s">
+      <c r="BR1" s="255"/>
+      <c r="BS1" s="255"/>
+      <c r="BT1" s="255"/>
+      <c r="BU1" s="255"/>
+      <c r="BV1" s="255"/>
+      <c r="BW1" s="255"/>
+      <c r="BX1" s="255"/>
+      <c r="BY1" s="255"/>
+      <c r="BZ1" s="255"/>
+      <c r="CA1" s="255"/>
+      <c r="CB1" s="255"/>
+      <c r="CC1" s="255"/>
+      <c r="CD1" s="255"/>
+      <c r="CE1" s="255"/>
+      <c r="CF1" s="255"/>
+      <c r="CG1" s="255"/>
+      <c r="CH1" s="255"/>
+      <c r="CI1" s="255"/>
+      <c r="CJ1" s="255"/>
+      <c r="CK1" s="255"/>
+      <c r="CL1" s="255"/>
+      <c r="CM1" s="255"/>
+      <c r="CN1" s="255"/>
+      <c r="CO1" s="255"/>
+      <c r="CP1" s="255"/>
+      <c r="CQ1" s="255"/>
+      <c r="CR1" s="255"/>
+      <c r="CS1" s="255"/>
+      <c r="CT1" s="255"/>
+      <c r="CU1" s="255"/>
+      <c r="CV1" s="255"/>
+      <c r="CW1" s="255"/>
+      <c r="CX1" s="255"/>
+      <c r="CY1" s="255"/>
+      <c r="CZ1" s="255"/>
+      <c r="DA1" s="255"/>
+      <c r="DB1" s="255"/>
+      <c r="DC1" s="255"/>
+      <c r="DD1" s="255"/>
+      <c r="DE1" s="255"/>
+      <c r="DF1" s="255"/>
+      <c r="DG1" s="255"/>
+      <c r="DH1" s="255"/>
+      <c r="DI1" s="255"/>
+      <c r="DJ1" s="255"/>
+      <c r="DK1" s="255"/>
+      <c r="DL1" s="255"/>
+      <c r="DM1" s="255"/>
+      <c r="DN1" s="255"/>
+      <c r="DO1" s="255"/>
+      <c r="DP1" s="255"/>
+      <c r="DQ1" s="255"/>
+      <c r="DR1" s="255"/>
+      <c r="DS1" s="255"/>
+      <c r="DT1" s="255"/>
+      <c r="DU1" s="255"/>
+      <c r="DV1" s="255"/>
+      <c r="DW1" s="255"/>
+      <c r="DX1" s="255"/>
+      <c r="DY1" s="255"/>
+      <c r="DZ1" s="255"/>
+      <c r="EA1" s="256"/>
+      <c r="EB1" s="257" t="s">
         <v>400</v>
       </c>
-      <c r="EC1" s="203"/>
-      <c r="ED1" s="203"/>
-      <c r="EE1" s="203"/>
-      <c r="EF1" s="203"/>
-      <c r="EG1" s="203"/>
-      <c r="EH1" s="203"/>
-      <c r="EI1" s="203"/>
-      <c r="EJ1" s="203"/>
-      <c r="EK1" s="203"/>
-      <c r="EL1" s="203"/>
-      <c r="EM1" s="203"/>
-      <c r="EN1" s="203"/>
-      <c r="EO1" s="203"/>
-      <c r="EP1" s="203"/>
-      <c r="EQ1" s="203"/>
-      <c r="ER1" s="203"/>
-      <c r="ES1" s="203"/>
-      <c r="ET1" s="203"/>
-      <c r="EU1" s="203"/>
-      <c r="EV1" s="204" t="s">
+      <c r="EC1" s="258"/>
+      <c r="ED1" s="258"/>
+      <c r="EE1" s="258"/>
+      <c r="EF1" s="258"/>
+      <c r="EG1" s="258"/>
+      <c r="EH1" s="258"/>
+      <c r="EI1" s="258"/>
+      <c r="EJ1" s="258"/>
+      <c r="EK1" s="258"/>
+      <c r="EL1" s="258"/>
+      <c r="EM1" s="258"/>
+      <c r="EN1" s="258"/>
+      <c r="EO1" s="258"/>
+      <c r="EP1" s="258"/>
+      <c r="EQ1" s="258"/>
+      <c r="ER1" s="258"/>
+      <c r="ES1" s="258"/>
+      <c r="ET1" s="258"/>
+      <c r="EU1" s="258"/>
+      <c r="EV1" s="259" t="s">
         <v>392</v>
       </c>
-      <c r="EW1" s="205"/>
-      <c r="EX1" s="205"/>
-      <c r="EY1" s="206"/>
-      <c r="EZ1" s="210" t="s">
+      <c r="EW1" s="260"/>
+      <c r="EX1" s="260"/>
+      <c r="EY1" s="261"/>
+      <c r="EZ1" s="265" t="s">
         <v>401</v>
       </c>
-      <c r="FA1" s="210"/>
-      <c r="FB1" s="210"/>
-      <c r="FC1" s="210"/>
-      <c r="FD1" s="210"/>
-      <c r="FE1" s="210"/>
-      <c r="FF1" s="210"/>
-      <c r="FG1" s="210"/>
-      <c r="FH1" s="210"/>
-      <c r="FI1" s="210"/>
-      <c r="FJ1" s="210"/>
-      <c r="FK1" s="210"/>
-      <c r="FL1" s="210"/>
-      <c r="FM1" s="210"/>
-      <c r="FN1" s="210"/>
-      <c r="FO1" s="210"/>
-      <c r="FP1" s="210"/>
-      <c r="FQ1" s="210"/>
-      <c r="FR1" s="210"/>
-      <c r="FS1" s="210"/>
-      <c r="FT1" s="210"/>
-      <c r="FU1" s="211"/>
+      <c r="FA1" s="265"/>
+      <c r="FB1" s="265"/>
+      <c r="FC1" s="265"/>
+      <c r="FD1" s="265"/>
+      <c r="FE1" s="265"/>
+      <c r="FF1" s="265"/>
+      <c r="FG1" s="265"/>
+      <c r="FH1" s="265"/>
+      <c r="FI1" s="265"/>
+      <c r="FJ1" s="265"/>
+      <c r="FK1" s="265"/>
+      <c r="FL1" s="265"/>
+      <c r="FM1" s="265"/>
+      <c r="FN1" s="265"/>
+      <c r="FO1" s="265"/>
+      <c r="FP1" s="265"/>
+      <c r="FQ1" s="265"/>
+      <c r="FR1" s="265"/>
+      <c r="FS1" s="265"/>
+      <c r="FT1" s="265"/>
+      <c r="FU1" s="266"/>
     </row>
     <row r="2" spans="1:177" ht="15" thickBot="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="194" t="s">
+      <c r="A2" s="239"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="249" t="s">
         <v>368</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="193" t="s">
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="248" t="s">
         <v>369</v>
       </c>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="193" t="s">
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="250"/>
+      <c r="X2" s="248" t="s">
         <v>370</v>
       </c>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="193" t="s">
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="249"/>
+      <c r="AA2" s="249"/>
+      <c r="AB2" s="250"/>
+      <c r="AC2" s="248" t="s">
         <v>371</v>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="194"/>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="194"/>
-      <c r="AM2" s="194"/>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="194"/>
-      <c r="AP2" s="195"/>
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="249"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="249"/>
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="249"/>
+      <c r="AL2" s="249"/>
+      <c r="AM2" s="249"/>
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="249"/>
+      <c r="AP2" s="250"/>
       <c r="AQ2" s="9" t="s">
         <v>378</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AS2" s="193" t="s">
+      <c r="AS2" s="248" t="s">
         <v>380</v>
       </c>
-      <c r="AT2" s="194"/>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="194"/>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="194"/>
-      <c r="BB2" s="194"/>
-      <c r="BC2" s="194"/>
-      <c r="BD2" s="195"/>
-      <c r="BE2" s="193" t="s">
+      <c r="AT2" s="249"/>
+      <c r="AU2" s="249"/>
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="249"/>
+      <c r="AX2" s="249"/>
+      <c r="AY2" s="249"/>
+      <c r="AZ2" s="249"/>
+      <c r="BA2" s="249"/>
+      <c r="BB2" s="249"/>
+      <c r="BC2" s="249"/>
+      <c r="BD2" s="250"/>
+      <c r="BE2" s="248" t="s">
         <v>381</v>
       </c>
-      <c r="BF2" s="194"/>
-      <c r="BG2" s="194"/>
-      <c r="BH2" s="194"/>
-      <c r="BI2" s="194"/>
-      <c r="BJ2" s="194"/>
-      <c r="BK2" s="194"/>
-      <c r="BL2" s="194"/>
-      <c r="BM2" s="194"/>
-      <c r="BN2" s="194"/>
-      <c r="BO2" s="194"/>
-      <c r="BP2" s="195"/>
-      <c r="BQ2" s="193" t="s">
+      <c r="BF2" s="249"/>
+      <c r="BG2" s="249"/>
+      <c r="BH2" s="249"/>
+      <c r="BI2" s="249"/>
+      <c r="BJ2" s="249"/>
+      <c r="BK2" s="249"/>
+      <c r="BL2" s="249"/>
+      <c r="BM2" s="249"/>
+      <c r="BN2" s="249"/>
+      <c r="BO2" s="249"/>
+      <c r="BP2" s="250"/>
+      <c r="BQ2" s="248" t="s">
         <v>382</v>
       </c>
-      <c r="BR2" s="194"/>
-      <c r="BS2" s="194"/>
-      <c r="BT2" s="194"/>
-      <c r="BU2" s="194"/>
-      <c r="BV2" s="194"/>
-      <c r="BW2" s="194"/>
-      <c r="BX2" s="194"/>
-      <c r="BY2" s="194"/>
-      <c r="BZ2" s="194"/>
-      <c r="CA2" s="194"/>
-      <c r="CB2" s="194"/>
-      <c r="CC2" s="194"/>
-      <c r="CD2" s="194"/>
-      <c r="CE2" s="194"/>
-      <c r="CF2" s="194"/>
-      <c r="CG2" s="194"/>
-      <c r="CH2" s="194"/>
-      <c r="CI2" s="194"/>
-      <c r="CJ2" s="195"/>
-      <c r="CK2" s="193" t="s">
+      <c r="BR2" s="249"/>
+      <c r="BS2" s="249"/>
+      <c r="BT2" s="249"/>
+      <c r="BU2" s="249"/>
+      <c r="BV2" s="249"/>
+      <c r="BW2" s="249"/>
+      <c r="BX2" s="249"/>
+      <c r="BY2" s="249"/>
+      <c r="BZ2" s="249"/>
+      <c r="CA2" s="249"/>
+      <c r="CB2" s="249"/>
+      <c r="CC2" s="249"/>
+      <c r="CD2" s="249"/>
+      <c r="CE2" s="249"/>
+      <c r="CF2" s="249"/>
+      <c r="CG2" s="249"/>
+      <c r="CH2" s="249"/>
+      <c r="CI2" s="249"/>
+      <c r="CJ2" s="250"/>
+      <c r="CK2" s="248" t="s">
         <v>383</v>
       </c>
-      <c r="CL2" s="194"/>
-      <c r="CM2" s="194"/>
-      <c r="CN2" s="195"/>
-      <c r="CO2" s="193" t="s">
+      <c r="CL2" s="249"/>
+      <c r="CM2" s="249"/>
+      <c r="CN2" s="250"/>
+      <c r="CO2" s="248" t="s">
         <v>384</v>
       </c>
-      <c r="CP2" s="194"/>
-      <c r="CQ2" s="194"/>
-      <c r="CR2" s="194"/>
-      <c r="CS2" s="194"/>
-      <c r="CT2" s="194"/>
-      <c r="CU2" s="194"/>
-      <c r="CV2" s="194"/>
-      <c r="CW2" s="194"/>
-      <c r="CX2" s="194"/>
-      <c r="CY2" s="194"/>
-      <c r="CZ2" s="195"/>
-      <c r="DA2" s="193" t="s">
+      <c r="CP2" s="249"/>
+      <c r="CQ2" s="249"/>
+      <c r="CR2" s="249"/>
+      <c r="CS2" s="249"/>
+      <c r="CT2" s="249"/>
+      <c r="CU2" s="249"/>
+      <c r="CV2" s="249"/>
+      <c r="CW2" s="249"/>
+      <c r="CX2" s="249"/>
+      <c r="CY2" s="249"/>
+      <c r="CZ2" s="250"/>
+      <c r="DA2" s="248" t="s">
         <v>385</v>
       </c>
-      <c r="DB2" s="194"/>
-      <c r="DC2" s="194"/>
-      <c r="DD2" s="194"/>
-      <c r="DE2" s="194"/>
-      <c r="DF2" s="195"/>
-      <c r="DG2" s="193" t="s">
+      <c r="DB2" s="249"/>
+      <c r="DC2" s="249"/>
+      <c r="DD2" s="249"/>
+      <c r="DE2" s="249"/>
+      <c r="DF2" s="250"/>
+      <c r="DG2" s="248" t="s">
         <v>386</v>
       </c>
-      <c r="DH2" s="194"/>
-      <c r="DI2" s="194"/>
-      <c r="DJ2" s="194"/>
-      <c r="DK2" s="194"/>
-      <c r="DL2" s="194"/>
-      <c r="DM2" s="194"/>
-      <c r="DN2" s="194"/>
-      <c r="DO2" s="194"/>
-      <c r="DP2" s="194"/>
-      <c r="DQ2" s="194"/>
-      <c r="DR2" s="195"/>
-      <c r="DS2" s="193" t="s">
+      <c r="DH2" s="249"/>
+      <c r="DI2" s="249"/>
+      <c r="DJ2" s="249"/>
+      <c r="DK2" s="249"/>
+      <c r="DL2" s="249"/>
+      <c r="DM2" s="249"/>
+      <c r="DN2" s="249"/>
+      <c r="DO2" s="249"/>
+      <c r="DP2" s="249"/>
+      <c r="DQ2" s="249"/>
+      <c r="DR2" s="250"/>
+      <c r="DS2" s="248" t="s">
         <v>387</v>
       </c>
-      <c r="DT2" s="194"/>
-      <c r="DU2" s="194"/>
-      <c r="DV2" s="194"/>
-      <c r="DW2" s="194"/>
-      <c r="DX2" s="194"/>
-      <c r="DY2" s="194"/>
-      <c r="DZ2" s="195"/>
+      <c r="DT2" s="249"/>
+      <c r="DU2" s="249"/>
+      <c r="DV2" s="249"/>
+      <c r="DW2" s="249"/>
+      <c r="DX2" s="249"/>
+      <c r="DY2" s="249"/>
+      <c r="DZ2" s="250"/>
       <c r="EA2" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="EB2" s="193" t="s">
+      <c r="EB2" s="248" t="s">
         <v>390</v>
       </c>
-      <c r="EC2" s="194"/>
-      <c r="ED2" s="194"/>
-      <c r="EE2" s="194"/>
-      <c r="EF2" s="194"/>
-      <c r="EG2" s="195"/>
-      <c r="EH2" s="193" t="s">
+      <c r="EC2" s="249"/>
+      <c r="ED2" s="249"/>
+      <c r="EE2" s="249"/>
+      <c r="EF2" s="249"/>
+      <c r="EG2" s="250"/>
+      <c r="EH2" s="248" t="s">
         <v>389</v>
       </c>
-      <c r="EI2" s="194"/>
-      <c r="EJ2" s="194"/>
-      <c r="EK2" s="194"/>
-      <c r="EL2" s="194"/>
-      <c r="EM2" s="194"/>
-      <c r="EN2" s="194"/>
-      <c r="EO2" s="194"/>
-      <c r="EP2" s="194"/>
-      <c r="EQ2" s="194"/>
-      <c r="ER2" s="195"/>
-      <c r="ES2" s="193" t="s">
+      <c r="EI2" s="249"/>
+      <c r="EJ2" s="249"/>
+      <c r="EK2" s="249"/>
+      <c r="EL2" s="249"/>
+      <c r="EM2" s="249"/>
+      <c r="EN2" s="249"/>
+      <c r="EO2" s="249"/>
+      <c r="EP2" s="249"/>
+      <c r="EQ2" s="249"/>
+      <c r="ER2" s="250"/>
+      <c r="ES2" s="248" t="s">
         <v>391</v>
       </c>
-      <c r="ET2" s="194"/>
-      <c r="EU2" s="194"/>
-      <c r="EV2" s="207"/>
-      <c r="EW2" s="208"/>
-      <c r="EX2" s="208"/>
-      <c r="EY2" s="209"/>
-      <c r="EZ2" s="194" t="s">
+      <c r="ET2" s="249"/>
+      <c r="EU2" s="249"/>
+      <c r="EV2" s="262"/>
+      <c r="EW2" s="263"/>
+      <c r="EX2" s="263"/>
+      <c r="EY2" s="264"/>
+      <c r="EZ2" s="249" t="s">
         <v>393</v>
       </c>
-      <c r="FA2" s="194"/>
-      <c r="FB2" s="194"/>
-      <c r="FC2" s="194"/>
-      <c r="FD2" s="194"/>
-      <c r="FE2" s="195"/>
-      <c r="FF2" s="193" t="s">
+      <c r="FA2" s="249"/>
+      <c r="FB2" s="249"/>
+      <c r="FC2" s="249"/>
+      <c r="FD2" s="249"/>
+      <c r="FE2" s="250"/>
+      <c r="FF2" s="248" t="s">
         <v>702</v>
       </c>
-      <c r="FG2" s="194"/>
-      <c r="FH2" s="194"/>
-      <c r="FI2" s="194"/>
-      <c r="FJ2" s="194"/>
-      <c r="FK2" s="195"/>
+      <c r="FG2" s="249"/>
+      <c r="FH2" s="249"/>
+      <c r="FI2" s="249"/>
+      <c r="FJ2" s="249"/>
+      <c r="FK2" s="250"/>
       <c r="FL2" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="FM2" s="193" t="s">
+      <c r="FM2" s="248" t="s">
         <v>396</v>
       </c>
-      <c r="FN2" s="194"/>
-      <c r="FO2" s="194"/>
-      <c r="FP2" s="194"/>
-      <c r="FQ2" s="194"/>
-      <c r="FR2" s="194"/>
-      <c r="FS2" s="194"/>
-      <c r="FT2" s="194"/>
-      <c r="FU2" s="195"/>
+      <c r="FN2" s="249"/>
+      <c r="FO2" s="249"/>
+      <c r="FP2" s="249"/>
+      <c r="FQ2" s="249"/>
+      <c r="FR2" s="249"/>
+      <c r="FS2" s="249"/>
+      <c r="FT2" s="249"/>
+      <c r="FU2" s="250"/>
     </row>
     <row r="3" spans="1:177">
       <c r="A3" s="1" t="s">
@@ -14242,8 +14255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:GC13"/>
   <sheetViews>
-    <sheetView topLeftCell="FO1" workbookViewId="0">
-      <selection activeCell="FT5" sqref="FT5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -14258,422 +14271,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:185" ht="15" thickBot="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="239" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="185" t="s">
+      <c r="B1" s="240" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="191" t="s">
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="242"/>
+      <c r="K1" s="246" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
-      <c r="AG1" s="191"/>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="191"/>
-      <c r="AJ1" s="191"/>
-      <c r="AK1" s="191"/>
-      <c r="AL1" s="191"/>
-      <c r="AM1" s="191"/>
-      <c r="AN1" s="191"/>
-      <c r="AO1" s="191"/>
-      <c r="AP1" s="192"/>
-      <c r="AQ1" s="196" t="s">
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
+      <c r="R1" s="246"/>
+      <c r="S1" s="246"/>
+      <c r="T1" s="246"/>
+      <c r="U1" s="246"/>
+      <c r="V1" s="246"/>
+      <c r="W1" s="246"/>
+      <c r="X1" s="246"/>
+      <c r="Y1" s="246"/>
+      <c r="Z1" s="246"/>
+      <c r="AA1" s="246"/>
+      <c r="AB1" s="246"/>
+      <c r="AC1" s="246"/>
+      <c r="AD1" s="246"/>
+      <c r="AE1" s="246"/>
+      <c r="AF1" s="246"/>
+      <c r="AG1" s="246"/>
+      <c r="AH1" s="246"/>
+      <c r="AI1" s="246"/>
+      <c r="AJ1" s="246"/>
+      <c r="AK1" s="246"/>
+      <c r="AL1" s="246"/>
+      <c r="AM1" s="246"/>
+      <c r="AN1" s="246"/>
+      <c r="AO1" s="246"/>
+      <c r="AP1" s="247"/>
+      <c r="AQ1" s="251" t="s">
         <v>398</v>
       </c>
-      <c r="AR1" s="197"/>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="197"/>
-      <c r="AW1" s="197"/>
-      <c r="AX1" s="197"/>
-      <c r="AY1" s="197"/>
-      <c r="AZ1" s="197"/>
-      <c r="BA1" s="197"/>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
-      <c r="BG1" s="197"/>
-      <c r="BH1" s="197"/>
-      <c r="BI1" s="197"/>
-      <c r="BJ1" s="197"/>
-      <c r="BK1" s="197"/>
-      <c r="BL1" s="197"/>
-      <c r="BM1" s="197"/>
-      <c r="BN1" s="197"/>
-      <c r="BO1" s="197"/>
-      <c r="BP1" s="198"/>
-      <c r="BQ1" s="199" t="s">
+      <c r="AR1" s="252"/>
+      <c r="AS1" s="252"/>
+      <c r="AT1" s="252"/>
+      <c r="AU1" s="252"/>
+      <c r="AV1" s="252"/>
+      <c r="AW1" s="252"/>
+      <c r="AX1" s="252"/>
+      <c r="AY1" s="252"/>
+      <c r="AZ1" s="252"/>
+      <c r="BA1" s="252"/>
+      <c r="BB1" s="252"/>
+      <c r="BC1" s="252"/>
+      <c r="BD1" s="252"/>
+      <c r="BE1" s="252"/>
+      <c r="BF1" s="252"/>
+      <c r="BG1" s="252"/>
+      <c r="BH1" s="252"/>
+      <c r="BI1" s="252"/>
+      <c r="BJ1" s="252"/>
+      <c r="BK1" s="252"/>
+      <c r="BL1" s="252"/>
+      <c r="BM1" s="252"/>
+      <c r="BN1" s="252"/>
+      <c r="BO1" s="252"/>
+      <c r="BP1" s="253"/>
+      <c r="BQ1" s="254" t="s">
         <v>399</v>
       </c>
-      <c r="BR1" s="200"/>
-      <c r="BS1" s="200"/>
-      <c r="BT1" s="200"/>
-      <c r="BU1" s="200"/>
-      <c r="BV1" s="200"/>
-      <c r="BW1" s="200"/>
-      <c r="BX1" s="200"/>
-      <c r="BY1" s="200"/>
-      <c r="BZ1" s="200"/>
-      <c r="CA1" s="200"/>
-      <c r="CB1" s="200"/>
-      <c r="CC1" s="200"/>
-      <c r="CD1" s="200"/>
-      <c r="CE1" s="200"/>
-      <c r="CF1" s="200"/>
-      <c r="CG1" s="200"/>
-      <c r="CH1" s="200"/>
-      <c r="CI1" s="200"/>
-      <c r="CJ1" s="200"/>
-      <c r="CK1" s="200"/>
-      <c r="CL1" s="200"/>
-      <c r="CM1" s="200"/>
-      <c r="CN1" s="200"/>
-      <c r="CO1" s="200"/>
-      <c r="CP1" s="200"/>
-      <c r="CQ1" s="200"/>
-      <c r="CR1" s="200"/>
-      <c r="CS1" s="200"/>
-      <c r="CT1" s="200"/>
-      <c r="CU1" s="200"/>
-      <c r="CV1" s="200"/>
-      <c r="CW1" s="200"/>
-      <c r="CX1" s="200"/>
-      <c r="CY1" s="200"/>
-      <c r="CZ1" s="200"/>
-      <c r="DA1" s="200"/>
-      <c r="DB1" s="200"/>
-      <c r="DC1" s="200"/>
-      <c r="DD1" s="200"/>
-      <c r="DE1" s="200"/>
-      <c r="DF1" s="200"/>
-      <c r="DG1" s="200"/>
-      <c r="DH1" s="200"/>
-      <c r="DI1" s="200"/>
-      <c r="DJ1" s="200"/>
-      <c r="DK1" s="200"/>
-      <c r="DL1" s="200"/>
-      <c r="DM1" s="200"/>
-      <c r="DN1" s="200"/>
-      <c r="DO1" s="200"/>
-      <c r="DP1" s="200"/>
-      <c r="DQ1" s="200"/>
-      <c r="DR1" s="200"/>
-      <c r="DS1" s="200"/>
-      <c r="DT1" s="200"/>
-      <c r="DU1" s="200"/>
-      <c r="DV1" s="200"/>
-      <c r="DW1" s="200"/>
-      <c r="DX1" s="200"/>
-      <c r="DY1" s="200"/>
-      <c r="DZ1" s="200"/>
-      <c r="EA1" s="201"/>
-      <c r="EB1" s="202" t="s">
+      <c r="BR1" s="255"/>
+      <c r="BS1" s="255"/>
+      <c r="BT1" s="255"/>
+      <c r="BU1" s="255"/>
+      <c r="BV1" s="255"/>
+      <c r="BW1" s="255"/>
+      <c r="BX1" s="255"/>
+      <c r="BY1" s="255"/>
+      <c r="BZ1" s="255"/>
+      <c r="CA1" s="255"/>
+      <c r="CB1" s="255"/>
+      <c r="CC1" s="255"/>
+      <c r="CD1" s="255"/>
+      <c r="CE1" s="255"/>
+      <c r="CF1" s="255"/>
+      <c r="CG1" s="255"/>
+      <c r="CH1" s="255"/>
+      <c r="CI1" s="255"/>
+      <c r="CJ1" s="255"/>
+      <c r="CK1" s="255"/>
+      <c r="CL1" s="255"/>
+      <c r="CM1" s="255"/>
+      <c r="CN1" s="255"/>
+      <c r="CO1" s="255"/>
+      <c r="CP1" s="255"/>
+      <c r="CQ1" s="255"/>
+      <c r="CR1" s="255"/>
+      <c r="CS1" s="255"/>
+      <c r="CT1" s="255"/>
+      <c r="CU1" s="255"/>
+      <c r="CV1" s="255"/>
+      <c r="CW1" s="255"/>
+      <c r="CX1" s="255"/>
+      <c r="CY1" s="255"/>
+      <c r="CZ1" s="255"/>
+      <c r="DA1" s="255"/>
+      <c r="DB1" s="255"/>
+      <c r="DC1" s="255"/>
+      <c r="DD1" s="255"/>
+      <c r="DE1" s="255"/>
+      <c r="DF1" s="255"/>
+      <c r="DG1" s="255"/>
+      <c r="DH1" s="255"/>
+      <c r="DI1" s="255"/>
+      <c r="DJ1" s="255"/>
+      <c r="DK1" s="255"/>
+      <c r="DL1" s="255"/>
+      <c r="DM1" s="255"/>
+      <c r="DN1" s="255"/>
+      <c r="DO1" s="255"/>
+      <c r="DP1" s="255"/>
+      <c r="DQ1" s="255"/>
+      <c r="DR1" s="255"/>
+      <c r="DS1" s="255"/>
+      <c r="DT1" s="255"/>
+      <c r="DU1" s="255"/>
+      <c r="DV1" s="255"/>
+      <c r="DW1" s="255"/>
+      <c r="DX1" s="255"/>
+      <c r="DY1" s="255"/>
+      <c r="DZ1" s="255"/>
+      <c r="EA1" s="256"/>
+      <c r="EB1" s="257" t="s">
         <v>400</v>
       </c>
-      <c r="EC1" s="203"/>
-      <c r="ED1" s="203"/>
-      <c r="EE1" s="203"/>
-      <c r="EF1" s="203"/>
-      <c r="EG1" s="203"/>
-      <c r="EH1" s="203"/>
-      <c r="EI1" s="203"/>
-      <c r="EJ1" s="203"/>
-      <c r="EK1" s="203"/>
-      <c r="EL1" s="203"/>
-      <c r="EM1" s="203"/>
-      <c r="EN1" s="203"/>
-      <c r="EO1" s="203"/>
-      <c r="EP1" s="203"/>
-      <c r="EQ1" s="203"/>
-      <c r="ER1" s="203"/>
-      <c r="ES1" s="203"/>
-      <c r="ET1" s="203"/>
-      <c r="EU1" s="203"/>
-      <c r="EV1" s="204" t="s">
+      <c r="EC1" s="258"/>
+      <c r="ED1" s="258"/>
+      <c r="EE1" s="258"/>
+      <c r="EF1" s="258"/>
+      <c r="EG1" s="258"/>
+      <c r="EH1" s="258"/>
+      <c r="EI1" s="258"/>
+      <c r="EJ1" s="258"/>
+      <c r="EK1" s="258"/>
+      <c r="EL1" s="258"/>
+      <c r="EM1" s="258"/>
+      <c r="EN1" s="258"/>
+      <c r="EO1" s="258"/>
+      <c r="EP1" s="258"/>
+      <c r="EQ1" s="258"/>
+      <c r="ER1" s="258"/>
+      <c r="ES1" s="258"/>
+      <c r="ET1" s="258"/>
+      <c r="EU1" s="258"/>
+      <c r="EV1" s="259" t="s">
         <v>392</v>
       </c>
-      <c r="EW1" s="205"/>
-      <c r="EX1" s="205"/>
-      <c r="EY1" s="206"/>
-      <c r="EZ1" s="210" t="s">
+      <c r="EW1" s="260"/>
+      <c r="EX1" s="260"/>
+      <c r="EY1" s="261"/>
+      <c r="EZ1" s="265" t="s">
         <v>401</v>
       </c>
-      <c r="FA1" s="210"/>
-      <c r="FB1" s="210"/>
-      <c r="FC1" s="210"/>
-      <c r="FD1" s="210"/>
-      <c r="FE1" s="210"/>
-      <c r="FF1" s="210"/>
-      <c r="FG1" s="210"/>
-      <c r="FH1" s="210"/>
-      <c r="FI1" s="210"/>
-      <c r="FJ1" s="210"/>
-      <c r="FK1" s="210"/>
-      <c r="FL1" s="210"/>
-      <c r="FM1" s="210"/>
-      <c r="FN1" s="210"/>
-      <c r="FO1" s="210"/>
-      <c r="FP1" s="210"/>
-      <c r="FQ1" s="210"/>
-      <c r="FR1" s="210"/>
-      <c r="FS1" s="210"/>
-      <c r="FT1" s="210"/>
-      <c r="FU1" s="211"/>
+      <c r="FA1" s="265"/>
+      <c r="FB1" s="265"/>
+      <c r="FC1" s="265"/>
+      <c r="FD1" s="265"/>
+      <c r="FE1" s="265"/>
+      <c r="FF1" s="265"/>
+      <c r="FG1" s="265"/>
+      <c r="FH1" s="265"/>
+      <c r="FI1" s="265"/>
+      <c r="FJ1" s="265"/>
+      <c r="FK1" s="265"/>
+      <c r="FL1" s="265"/>
+      <c r="FM1" s="265"/>
+      <c r="FN1" s="265"/>
+      <c r="FO1" s="265"/>
+      <c r="FP1" s="265"/>
+      <c r="FQ1" s="265"/>
+      <c r="FR1" s="265"/>
+      <c r="FS1" s="265"/>
+      <c r="FT1" s="265"/>
+      <c r="FU1" s="266"/>
     </row>
     <row r="2" spans="1:185" ht="15" thickBot="1">
-      <c r="A2" s="184"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="194" t="s">
+      <c r="A2" s="239"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="245"/>
+      <c r="K2" s="249" t="s">
         <v>368</v>
       </c>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="195"/>
-      <c r="P2" s="193" t="s">
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="249"/>
+      <c r="O2" s="250"/>
+      <c r="P2" s="248" t="s">
         <v>369</v>
       </c>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="194"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="194"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="193" t="s">
+      <c r="Q2" s="249"/>
+      <c r="R2" s="249"/>
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="249"/>
+      <c r="W2" s="250"/>
+      <c r="X2" s="248" t="s">
         <v>370</v>
       </c>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="194"/>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="195"/>
-      <c r="AC2" s="193" t="s">
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="249"/>
+      <c r="AA2" s="249"/>
+      <c r="AB2" s="250"/>
+      <c r="AC2" s="248" t="s">
         <v>371</v>
       </c>
-      <c r="AD2" s="194"/>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="194"/>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="194"/>
-      <c r="AM2" s="194"/>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="194"/>
-      <c r="AP2" s="195"/>
+      <c r="AD2" s="249"/>
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="249"/>
+      <c r="AH2" s="249"/>
+      <c r="AI2" s="249"/>
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="249"/>
+      <c r="AL2" s="249"/>
+      <c r="AM2" s="249"/>
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="249"/>
+      <c r="AP2" s="250"/>
       <c r="AQ2" s="9" t="s">
         <v>378</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AS2" s="193" t="s">
+      <c r="AS2" s="248" t="s">
         <v>380</v>
       </c>
-      <c r="AT2" s="194"/>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="194"/>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="194"/>
-      <c r="BB2" s="194"/>
-      <c r="BC2" s="194"/>
-      <c r="BD2" s="195"/>
-      <c r="BE2" s="193" t="s">
+      <c r="AT2" s="249"/>
+      <c r="AU2" s="249"/>
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="249"/>
+      <c r="AX2" s="249"/>
+      <c r="AY2" s="249"/>
+      <c r="AZ2" s="249"/>
+      <c r="BA2" s="249"/>
+      <c r="BB2" s="249"/>
+      <c r="BC2" s="249"/>
+      <c r="BD2" s="250"/>
+      <c r="BE2" s="248" t="s">
         <v>381</v>
       </c>
-      <c r="BF2" s="194"/>
-      <c r="BG2" s="194"/>
-      <c r="BH2" s="194"/>
-      <c r="BI2" s="194"/>
-      <c r="BJ2" s="194"/>
-      <c r="BK2" s="194"/>
-      <c r="BL2" s="194"/>
-      <c r="BM2" s="194"/>
-      <c r="BN2" s="194"/>
-      <c r="BO2" s="194"/>
-      <c r="BP2" s="195"/>
-      <c r="BQ2" s="193" t="s">
+      <c r="BF2" s="249"/>
+      <c r="BG2" s="249"/>
+      <c r="BH2" s="249"/>
+      <c r="BI2" s="249"/>
+      <c r="BJ2" s="249"/>
+      <c r="BK2" s="249"/>
+      <c r="BL2" s="249"/>
+      <c r="BM2" s="249"/>
+      <c r="BN2" s="249"/>
+      <c r="BO2" s="249"/>
+      <c r="BP2" s="250"/>
+      <c r="BQ2" s="248" t="s">
         <v>382</v>
       </c>
-      <c r="BR2" s="194"/>
-      <c r="BS2" s="194"/>
-      <c r="BT2" s="194"/>
-      <c r="BU2" s="194"/>
-      <c r="BV2" s="194"/>
-      <c r="BW2" s="194"/>
-      <c r="BX2" s="194"/>
-      <c r="BY2" s="194"/>
-      <c r="BZ2" s="194"/>
-      <c r="CA2" s="194"/>
-      <c r="CB2" s="194"/>
-      <c r="CC2" s="194"/>
-      <c r="CD2" s="194"/>
-      <c r="CE2" s="194"/>
-      <c r="CF2" s="194"/>
-      <c r="CG2" s="194"/>
-      <c r="CH2" s="194"/>
-      <c r="CI2" s="194"/>
-      <c r="CJ2" s="195"/>
-      <c r="CK2" s="193" t="s">
+      <c r="BR2" s="249"/>
+      <c r="BS2" s="249"/>
+      <c r="BT2" s="249"/>
+      <c r="BU2" s="249"/>
+      <c r="BV2" s="249"/>
+      <c r="BW2" s="249"/>
+      <c r="BX2" s="249"/>
+      <c r="BY2" s="249"/>
+      <c r="BZ2" s="249"/>
+      <c r="CA2" s="249"/>
+      <c r="CB2" s="249"/>
+      <c r="CC2" s="249"/>
+      <c r="CD2" s="249"/>
+      <c r="CE2" s="249"/>
+      <c r="CF2" s="249"/>
+      <c r="CG2" s="249"/>
+      <c r="CH2" s="249"/>
+      <c r="CI2" s="249"/>
+      <c r="CJ2" s="250"/>
+      <c r="CK2" s="248" t="s">
         <v>383</v>
       </c>
-      <c r="CL2" s="194"/>
-      <c r="CM2" s="194"/>
-      <c r="CN2" s="195"/>
-      <c r="CO2" s="193" t="s">
+      <c r="CL2" s="249"/>
+      <c r="CM2" s="249"/>
+      <c r="CN2" s="250"/>
+      <c r="CO2" s="248" t="s">
         <v>384</v>
       </c>
-      <c r="CP2" s="194"/>
-      <c r="CQ2" s="194"/>
-      <c r="CR2" s="194"/>
-      <c r="CS2" s="194"/>
-      <c r="CT2" s="194"/>
-      <c r="CU2" s="194"/>
-      <c r="CV2" s="194"/>
-      <c r="CW2" s="194"/>
-      <c r="CX2" s="194"/>
-      <c r="CY2" s="194"/>
-      <c r="CZ2" s="195"/>
-      <c r="DA2" s="193" t="s">
+      <c r="CP2" s="249"/>
+      <c r="CQ2" s="249"/>
+      <c r="CR2" s="249"/>
+      <c r="CS2" s="249"/>
+      <c r="CT2" s="249"/>
+      <c r="CU2" s="249"/>
+      <c r="CV2" s="249"/>
+      <c r="CW2" s="249"/>
+      <c r="CX2" s="249"/>
+      <c r="CY2" s="249"/>
+      <c r="CZ2" s="250"/>
+      <c r="DA2" s="248" t="s">
         <v>385</v>
       </c>
-      <c r="DB2" s="194"/>
-      <c r="DC2" s="194"/>
-      <c r="DD2" s="194"/>
-      <c r="DE2" s="194"/>
-      <c r="DF2" s="195"/>
-      <c r="DG2" s="193" t="s">
+      <c r="DB2" s="249"/>
+      <c r="DC2" s="249"/>
+      <c r="DD2" s="249"/>
+      <c r="DE2" s="249"/>
+      <c r="DF2" s="250"/>
+      <c r="DG2" s="248" t="s">
         <v>386</v>
       </c>
-      <c r="DH2" s="194"/>
-      <c r="DI2" s="194"/>
-      <c r="DJ2" s="194"/>
-      <c r="DK2" s="194"/>
-      <c r="DL2" s="194"/>
-      <c r="DM2" s="194"/>
-      <c r="DN2" s="194"/>
-      <c r="DO2" s="194"/>
-      <c r="DP2" s="194"/>
-      <c r="DQ2" s="194"/>
-      <c r="DR2" s="195"/>
-      <c r="DS2" s="193" t="s">
+      <c r="DH2" s="249"/>
+      <c r="DI2" s="249"/>
+      <c r="DJ2" s="249"/>
+      <c r="DK2" s="249"/>
+      <c r="DL2" s="249"/>
+      <c r="DM2" s="249"/>
+      <c r="DN2" s="249"/>
+      <c r="DO2" s="249"/>
+      <c r="DP2" s="249"/>
+      <c r="DQ2" s="249"/>
+      <c r="DR2" s="250"/>
+      <c r="DS2" s="248" t="s">
         <v>387</v>
       </c>
-      <c r="DT2" s="194"/>
-      <c r="DU2" s="194"/>
-      <c r="DV2" s="194"/>
-      <c r="DW2" s="194"/>
-      <c r="DX2" s="194"/>
-      <c r="DY2" s="194"/>
-      <c r="DZ2" s="195"/>
+      <c r="DT2" s="249"/>
+      <c r="DU2" s="249"/>
+      <c r="DV2" s="249"/>
+      <c r="DW2" s="249"/>
+      <c r="DX2" s="249"/>
+      <c r="DY2" s="249"/>
+      <c r="DZ2" s="250"/>
       <c r="EA2" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="EB2" s="193" t="s">
+      <c r="EB2" s="248" t="s">
         <v>390</v>
       </c>
-      <c r="EC2" s="194"/>
-      <c r="ED2" s="194"/>
-      <c r="EE2" s="194"/>
-      <c r="EF2" s="194"/>
-      <c r="EG2" s="195"/>
-      <c r="EH2" s="193" t="s">
+      <c r="EC2" s="249"/>
+      <c r="ED2" s="249"/>
+      <c r="EE2" s="249"/>
+      <c r="EF2" s="249"/>
+      <c r="EG2" s="250"/>
+      <c r="EH2" s="248" t="s">
         <v>389</v>
       </c>
-      <c r="EI2" s="194"/>
-      <c r="EJ2" s="194"/>
-      <c r="EK2" s="194"/>
-      <c r="EL2" s="194"/>
-      <c r="EM2" s="194"/>
-      <c r="EN2" s="194"/>
-      <c r="EO2" s="194"/>
-      <c r="EP2" s="194"/>
-      <c r="EQ2" s="194"/>
-      <c r="ER2" s="195"/>
-      <c r="ES2" s="193" t="s">
+      <c r="EI2" s="249"/>
+      <c r="EJ2" s="249"/>
+      <c r="EK2" s="249"/>
+      <c r="EL2" s="249"/>
+      <c r="EM2" s="249"/>
+      <c r="EN2" s="249"/>
+      <c r="EO2" s="249"/>
+      <c r="EP2" s="249"/>
+      <c r="EQ2" s="249"/>
+      <c r="ER2" s="250"/>
+      <c r="ES2" s="248" t="s">
         <v>391</v>
       </c>
-      <c r="ET2" s="194"/>
-      <c r="EU2" s="194"/>
-      <c r="EV2" s="207"/>
-      <c r="EW2" s="208"/>
-      <c r="EX2" s="208"/>
-      <c r="EY2" s="209"/>
-      <c r="EZ2" s="194" t="s">
+      <c r="ET2" s="249"/>
+      <c r="EU2" s="249"/>
+      <c r="EV2" s="262"/>
+      <c r="EW2" s="263"/>
+      <c r="EX2" s="263"/>
+      <c r="EY2" s="264"/>
+      <c r="EZ2" s="249" t="s">
         <v>393</v>
       </c>
-      <c r="FA2" s="194"/>
-      <c r="FB2" s="194"/>
-      <c r="FC2" s="194"/>
-      <c r="FD2" s="194"/>
-      <c r="FE2" s="195"/>
-      <c r="FF2" s="193" t="s">
+      <c r="FA2" s="249"/>
+      <c r="FB2" s="249"/>
+      <c r="FC2" s="249"/>
+      <c r="FD2" s="249"/>
+      <c r="FE2" s="250"/>
+      <c r="FF2" s="248" t="s">
         <v>394</v>
       </c>
-      <c r="FG2" s="194"/>
-      <c r="FH2" s="194"/>
-      <c r="FI2" s="194"/>
-      <c r="FJ2" s="194"/>
-      <c r="FK2" s="195"/>
+      <c r="FG2" s="249"/>
+      <c r="FH2" s="249"/>
+      <c r="FI2" s="249"/>
+      <c r="FJ2" s="249"/>
+      <c r="FK2" s="250"/>
       <c r="FL2" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="FM2" s="193" t="s">
+      <c r="FM2" s="248" t="s">
         <v>396</v>
       </c>
-      <c r="FN2" s="194"/>
-      <c r="FO2" s="194"/>
-      <c r="FP2" s="194"/>
-      <c r="FQ2" s="194"/>
-      <c r="FR2" s="194"/>
-      <c r="FS2" s="194"/>
-      <c r="FT2" s="194"/>
-      <c r="FU2" s="195"/>
+      <c r="FN2" s="249"/>
+      <c r="FO2" s="249"/>
+      <c r="FP2" s="249"/>
+      <c r="FQ2" s="249"/>
+      <c r="FR2" s="249"/>
+      <c r="FS2" s="249"/>
+      <c r="FT2" s="249"/>
+      <c r="FU2" s="250"/>
     </row>
     <row r="3" spans="1:185">
       <c r="A3" s="1" t="s">
@@ -22347,7 +22360,7 @@
   <dimension ref="A1:BY14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BZ3" sqref="BZ1:BZ1048576"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -22415,210 +22428,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" thickBot="1">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="239" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="217" t="s">
+      <c r="B1" s="272" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="218"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
-      <c r="P1" s="218"/>
-      <c r="Q1" s="218"/>
-      <c r="R1" s="219" t="s">
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="274" t="s">
         <v>406</v>
       </c>
-      <c r="S1" s="220"/>
-      <c r="T1" s="220"/>
-      <c r="U1" s="220"/>
-      <c r="V1" s="220"/>
-      <c r="W1" s="220"/>
-      <c r="X1" s="220"/>
-      <c r="Y1" s="220"/>
-      <c r="Z1" s="220"/>
-      <c r="AA1" s="220"/>
-      <c r="AB1" s="220"/>
-      <c r="AC1" s="220"/>
-      <c r="AD1" s="220"/>
-      <c r="AE1" s="220"/>
-      <c r="AF1" s="220"/>
-      <c r="AG1" s="220"/>
-      <c r="AH1" s="221" t="s">
+      <c r="S1" s="275"/>
+      <c r="T1" s="275"/>
+      <c r="U1" s="275"/>
+      <c r="V1" s="275"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="275"/>
+      <c r="AE1" s="275"/>
+      <c r="AF1" s="275"/>
+      <c r="AG1" s="275"/>
+      <c r="AH1" s="276" t="s">
         <v>399</v>
       </c>
-      <c r="AI1" s="222"/>
-      <c r="AJ1" s="222"/>
-      <c r="AK1" s="222"/>
-      <c r="AL1" s="222"/>
-      <c r="AM1" s="222"/>
-      <c r="AN1" s="222"/>
-      <c r="AO1" s="222"/>
-      <c r="AP1" s="222"/>
-      <c r="AQ1" s="222"/>
-      <c r="AR1" s="222"/>
-      <c r="AS1" s="222"/>
-      <c r="AT1" s="222"/>
-      <c r="AU1" s="222"/>
-      <c r="AV1" s="222"/>
-      <c r="AW1" s="222"/>
-      <c r="AX1" s="222"/>
-      <c r="AY1" s="222"/>
-      <c r="AZ1" s="222"/>
-      <c r="BA1" s="222"/>
-      <c r="BB1" s="222"/>
-      <c r="BC1" s="222"/>
-      <c r="BD1" s="222"/>
-      <c r="BE1" s="222"/>
-      <c r="BF1" s="222"/>
-      <c r="BG1" s="222"/>
-      <c r="BH1" s="222"/>
-      <c r="BI1" s="222"/>
-      <c r="BJ1" s="223" t="s">
+      <c r="AI1" s="277"/>
+      <c r="AJ1" s="277"/>
+      <c r="AK1" s="277"/>
+      <c r="AL1" s="277"/>
+      <c r="AM1" s="277"/>
+      <c r="AN1" s="277"/>
+      <c r="AO1" s="277"/>
+      <c r="AP1" s="277"/>
+      <c r="AQ1" s="277"/>
+      <c r="AR1" s="277"/>
+      <c r="AS1" s="277"/>
+      <c r="AT1" s="277"/>
+      <c r="AU1" s="277"/>
+      <c r="AV1" s="277"/>
+      <c r="AW1" s="277"/>
+      <c r="AX1" s="277"/>
+      <c r="AY1" s="277"/>
+      <c r="AZ1" s="277"/>
+      <c r="BA1" s="277"/>
+      <c r="BB1" s="277"/>
+      <c r="BC1" s="277"/>
+      <c r="BD1" s="277"/>
+      <c r="BE1" s="277"/>
+      <c r="BF1" s="277"/>
+      <c r="BG1" s="277"/>
+      <c r="BH1" s="277"/>
+      <c r="BI1" s="277"/>
+      <c r="BJ1" s="278" t="s">
         <v>407</v>
       </c>
-      <c r="BK1" s="224"/>
-      <c r="BL1" s="224"/>
-      <c r="BM1" s="224"/>
-      <c r="BN1" s="224"/>
-      <c r="BO1" s="224"/>
-      <c r="BP1" s="224"/>
-      <c r="BQ1" s="224"/>
-      <c r="BR1" s="224"/>
-      <c r="BS1" s="224"/>
-      <c r="BT1" s="224"/>
-      <c r="BU1" s="224"/>
-      <c r="BV1" s="213" t="s">
+      <c r="BK1" s="279"/>
+      <c r="BL1" s="279"/>
+      <c r="BM1" s="279"/>
+      <c r="BN1" s="279"/>
+      <c r="BO1" s="279"/>
+      <c r="BP1" s="279"/>
+      <c r="BQ1" s="279"/>
+      <c r="BR1" s="279"/>
+      <c r="BS1" s="279"/>
+      <c r="BT1" s="279"/>
+      <c r="BU1" s="279"/>
+      <c r="BV1" s="268" t="s">
         <v>392</v>
       </c>
-      <c r="BW1" s="214"/>
-      <c r="BX1" s="214"/>
-      <c r="BY1" s="214"/>
+      <c r="BW1" s="269"/>
+      <c r="BX1" s="269"/>
+      <c r="BY1" s="269"/>
     </row>
     <row r="2" spans="1:77" ht="15" thickBot="1">
-      <c r="A2" s="212"/>
-      <c r="B2" s="193" t="s">
+      <c r="A2" s="267"/>
+      <c r="B2" s="248" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="193" t="s">
+      <c r="C2" s="249"/>
+      <c r="D2" s="249"/>
+      <c r="E2" s="249"/>
+      <c r="F2" s="248" t="s">
         <v>375</v>
       </c>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="193" t="s">
+      <c r="G2" s="249"/>
+      <c r="H2" s="249"/>
+      <c r="I2" s="249"/>
+      <c r="J2" s="248" t="s">
         <v>376</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-      <c r="N2" s="193" t="s">
+      <c r="K2" s="249"/>
+      <c r="L2" s="249"/>
+      <c r="M2" s="249"/>
+      <c r="N2" s="248" t="s">
         <v>377</v>
       </c>
-      <c r="O2" s="194"/>
-      <c r="P2" s="194"/>
-      <c r="Q2" s="194"/>
-      <c r="R2" s="193" t="s">
+      <c r="O2" s="249"/>
+      <c r="P2" s="249"/>
+      <c r="Q2" s="249"/>
+      <c r="R2" s="248" t="s">
         <v>378</v>
       </c>
-      <c r="S2" s="194"/>
-      <c r="T2" s="194"/>
-      <c r="U2" s="194"/>
-      <c r="V2" s="193" t="s">
+      <c r="S2" s="249"/>
+      <c r="T2" s="249"/>
+      <c r="U2" s="249"/>
+      <c r="V2" s="248" t="s">
         <v>379</v>
       </c>
-      <c r="W2" s="194"/>
-      <c r="X2" s="194"/>
-      <c r="Y2" s="194"/>
-      <c r="Z2" s="193" t="s">
+      <c r="W2" s="249"/>
+      <c r="X2" s="249"/>
+      <c r="Y2" s="249"/>
+      <c r="Z2" s="248" t="s">
         <v>380</v>
       </c>
-      <c r="AA2" s="194"/>
-      <c r="AB2" s="194"/>
-      <c r="AC2" s="194"/>
-      <c r="AD2" s="193" t="s">
+      <c r="AA2" s="249"/>
+      <c r="AB2" s="249"/>
+      <c r="AC2" s="249"/>
+      <c r="AD2" s="248" t="s">
         <v>381</v>
       </c>
-      <c r="AE2" s="194"/>
-      <c r="AF2" s="194"/>
-      <c r="AG2" s="194"/>
-      <c r="AH2" s="193" t="s">
+      <c r="AE2" s="249"/>
+      <c r="AF2" s="249"/>
+      <c r="AG2" s="249"/>
+      <c r="AH2" s="248" t="s">
         <v>382</v>
       </c>
-      <c r="AI2" s="194"/>
-      <c r="AJ2" s="194"/>
-      <c r="AK2" s="194"/>
-      <c r="AL2" s="193" t="s">
+      <c r="AI2" s="249"/>
+      <c r="AJ2" s="249"/>
+      <c r="AK2" s="249"/>
+      <c r="AL2" s="248" t="s">
         <v>383</v>
       </c>
-      <c r="AM2" s="194"/>
-      <c r="AN2" s="194"/>
-      <c r="AO2" s="194"/>
-      <c r="AP2" s="193" t="s">
+      <c r="AM2" s="249"/>
+      <c r="AN2" s="249"/>
+      <c r="AO2" s="249"/>
+      <c r="AP2" s="248" t="s">
         <v>402</v>
       </c>
-      <c r="AQ2" s="194"/>
-      <c r="AR2" s="194"/>
-      <c r="AS2" s="194"/>
-      <c r="AT2" s="193" t="s">
+      <c r="AQ2" s="249"/>
+      <c r="AR2" s="249"/>
+      <c r="AS2" s="249"/>
+      <c r="AT2" s="248" t="s">
         <v>385</v>
       </c>
-      <c r="AU2" s="194"/>
-      <c r="AV2" s="194"/>
-      <c r="AW2" s="194"/>
-      <c r="AX2" s="193" t="s">
+      <c r="AU2" s="249"/>
+      <c r="AV2" s="249"/>
+      <c r="AW2" s="249"/>
+      <c r="AX2" s="248" t="s">
         <v>386</v>
       </c>
-      <c r="AY2" s="194"/>
-      <c r="AZ2" s="194"/>
-      <c r="BA2" s="194"/>
-      <c r="BB2" s="193" t="s">
+      <c r="AY2" s="249"/>
+      <c r="AZ2" s="249"/>
+      <c r="BA2" s="249"/>
+      <c r="BB2" s="248" t="s">
         <v>387</v>
       </c>
-      <c r="BC2" s="194"/>
-      <c r="BD2" s="194"/>
-      <c r="BE2" s="194"/>
-      <c r="BF2" s="193" t="s">
+      <c r="BC2" s="249"/>
+      <c r="BD2" s="249"/>
+      <c r="BE2" s="249"/>
+      <c r="BF2" s="248" t="s">
         <v>388</v>
       </c>
-      <c r="BG2" s="194"/>
-      <c r="BH2" s="194"/>
-      <c r="BI2" s="194"/>
-      <c r="BJ2" s="193" t="s">
+      <c r="BG2" s="249"/>
+      <c r="BH2" s="249"/>
+      <c r="BI2" s="249"/>
+      <c r="BJ2" s="248" t="s">
         <v>403</v>
       </c>
-      <c r="BK2" s="194"/>
-      <c r="BL2" s="194"/>
-      <c r="BM2" s="194"/>
-      <c r="BN2" s="193" t="s">
+      <c r="BK2" s="249"/>
+      <c r="BL2" s="249"/>
+      <c r="BM2" s="249"/>
+      <c r="BN2" s="248" t="s">
         <v>404</v>
       </c>
-      <c r="BO2" s="194"/>
-      <c r="BP2" s="194"/>
-      <c r="BQ2" s="194"/>
-      <c r="BR2" s="193" t="s">
+      <c r="BO2" s="249"/>
+      <c r="BP2" s="249"/>
+      <c r="BQ2" s="249"/>
+      <c r="BR2" s="248" t="s">
         <v>405</v>
       </c>
-      <c r="BS2" s="194"/>
-      <c r="BT2" s="194"/>
-      <c r="BU2" s="194"/>
-      <c r="BV2" s="215"/>
-      <c r="BW2" s="216"/>
-      <c r="BX2" s="216"/>
-      <c r="BY2" s="216"/>
+      <c r="BS2" s="249"/>
+      <c r="BT2" s="249"/>
+      <c r="BU2" s="249"/>
+      <c r="BV2" s="270"/>
+      <c r="BW2" s="271"/>
+      <c r="BX2" s="271"/>
+      <c r="BY2" s="271"/>
     </row>
     <row r="3" spans="1:77" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
@@ -25984,8 +25997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BH41"/>
   <sheetViews>
-    <sheetView topLeftCell="AY1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BK19" sqref="BK19"/>
+    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -26049,130 +26062,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="15.75" customHeight="1">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="324" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="271"/>
-      <c r="F1" s="239" t="s">
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="326"/>
+      <c r="F1" s="294" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="241"/>
-      <c r="M1" s="245" t="s">
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="296"/>
+      <c r="M1" s="300" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="246"/>
-      <c r="O1" s="246"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
-      <c r="S1" s="246"/>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="247"/>
-      <c r="Y1" s="251" t="s">
+      <c r="N1" s="301"/>
+      <c r="O1" s="301"/>
+      <c r="P1" s="301"/>
+      <c r="Q1" s="301"/>
+      <c r="R1" s="301"/>
+      <c r="S1" s="301"/>
+      <c r="T1" s="301"/>
+      <c r="U1" s="301"/>
+      <c r="V1" s="301"/>
+      <c r="W1" s="302"/>
+      <c r="Y1" s="306" t="s">
         <v>322</v>
       </c>
-      <c r="Z1" s="252"/>
-      <c r="AA1" s="252"/>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="252"/>
-      <c r="AD1" s="253"/>
-      <c r="AF1" s="263" t="s">
+      <c r="Z1" s="307"/>
+      <c r="AA1" s="307"/>
+      <c r="AB1" s="307"/>
+      <c r="AC1" s="307"/>
+      <c r="AD1" s="308"/>
+      <c r="AF1" s="318" t="s">
         <v>643</v>
       </c>
-      <c r="AG1" s="264"/>
-      <c r="AH1" s="264"/>
-      <c r="AI1" s="264"/>
-      <c r="AJ1" s="264"/>
-      <c r="AK1" s="265"/>
-      <c r="AM1" s="257" t="s">
+      <c r="AG1" s="319"/>
+      <c r="AH1" s="319"/>
+      <c r="AI1" s="319"/>
+      <c r="AJ1" s="319"/>
+      <c r="AK1" s="320"/>
+      <c r="AM1" s="312" t="s">
         <v>392</v>
       </c>
-      <c r="AN1" s="258"/>
-      <c r="AO1" s="258"/>
-      <c r="AP1" s="258"/>
-      <c r="AQ1" s="258"/>
-      <c r="AR1" s="259"/>
-      <c r="AT1" s="230" t="s">
+      <c r="AN1" s="313"/>
+      <c r="AO1" s="313"/>
+      <c r="AP1" s="313"/>
+      <c r="AQ1" s="313"/>
+      <c r="AR1" s="314"/>
+      <c r="AT1" s="285" t="s">
         <v>654</v>
       </c>
-      <c r="AU1" s="231"/>
-      <c r="AV1" s="231"/>
-      <c r="AW1" s="231"/>
-      <c r="AX1" s="231"/>
-      <c r="AY1" s="231"/>
-      <c r="AZ1" s="231"/>
-      <c r="BA1" s="231"/>
-      <c r="BB1" s="231"/>
-      <c r="BC1" s="231"/>
-      <c r="BD1" s="231"/>
-      <c r="BE1" s="231"/>
-      <c r="BF1" s="231"/>
-      <c r="BG1" s="231"/>
-      <c r="BH1" s="232"/>
+      <c r="AU1" s="286"/>
+      <c r="AV1" s="286"/>
+      <c r="AW1" s="286"/>
+      <c r="AX1" s="286"/>
+      <c r="AY1" s="286"/>
+      <c r="AZ1" s="286"/>
+      <c r="BA1" s="286"/>
+      <c r="BB1" s="286"/>
+      <c r="BC1" s="286"/>
+      <c r="BD1" s="286"/>
+      <c r="BE1" s="286"/>
+      <c r="BF1" s="286"/>
+      <c r="BG1" s="286"/>
+      <c r="BH1" s="287"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="272"/>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="274"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="243"/>
-      <c r="H2" s="243"/>
-      <c r="I2" s="243"/>
-      <c r="J2" s="243"/>
-      <c r="K2" s="244"/>
-      <c r="M2" s="248"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="250"/>
-      <c r="Y2" s="254"/>
-      <c r="Z2" s="255"/>
-      <c r="AA2" s="255"/>
-      <c r="AB2" s="255"/>
-      <c r="AC2" s="255"/>
-      <c r="AD2" s="256"/>
-      <c r="AF2" s="266"/>
-      <c r="AG2" s="267"/>
-      <c r="AH2" s="267"/>
-      <c r="AI2" s="267"/>
-      <c r="AJ2" s="267"/>
-      <c r="AK2" s="268"/>
-      <c r="AM2" s="260"/>
-      <c r="AN2" s="261"/>
-      <c r="AO2" s="261"/>
-      <c r="AP2" s="261"/>
-      <c r="AQ2" s="261"/>
-      <c r="AR2" s="262"/>
-      <c r="AT2" s="233"/>
-      <c r="AU2" s="234"/>
-      <c r="AV2" s="234"/>
-      <c r="AW2" s="234"/>
-      <c r="AX2" s="234"/>
-      <c r="AY2" s="234"/>
-      <c r="AZ2" s="234"/>
-      <c r="BA2" s="234"/>
-      <c r="BB2" s="234"/>
-      <c r="BC2" s="234"/>
-      <c r="BD2" s="234"/>
-      <c r="BE2" s="234"/>
-      <c r="BF2" s="234"/>
-      <c r="BG2" s="234"/>
-      <c r="BH2" s="235"/>
+      <c r="A2" s="327"/>
+      <c r="B2" s="328"/>
+      <c r="C2" s="328"/>
+      <c r="D2" s="329"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="298"/>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="299"/>
+      <c r="M2" s="303"/>
+      <c r="N2" s="304"/>
+      <c r="O2" s="304"/>
+      <c r="P2" s="304"/>
+      <c r="Q2" s="304"/>
+      <c r="R2" s="304"/>
+      <c r="S2" s="304"/>
+      <c r="T2" s="304"/>
+      <c r="U2" s="304"/>
+      <c r="V2" s="304"/>
+      <c r="W2" s="305"/>
+      <c r="Y2" s="309"/>
+      <c r="Z2" s="310"/>
+      <c r="AA2" s="310"/>
+      <c r="AB2" s="310"/>
+      <c r="AC2" s="310"/>
+      <c r="AD2" s="311"/>
+      <c r="AF2" s="321"/>
+      <c r="AG2" s="322"/>
+      <c r="AH2" s="322"/>
+      <c r="AI2" s="322"/>
+      <c r="AJ2" s="322"/>
+      <c r="AK2" s="323"/>
+      <c r="AM2" s="315"/>
+      <c r="AN2" s="316"/>
+      <c r="AO2" s="316"/>
+      <c r="AP2" s="316"/>
+      <c r="AQ2" s="316"/>
+      <c r="AR2" s="317"/>
+      <c r="AT2" s="288"/>
+      <c r="AU2" s="289"/>
+      <c r="AV2" s="289"/>
+      <c r="AW2" s="289"/>
+      <c r="AX2" s="289"/>
+      <c r="AY2" s="289"/>
+      <c r="AZ2" s="289"/>
+      <c r="BA2" s="289"/>
+      <c r="BB2" s="289"/>
+      <c r="BC2" s="289"/>
+      <c r="BD2" s="289"/>
+      <c r="BE2" s="289"/>
+      <c r="BF2" s="289"/>
+      <c r="BG2" s="289"/>
+      <c r="BH2" s="290"/>
     </row>
     <row r="3" spans="1:60" ht="15" thickBot="1">
       <c r="A3" s="48" t="s">
@@ -26292,28 +26305,28 @@
       <c r="AR3" t="s">
         <v>458</v>
       </c>
-      <c r="AT3" s="225" t="s">
+      <c r="AT3" s="280" t="s">
         <v>651</v>
       </c>
-      <c r="AU3" s="227"/>
-      <c r="AV3" s="227"/>
-      <c r="AW3" s="227"/>
-      <c r="AX3" s="227"/>
-      <c r="AY3" s="227"/>
-      <c r="AZ3" s="226"/>
-      <c r="BB3" s="225" t="s">
+      <c r="AU3" s="282"/>
+      <c r="AV3" s="282"/>
+      <c r="AW3" s="282"/>
+      <c r="AX3" s="282"/>
+      <c r="AY3" s="282"/>
+      <c r="AZ3" s="281"/>
+      <c r="BB3" s="280" t="s">
         <v>679</v>
       </c>
-      <c r="BC3" s="226"/>
-      <c r="BE3" s="225" t="s">
+      <c r="BC3" s="281"/>
+      <c r="BE3" s="280" t="s">
         <v>685</v>
       </c>
-      <c r="BF3" s="227"/>
-      <c r="BG3" s="227"/>
-      <c r="BH3" s="226"/>
+      <c r="BF3" s="282"/>
+      <c r="BG3" s="282"/>
+      <c r="BH3" s="281"/>
     </row>
     <row r="4" spans="1:60" ht="15" customHeight="1">
-      <c r="A4" s="275" t="s">
+      <c r="A4" s="330" t="s">
         <v>454</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -26456,19 +26469,19 @@
         <f>IF(AP4&lt;20%,"very low",IF(AP4&lt;40%,"low",IF(AP4&lt;60%,"moderate",IF(AP4&lt;80%,"high","very high"))))</f>
         <v>high</v>
       </c>
-      <c r="AT4" s="238" t="s">
+      <c r="AT4" s="293" t="s">
         <v>647</v>
       </c>
-      <c r="AU4" s="236" t="s">
+      <c r="AU4" s="291" t="s">
         <v>652</v>
       </c>
-      <c r="AV4" s="236"/>
-      <c r="AW4" s="236"/>
-      <c r="AX4" s="236" t="s">
+      <c r="AV4" s="291"/>
+      <c r="AW4" s="291"/>
+      <c r="AX4" s="291" t="s">
         <v>653</v>
       </c>
-      <c r="AY4" s="236"/>
-      <c r="AZ4" s="237"/>
+      <c r="AY4" s="291"/>
+      <c r="AZ4" s="292"/>
       <c r="BB4" s="24" t="s">
         <v>286</v>
       </c>
@@ -26490,7 +26503,7 @@
       </c>
     </row>
     <row r="5" spans="1:60">
-      <c r="A5" s="277"/>
+      <c r="A5" s="332"/>
       <c r="B5" s="5" t="s">
         <v>327</v>
       </c>
@@ -26631,7 +26644,7 @@
         <f>IF(AP5&lt;20%,"very low",IF(AP5&lt;40%,"low",IF(AP5&lt;60%,"moderate",IF(AP5&lt;80%,"high","very high"))))</f>
         <v>moderate</v>
       </c>
-      <c r="AT5" s="238"/>
+      <c r="AT5" s="293"/>
       <c r="AU5" s="5" t="s">
         <v>648</v>
       </c>
@@ -26674,7 +26687,7 @@
       </c>
     </row>
     <row r="6" spans="1:60">
-      <c r="A6" s="277"/>
+      <c r="A6" s="332"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -26866,7 +26879,7 @@
       </c>
     </row>
     <row r="7" spans="1:60">
-      <c r="A7" s="277"/>
+      <c r="A7" s="332"/>
       <c r="B7" s="5" t="s">
         <v>328</v>
       </c>
@@ -27036,7 +27049,7 @@
       </c>
     </row>
     <row r="8" spans="1:60" ht="15" thickBot="1">
-      <c r="A8" s="277"/>
+      <c r="A8" s="332"/>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -27206,7 +27219,7 @@
       </c>
     </row>
     <row r="9" spans="1:60" ht="15" thickBot="1">
-      <c r="A9" s="277"/>
+      <c r="A9" s="332"/>
       <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
@@ -27352,10 +27365,10 @@
         <f>COUNTIF(raw_data!FH:FH, AT9)</f>
         <v>0</v>
       </c>
-      <c r="BB9" s="228" t="s">
+      <c r="BB9" s="283" t="s">
         <v>680</v>
       </c>
-      <c r="BC9" s="229"/>
+      <c r="BC9" s="284"/>
       <c r="BE9" s="87" t="s">
         <v>689</v>
       </c>
@@ -27373,7 +27386,7 @@
       </c>
     </row>
     <row r="10" spans="1:60">
-      <c r="A10" s="277"/>
+      <c r="A10" s="332"/>
       <c r="B10" s="5" t="s">
         <v>329</v>
       </c>
@@ -27543,7 +27556,7 @@
       </c>
     </row>
     <row r="11" spans="1:60">
-      <c r="A11" s="276"/>
+      <c r="A11" s="331"/>
       <c r="B11" s="34" t="s">
         <v>330</v>
       </c>
@@ -27713,7 +27726,7 @@
       </c>
     </row>
     <row r="12" spans="1:60" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="275" t="s">
+      <c r="A12" s="330" t="s">
         <v>339</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -27885,7 +27898,7 @@
       </c>
     </row>
     <row r="13" spans="1:60" ht="15" thickBot="1">
-      <c r="A13" s="277"/>
+      <c r="A13" s="332"/>
       <c r="B13" s="5" t="s">
         <v>331</v>
       </c>
@@ -28004,15 +28017,15 @@
         <f t="shared" si="7"/>
         <v>low</v>
       </c>
-      <c r="AT13" s="228" t="s">
+      <c r="AT13" s="283" t="s">
         <v>681</v>
       </c>
-      <c r="AU13" s="194"/>
-      <c r="AV13" s="194"/>
-      <c r="AW13" s="194"/>
-      <c r="AX13" s="194"/>
-      <c r="AY13" s="194"/>
-      <c r="AZ13" s="195"/>
+      <c r="AU13" s="249"/>
+      <c r="AV13" s="249"/>
+      <c r="AW13" s="249"/>
+      <c r="AX13" s="249"/>
+      <c r="AY13" s="249"/>
+      <c r="AZ13" s="250"/>
       <c r="BB13" s="24" t="s">
         <v>297</v>
       </c>
@@ -28037,7 +28050,7 @@
       </c>
     </row>
     <row r="14" spans="1:60" ht="15" thickBot="1">
-      <c r="A14" s="277"/>
+      <c r="A14" s="332"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -28156,19 +28169,19 @@
         <f t="shared" si="7"/>
         <v>very low</v>
       </c>
-      <c r="AT14" s="238" t="s">
+      <c r="AT14" s="293" t="s">
         <v>655</v>
       </c>
-      <c r="AU14" s="236" t="s">
+      <c r="AU14" s="291" t="s">
         <v>652</v>
       </c>
-      <c r="AV14" s="236"/>
-      <c r="AW14" s="236"/>
-      <c r="AX14" s="236" t="s">
+      <c r="AV14" s="291"/>
+      <c r="AW14" s="291"/>
+      <c r="AX14" s="291" t="s">
         <v>653</v>
       </c>
-      <c r="AY14" s="236"/>
-      <c r="AZ14" s="237"/>
+      <c r="AY14" s="291"/>
+      <c r="AZ14" s="292"/>
       <c r="BB14" s="82" t="s">
         <v>684</v>
       </c>
@@ -28193,7 +28206,7 @@
       </c>
     </row>
     <row r="15" spans="1:60" ht="15" thickBot="1">
-      <c r="A15" s="277"/>
+      <c r="A15" s="332"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -28312,7 +28325,7 @@
         <f t="shared" si="7"/>
         <v>very low</v>
       </c>
-      <c r="AT15" s="238"/>
+      <c r="AT15" s="293"/>
       <c r="AU15" s="5" t="s">
         <v>648</v>
       </c>
@@ -28344,7 +28357,7 @@
       <c r="BG15" s="3"/>
     </row>
     <row r="16" spans="1:60">
-      <c r="A16" s="276"/>
+      <c r="A16" s="331"/>
       <c r="B16" s="34" t="s">
         <v>332</v>
       </c>
@@ -28620,7 +28633,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1">
-      <c r="A18" s="275" t="s">
+      <c r="A18" s="330" t="s">
         <v>437</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -28748,7 +28761,7 @@
       </c>
     </row>
     <row r="19" spans="1:52" ht="15" thickBot="1">
-      <c r="A19" s="277"/>
+      <c r="A19" s="332"/>
       <c r="B19" s="5" t="s">
         <v>334</v>
       </c>
@@ -28874,7 +28887,7 @@
       </c>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="277"/>
+      <c r="A20" s="332"/>
       <c r="B20" s="5" t="s">
         <v>335</v>
       </c>
@@ -28973,7 +28986,7 @@
       </c>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="277"/>
+      <c r="A21" s="332"/>
       <c r="B21" s="5" t="s">
         <v>336</v>
       </c>
@@ -29050,7 +29063,7 @@
       </c>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="276"/>
+      <c r="A22" s="331"/>
       <c r="B22" s="34" t="s">
         <v>337</v>
       </c>
@@ -29105,7 +29118,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" ht="15" customHeight="1">
-      <c r="A23" s="275" t="s">
+      <c r="A23" s="330" t="s">
         <v>438</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -29162,7 +29175,7 @@
       </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="277"/>
+      <c r="A24" s="332"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -29217,7 +29230,7 @@
       </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="276"/>
+      <c r="A25" s="331"/>
       <c r="B25" s="34" t="s">
         <v>18</v>
       </c>
@@ -29272,7 +29285,7 @@
       </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="278" t="s">
+      <c r="A26" s="333" t="s">
         <v>439</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -29329,7 +29342,7 @@
       </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="279"/>
+      <c r="A27" s="334"/>
       <c r="B27" s="40" t="s">
         <v>436</v>
       </c>
@@ -29384,7 +29397,7 @@
       </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="280"/>
+      <c r="A28" s="335"/>
       <c r="B28" s="41" t="s">
         <v>435</v>
       </c>
@@ -29439,7 +29452,7 @@
       </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="275" t="s">
+      <c r="A29" s="330" t="s">
         <v>440</v>
       </c>
       <c r="B29" s="42" t="s">
@@ -29455,7 +29468,7 @@
       <c r="T29" s="30"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="277"/>
+      <c r="A30" s="332"/>
       <c r="B30" s="40" t="s">
         <v>442</v>
       </c>
@@ -29468,7 +29481,7 @@
       </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="277"/>
+      <c r="A31" s="332"/>
       <c r="B31" s="40" t="s">
         <v>443</v>
       </c>
@@ -29481,7 +29494,7 @@
       </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="277"/>
+      <c r="A32" s="332"/>
       <c r="B32" s="40" t="s">
         <v>445</v>
       </c>
@@ -29494,7 +29507,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="277"/>
+      <c r="A33" s="332"/>
       <c r="B33" s="40" t="s">
         <v>444</v>
       </c>
@@ -29507,7 +29520,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="277"/>
+      <c r="A34" s="332"/>
       <c r="B34" s="40" t="s">
         <v>446</v>
       </c>
@@ -29520,7 +29533,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="276"/>
+      <c r="A35" s="331"/>
       <c r="B35" s="41" t="s">
         <v>447</v>
       </c>
@@ -29533,7 +29546,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="275" t="s">
+      <c r="A36" s="330" t="s">
         <v>448</v>
       </c>
       <c r="B36" s="42" t="s">
@@ -29548,7 +29561,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="277"/>
+      <c r="A37" s="332"/>
       <c r="B37" s="40" t="s">
         <v>450</v>
       </c>
@@ -29561,7 +29574,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="276"/>
+      <c r="A38" s="331"/>
       <c r="B38" s="41" t="s">
         <v>447</v>
       </c>
@@ -29574,7 +29587,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="275" t="s">
+      <c r="A39" s="330" t="s">
         <v>451</v>
       </c>
       <c r="B39" s="42" t="s">
@@ -29589,7 +29602,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="276"/>
+      <c r="A40" s="331"/>
       <c r="B40" s="41" t="s">
         <v>453</v>
       </c>
@@ -29676,82 +29689,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:S4">
-    <cfRule type="top10" dxfId="106" priority="60" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="42" priority="60" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:S5">
-    <cfRule type="top10" dxfId="105" priority="59" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="41" priority="59" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:S6">
-    <cfRule type="top10" dxfId="104" priority="58" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="40" priority="58" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:S7">
-    <cfRule type="top10" dxfId="103" priority="57" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="39" priority="57" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:S8">
-    <cfRule type="top10" dxfId="102" priority="56" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="38" priority="56" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:S9">
-    <cfRule type="top10" dxfId="101" priority="55" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="37" priority="55" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:S10">
-    <cfRule type="top10" dxfId="100" priority="54" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="36" priority="54" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:S11">
-    <cfRule type="top10" dxfId="99" priority="53" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="35" priority="53" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:S12">
-    <cfRule type="top10" dxfId="98" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="34" priority="52" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:S13">
-    <cfRule type="top10" dxfId="97" priority="51" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="33" priority="51" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:S14">
-    <cfRule type="top10" dxfId="96" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="32" priority="50" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:S15">
-    <cfRule type="top10" dxfId="95" priority="49" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="31" priority="49" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:S16">
-    <cfRule type="top10" dxfId="94" priority="48" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="30" priority="48" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:S17">
-    <cfRule type="top10" dxfId="93" priority="47" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="29" priority="47" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:S18">
-    <cfRule type="top10" dxfId="92" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="28" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:S19">
-    <cfRule type="top10" dxfId="91" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="27" priority="45" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:S20">
-    <cfRule type="top10" dxfId="90" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="26" priority="44" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:S21">
-    <cfRule type="top10" dxfId="89" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="25" priority="43" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:S22">
-    <cfRule type="top10" dxfId="88" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="24" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:S23">
-    <cfRule type="top10" dxfId="87" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="23" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:S24">
-    <cfRule type="top10" dxfId="86" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="22" priority="40" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:S25">
-    <cfRule type="top10" dxfId="85" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="21" priority="39" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:S26">
-    <cfRule type="top10" dxfId="84" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="20" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:S27">
-    <cfRule type="top10" dxfId="83" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="19" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:S28">
-    <cfRule type="top10" dxfId="82" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="18" priority="36" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:S29">
-    <cfRule type="top10" dxfId="81" priority="35" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="17" priority="35" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V28">
     <cfRule type="colorScale" priority="33">
@@ -29870,37 +29883,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU6:AU12 AV11:AW11">
-    <cfRule type="top10" dxfId="80" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="16" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AV10 AV12">
-    <cfRule type="top10" dxfId="79" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW6:AW10 AW12">
-    <cfRule type="top10" dxfId="78" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX6:AZ12">
-    <cfRule type="top10" dxfId="77" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU16:AW19">
-    <cfRule type="top10" dxfId="76" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV16:AV19">
-    <cfRule type="top10" dxfId="75" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW16:AW19">
-    <cfRule type="top10" dxfId="74" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:AZ19">
-    <cfRule type="top10" dxfId="73" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:AZ19">
-    <cfRule type="top10" dxfId="72" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:AX19">
-    <cfRule type="top10" dxfId="71" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ16:AZ19">
-    <cfRule type="top10" dxfId="70" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BC8">
     <cfRule type="dataBar" priority="10">
@@ -29931,16 +29944,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF14 BH14">
-    <cfRule type="top10" dxfId="69" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BH13">
-    <cfRule type="top10" dxfId="68" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF14">
-    <cfRule type="top10" dxfId="67" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG5:BG14">
-    <cfRule type="top10" dxfId="66" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30061,10 +30074,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M31"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -30084,56 +30097,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="285" t="s">
+      <c r="A1" s="340" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="288" t="str">
+      <c r="B1" s="358" t="str">
         <f>CONCATENATE("Score summaries at (n = ", COUNT(raw_data!A:A), ")")</f>
         <v>Score summaries at (n = 10)</v>
       </c>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
+      <c r="C1" s="359"/>
+      <c r="D1" s="359"/>
+      <c r="E1" s="359"/>
+      <c r="F1" s="359"/>
+      <c r="G1" s="359"/>
+      <c r="H1" s="359"/>
+      <c r="I1" s="359"/>
+      <c r="J1" s="359"/>
+      <c r="K1" s="359"/>
+      <c r="L1" s="359"/>
+      <c r="M1" s="360"/>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="285"/>
-      <c r="B2" s="288"/>
-      <c r="C2" s="289"/>
-      <c r="D2" s="289"/>
-      <c r="E2" s="289"/>
-      <c r="F2" s="289"/>
-      <c r="G2" s="289"/>
-      <c r="H2" s="289"/>
-      <c r="I2" s="289"/>
-      <c r="J2" s="289"/>
-      <c r="K2" s="289"/>
-      <c r="L2" s="289"/>
-      <c r="M2" s="289"/>
+    <row r="2" spans="1:13" ht="15" thickBot="1">
+      <c r="A2" s="340"/>
+      <c r="B2" s="361"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
+      <c r="G2" s="362"/>
+      <c r="H2" s="362"/>
+      <c r="I2" s="362"/>
+      <c r="J2" s="362"/>
+      <c r="K2" s="362"/>
+      <c r="L2" s="362"/>
+      <c r="M2" s="363"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="341" t="s">
         <v>671</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287"/>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="342"/>
+      <c r="K3" s="342"/>
+      <c r="L3" s="342"/>
+      <c r="M3" s="342"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="76" t="s">
@@ -30384,202 +30397,150 @@
         <v>0.4898979485566356</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="290" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="343" t="s">
         <v>672</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="291"/>
-      <c r="M9" s="291"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="76" t="s">
-        <v>670</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>669</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="50" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>373</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>720</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>721</v>
-      </c>
-      <c r="H10" s="50" t="s">
-        <v>662</v>
-      </c>
-      <c r="I10" s="81" t="s">
-        <v>677</v>
-      </c>
-      <c r="J10" s="71" t="s">
-        <v>458</v>
-      </c>
-      <c r="K10" s="85" t="s">
-        <v>372</v>
-      </c>
-      <c r="L10" s="85" t="s">
-        <v>719</v>
-      </c>
-      <c r="M10" s="85" t="s">
-        <v>718</v>
-      </c>
+      <c r="B10" s="344"/>
+      <c r="C10" s="344"/>
+      <c r="D10" s="344"/>
+      <c r="E10" s="344"/>
+      <c r="F10" s="344"/>
+      <c r="G10" s="344"/>
+      <c r="H10" s="344"/>
+      <c r="I10" s="344"/>
+      <c r="J10" s="344"/>
+      <c r="K10" s="344"/>
+      <c r="L10" s="344"/>
+      <c r="M10" s="344"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="76" t="s">
+        <v>670</v>
+      </c>
+      <c r="B11" s="75" t="s">
+        <v>669</v>
+      </c>
+      <c r="C11" s="180" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="180" t="s">
+        <v>321</v>
+      </c>
+      <c r="E11" s="180" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="180" t="s">
+        <v>720</v>
+      </c>
+      <c r="G11" s="180" t="s">
+        <v>721</v>
+      </c>
+      <c r="H11" s="180" t="s">
+        <v>662</v>
+      </c>
+      <c r="I11" s="81" t="s">
+        <v>677</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>458</v>
+      </c>
+      <c r="K11" s="85" t="s">
+        <v>372</v>
+      </c>
+      <c r="L11" s="85" t="s">
+        <v>719</v>
+      </c>
+      <c r="M11" s="85" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="93" t="s">
         <v>706</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B12" s="88" t="s">
         <v>694</v>
       </c>
-      <c r="C11" s="103">
+      <c r="C12" s="180">
         <f>MIN(processed_data!Z:Z)</f>
         <v>46</v>
       </c>
-      <c r="D11" s="103">
+      <c r="D12" s="180">
         <f>MAX(processed_data!Z:Z)</f>
         <v>54</v>
       </c>
-      <c r="E11" s="103">
+      <c r="E12" s="180">
         <f>AVERAGE(processed_data!Z:Z)</f>
         <v>49.3</v>
       </c>
-      <c r="F11" s="103">
+      <c r="F12" s="180">
         <f>MEDIAN(processed_data!Z:Z)</f>
         <v>48</v>
       </c>
-      <c r="G11" s="103">
+      <c r="G12" s="180">
         <f>MODE(processed_data!Z:Z)</f>
         <v>48</v>
       </c>
-      <c r="H11" s="103">
+      <c r="H12" s="180">
         <f>SUM(processed_data!Z:Z)</f>
         <v>493</v>
       </c>
-      <c r="I11" s="66">
-        <f>H11/COUNT(processed_data!A:A)/ 60</f>
+      <c r="I12" s="66">
+        <f>H12/COUNT(processed_data!A:A)/ 60</f>
         <v>0.82166666666666666</v>
       </c>
-      <c r="J11" s="88" t="str">
-        <f>IF(I11&lt;=20%,"very low",IF(I11&lt;=40%,"low",IF(I11&lt;=60%,"moderate", IF(I11&lt;=80%,"high","very high"))))</f>
+      <c r="J12" s="88" t="str">
+        <f>IF(I12&lt;=20%,"very low",IF(I12&lt;=40%,"low",IF(I12&lt;=60%,"moderate", IF(I12&lt;=80%,"high","very high"))))</f>
         <v>very high</v>
       </c>
-      <c r="K11" s="85">
-        <f>IF(J11="very high", 5, IF(J11="high", 4, IF(J11="moderate", 3, IF(J11="low", 2, 1))))</f>
+      <c r="K12" s="85">
+        <f>IF(J12="very high", 5, IF(J12="high", 4, IF(J12="moderate", 3, IF(J12="low", 2, 1))))</f>
         <v>5</v>
       </c>
-      <c r="L11" s="85">
-        <f>D11-C11</f>
+      <c r="L12" s="85">
+        <f>D12-C12</f>
         <v>8</v>
       </c>
-      <c r="M11" s="85">
+      <c r="M12" s="85">
         <f>_xlfn.STDEV.P(processed_data!Z:Z)</f>
         <v>2.4515301344262523</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="31" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="93" t="s">
         <v>707</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B13" s="88" t="s">
         <v>381</v>
       </c>
-      <c r="C12" s="103">
+      <c r="C13" s="180">
         <f>MIN(processed_data!AD:AD)</f>
         <v>36</v>
       </c>
-      <c r="D12" s="103">
+      <c r="D13" s="180">
         <f>MAX(processed_data!AD:AD)</f>
         <v>51</v>
       </c>
-      <c r="E12" s="103">
+      <c r="E13" s="180">
         <f>AVERAGE(processed_data!AD:AD)</f>
         <v>41.3</v>
       </c>
-      <c r="F12" s="103">
+      <c r="F13" s="180">
         <f>MEDIAN(processed_data!AD:AD)</f>
         <v>38.5</v>
       </c>
-      <c r="G12" s="103">
+      <c r="G13" s="180">
         <f>MODE(processed_data!AD:AD)</f>
         <v>38</v>
       </c>
-      <c r="H12" s="103">
+      <c r="H13" s="180">
         <f>SUM(processed_data!AD:AD)</f>
         <v>413</v>
       </c>
-      <c r="I12" s="66">
-        <f>H12/COUNT(processed_data!A:A)/ 60</f>
+      <c r="I13" s="66">
+        <f>H13/COUNT(processed_data!A:A)/ 60</f>
         <v>0.68833333333333324</v>
-      </c>
-      <c r="J12" s="88" t="str">
-        <f>IF(I12&lt;=20%,"very low",IF(I12&lt;=40%,"low",IF(I12&lt;=60%,"moderate", IF(I12&lt;=80%,"high","very high"))))</f>
-        <v>high</v>
-      </c>
-      <c r="K12" s="85">
-        <f>IF(J12="very high", 5, IF(J12="high", 4, IF(J12="moderate", 3, IF(J12="low", 2, 1))))</f>
-        <v>4</v>
-      </c>
-      <c r="L12" s="85">
-        <f>D12-C12</f>
-        <v>15</v>
-      </c>
-      <c r="M12" s="85">
-        <f>_xlfn.STDEV.P(processed_data!AD:AD)</f>
-        <v>5.1195702944680814</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="31" t="s">
-        <v>708</v>
-      </c>
-      <c r="B13" s="88" t="s">
-        <v>378</v>
-      </c>
-      <c r="C13" s="103">
-        <f>MIN(processed_data!R:R)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="103">
-        <f>MAX(processed_data!R:R)</f>
-        <v>5</v>
-      </c>
-      <c r="E13" s="103">
-        <f>AVERAGE(processed_data!R:R)</f>
-        <v>3.1</v>
-      </c>
-      <c r="F13" s="103">
-        <f>MEDIAN(processed_data!R:R)</f>
-        <v>4</v>
-      </c>
-      <c r="G13" s="103">
-        <f>MODE(processed_data!R:R)</f>
-        <v>4</v>
-      </c>
-      <c r="H13" s="103">
-        <f>SUM(processed_data!R:R)</f>
-        <v>31</v>
-      </c>
-      <c r="I13" s="66">
-        <f>H13/COUNT(processed_data!A:A)/ 5</f>
-        <v>0.62</v>
       </c>
       <c r="J13" s="88" t="str">
         <f>IF(I13&lt;=20%,"very low",IF(I13&lt;=40%,"low",IF(I13&lt;=60%,"moderate", IF(I13&lt;=80%,"high","very high"))))</f>
@@ -30591,365 +30552,313 @@
       </c>
       <c r="L13" s="85">
         <f>D13-C13</f>
+        <v>15</v>
+      </c>
+      <c r="M13" s="85">
+        <f>_xlfn.STDEV.P(processed_data!AD:AD)</f>
+        <v>5.1195702944680814</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="93" t="s">
+        <v>708</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>378</v>
+      </c>
+      <c r="C14" s="180">
+        <f>MIN(processed_data!R:R)</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="180">
+        <f>MAX(processed_data!R:R)</f>
+        <v>5</v>
+      </c>
+      <c r="E14" s="180">
+        <f>AVERAGE(processed_data!R:R)</f>
+        <v>3.1</v>
+      </c>
+      <c r="F14" s="180">
+        <f>MEDIAN(processed_data!R:R)</f>
         <v>4</v>
       </c>
-      <c r="M13" s="85">
+      <c r="G14" s="180">
+        <f>MODE(processed_data!R:R)</f>
+        <v>4</v>
+      </c>
+      <c r="H14" s="180">
+        <f>SUM(processed_data!R:R)</f>
+        <v>31</v>
+      </c>
+      <c r="I14" s="66">
+        <f>H14/COUNT(processed_data!A:A)/ 5</f>
+        <v>0.62</v>
+      </c>
+      <c r="J14" s="88" t="str">
+        <f>IF(I14&lt;=20%,"very low",IF(I14&lt;=40%,"low",IF(I14&lt;=60%,"moderate", IF(I14&lt;=80%,"high","very high"))))</f>
+        <v>high</v>
+      </c>
+      <c r="K14" s="85">
+        <f>IF(J14="very high", 5, IF(J14="high", 4, IF(J14="moderate", 3, IF(J14="low", 2, 1))))</f>
+        <v>4</v>
+      </c>
+      <c r="L14" s="85">
+        <f>D14-C14</f>
+        <v>4</v>
+      </c>
+      <c r="M14" s="85">
         <f>_xlfn.STDEV.P(processed_data!R:R)</f>
         <v>1.57797338380595</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="31" t="s">
+    <row r="15" spans="1:13">
+      <c r="A15" s="93" t="s">
         <v>667</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B15" s="88" t="s">
         <v>695</v>
       </c>
-      <c r="C14" s="103">
+      <c r="C15" s="180">
         <f>MIN(processed_data!V:V)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="103">
+      <c r="D15" s="180">
         <f>MAX(processed_data!A:A)</f>
         <v>10</v>
       </c>
-      <c r="E14" s="103">
+      <c r="E15" s="180">
         <f>AVERAGE(processed_data!V:V)</f>
         <v>2.8</v>
       </c>
-      <c r="F14" s="103">
+      <c r="F15" s="180">
         <f>MEDIAN(processed_data!V:V)</f>
         <v>3</v>
       </c>
-      <c r="G14" s="103">
+      <c r="G15" s="180">
         <f>MODE(processed_data!V:V)</f>
         <v>3</v>
       </c>
-      <c r="H14" s="103">
+      <c r="H15" s="180">
         <f>SUM(processed_data!V:V)</f>
         <v>28</v>
       </c>
-      <c r="I14" s="66">
-        <f>H14/COUNT(processed_data!A:A)/ 5</f>
+      <c r="I15" s="66">
+        <f>H15/COUNT(processed_data!A:A)/ 5</f>
         <v>0.55999999999999994</v>
       </c>
-      <c r="J14" s="88" t="str">
-        <f>IF(I14&lt;=20%,"very low",IF(I14&lt;=40%,"low",IF(I14&lt;=60%,"moderate", IF(I14&lt;=80%,"high","very high"))))</f>
+      <c r="J15" s="88" t="str">
+        <f>IF(I15&lt;=20%,"very low",IF(I15&lt;=40%,"low",IF(I15&lt;=60%,"moderate", IF(I15&lt;=80%,"high","very high"))))</f>
         <v>moderate</v>
       </c>
-      <c r="K14" s="85">
-        <f>IF(J14="very high", 5, IF(J14="high", 4, IF(J14="moderate", 3, IF(J14="low", 2, 1))))</f>
+      <c r="K15" s="85">
+        <f>IF(J15="very high", 5, IF(J15="high", 4, IF(J15="moderate", 3, IF(J15="low", 2, 1))))</f>
         <v>3</v>
       </c>
-      <c r="L14" s="85">
-        <f>D14-C14</f>
+      <c r="L15" s="85">
+        <f>D15-C15</f>
         <v>10</v>
       </c>
-      <c r="M14" s="85">
+      <c r="M15" s="85">
         <f>_xlfn.STDEV.P(processed_data!V:V)</f>
         <v>1.1661903789690602</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="292" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" s="345" t="s">
         <v>399</v>
       </c>
-      <c r="B15" s="293"/>
-      <c r="C15" s="293"/>
-      <c r="D15" s="293"/>
-      <c r="E15" s="293"/>
-      <c r="F15" s="293"/>
-      <c r="G15" s="293"/>
-      <c r="H15" s="293"/>
-      <c r="I15" s="293"/>
-      <c r="J15" s="293"/>
-      <c r="K15" s="293"/>
-      <c r="L15" s="293"/>
-      <c r="M15" s="293"/>
+      <c r="B17" s="346"/>
+      <c r="C17" s="346"/>
+      <c r="D17" s="346"/>
+      <c r="E17" s="346"/>
+      <c r="F17" s="346"/>
+      <c r="G17" s="346"/>
+      <c r="H17" s="346"/>
+      <c r="I17" s="346"/>
+      <c r="J17" s="346"/>
+      <c r="K17" s="346"/>
+      <c r="L17" s="346"/>
+      <c r="M17" s="346"/>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="77" t="s">
+    <row r="18" spans="1:13">
+      <c r="A18" s="77" t="s">
         <v>670</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B18" s="104" t="s">
         <v>669</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C18" s="180" t="s">
         <v>320</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D18" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E18" s="180" t="s">
         <v>373</v>
       </c>
-      <c r="F16" s="103" t="s">
+      <c r="F18" s="180" t="s">
         <v>720</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G18" s="180" t="s">
         <v>721</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H18" s="180" t="s">
         <v>662</v>
       </c>
-      <c r="I16" s="81" t="s">
+      <c r="I18" s="81" t="s">
         <v>676</v>
       </c>
-      <c r="J16" s="71" t="s">
+      <c r="J18" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="K16" s="85" t="s">
+      <c r="K18" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="L16" s="85" t="s">
+      <c r="L18" s="85" t="s">
         <v>719</v>
       </c>
-      <c r="M16" s="85" t="s">
+      <c r="M18" s="85" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="31" t="s">
+    <row r="19" spans="1:13">
+      <c r="A19" s="93" t="s">
         <v>711</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B19" s="88" t="s">
         <v>385</v>
       </c>
-      <c r="C17" s="103">
+      <c r="C19" s="180">
         <f>MIN(processed_data!AT:AT)</f>
         <v>2</v>
       </c>
-      <c r="D17" s="103">
+      <c r="D19" s="180">
         <f>MAX(processed_data!AT:AT)</f>
         <v>6</v>
       </c>
-      <c r="E17" s="103">
+      <c r="E19" s="180">
         <f>AVERAGE(processed_data!AT:AT)</f>
         <v>3.9</v>
       </c>
-      <c r="F17" s="103">
+      <c r="F19" s="180">
         <f>MEDIAN(processed_data!AT:AT)</f>
         <v>4</v>
       </c>
-      <c r="G17" s="103">
+      <c r="G19" s="180">
         <f>MODE(processed_data!AT:AT)</f>
         <v>4</v>
       </c>
-      <c r="H17" s="103">
+      <c r="H19" s="180">
         <f>SUM(processed_data!AT:AT)</f>
         <v>39</v>
       </c>
-      <c r="I17" s="66">
-        <f>H17/COUNT(processed_data!A:A)/ 6</f>
+      <c r="I19" s="66">
+        <f>H19/COUNT(processed_data!A:A)/ 6</f>
         <v>0.65</v>
       </c>
-      <c r="J17" s="88" t="str">
-        <f t="shared" ref="J17:J23" si="0">IF(I17&lt;=20%,"very low",IF(I17&lt;=40%,"low",IF(I17&lt;=60%,"moderate", IF(I17&lt;=80%,"high","very high"))))</f>
+      <c r="J19" s="88" t="str">
+        <f t="shared" ref="J19:J25" si="0">IF(I19&lt;=20%,"very low",IF(I19&lt;=40%,"low",IF(I19&lt;=60%,"moderate", IF(I19&lt;=80%,"high","very high"))))</f>
         <v>high</v>
       </c>
-      <c r="K17" s="85">
-        <f t="shared" ref="K17:K23" si="1">IF(J17="very high", 5, IF(J17="high", 4, IF(J17="moderate", 3, IF(J17="low", 2, 1))))</f>
+      <c r="K19" s="85">
+        <f t="shared" ref="K19:K25" si="1">IF(J19="very high", 5, IF(J19="high", 4, IF(J19="moderate", 3, IF(J19="low", 2, 1))))</f>
         <v>4</v>
       </c>
-      <c r="L17" s="85">
-        <f t="shared" ref="L17:L23" si="2">D17-C17</f>
+      <c r="L19" s="85">
+        <f t="shared" ref="L19:L25" si="2">D19-C19</f>
         <v>4</v>
       </c>
-      <c r="M17" s="85">
+      <c r="M19" s="85">
         <f>_xlfn.STDEV.P(processed_data!AT:AT)</f>
         <v>1.1357816691600546</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="31" t="s">
+    <row r="20" spans="1:13">
+      <c r="A20" s="93" t="s">
         <v>713</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B20" s="88" t="s">
         <v>387</v>
       </c>
-      <c r="C18" s="103">
+      <c r="C20" s="180">
         <f>MIN(processed_data!BB:BB)</f>
         <v>4</v>
       </c>
-      <c r="D18" s="103">
+      <c r="D20" s="180">
         <f>MAX(processed_data!BB:BB)</f>
         <v>6</v>
       </c>
-      <c r="E18" s="103">
+      <c r="E20" s="180">
         <f>AVERAGE(processed_data!BB:BB)</f>
         <v>4.9000000000000004</v>
       </c>
-      <c r="F18" s="103">
+      <c r="F20" s="180">
         <f>MEDIAN(processed_data!BB:BB)</f>
         <v>5</v>
       </c>
-      <c r="G18" s="103">
+      <c r="G20" s="180">
         <f>MODE(processed_data!BB:BB)</f>
         <v>4</v>
       </c>
-      <c r="H18" s="103">
+      <c r="H20" s="180">
         <f>SUM(processed_data!BB:BB)</f>
         <v>49</v>
       </c>
-      <c r="I18" s="66">
-        <f>H18/COUNT(processed_data!A:A)/ 8</f>
+      <c r="I20" s="66">
+        <f>H20/COUNT(processed_data!A:A)/ 8</f>
         <v>0.61250000000000004</v>
       </c>
-      <c r="J18" s="88" t="str">
+      <c r="J20" s="88" t="str">
         <f t="shared" si="0"/>
         <v>high</v>
       </c>
-      <c r="K18" s="85">
+      <c r="K20" s="85">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="L18" s="85">
+      <c r="L20" s="85">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M18" s="85">
+      <c r="M20" s="85">
         <f>_xlfn.STDEV.P(processed_data!BB:BB)</f>
         <v>0.83066238629180744</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="31" t="s">
+    <row r="21" spans="1:13">
+      <c r="A21" s="93" t="s">
         <v>709</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B21" s="88" t="s">
         <v>660</v>
       </c>
-      <c r="C19" s="103">
+      <c r="C21" s="180">
         <f>MIN(processed_data!AH:AH)</f>
         <v>8</v>
       </c>
-      <c r="D19" s="103">
+      <c r="D21" s="180">
         <f>MAX(processed_data!AH:AH)</f>
         <v>13</v>
       </c>
-      <c r="E19" s="103">
+      <c r="E21" s="180">
         <f>AVERAGE(processed_data!AD:AD)</f>
         <v>41.3</v>
       </c>
-      <c r="F19" s="103">
+      <c r="F21" s="180">
         <f>MEDIAN(processed_data!AH:AH)</f>
         <v>11.5</v>
       </c>
-      <c r="G19" s="103">
+      <c r="G21" s="180">
         <f>MODE(processed_data!AH:AH)</f>
         <v>13</v>
       </c>
-      <c r="H19" s="103">
+      <c r="H21" s="180">
         <f>SUM(processed_data!AH:AH)</f>
         <v>109</v>
       </c>
-      <c r="I19" s="66">
-        <f>H19/COUNT(processed_data!A:A)/ 20</f>
+      <c r="I21" s="66">
+        <f>H21/COUNT(processed_data!A:A)/ 20</f>
         <v>0.54500000000000004</v>
-      </c>
-      <c r="J19" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v>moderate</v>
-      </c>
-      <c r="K19" s="85">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L19" s="85">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M19" s="85">
-        <f>_xlfn.STDEV.P(processed_data!AH:AH)</f>
-        <v>1.9209372712298547</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="31" t="s">
-        <v>712</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>386</v>
-      </c>
-      <c r="C20" s="103">
-        <f>MIN(processed_data!AX:AX)</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="103">
-        <f>MAX(processed_data!AX:AX)</f>
-        <v>11</v>
-      </c>
-      <c r="E20" s="103">
-        <f>AVERAGE(processed_data!AX:AX)</f>
-        <v>6.2</v>
-      </c>
-      <c r="F20" s="103">
-        <f>MEDIAN(processed_data!AX:AX)</f>
-        <v>6</v>
-      </c>
-      <c r="G20" s="103">
-        <f>MODE(processed_data!AX:AX)</f>
-        <v>6</v>
-      </c>
-      <c r="H20" s="103">
-        <f>SUM(processed_data!AX:AX)</f>
-        <v>62</v>
-      </c>
-      <c r="I20" s="66">
-        <f>H20/COUNT(processed_data!A:A)/ 12</f>
-        <v>0.51666666666666672</v>
-      </c>
-      <c r="J20" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v>moderate</v>
-      </c>
-      <c r="K20" s="85">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="L20" s="85">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="M20" s="85">
-        <f>_xlfn.STDEV.P(processed_data!AX:AX)</f>
-        <v>3.0919249667480613</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="31" t="s">
-        <v>710</v>
-      </c>
-      <c r="B21" s="88" t="s">
-        <v>383</v>
-      </c>
-      <c r="C21" s="103">
-        <f>MIN(processed_data!AL:AL)</f>
-        <v>1</v>
-      </c>
-      <c r="D21" s="103">
-        <f>MAX(processed_data!AL:AL)</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="103">
-        <f>AVERAGE(processed_data!AL:AL)</f>
-        <v>1.9</v>
-      </c>
-      <c r="F21" s="103">
-        <f>MEDIAN(processed_data!AL:AL)</f>
-        <v>2</v>
-      </c>
-      <c r="G21" s="103">
-        <f>MODE(processed_data!AL:AL)</f>
-        <v>2</v>
-      </c>
-      <c r="H21" s="103">
-        <f>SUM(processed_data!AL:AL)</f>
-        <v>19</v>
-      </c>
-      <c r="I21" s="66">
-        <f>H21/COUNT(processed_data!A:A)/ 4</f>
-        <v>0.47499999999999998</v>
       </c>
       <c r="J21" s="88" t="str">
         <f t="shared" si="0"/>
@@ -30961,47 +30870,47 @@
       </c>
       <c r="L21" s="85">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M21" s="85">
-        <f>_xlfn.STDEV.P(processed_data!AL:AL)</f>
-        <v>0.7</v>
+        <f>_xlfn.STDEV.P(processed_data!AH:AH)</f>
+        <v>1.9209372712298547</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="31" t="s">
-        <v>663</v>
+      <c r="A22" s="93" t="s">
+        <v>712</v>
       </c>
       <c r="B22" s="88" t="s">
-        <v>402</v>
-      </c>
-      <c r="C22" s="103">
-        <f>MIN(processed_data!AP:AP)</f>
-        <v>4</v>
-      </c>
-      <c r="D22" s="103">
-        <f>MAX(processed_data!AP:AP)</f>
-        <v>9</v>
-      </c>
-      <c r="E22" s="103">
-        <f>AVERAGE(processed_data!AP:AP)</f>
-        <v>5</v>
-      </c>
-      <c r="F22" s="103">
-        <f>MEDIAN(processed_data!AP:AP)</f>
-        <v>4.5</v>
-      </c>
-      <c r="G22" s="103">
-        <f>MODE(processed_data!AP:AP)</f>
-        <v>4</v>
-      </c>
-      <c r="H22" s="103">
-        <f>SUM(processed_data!AP:AP)</f>
-        <v>50</v>
+        <v>386</v>
+      </c>
+      <c r="C22" s="180">
+        <f>MIN(processed_data!AX:AX)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="180">
+        <f>MAX(processed_data!AX:AX)</f>
+        <v>11</v>
+      </c>
+      <c r="E22" s="180">
+        <f>AVERAGE(processed_data!AX:AX)</f>
+        <v>6.2</v>
+      </c>
+      <c r="F22" s="180">
+        <f>MEDIAN(processed_data!AX:AX)</f>
+        <v>6</v>
+      </c>
+      <c r="G22" s="180">
+        <f>MODE(processed_data!AX:AX)</f>
+        <v>6</v>
+      </c>
+      <c r="H22" s="180">
+        <f>SUM(processed_data!AX:AX)</f>
+        <v>62</v>
       </c>
       <c r="I22" s="66">
         <f>H22/COUNT(processed_data!A:A)/ 12</f>
-        <v>0.41666666666666669</v>
+        <v>0.51666666666666672</v>
       </c>
       <c r="J22" s="88" t="str">
         <f t="shared" si="0"/>
@@ -31013,397 +30922,501 @@
       </c>
       <c r="L22" s="85">
         <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="M22" s="85">
+        <f>_xlfn.STDEV.P(processed_data!AX:AX)</f>
+        <v>3.0919249667480613</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="93" t="s">
+        <v>710</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>383</v>
+      </c>
+      <c r="C23" s="180">
+        <f>MIN(processed_data!AL:AL)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="180">
+        <f>MAX(processed_data!AL:AL)</f>
+        <v>3</v>
+      </c>
+      <c r="E23" s="180">
+        <f>AVERAGE(processed_data!AL:AL)</f>
+        <v>1.9</v>
+      </c>
+      <c r="F23" s="180">
+        <f>MEDIAN(processed_data!AL:AL)</f>
+        <v>2</v>
+      </c>
+      <c r="G23" s="180">
+        <f>MODE(processed_data!AL:AL)</f>
+        <v>2</v>
+      </c>
+      <c r="H23" s="180">
+        <f>SUM(processed_data!AL:AL)</f>
+        <v>19</v>
+      </c>
+      <c r="I23" s="66">
+        <f>H23/COUNT(processed_data!A:A)/ 4</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J23" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>moderate</v>
+      </c>
+      <c r="K23" s="85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L23" s="85">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="M23" s="85">
+        <f>_xlfn.STDEV.P(processed_data!AL:AL)</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="93" t="s">
+        <v>663</v>
+      </c>
+      <c r="B24" s="88" t="s">
+        <v>402</v>
+      </c>
+      <c r="C24" s="180">
+        <f>MIN(processed_data!AP:AP)</f>
+        <v>4</v>
+      </c>
+      <c r="D24" s="180">
+        <f>MAX(processed_data!AP:AP)</f>
+        <v>9</v>
+      </c>
+      <c r="E24" s="180">
+        <f>AVERAGE(processed_data!AP:AP)</f>
         <v>5</v>
       </c>
-      <c r="M22" s="85">
+      <c r="F24" s="180">
+        <f>MEDIAN(processed_data!AP:AP)</f>
+        <v>4.5</v>
+      </c>
+      <c r="G24" s="180">
+        <f>MODE(processed_data!AP:AP)</f>
+        <v>4</v>
+      </c>
+      <c r="H24" s="180">
+        <f>SUM(processed_data!AP:AP)</f>
+        <v>50</v>
+      </c>
+      <c r="I24" s="66">
+        <f>H24/COUNT(processed_data!A:A)/ 12</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J24" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>moderate</v>
+      </c>
+      <c r="K24" s="85">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="L24" s="85">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="M24" s="85">
         <f>_xlfn.STDEV.P(processed_data!AP:AP)</f>
         <v>1.4832396974191326</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="31" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="93" t="s">
         <v>714</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B25" s="88" t="s">
         <v>388</v>
       </c>
-      <c r="C23" s="103">
+      <c r="C25" s="180">
         <f>MIN(processed_data!BF:BF)</f>
         <v>0</v>
       </c>
-      <c r="D23" s="103">
+      <c r="D25" s="180">
         <f>MAX(processed_data!BF:BF)</f>
         <v>1</v>
       </c>
-      <c r="E23" s="103">
+      <c r="E25" s="180">
         <f>AVERAGE(processed_data!BF:BF)</f>
         <v>0.1</v>
       </c>
-      <c r="F23" s="103">
+      <c r="F25" s="180">
         <f>MEDIAN(processed_data!BF:BF)</f>
         <v>0</v>
       </c>
-      <c r="G23" s="103">
+      <c r="G25" s="180">
         <f>MODE(processed_data!BF:BF)</f>
         <v>0</v>
       </c>
-      <c r="H23" s="103">
+      <c r="H25" s="180">
         <f>SUM(processed_data!BF:BF)</f>
         <v>1</v>
       </c>
-      <c r="I23" s="66">
-        <f>H23/COUNT(processed_data!A:A)/ 8</f>
+      <c r="I25" s="66">
+        <f>H25/COUNT(processed_data!A:A)/ 8</f>
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="J23" s="88" t="str">
+      <c r="J25" s="88" t="str">
         <f t="shared" si="0"/>
         <v>very low</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K25" s="85">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="L23" s="85">
+      <c r="L25" s="85">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="M23" s="85">
+      <c r="M25" s="85">
         <f>_xlfn.STDEV.P(processed_data!BF:BF)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="281" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" s="336" t="s">
         <v>407</v>
       </c>
-      <c r="B24" s="282"/>
-      <c r="C24" s="282"/>
-      <c r="D24" s="282"/>
-      <c r="E24" s="282"/>
-      <c r="F24" s="282"/>
-      <c r="G24" s="282"/>
-      <c r="H24" s="282"/>
-      <c r="I24" s="282"/>
-      <c r="J24" s="282"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="282"/>
-      <c r="M24" s="282"/>
+      <c r="B27" s="337"/>
+      <c r="C27" s="337"/>
+      <c r="D27" s="337"/>
+      <c r="E27" s="337"/>
+      <c r="F27" s="337"/>
+      <c r="G27" s="337"/>
+      <c r="H27" s="337"/>
+      <c r="I27" s="337"/>
+      <c r="J27" s="337"/>
+      <c r="K27" s="337"/>
+      <c r="L27" s="337"/>
+      <c r="M27" s="337"/>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="78" t="s">
+    <row r="28" spans="1:13">
+      <c r="A28" s="78" t="s">
         <v>670</v>
       </c>
-      <c r="B25" s="105" t="s">
+      <c r="B28" s="105" t="s">
         <v>669</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C28" s="180" t="s">
         <v>320</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D28" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E28" s="180" t="s">
         <v>373</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F28" s="180" t="s">
         <v>720</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G28" s="180" t="s">
         <v>721</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H28" s="180" t="s">
         <v>662</v>
       </c>
-      <c r="I25" s="81" t="s">
+      <c r="I28" s="81" t="s">
         <v>676</v>
       </c>
-      <c r="J25" s="71" t="s">
+      <c r="J28" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="K25" s="85" t="s">
+      <c r="K28" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="L25" s="85" t="s">
+      <c r="L28" s="85" t="s">
         <v>719</v>
       </c>
-      <c r="M25" s="85" t="s">
+      <c r="M28" s="85" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="31" t="s">
+    <row r="29" spans="1:13">
+      <c r="A29" s="93" t="s">
         <v>715</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B29" s="91" t="s">
         <v>665</v>
       </c>
-      <c r="C26" s="103">
+      <c r="C29" s="180">
         <f>MIN(processed_data!BN:BN)</f>
         <v>0</v>
       </c>
-      <c r="D26" s="103">
+      <c r="D29" s="180">
         <f>MAX(processed_data!BN:BN)</f>
         <v>9</v>
       </c>
-      <c r="E26" s="103">
+      <c r="E29" s="180">
         <f>AVERAGE(processed_data!BN:BN)</f>
         <v>3.5</v>
       </c>
-      <c r="F26" s="103">
+      <c r="F29" s="180">
         <f>MEDIAN(processed_data!BN:BN)</f>
         <v>4</v>
       </c>
-      <c r="G26" s="103">
+      <c r="G29" s="180">
         <f>MODE(processed_data!BN:BN)</f>
         <v>5</v>
       </c>
-      <c r="H26" s="103">
+      <c r="H29" s="180">
         <f>SUM(processed_data!BN:BN)</f>
         <v>35</v>
       </c>
-      <c r="I26" s="66">
-        <f>H26/COUNT(processed_data!A:A)/ 8</f>
+      <c r="I29" s="66">
+        <f>H29/COUNT(processed_data!A:A)/ 8</f>
         <v>0.4375</v>
       </c>
-      <c r="J26" s="88" t="str">
-        <f>IF(I26&lt;=20%,"very low",IF(I26&lt;=40%,"low",IF(I26&lt;=60%,"moderate", IF(I26&lt;=80%,"high","very high"))))</f>
+      <c r="J29" s="88" t="str">
+        <f>IF(I29&lt;=20%,"very low",IF(I29&lt;=40%,"low",IF(I29&lt;=60%,"moderate", IF(I29&lt;=80%,"high","very high"))))</f>
         <v>moderate</v>
       </c>
-      <c r="K26" s="85">
-        <f>IF(J26="very high", 5, IF(J26="high", 4, IF(J26="moderate", 3, IF(J26="low", 2, 1))))</f>
+      <c r="K29" s="85">
+        <f>IF(J29="very high", 5, IF(J29="high", 4, IF(J29="moderate", 3, IF(J29="low", 2, 1))))</f>
         <v>3</v>
       </c>
-      <c r="L26" s="85">
-        <f>D26-C26</f>
+      <c r="L29" s="85">
+        <f>D29-C29</f>
         <v>9</v>
       </c>
-      <c r="M26" s="85">
+      <c r="M29" s="85">
         <f>_xlfn.STDEV.P(processed_data!BN:BN)</f>
         <v>2.6551836094703507</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="31" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="93" t="s">
         <v>716</v>
       </c>
-      <c r="B27" s="91" t="s">
+      <c r="B30" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="C27" s="103">
+      <c r="C30" s="180">
         <f>MIN(processed_data!BR:BR)</f>
         <v>1</v>
       </c>
-      <c r="D27" s="103">
+      <c r="D30" s="180">
         <f>MAX(processed_data!BR:BR)</f>
         <v>4</v>
       </c>
-      <c r="E27" s="103">
+      <c r="E30" s="180">
         <f>AVERAGE(processed_data!BR:BR)</f>
         <v>2.4</v>
       </c>
-      <c r="F27" s="103">
+      <c r="F30" s="180">
         <f>MEDIAN(processed_data!BR:BR)</f>
         <v>2</v>
       </c>
-      <c r="G27" s="103">
+      <c r="G30" s="180">
         <f>MODE(processed_data!BR:BR)</f>
         <v>2</v>
       </c>
-      <c r="H27" s="103">
+      <c r="H30" s="180">
         <f>SUM(processed_data!BR:BR)</f>
         <v>24</v>
       </c>
-      <c r="I27" s="66">
-        <f>H27/COUNT(processed_data!A:A)/ 8</f>
+      <c r="I30" s="66">
+        <f>H30/COUNT(processed_data!A:A)/ 8</f>
         <v>0.3</v>
       </c>
-      <c r="J27" s="88" t="str">
-        <f>IF(I27&lt;=20%,"very low",IF(I27&lt;=40%,"low",IF(I27&lt;=60%,"moderate", IF(I27&lt;=80%,"high","very high"))))</f>
+      <c r="J30" s="88" t="str">
+        <f>IF(I30&lt;=20%,"very low",IF(I30&lt;=40%,"low",IF(I30&lt;=60%,"moderate", IF(I30&lt;=80%,"high","very high"))))</f>
         <v>low</v>
       </c>
-      <c r="K27" s="85">
-        <f>IF(J27="very high", 5, IF(J27="high", 4, IF(J27="moderate", 3, IF(J27="low", 2, 1))))</f>
+      <c r="K30" s="85">
+        <f>IF(J30="very high", 5, IF(J30="high", 4, IF(J30="moderate", 3, IF(J30="low", 2, 1))))</f>
         <v>2</v>
       </c>
-      <c r="L27" s="85">
-        <f>D27-C27</f>
+      <c r="L30" s="85">
+        <f>D30-C30</f>
         <v>3</v>
       </c>
-      <c r="M27" s="85">
+      <c r="M30" s="85">
         <f>_xlfn.STDEV.P(processed_data!BR:BR)</f>
         <v>1.019803902718557</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="31" t="s">
+    <row r="31" spans="1:13">
+      <c r="A31" s="93" t="s">
         <v>664</v>
       </c>
-      <c r="B28" s="91" t="s">
+      <c r="B31" s="91" t="s">
         <v>403</v>
       </c>
-      <c r="C28" s="103">
+      <c r="C31" s="180">
         <f>MIN(processed_data!BJ:BJ)</f>
         <v>0</v>
       </c>
-      <c r="D28" s="103">
+      <c r="D31" s="180">
         <f>MAX(processed_data!BJ:BJ)</f>
         <v>6</v>
       </c>
-      <c r="E28" s="103">
+      <c r="E31" s="180">
         <f>AVERAGE(processed_data!BJ:BJ)</f>
         <v>1.8</v>
       </c>
-      <c r="F28" s="103">
+      <c r="F31" s="180">
         <f>MEDIAN(processed_data!BJ:BJ)</f>
         <v>1</v>
       </c>
-      <c r="G28" s="103">
+      <c r="G31" s="180">
         <f>MODE(processed_data!BJ:BJ)</f>
         <v>0</v>
       </c>
-      <c r="H28" s="103">
+      <c r="H31" s="180">
         <f>SUM(processed_data!BJ:BJ)</f>
         <v>18</v>
       </c>
-      <c r="I28" s="66">
-        <f>H28/COUNT(processed_data!A:A)/ 8</f>
+      <c r="I31" s="66">
+        <f>H31/COUNT(processed_data!A:A)/ 8</f>
         <v>0.22500000000000001</v>
       </c>
-      <c r="J28" s="88" t="str">
-        <f>IF(I28&lt;=20%,"very low",IF(I28&lt;=40%,"low",IF(I28&lt;=60%,"moderate", IF(I28&lt;=80%,"high","very high"))))</f>
+      <c r="J31" s="88" t="str">
+        <f>IF(I31&lt;=20%,"very low",IF(I31&lt;=40%,"low",IF(I31&lt;=60%,"moderate", IF(I31&lt;=80%,"high","very high"))))</f>
         <v>low</v>
       </c>
-      <c r="K28" s="85">
-        <f>IF(J28="very high", 5, IF(J28="high", 4, IF(J28="moderate", 3, IF(J28="low", 2, 1))))</f>
+      <c r="K31" s="85">
+        <f>IF(J31="very high", 5, IF(J31="high", 4, IF(J31="moderate", 3, IF(J31="low", 2, 1))))</f>
         <v>2</v>
       </c>
-      <c r="L28" s="85">
-        <f>D28-C28</f>
+      <c r="L31" s="85">
+        <f>D31-C31</f>
         <v>6</v>
       </c>
-      <c r="M28" s="85">
+      <c r="M31" s="85">
         <f>_xlfn.STDEV.P(processed_data!BJ:BJ)</f>
         <v>2.2715633383201093</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="283" t="s">
+    <row r="33" spans="1:13">
+      <c r="A33" s="338" t="s">
         <v>673</v>
       </c>
-      <c r="B29" s="284"/>
-      <c r="C29" s="284"/>
-      <c r="D29" s="284"/>
-      <c r="E29" s="284"/>
-      <c r="F29" s="284"/>
-      <c r="G29" s="284"/>
-      <c r="H29" s="284"/>
-      <c r="I29" s="284"/>
-      <c r="J29" s="284"/>
-      <c r="K29" s="284"/>
-      <c r="L29" s="284"/>
-      <c r="M29" s="284"/>
+      <c r="B33" s="339"/>
+      <c r="C33" s="339"/>
+      <c r="D33" s="339"/>
+      <c r="E33" s="339"/>
+      <c r="F33" s="339"/>
+      <c r="G33" s="339"/>
+      <c r="H33" s="339"/>
+      <c r="I33" s="339"/>
+      <c r="J33" s="339"/>
+      <c r="K33" s="339"/>
+      <c r="L33" s="339"/>
+      <c r="M33" s="339"/>
     </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="80" t="s">
+    <row r="34" spans="1:13">
+      <c r="A34" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="B30" s="106" t="s">
+      <c r="B34" s="106" t="s">
         <v>669</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C34" s="180" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D34" s="180" t="s">
         <v>321</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E34" s="180" t="s">
         <v>373</v>
       </c>
-      <c r="F30" s="103" t="s">
+      <c r="F34" s="180" t="s">
         <v>720</v>
       </c>
-      <c r="G30" s="103" t="s">
+      <c r="G34" s="180" t="s">
         <v>721</v>
       </c>
-      <c r="H30" s="50" t="s">
+      <c r="H34" s="180" t="s">
         <v>662</v>
       </c>
-      <c r="I30" s="81" t="s">
+      <c r="I34" s="81" t="s">
         <v>678</v>
       </c>
-      <c r="J30" s="71" t="s">
+      <c r="J34" s="71" t="s">
         <v>458</v>
       </c>
-      <c r="K30" s="85" t="s">
+      <c r="K34" s="85" t="s">
         <v>372</v>
       </c>
-      <c r="L30" s="85" t="s">
+      <c r="L34" s="85" t="s">
         <v>719</v>
       </c>
-      <c r="M30" s="85" t="s">
+      <c r="M34" s="85" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="31" t="s">
+    <row r="35" spans="1:13">
+      <c r="A35" s="93" t="s">
         <v>717</v>
       </c>
-      <c r="B31" s="107" t="s">
+      <c r="B35" s="107" t="s">
         <v>666</v>
       </c>
-      <c r="C31" s="103">
+      <c r="C35" s="180">
         <f>MIN(processed_data!BV:BV)</f>
         <v>1</v>
       </c>
-      <c r="D31" s="103">
+      <c r="D35" s="180">
         <f>MAX(processed_data!BV:BV)</f>
         <v>5</v>
       </c>
-      <c r="E31" s="103">
+      <c r="E35" s="180">
         <f>AVERAGE(processed_data!BV:BV)</f>
         <v>3.4</v>
       </c>
-      <c r="F31" s="103">
+      <c r="F35" s="180">
         <f>MEDIAN(processed_data!BV:BV)</f>
         <v>4</v>
       </c>
-      <c r="G31" s="103">
+      <c r="G35" s="180">
         <f>MODE(processed_data!BV:BV)</f>
         <v>5</v>
       </c>
-      <c r="H31" s="103">
+      <c r="H35" s="180">
         <f>SUM(processed_data!BV:BV)</f>
         <v>34</v>
       </c>
-      <c r="I31" s="66">
-        <f>H31/COUNT(processed_data!A:A)/ 8</f>
+      <c r="I35" s="66">
+        <f>H35/COUNT(processed_data!A:A)/ 8</f>
         <v>0.42499999999999999</v>
       </c>
-      <c r="J31" s="88">
+      <c r="J35" s="88">
         <v>5</v>
       </c>
-      <c r="K31" s="85">
-        <f t="shared" ref="K31" si="3">IF(J31="very high", 5, IF(J31="high", 4, IF(J31="moderate", 3, IF(J31="low", 2, 1))))</f>
-        <v>1</v>
-      </c>
-      <c r="L31" s="85">
-        <f>D31-C31</f>
+      <c r="K35" s="85">
+        <f t="shared" ref="K35" si="3">IF(J35="very high", 5, IF(J35="high", 4, IF(J35="moderate", 3, IF(J35="low", 2, 1))))</f>
+        <v>1</v>
+      </c>
+      <c r="L35" s="85">
+        <f>D35-C35</f>
         <v>4</v>
       </c>
-      <c r="M31" s="85">
+      <c r="M35" s="85">
         <f>_xlfn.STDEV.P(processed_data!BV:BV)</f>
         <v>1.6852299546352716</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A29:M29"/>
+    <mergeCell ref="A33:M33"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="B1:M2"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A15:M15"/>
+    <mergeCell ref="A10:M10"/>
+    <mergeCell ref="A17:M17"/>
+    <mergeCell ref="A27:M27"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="I5:I8">
@@ -31420,7 +31433,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I11:I14">
+  <conditionalFormatting sqref="I12:I15">
     <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
@@ -31458,7 +31471,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17:I23">
+  <conditionalFormatting sqref="I19:I25">
     <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
@@ -31484,7 +31497,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26:I28">
+  <conditionalFormatting sqref="I29:I31">
     <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
@@ -31522,7 +31535,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:K14">
+  <conditionalFormatting sqref="K12:K15">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -31534,7 +31547,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K17:K23">
+  <conditionalFormatting sqref="K19:K25">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -31546,7 +31559,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K26:K28">
+  <conditionalFormatting sqref="K29:K31">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -31609,7 +31622,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I11:I14</xm:sqref>
+          <xm:sqref>I12:I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{73B0196E-824E-40F6-8786-2CB877C16D15}">
@@ -31628,7 +31641,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I17:I23</xm:sqref>
+          <xm:sqref>I19:I25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{0D9F6024-B4F5-469F-94E6-3670FD694BAF}">
@@ -31647,7 +31660,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I26:I28</xm:sqref>
+          <xm:sqref>I29:I31</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -31659,8 +31672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46EA96F-C81D-4FD4-95F1-869E670662EA}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z21" sqref="Z21"/>
+    <sheetView showGridLines="0" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -31688,50 +31701,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.5" customHeight="1">
-      <c r="A1" s="297" t="s">
+      <c r="A1" s="350" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="299" t="s">
+      <c r="B1" s="352" t="s">
         <v>700</v>
       </c>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="301"/>
+      <c r="C1" s="353"/>
+      <c r="D1" s="353"/>
+      <c r="E1" s="353"/>
+      <c r="F1" s="353"/>
+      <c r="G1" s="353"/>
+      <c r="H1" s="353"/>
+      <c r="I1" s="353"/>
+      <c r="J1" s="353"/>
+      <c r="K1" s="353"/>
+      <c r="L1" s="353"/>
+      <c r="M1" s="353"/>
+      <c r="N1" s="353"/>
+      <c r="O1" s="354"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="298"/>
-      <c r="B2" s="302"/>
-      <c r="C2" s="303"/>
-      <c r="D2" s="303"/>
-      <c r="E2" s="303"/>
-      <c r="F2" s="303"/>
-      <c r="G2" s="303"/>
-      <c r="H2" s="303"/>
-      <c r="I2" s="303"/>
-      <c r="J2" s="303"/>
-      <c r="K2" s="303"/>
-      <c r="L2" s="303"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="303"/>
-      <c r="O2" s="304"/>
+      <c r="A2" s="351"/>
+      <c r="B2" s="355"/>
+      <c r="C2" s="356"/>
+      <c r="D2" s="356"/>
+      <c r="E2" s="356"/>
+      <c r="F2" s="356"/>
+      <c r="G2" s="356"/>
+      <c r="H2" s="356"/>
+      <c r="I2" s="356"/>
+      <c r="J2" s="356"/>
+      <c r="K2" s="356"/>
+      <c r="L2" s="356"/>
+      <c r="M2" s="356"/>
+      <c r="N2" s="356"/>
+      <c r="O2" s="357"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="349" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1">
-      <c r="A4" s="295"/>
+      <c r="A4" s="348"/>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
@@ -31811,19 +31824,19 @@
       </c>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="355" t="s">
+      <c r="A6" s="176" t="s">
         <v>368</v>
       </c>
-      <c r="B6" s="340">
+      <c r="B6" s="161">
         <v>1</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
-      <c r="E6" s="341"/>
-      <c r="F6" s="340"/>
+      <c r="E6" s="162"/>
+      <c r="F6" s="161"/>
       <c r="G6" s="35"/>
       <c r="H6" s="35"/>
-      <c r="I6" s="341"/>
+      <c r="I6" s="162"/>
       <c r="J6" s="96"/>
       <c r="K6" s="96"/>
       <c r="L6" s="96"/>
@@ -31831,16 +31844,16 @@
       <c r="N6" s="96"/>
       <c r="O6" s="96"/>
       <c r="P6" s="96"/>
-      <c r="Q6" s="340"/>
+      <c r="Q6" s="161"/>
       <c r="R6" s="35"/>
-      <c r="S6" s="341"/>
-      <c r="T6" s="335"/>
+      <c r="S6" s="162"/>
+      <c r="T6" s="156"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="356" t="s">
+      <c r="A7" s="177" t="s">
         <v>369</v>
       </c>
-      <c r="B7" s="342">
+      <c r="B7" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!F:F)</f>
         <v>0.62469504755442407</v>
       </c>
@@ -31848,11 +31861,11 @@
         <v>1</v>
       </c>
       <c r="D7" s="116"/>
-      <c r="E7" s="343"/>
-      <c r="F7" s="342"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="163"/>
       <c r="G7" s="116"/>
       <c r="H7" s="116"/>
-      <c r="I7" s="343"/>
+      <c r="I7" s="164"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
       <c r="L7" s="95"/>
@@ -31860,16 +31873,16 @@
       <c r="N7" s="95"/>
       <c r="O7" s="95"/>
       <c r="P7" s="95"/>
-      <c r="Q7" s="342"/>
+      <c r="Q7" s="163"/>
       <c r="R7" s="116"/>
-      <c r="S7" s="343"/>
-      <c r="T7" s="336"/>
+      <c r="S7" s="164"/>
+      <c r="T7" s="157"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="356" t="s">
+      <c r="A8" s="177" t="s">
         <v>370</v>
       </c>
-      <c r="B8" s="342">
+      <c r="B8" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!J:J)</f>
         <v>0.88803382986505819</v>
       </c>
@@ -31880,11 +31893,11 @@
       <c r="D8" s="116">
         <v>1</v>
       </c>
-      <c r="E8" s="343"/>
-      <c r="F8" s="342"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="163"/>
       <c r="G8" s="116"/>
       <c r="H8" s="116"/>
-      <c r="I8" s="343"/>
+      <c r="I8" s="164"/>
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
       <c r="L8" s="95"/>
@@ -31892,16 +31905,16 @@
       <c r="N8" s="95"/>
       <c r="O8" s="95"/>
       <c r="P8" s="95"/>
-      <c r="Q8" s="342"/>
+      <c r="Q8" s="163"/>
       <c r="R8" s="116"/>
-      <c r="S8" s="343"/>
-      <c r="T8" s="336"/>
+      <c r="S8" s="164"/>
+      <c r="T8" s="157"/>
     </row>
     <row r="9" spans="1:20" ht="15" thickBot="1">
-      <c r="A9" s="357" t="s">
+      <c r="A9" s="178" t="s">
         <v>371</v>
       </c>
-      <c r="B9" s="344">
+      <c r="B9" s="165">
         <f>PEARSON(processed_data!B:B, processed_data!N:N)</f>
         <v>0.8479883196999759</v>
       </c>
@@ -31913,13 +31926,13 @@
         <f>PEARSON(processed_data!J:J, processed_data!N:N)</f>
         <v>0.98324823078868029</v>
       </c>
-      <c r="E9" s="345">
-        <v>1</v>
-      </c>
-      <c r="F9" s="344"/>
+      <c r="E9" s="166">
+        <v>1</v>
+      </c>
+      <c r="F9" s="165"/>
       <c r="G9" s="79"/>
       <c r="H9" s="79"/>
-      <c r="I9" s="345"/>
+      <c r="I9" s="166"/>
       <c r="J9" s="79"/>
       <c r="K9" s="79"/>
       <c r="L9" s="79"/>
@@ -31927,16 +31940,16 @@
       <c r="N9" s="79"/>
       <c r="O9" s="79"/>
       <c r="P9" s="79"/>
-      <c r="Q9" s="344"/>
+      <c r="Q9" s="165"/>
       <c r="R9" s="79"/>
-      <c r="S9" s="345"/>
-      <c r="T9" s="337"/>
+      <c r="S9" s="166"/>
+      <c r="T9" s="158"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10" s="309" t="s">
+      <c r="A10" s="130" t="s">
         <v>378</v>
       </c>
-      <c r="B10" s="346">
+      <c r="B10" s="167">
         <f>PEARSON(processed_data!B:B, processed_data!R:R)</f>
         <v>0.52454683108355937</v>
       </c>
@@ -31948,16 +31961,16 @@
         <f>PEARSON(processed_data!J:J, processed_data!R:R)</f>
         <v>0.67630475849237337</v>
       </c>
-      <c r="E10" s="347">
+      <c r="E10" s="168">
         <f>PEARSON(processed_data!N:N, processed_data!R:R)</f>
         <v>0.64996285402193432</v>
       </c>
-      <c r="F10" s="346">
+      <c r="F10" s="167">
         <v>1</v>
       </c>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
-      <c r="I10" s="347"/>
+      <c r="I10" s="168"/>
       <c r="J10" s="96"/>
       <c r="K10" s="96"/>
       <c r="L10" s="96"/>
@@ -31965,16 +31978,16 @@
       <c r="N10" s="96"/>
       <c r="O10" s="96"/>
       <c r="P10" s="96"/>
-      <c r="Q10" s="346"/>
+      <c r="Q10" s="167"/>
       <c r="R10" s="96"/>
-      <c r="S10" s="347"/>
-      <c r="T10" s="338"/>
+      <c r="S10" s="168"/>
+      <c r="T10" s="159"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="310" t="s">
+      <c r="A11" s="131" t="s">
         <v>695</v>
       </c>
-      <c r="B11" s="342">
+      <c r="B11" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!A:A)</f>
         <v>-0.10874544956540738</v>
       </c>
@@ -31986,11 +31999,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!V:V)</f>
         <v>0.46638742221903318</v>
       </c>
-      <c r="E11" s="343">
+      <c r="E11" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!V:V)</f>
         <v>0.47550569626489958</v>
       </c>
-      <c r="F11" s="342">
+      <c r="F11" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!V:V)</f>
         <v>0.66296515524621324</v>
       </c>
@@ -31998,7 +32011,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="116"/>
-      <c r="I11" s="343"/>
+      <c r="I11" s="164"/>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -32006,16 +32019,16 @@
       <c r="N11" s="95"/>
       <c r="O11" s="95"/>
       <c r="P11" s="95"/>
-      <c r="Q11" s="342"/>
+      <c r="Q11" s="163"/>
       <c r="R11" s="116"/>
-      <c r="S11" s="343"/>
-      <c r="T11" s="336"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="157"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="310" t="s">
+      <c r="A12" s="131" t="s">
         <v>661</v>
       </c>
-      <c r="B12" s="342">
+      <c r="B12" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!Z:Z)</f>
         <v>0.82178942044068259</v>
       </c>
@@ -32027,11 +32040,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!Z:Z)</f>
         <v>0.88575932228837162</v>
       </c>
-      <c r="E12" s="343">
+      <c r="E12" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!Z:Z)</f>
         <v>0.83619797480060276</v>
       </c>
-      <c r="F12" s="342">
+      <c r="F12" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!Z:Z)</f>
         <v>0.71604919282937352</v>
       </c>
@@ -32042,7 +32055,7 @@
       <c r="H12" s="116">
         <v>1</v>
       </c>
-      <c r="I12" s="343"/>
+      <c r="I12" s="164"/>
       <c r="J12" s="95"/>
       <c r="K12" s="95"/>
       <c r="L12" s="95"/>
@@ -32050,16 +32063,16 @@
       <c r="N12" s="95"/>
       <c r="O12" s="95"/>
       <c r="P12" s="95"/>
-      <c r="Q12" s="342"/>
+      <c r="Q12" s="163"/>
       <c r="R12" s="116"/>
-      <c r="S12" s="343"/>
-      <c r="T12" s="336"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="157"/>
     </row>
     <row r="13" spans="1:20" ht="15" thickBot="1">
-      <c r="A13" s="311" t="s">
+      <c r="A13" s="132" t="s">
         <v>381</v>
       </c>
-      <c r="B13" s="344">
+      <c r="B13" s="165">
         <f>PEARSON(processed_data!B:B, processed_data!AD:AD)</f>
         <v>0.68331755696075369</v>
       </c>
@@ -32071,11 +32084,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!AD:AD)</f>
         <v>0.85876287555840614</v>
       </c>
-      <c r="E13" s="345">
+      <c r="E13" s="166">
         <f>PEARSON(processed_data!N:N, processed_data!AD:AD)</f>
         <v>0.85173298733415692</v>
       </c>
-      <c r="F13" s="344">
+      <c r="F13" s="165">
         <f>PEARSON(processed_data!R:R, processed_data!AD:AD)</f>
         <v>0.65234513995690568</v>
       </c>
@@ -32087,7 +32100,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!AD:AD)</f>
         <v>0.90113915087727037</v>
       </c>
-      <c r="I13" s="345">
+      <c r="I13" s="166">
         <v>1</v>
       </c>
       <c r="J13" s="79"/>
@@ -32097,16 +32110,16 @@
       <c r="N13" s="79"/>
       <c r="O13" s="79"/>
       <c r="P13" s="79"/>
-      <c r="Q13" s="344"/>
+      <c r="Q13" s="165"/>
       <c r="R13" s="79"/>
-      <c r="S13" s="345"/>
-      <c r="T13" s="337"/>
+      <c r="S13" s="166"/>
+      <c r="T13" s="158"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="312" t="s">
+      <c r="A14" s="133" t="s">
         <v>660</v>
       </c>
-      <c r="B14" s="346">
+      <c r="B14" s="167">
         <f>PEARSON(processed_data!B:B, processed_data!AH:AH)</f>
         <v>0.30081300813008127</v>
       </c>
@@ -32118,11 +32131,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!AH:AH)</f>
         <v>0.4311468594272384</v>
       </c>
-      <c r="E14" s="347">
+      <c r="E14" s="168">
         <f>PEARSON(processed_data!N:N, processed_data!AH:AH)</f>
         <v>0.54193737374048878</v>
       </c>
-      <c r="F14" s="346">
+      <c r="F14" s="167">
         <f>PEARSON(processed_data!R:R, processed_data!AH:AH)</f>
         <v>0.46516417096089213</v>
       </c>
@@ -32134,7 +32147,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!AH:AH)</f>
         <v>0.26118888556641845</v>
       </c>
-      <c r="I14" s="347">
+      <c r="I14" s="168">
         <f>PEARSON(processed_data!AD:AD, processed_data!AH:AH)</f>
         <v>0.32843983764631463</v>
       </c>
@@ -32147,16 +32160,16 @@
       <c r="N14" s="96"/>
       <c r="O14" s="96"/>
       <c r="P14" s="96"/>
-      <c r="Q14" s="346"/>
+      <c r="Q14" s="167"/>
       <c r="R14" s="96"/>
-      <c r="S14" s="347"/>
-      <c r="T14" s="338"/>
+      <c r="S14" s="168"/>
+      <c r="T14" s="159"/>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15" s="313" t="s">
+      <c r="A15" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="B15" s="342">
+      <c r="B15" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!AL:AL)</f>
         <v>0.71393719720505622</v>
       </c>
@@ -32168,11 +32181,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!AL:AL)</f>
         <v>0.71224544896478448</v>
       </c>
-      <c r="E15" s="343">
+      <c r="E15" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!AL:AL)</f>
         <v>0.6986640015118748</v>
       </c>
-      <c r="F15" s="342">
+      <c r="F15" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!AL:AL)</f>
         <v>0.55224541831418783</v>
       </c>
@@ -32184,7 +32197,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!AL:AL)</f>
         <v>0.65848087756160356</v>
       </c>
-      <c r="I15" s="343">
+      <c r="I15" s="164">
         <f>PEARSON(processed_data!AD:AD, processed_data!AL:AL)</f>
         <v>0.70597442878967942</v>
       </c>
@@ -32200,16 +32213,16 @@
       <c r="N15" s="95"/>
       <c r="O15" s="95"/>
       <c r="P15" s="95"/>
-      <c r="Q15" s="342"/>
+      <c r="Q15" s="163"/>
       <c r="R15" s="116"/>
-      <c r="S15" s="343"/>
-      <c r="T15" s="336"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="157"/>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16" s="313" t="s">
+      <c r="A16" s="134" t="s">
         <v>402</v>
       </c>
-      <c r="B16" s="342">
+      <c r="B16" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!AP:AP)</f>
         <v>-0.10529232878566532</v>
       </c>
@@ -32221,11 +32234,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!AP:AP)</f>
         <v>-2.7779921372933017E-2</v>
       </c>
-      <c r="E16" s="343">
+      <c r="E16" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!AP:AP)</f>
         <v>3.4617052137441165E-2</v>
       </c>
-      <c r="F16" s="342">
+      <c r="F16" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!AP:AP)</f>
         <v>-0.34180544203457935</v>
       </c>
@@ -32237,7 +32250,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!AP:AP)</f>
         <v>-0.24751067412798763</v>
       </c>
-      <c r="I16" s="343">
+      <c r="I16" s="164">
         <f>PEARSON(processed_data!AD:AD, processed_data!AP:AP)</f>
         <v>-3.9507213907683483E-2</v>
       </c>
@@ -32256,16 +32269,16 @@
       <c r="N16" s="95"/>
       <c r="O16" s="95"/>
       <c r="P16" s="95"/>
-      <c r="Q16" s="342"/>
+      <c r="Q16" s="163"/>
       <c r="R16" s="116"/>
-      <c r="S16" s="343"/>
-      <c r="T16" s="336"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="157"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="313" t="s">
+      <c r="A17" s="134" t="s">
         <v>385</v>
       </c>
-      <c r="B17" s="342">
+      <c r="B17" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!AT:AT)</f>
         <v>0.3712589915375844</v>
       </c>
@@ -32277,11 +32290,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!AT:AT)</f>
         <v>0.62035974365918389</v>
       </c>
-      <c r="E17" s="343">
+      <c r="E17" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!AT:AT)</f>
         <v>0.65663300526698165</v>
       </c>
-      <c r="F17" s="342">
+      <c r="F17" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!AT:AT)</f>
         <v>0.67513533978911189</v>
       </c>
@@ -32293,7 +32306,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!AT:AT)</f>
         <v>0.62131810927129782</v>
       </c>
-      <c r="I17" s="343">
+      <c r="I17" s="164">
         <f>PEARSON(processed_data!AD:AD, processed_data!AT:AT)</f>
         <v>0.55548732879098783</v>
       </c>
@@ -32315,16 +32328,16 @@
       <c r="N17" s="95"/>
       <c r="O17" s="95"/>
       <c r="P17" s="95"/>
-      <c r="Q17" s="342"/>
+      <c r="Q17" s="163"/>
       <c r="R17" s="116"/>
-      <c r="S17" s="343"/>
-      <c r="T17" s="336"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="157"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="313" t="s">
+      <c r="A18" s="134" t="s">
         <v>386</v>
       </c>
-      <c r="B18" s="342">
+      <c r="B18" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!AX:AX)</f>
         <v>0.51015306388043047</v>
       </c>
@@ -32336,11 +32349,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!AX:AX)</f>
         <v>0.77026691628241961</v>
       </c>
-      <c r="E18" s="343">
+      <c r="E18" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!AX:AX)</f>
         <v>0.75890720589803373</v>
       </c>
-      <c r="F18" s="342">
+      <c r="F18" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!AX:AX)</f>
         <v>0.71326452470309332</v>
       </c>
@@ -32352,7 +32365,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!AX:AX)</f>
         <v>0.73087580063035451</v>
       </c>
-      <c r="I18" s="343">
+      <c r="I18" s="164">
         <f>PEARSON(processed_data!AD:AD, processed_data!AX:AX)</f>
         <v>0.88696125940993842</v>
       </c>
@@ -32377,16 +32390,16 @@
       </c>
       <c r="O18" s="95"/>
       <c r="P18" s="95"/>
-      <c r="Q18" s="342"/>
+      <c r="Q18" s="163"/>
       <c r="R18" s="116"/>
-      <c r="S18" s="343"/>
-      <c r="T18" s="336"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="157"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="313" t="s">
+      <c r="A19" s="134" t="s">
         <v>387</v>
       </c>
-      <c r="B19" s="342">
+      <c r="B19" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!BB:BB)</f>
         <v>0.60163556974635624</v>
       </c>
@@ -32398,11 +32411,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!BB:BB)</f>
         <v>0.7986264382607664</v>
       </c>
-      <c r="E19" s="343">
+      <c r="E19" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!BB:BB)</f>
         <v>0.83601515642226198</v>
       </c>
-      <c r="F19" s="342">
+      <c r="F19" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!BB:BB)</f>
         <v>0.69425205413681379</v>
       </c>
@@ -32414,7 +32427,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!BB:BB)</f>
         <v>0.75132813027539702</v>
       </c>
-      <c r="I19" s="343">
+      <c r="I19" s="164">
         <f>PEARSON(processed_data!AD:AD, processed_data!BB:BB)</f>
         <v>0.8771033625519814</v>
       </c>
@@ -32442,16 +32455,16 @@
         <v>1</v>
       </c>
       <c r="P19" s="95"/>
-      <c r="Q19" s="342"/>
+      <c r="Q19" s="163"/>
       <c r="R19" s="116"/>
-      <c r="S19" s="343"/>
-      <c r="T19" s="336"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="157"/>
     </row>
     <row r="20" spans="1:20" ht="15" thickBot="1">
-      <c r="A20" s="314" t="s">
+      <c r="A20" s="135" t="s">
         <v>388</v>
       </c>
-      <c r="B20" s="344">
+      <c r="B20" s="165">
         <f>PEARSON(processed_data!B:B, processed_data!BF:BF)</f>
         <v>0.41646336503628278</v>
       </c>
@@ -32463,11 +32476,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!BF:BF)</f>
         <v>0.39830806099132565</v>
       </c>
-      <c r="E20" s="345">
+      <c r="E20" s="166">
         <f>PEARSON(processed_data!N:N, processed_data!BF:BF)</f>
         <v>0.33802379075771372</v>
       </c>
-      <c r="F20" s="344">
+      <c r="F20" s="165">
         <f>PEARSON(processed_data!R:R, processed_data!BF:BF)</f>
         <v>0.40135869199883595</v>
       </c>
@@ -32479,7 +32492,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!BF:BF)</f>
         <v>0.63905666288426999</v>
       </c>
-      <c r="I20" s="345">
+      <c r="I20" s="166">
         <f>PEARSON(processed_data!AD:AD, processed_data!BF:BF)</f>
         <v>0.6315634218026247</v>
       </c>
@@ -32510,16 +32523,16 @@
       <c r="P20" s="79">
         <v>1</v>
       </c>
-      <c r="Q20" s="344"/>
+      <c r="Q20" s="165"/>
       <c r="R20" s="79"/>
-      <c r="S20" s="345"/>
-      <c r="T20" s="337"/>
+      <c r="S20" s="166"/>
+      <c r="T20" s="158"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="351" t="s">
+      <c r="A21" s="172" t="s">
         <v>403</v>
       </c>
-      <c r="B21" s="346">
+      <c r="B21" s="167">
         <f>PEARSON(processed_data!B:B, processed_data!BJ:BJ)</f>
         <v>0.64626565193579522</v>
       </c>
@@ -32531,11 +32544,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!BJ:BJ)</f>
         <v>0.87430817673604266</v>
       </c>
-      <c r="E21" s="347">
+      <c r="E21" s="168">
         <f>PEARSON(processed_data!N:N, processed_data!BJ:BJ)</f>
         <v>0.89397023608637249</v>
       </c>
-      <c r="F21" s="346">
+      <c r="F21" s="167">
         <f>PEARSON(processed_data!R:R, processed_data!BJ:BJ)</f>
         <v>0.56354272164215125</v>
       </c>
@@ -32547,7 +32560,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!BJ:BJ)</f>
         <v>0.65723245084767323</v>
       </c>
-      <c r="I21" s="347">
+      <c r="I21" s="168">
         <f>PEARSON(processed_data!AD:AD, processed_data!BJ:BJ)</f>
         <v>0.69306932972993196</v>
       </c>
@@ -32579,18 +32592,18 @@
         <f>PEARSON(processed_data!BF:BF, processed_data!BJ:BJ)</f>
         <v>2.9348363544187461E-2</v>
       </c>
-      <c r="Q21" s="346">
+      <c r="Q21" s="167">
         <v>1</v>
       </c>
       <c r="R21" s="96"/>
-      <c r="S21" s="347"/>
-      <c r="T21" s="338"/>
+      <c r="S21" s="168"/>
+      <c r="T21" s="159"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="352" t="s">
+      <c r="A22" s="173" t="s">
         <v>665</v>
       </c>
-      <c r="B22" s="342">
+      <c r="B22" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!BN:BN)</f>
         <v>0.70582129837608876</v>
       </c>
@@ -32602,11 +32615,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!BN:BN)</f>
         <v>0.73712544630292065</v>
       </c>
-      <c r="E22" s="343">
+      <c r="E22" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!BN:BN)</f>
         <v>0.69857770302217881</v>
       </c>
-      <c r="F22" s="342">
+      <c r="F22" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!BN:BN)</f>
         <v>0.60861961977829981</v>
       </c>
@@ -32618,7 +32631,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!BN:BN)</f>
         <v>0.5914648429814906</v>
       </c>
-      <c r="I22" s="343">
+      <c r="I22" s="164">
         <f>PEARSON(processed_data!AD:AD, processed_data!BN:BN)</f>
         <v>0.54806012292342521</v>
       </c>
@@ -32650,21 +32663,21 @@
         <f>PEARSON(processed_data!BF:BF, processed_data!BN:BN)</f>
         <v>0.18831089428867734</v>
       </c>
-      <c r="Q22" s="342">
+      <c r="Q22" s="163">
         <f>PEARSON(processed_data!BJ:BJ, processed_data!BN:BN)</f>
         <v>0.61345444092558243</v>
       </c>
       <c r="R22" s="116">
         <v>1</v>
       </c>
-      <c r="S22" s="343"/>
-      <c r="T22" s="336"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="157"/>
     </row>
     <row r="23" spans="1:20" ht="15" thickBot="1">
-      <c r="A23" s="353" t="s">
+      <c r="A23" s="174" t="s">
         <v>405</v>
       </c>
-      <c r="B23" s="342">
+      <c r="B23" s="163">
         <f>PEARSON(processed_data!B:B, processed_data!BR:BR)</f>
         <v>0.71976257290223433</v>
       </c>
@@ -32676,11 +32689,11 @@
         <f>PEARSON(processed_data!J:J, processed_data!BR:BR)</f>
         <v>0.79192080792085684</v>
       </c>
-      <c r="E23" s="343">
+      <c r="E23" s="164">
         <f>PEARSON(processed_data!N:N, processed_data!BR:BR)</f>
         <v>0.83829908238902362</v>
       </c>
-      <c r="F23" s="342">
+      <c r="F23" s="163">
         <f>PEARSON(processed_data!R:R, processed_data!BR:BR)</f>
         <v>0.72084459438597692</v>
       </c>
@@ -32692,7 +32705,7 @@
         <f>PEARSON(processed_data!Z:Z, processed_data!BR:BR)</f>
         <v>0.71197721709357387</v>
       </c>
-      <c r="I23" s="343">
+      <c r="I23" s="164">
         <f>PEARSON(processed_data!AD:AD, processed_data!BR:BR)</f>
         <v>0.7048515166286059</v>
       </c>
@@ -32724,7 +32737,7 @@
         <f>PEARSON(processed_data!BF:BF, processed_data!BR:BR)</f>
         <v>0.19611613513818399</v>
       </c>
-      <c r="Q23" s="342">
+      <c r="Q23" s="163">
         <f>PEARSON(processed_data!BJ:BJ, processed_data!BR:BR)</f>
         <v>0.72521664149546916</v>
       </c>
@@ -32732,44 +32745,44 @@
         <f>PEARSON(processed_data!BN:BN, processed_data!BR:BR)</f>
         <v>0.44316965750772647</v>
       </c>
-      <c r="S23" s="343">
-        <v>1</v>
-      </c>
-      <c r="T23" s="336"/>
+      <c r="S23" s="164">
+        <v>1</v>
+      </c>
+      <c r="T23" s="157"/>
     </row>
     <row r="24" spans="1:20" s="85" customFormat="1" ht="15" thickBot="1">
-      <c r="A24" s="358" t="s">
+      <c r="A24" s="179" t="s">
         <v>666</v>
       </c>
-      <c r="B24" s="348">
+      <c r="B24" s="169">
         <f>PEARSON(processed_data!B:B, processed_data!BV:BV)</f>
         <v>-0.1668097404904787</v>
       </c>
-      <c r="C24" s="349">
+      <c r="C24" s="170">
         <f>PEARSON(processed_data!F:F, processed_data!BV:BV)</f>
         <v>0.32636495600330961</v>
       </c>
-      <c r="D24" s="349">
+      <c r="D24" s="170">
         <f>PEARSON(processed_data!J:J, processed_data!BV:BV)</f>
         <v>-8.3130826744339525E-2</v>
       </c>
-      <c r="E24" s="350">
+      <c r="E24" s="171">
         <f>PEARSON(processed_data!N:N, processed_data!BV:BV)</f>
         <v>5.0272003867768013E-2</v>
       </c>
-      <c r="F24" s="348">
+      <c r="F24" s="169">
         <f>PEARSON(processed_data!R:R, processed_data!BV:BV)</f>
         <v>0.13537661703751741</v>
       </c>
-      <c r="G24" s="349">
+      <c r="G24" s="170">
         <f>PEARSON(processed_data!V:V, processed_data!BV:BV)</f>
         <v>0.29512049411732316</v>
       </c>
-      <c r="H24" s="349">
+      <c r="H24" s="170">
         <f>PEARSON(processed_data!Z:Z, processed_data!BV:BV)</f>
         <v>-0.12586556730318019</v>
       </c>
-      <c r="I24" s="350">
+      <c r="I24" s="171">
         <f>PEARSON(processed_data!AD:AD, processed_data!BV:BV)</f>
         <v>-8.3452589255672491E-2</v>
       </c>
@@ -32801,29 +32814,29 @@
         <f>PEARSON(processed_data!BF:BF, processed_data!BV:BV)</f>
         <v>-0.4747126632775413</v>
       </c>
-      <c r="Q24" s="348">
+      <c r="Q24" s="169">
         <f>PEARSON(processed_data!BJ:BJ, processed_data!BV:BV)</f>
         <v>7.3143209059718314E-2</v>
       </c>
-      <c r="R24" s="349">
+      <c r="R24" s="170">
         <f>PEARSON(processed_data!BR:BR, processed_data!BV:BV)</f>
         <v>0.31420849327811623</v>
       </c>
-      <c r="S24" s="350">
+      <c r="S24" s="171">
         <f>PEARSON(processed_data!BR:BR, processed_data!BV:BV)</f>
         <v>0.31420849327811623</v>
       </c>
-      <c r="T24" s="339">
+      <c r="T24" s="160">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="296" t="s">
+      <c r="A25" s="349" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" thickBot="1">
-      <c r="A26" s="295"/>
+      <c r="A26" s="348"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="94" t="s">
@@ -32888,19 +32901,19 @@
       </c>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="306" t="s">
+      <c r="A28" s="127" t="s">
         <v>368</v>
       </c>
-      <c r="B28" s="340">
+      <c r="B28" s="161">
         <v>1</v>
       </c>
       <c r="C28" s="35"/>
       <c r="D28" s="35"/>
-      <c r="E28" s="341"/>
-      <c r="F28" s="340"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="161"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
-      <c r="I28" s="341"/>
+      <c r="I28" s="162"/>
       <c r="J28" s="96"/>
       <c r="K28" s="96"/>
       <c r="L28" s="96"/>
@@ -32908,16 +32921,16 @@
       <c r="N28" s="96"/>
       <c r="O28" s="96"/>
       <c r="P28" s="96"/>
-      <c r="Q28" s="340"/>
+      <c r="Q28" s="161"/>
       <c r="R28" s="35"/>
-      <c r="S28" s="341"/>
-      <c r="T28" s="335"/>
+      <c r="S28" s="162"/>
+      <c r="T28" s="156"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="307" t="s">
+      <c r="A29" s="128" t="s">
         <v>369</v>
       </c>
-      <c r="B29" s="342">
+      <c r="B29" s="163">
         <f>(B7 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B7^2)</f>
         <v>2.2627416997969512</v>
       </c>
@@ -32925,11 +32938,11 @@
         <v>1</v>
       </c>
       <c r="D29" s="116"/>
-      <c r="E29" s="343"/>
-      <c r="F29" s="342"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="163"/>
       <c r="G29" s="116"/>
       <c r="H29" s="116"/>
-      <c r="I29" s="343"/>
+      <c r="I29" s="164"/>
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
       <c r="L29" s="95"/>
@@ -32937,16 +32950,16 @@
       <c r="N29" s="95"/>
       <c r="O29" s="95"/>
       <c r="P29" s="95"/>
-      <c r="Q29" s="342"/>
+      <c r="Q29" s="163"/>
       <c r="R29" s="116"/>
-      <c r="S29" s="343"/>
-      <c r="T29" s="336"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="157"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="307" t="s">
+      <c r="A30" s="128" t="s">
         <v>370</v>
       </c>
-      <c r="B30" s="342">
+      <c r="B30" s="163">
         <f>(B8 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B8^2)</f>
         <v>5.4629371828765274</v>
       </c>
@@ -32957,11 +32970,11 @@
       <c r="D30" s="116">
         <v>1</v>
       </c>
-      <c r="E30" s="343"/>
-      <c r="F30" s="342"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="163"/>
       <c r="G30" s="116"/>
       <c r="H30" s="116"/>
-      <c r="I30" s="343"/>
+      <c r="I30" s="164"/>
       <c r="J30" s="95"/>
       <c r="K30" s="95"/>
       <c r="L30" s="95"/>
@@ -32969,16 +32982,16 @@
       <c r="N30" s="95"/>
       <c r="O30" s="95"/>
       <c r="P30" s="95"/>
-      <c r="Q30" s="342"/>
+      <c r="Q30" s="163"/>
       <c r="R30" s="116"/>
-      <c r="S30" s="343"/>
-      <c r="T30" s="336"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="157"/>
     </row>
     <row r="31" spans="1:20" ht="15" thickBot="1">
-      <c r="A31" s="308" t="s">
+      <c r="A31" s="129" t="s">
         <v>371</v>
       </c>
-      <c r="B31" s="344">
+      <c r="B31" s="165">
         <f>(B9 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B9^2)</f>
         <v>4.5252937210531003</v>
       </c>
@@ -32990,13 +33003,13 @@
         <f>(D9 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D9^2)</f>
         <v>15.257707635939646</v>
       </c>
-      <c r="E31" s="345">
-        <v>1</v>
-      </c>
-      <c r="F31" s="344"/>
+      <c r="E31" s="166">
+        <v>1</v>
+      </c>
+      <c r="F31" s="165"/>
       <c r="G31" s="79"/>
       <c r="H31" s="79"/>
-      <c r="I31" s="345"/>
+      <c r="I31" s="166"/>
       <c r="J31" s="79"/>
       <c r="K31" s="79"/>
       <c r="L31" s="79"/>
@@ -33004,16 +33017,16 @@
       <c r="N31" s="79"/>
       <c r="O31" s="79"/>
       <c r="P31" s="79"/>
-      <c r="Q31" s="344"/>
+      <c r="Q31" s="165"/>
       <c r="R31" s="79"/>
-      <c r="S31" s="345"/>
-      <c r="T31" s="337"/>
+      <c r="S31" s="166"/>
+      <c r="T31" s="158"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="309" t="s">
+      <c r="A32" s="130" t="s">
         <v>378</v>
       </c>
-      <c r="B32" s="346">
+      <c r="B32" s="167">
         <f>(B10 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B10^2)</f>
         <v>1.7426292654367876</v>
       </c>
@@ -33025,16 +33038,16 @@
         <f>(D10 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D10^2)</f>
         <v>2.596825637737787</v>
       </c>
-      <c r="E32" s="347">
+      <c r="E32" s="168">
         <f>(E10 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E10^2)</f>
         <v>2.4190195594784014</v>
       </c>
-      <c r="F32" s="346">
+      <c r="F32" s="167">
         <v>1</v>
       </c>
       <c r="G32" s="96"/>
       <c r="H32" s="96"/>
-      <c r="I32" s="347"/>
+      <c r="I32" s="168"/>
       <c r="J32" s="96"/>
       <c r="K32" s="96"/>
       <c r="L32" s="96"/>
@@ -33042,16 +33055,16 @@
       <c r="N32" s="96"/>
       <c r="O32" s="96"/>
       <c r="P32" s="96"/>
-      <c r="Q32" s="346"/>
+      <c r="Q32" s="167"/>
       <c r="R32" s="96"/>
-      <c r="S32" s="347"/>
-      <c r="T32" s="338"/>
+      <c r="S32" s="168"/>
+      <c r="T32" s="159"/>
     </row>
     <row r="33" spans="1:20">
-      <c r="A33" s="310" t="s">
+      <c r="A33" s="131" t="s">
         <v>695</v>
       </c>
-      <c r="B33" s="342">
+      <c r="B33" s="163">
         <f>(B11 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B11^2)</f>
         <v>-0.30941351620279189</v>
       </c>
@@ -33063,11 +33076,11 @@
         <f>(D11 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D11^2)</f>
         <v>1.4912636461352571</v>
       </c>
-      <c r="E33" s="343">
+      <c r="E33" s="164">
         <f>(E11 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E11^2)</f>
         <v>1.5288324218541229</v>
       </c>
-      <c r="F33" s="342">
+      <c r="F33" s="163">
         <f>(F11 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F11^2)</f>
         <v>2.5047057923891627</v>
       </c>
@@ -33075,7 +33088,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="116"/>
-      <c r="I33" s="343"/>
+      <c r="I33" s="164"/>
       <c r="J33" s="95"/>
       <c r="K33" s="95"/>
       <c r="L33" s="95"/>
@@ -33083,16 +33096,16 @@
       <c r="N33" s="95"/>
       <c r="O33" s="95"/>
       <c r="P33" s="95"/>
-      <c r="Q33" s="342"/>
+      <c r="Q33" s="163"/>
       <c r="R33" s="116"/>
-      <c r="S33" s="343"/>
-      <c r="T33" s="336"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="157"/>
     </row>
     <row r="34" spans="1:20">
-      <c r="A34" s="310" t="s">
+      <c r="A34" s="131" t="s">
         <v>661</v>
       </c>
-      <c r="B34" s="342">
+      <c r="B34" s="163">
         <f>(B12 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B12^2)</f>
         <v>4.0793381816172136</v>
       </c>
@@ -33104,11 +33117,11 @@
         <f>(D12 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D12^2)</f>
         <v>5.3976809232848861</v>
       </c>
-      <c r="E34" s="343">
+      <c r="E34" s="164">
         <f>(E12 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E12^2)</f>
         <v>4.3125557200410967</v>
       </c>
-      <c r="F34" s="342">
+      <c r="F34" s="163">
         <f>(F12 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F12^2)</f>
         <v>2.901358752564156</v>
       </c>
@@ -33119,7 +33132,7 @@
       <c r="H34" s="116">
         <v>1</v>
       </c>
-      <c r="I34" s="343"/>
+      <c r="I34" s="164"/>
       <c r="J34" s="95"/>
       <c r="K34" s="95"/>
       <c r="L34" s="95"/>
@@ -33127,16 +33140,16 @@
       <c r="N34" s="95"/>
       <c r="O34" s="95"/>
       <c r="P34" s="95"/>
-      <c r="Q34" s="342"/>
+      <c r="Q34" s="163"/>
       <c r="R34" s="116"/>
-      <c r="S34" s="343"/>
-      <c r="T34" s="336"/>
+      <c r="S34" s="164"/>
+      <c r="T34" s="157"/>
     </row>
     <row r="35" spans="1:20" ht="15" thickBot="1">
-      <c r="A35" s="311" t="s">
+      <c r="A35" s="132" t="s">
         <v>381</v>
       </c>
-      <c r="B35" s="344">
+      <c r="B35" s="165">
         <f>(B13 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B13^2)</f>
         <v>2.64711344037313</v>
       </c>
@@ -33148,11 +33161,11 @@
         <f>(D13 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D13^2)</f>
         <v>4.7405837850392114</v>
       </c>
-      <c r="E35" s="345">
+      <c r="E35" s="166">
         <f>(E13 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E13^2)</f>
         <v>4.5976616840769822</v>
       </c>
-      <c r="F35" s="344">
+      <c r="F35" s="165">
         <f>(F13 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F13^2)</f>
         <v>2.4344333476587754</v>
       </c>
@@ -33164,7 +33177,7 @@
         <f>(H13 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H13^2)</f>
         <v>5.8791931859510225</v>
       </c>
-      <c r="I35" s="345">
+      <c r="I35" s="166">
         <v>1</v>
       </c>
       <c r="J35" s="79"/>
@@ -33174,16 +33187,16 @@
       <c r="N35" s="79"/>
       <c r="O35" s="79"/>
       <c r="P35" s="79"/>
-      <c r="Q35" s="344"/>
+      <c r="Q35" s="165"/>
       <c r="R35" s="79"/>
-      <c r="S35" s="345"/>
-      <c r="T35" s="337"/>
+      <c r="S35" s="166"/>
+      <c r="T35" s="158"/>
     </row>
     <row r="36" spans="1:20">
-      <c r="A36" s="312" t="s">
+      <c r="A36" s="133" t="s">
         <v>660</v>
       </c>
-      <c r="B36" s="346">
+      <c r="B36" s="167">
         <f>(B14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B14^2)</f>
         <v>0.89214922101526228</v>
       </c>
@@ -33195,11 +33208,11 @@
         <f>(D14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D14^2)</f>
         <v>1.3515373108970006</v>
       </c>
-      <c r="E36" s="347">
+      <c r="E36" s="168">
         <f>(E14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E14^2)</f>
         <v>1.8238885585812075</v>
       </c>
-      <c r="F36" s="346">
+      <c r="F36" s="167">
         <f>(F14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F14^2)</f>
         <v>1.4862705002791381</v>
       </c>
@@ -33211,7 +33224,7 @@
         <f>(H14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H14^2)</f>
         <v>0.7653197277702215</v>
       </c>
-      <c r="I36" s="347">
+      <c r="I36" s="168">
         <f>(I14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I14^2)</f>
         <v>0.98352955307474144</v>
       </c>
@@ -33224,16 +33237,16 @@
       <c r="N36" s="96"/>
       <c r="O36" s="96"/>
       <c r="P36" s="96"/>
-      <c r="Q36" s="346"/>
+      <c r="Q36" s="167"/>
       <c r="R36" s="96"/>
-      <c r="S36" s="347"/>
-      <c r="T36" s="338"/>
+      <c r="S36" s="168"/>
+      <c r="T36" s="159"/>
     </row>
     <row r="37" spans="1:20">
-      <c r="A37" s="313" t="s">
+      <c r="A37" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="342">
+      <c r="B37" s="163">
         <f>(B15 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B15^2)</f>
         <v>2.8838778179797302</v>
       </c>
@@ -33245,11 +33258,11 @@
         <f>(D15 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D15^2)</f>
         <v>2.8699912034247745</v>
       </c>
-      <c r="E37" s="343">
+      <c r="E37" s="164">
         <f>(E15 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E15^2)</f>
         <v>2.7620663718475584</v>
       </c>
-      <c r="F37" s="342">
+      <c r="F37" s="163">
         <f>(F15 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F15^2)</f>
         <v>1.8736001063435508</v>
       </c>
@@ -33261,7 +33274,7 @@
         <f>(H15 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H15^2)</f>
         <v>2.4747162713129778</v>
       </c>
-      <c r="I37" s="343">
+      <c r="I37" s="164">
         <f>(I15 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I15^2)</f>
         <v>2.8193899961385247</v>
       </c>
@@ -33277,16 +33290,16 @@
       <c r="N37" s="95"/>
       <c r="O37" s="95"/>
       <c r="P37" s="95"/>
-      <c r="Q37" s="342"/>
+      <c r="Q37" s="163"/>
       <c r="R37" s="116"/>
-      <c r="S37" s="343"/>
-      <c r="T37" s="336"/>
+      <c r="S37" s="164"/>
+      <c r="T37" s="157"/>
     </row>
     <row r="38" spans="1:20">
-      <c r="A38" s="313" t="s">
+      <c r="A38" s="134" t="s">
         <v>402</v>
       </c>
-      <c r="B38" s="342">
+      <c r="B38" s="163">
         <f>(B16 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B16^2)</f>
         <v>-0.29947637411773992</v>
       </c>
@@ -33298,11 +33311,11 @@
         <f>(D16 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D16^2)</f>
         <v>-7.8603819216548673E-2</v>
       </c>
-      <c r="E38" s="343">
+      <c r="E38" s="164">
         <f>(E16 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E16^2)</f>
         <v>9.7970527856591813E-2</v>
       </c>
-      <c r="F38" s="342">
+      <c r="F38" s="163">
         <f>(F16 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F16^2)</f>
         <v>-1.028731524250708</v>
       </c>
@@ -33314,7 +33327,7 @@
         <f>(H16 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H16^2)</f>
         <v>-0.7225478606242528</v>
       </c>
-      <c r="I38" s="343">
+      <c r="I38" s="164">
         <f>(I16 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I16^2)</f>
         <v>-0.11183058322357804</v>
       </c>
@@ -33333,16 +33346,16 @@
       <c r="N38" s="95"/>
       <c r="O38" s="95"/>
       <c r="P38" s="95"/>
-      <c r="Q38" s="342"/>
+      <c r="Q38" s="163"/>
       <c r="R38" s="116"/>
-      <c r="S38" s="343"/>
-      <c r="T38" s="336"/>
+      <c r="S38" s="164"/>
+      <c r="T38" s="157"/>
     </row>
     <row r="39" spans="1:20">
-      <c r="A39" s="313" t="s">
+      <c r="A39" s="134" t="s">
         <v>385</v>
       </c>
-      <c r="B39" s="342">
+      <c r="B39" s="163">
         <f>(B17 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B17^2)</f>
         <v>1.1309055523875777</v>
       </c>
@@ -33354,11 +33367,11 @@
         <f>(D17 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D17^2)</f>
         <v>2.2371584764563486</v>
       </c>
-      <c r="E39" s="343">
+      <c r="E39" s="164">
         <f>(E17 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E17^2)</f>
         <v>2.4624945245105159</v>
       </c>
-      <c r="F39" s="342">
+      <c r="F39" s="163">
         <f>(F17 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F17^2)</f>
         <v>2.5885684265353763</v>
       </c>
@@ -33370,7 +33383,7 @@
         <f>(H17 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H17^2)</f>
         <v>2.2427848834904904</v>
       </c>
-      <c r="I39" s="343">
+      <c r="I39" s="164">
         <f>(I17 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I17^2)</f>
         <v>1.889486697351394</v>
       </c>
@@ -33392,16 +33405,16 @@
       <c r="N39" s="95"/>
       <c r="O39" s="95"/>
       <c r="P39" s="95"/>
-      <c r="Q39" s="342"/>
+      <c r="Q39" s="163"/>
       <c r="R39" s="116"/>
-      <c r="S39" s="343"/>
-      <c r="T39" s="336"/>
+      <c r="S39" s="164"/>
+      <c r="T39" s="157"/>
     </row>
     <row r="40" spans="1:20">
-      <c r="A40" s="313" t="s">
+      <c r="A40" s="134" t="s">
         <v>386</v>
       </c>
-      <c r="B40" s="342">
+      <c r="B40" s="163">
         <f>(B18 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B18^2)</f>
         <v>1.6776633254287148</v>
       </c>
@@ -33413,11 +33426,11 @@
         <f>(D18 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D18^2)</f>
         <v>3.416292839988833</v>
       </c>
-      <c r="E40" s="343">
+      <c r="E40" s="164">
         <f>(E18 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E18^2)</f>
         <v>3.2962496057908535</v>
       </c>
-      <c r="F40" s="342">
+      <c r="F40" s="163">
         <f>(F18 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F18^2)</f>
         <v>2.8783439740304422</v>
       </c>
@@ -33429,7 +33442,7 @@
         <f>(H18 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H18^2)</f>
         <v>3.0288603332849973</v>
       </c>
-      <c r="I40" s="343">
+      <c r="I40" s="164">
         <f>(I18 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I18^2)</f>
         <v>5.4319341645244705</v>
       </c>
@@ -33454,16 +33467,16 @@
       </c>
       <c r="O40" s="95"/>
       <c r="P40" s="95"/>
-      <c r="Q40" s="342"/>
+      <c r="Q40" s="163"/>
       <c r="R40" s="116"/>
-      <c r="S40" s="343"/>
-      <c r="T40" s="336"/>
+      <c r="S40" s="164"/>
+      <c r="T40" s="157"/>
     </row>
     <row r="41" spans="1:20">
-      <c r="A41" s="313" t="s">
+      <c r="A41" s="134" t="s">
         <v>387</v>
       </c>
-      <c r="B41" s="342">
+      <c r="B41" s="163">
         <f>(B19 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B19^2)</f>
         <v>2.1303765289555399</v>
       </c>
@@ -33475,11 +33488,11 @@
         <f>(D19 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D19^2)</f>
         <v>3.753331853167265</v>
       </c>
-      <c r="E41" s="343">
+      <c r="E41" s="164">
         <f>(E19 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E19^2)</f>
         <v>4.3094233305193406</v>
       </c>
-      <c r="F41" s="342">
+      <c r="F41" s="163">
         <f>(F19 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F19^2)</f>
         <v>2.7282953479449357</v>
       </c>
@@ -33491,7 +33504,7 @@
         <f>(H19 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H19^2)</f>
         <v>3.2201607438056334</v>
       </c>
-      <c r="I41" s="343">
+      <c r="I41" s="164">
         <f>(I19 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I19^2)</f>
         <v>5.1651349805411684</v>
       </c>
@@ -33519,16 +33532,16 @@
         <v>1</v>
       </c>
       <c r="P41" s="95"/>
-      <c r="Q41" s="342"/>
+      <c r="Q41" s="163"/>
       <c r="R41" s="116"/>
-      <c r="S41" s="343"/>
-      <c r="T41" s="336"/>
+      <c r="S41" s="164"/>
+      <c r="T41" s="157"/>
     </row>
     <row r="42" spans="1:20" ht="15" thickBot="1">
-      <c r="A42" s="314" t="s">
+      <c r="A42" s="135" t="s">
         <v>388</v>
       </c>
-      <c r="B42" s="344">
+      <c r="B42" s="165">
         <f>(B20 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B20^2)</f>
         <v>1.2956421282862656</v>
       </c>
@@ -33540,11 +33553,11 @@
         <f>(D20 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D20^2)</f>
         <v>1.2282182946741169</v>
       </c>
-      <c r="E42" s="345">
+      <c r="E42" s="166">
         <f>(E20 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E20^2)</f>
         <v>1.0158723801975742</v>
       </c>
-      <c r="F42" s="344">
+      <c r="F42" s="165">
         <f>(F20 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F20^2)</f>
         <v>1.2394233388015399</v>
       </c>
@@ -33556,7 +33569,7 @@
         <f>(H20 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H20^2)</f>
         <v>2.3500000000000005</v>
       </c>
-      <c r="I42" s="345">
+      <c r="I42" s="166">
         <f>(I20 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I20^2)</f>
         <v>2.3039795093901554</v>
       </c>
@@ -33587,16 +33600,16 @@
       <c r="P42" s="79">
         <v>1</v>
       </c>
-      <c r="Q42" s="344"/>
+      <c r="Q42" s="165"/>
       <c r="R42" s="79"/>
-      <c r="S42" s="345"/>
-      <c r="T42" s="337"/>
+      <c r="S42" s="166"/>
+      <c r="T42" s="158"/>
     </row>
     <row r="43" spans="1:20">
-      <c r="A43" s="351" t="s">
+      <c r="A43" s="172" t="s">
         <v>403</v>
       </c>
-      <c r="B43" s="346">
+      <c r="B43" s="167">
         <f>(B21 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B21^2)</f>
         <v>2.39534179975684</v>
       </c>
@@ -33608,11 +33621,11 @@
         <f>(D21 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D21^2)</f>
         <v>5.0948983136874917</v>
       </c>
-      <c r="E43" s="347">
+      <c r="E43" s="168">
         <f>(E21 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E21^2)</f>
         <v>5.6424482033524841</v>
       </c>
-      <c r="F43" s="346">
+      <c r="F43" s="167">
         <f>(F21 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F21^2)</f>
         <v>1.9295058177496971</v>
       </c>
@@ -33624,7 +33637,7 @@
         <f>(H21 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H21^2)</f>
         <v>2.4664506373722563</v>
       </c>
-      <c r="I43" s="347">
+      <c r="I43" s="168">
         <f>(I21 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I21^2)</f>
         <v>2.7193440569686556</v>
       </c>
@@ -33656,18 +33669,18 @@
         <f>(P21 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - P21^2)</f>
         <v>8.3045479853739973E-2</v>
       </c>
-      <c r="Q43" s="346">
+      <c r="Q43" s="167">
         <v>1</v>
       </c>
       <c r="R43" s="96"/>
-      <c r="S43" s="347"/>
-      <c r="T43" s="338"/>
+      <c r="S43" s="168"/>
+      <c r="T43" s="159"/>
     </row>
     <row r="44" spans="1:20">
-      <c r="A44" s="352" t="s">
+      <c r="A44" s="173" t="s">
         <v>665</v>
       </c>
-      <c r="B44" s="342">
+      <c r="B44" s="163">
         <f>(B22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B22^2)</f>
         <v>2.8181712039636717</v>
       </c>
@@ -33679,11 +33692,11 @@
         <f>(D22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D22^2)</f>
         <v>3.085293839515503</v>
       </c>
-      <c r="E44" s="343">
+      <c r="E44" s="164">
         <f>(E22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E22^2)</f>
         <v>2.7613999738001436</v>
       </c>
-      <c r="F44" s="342">
+      <c r="F44" s="163">
         <f>(F22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F22^2)</f>
         <v>2.1695253837831623</v>
       </c>
@@ -33695,7 +33708,7 @@
         <f>(H22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H22^2)</f>
         <v>2.074725696109978</v>
       </c>
-      <c r="I44" s="343">
+      <c r="I44" s="164">
         <f>(I22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I22^2)</f>
         <v>1.8532711021487618</v>
       </c>
@@ -33727,21 +33740,21 @@
         <f>(P22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - P22^2)</f>
         <v>0.54232614454664041</v>
       </c>
-      <c r="Q44" s="342">
+      <c r="Q44" s="163">
         <f>(Q22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - Q22^2)</f>
         <v>2.1970938620473137</v>
       </c>
       <c r="R44" s="116">
         <v>1</v>
       </c>
-      <c r="S44" s="343"/>
-      <c r="T44" s="336"/>
+      <c r="S44" s="164"/>
+      <c r="T44" s="157"/>
     </row>
     <row r="45" spans="1:20" ht="15" thickBot="1">
-      <c r="A45" s="353" t="s">
+      <c r="A45" s="174" t="s">
         <v>405</v>
       </c>
-      <c r="B45" s="344">
+      <c r="B45" s="165">
         <f>(B23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B23^2)</f>
         <v>2.932492690868151</v>
       </c>
@@ -33753,11 +33766,11 @@
         <f>(D23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D23^2)</f>
         <v>3.668200072082576</v>
       </c>
-      <c r="E45" s="345">
+      <c r="E45" s="166">
         <f>(E23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E23^2)</f>
         <v>4.3489023570212559</v>
       </c>
-      <c r="F45" s="344">
+      <c r="F45" s="165">
         <f>(F23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F23^2)</f>
         <v>2.941662150177649</v>
       </c>
@@ -33769,7 +33782,7 @@
         <f>(H23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H23^2)</f>
         <v>2.8677987995281264</v>
       </c>
-      <c r="I45" s="345">
+      <c r="I45" s="166">
         <f>(I23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I23^2)</f>
         <v>2.8104707773048574</v>
       </c>
@@ -33801,7 +33814,7 @@
         <f>(P23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - P23^2)</f>
         <v>0.5656854249492379</v>
       </c>
-      <c r="Q45" s="344">
+      <c r="Q45" s="165">
         <f>(Q23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - Q23^2)</f>
         <v>2.9791729889540171</v>
       </c>
@@ -33809,44 +33822,44 @@
         <f>(R23 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - R23^2)</f>
         <v>1.39828233296727</v>
       </c>
-      <c r="S45" s="345">
-        <v>1</v>
-      </c>
-      <c r="T45" s="337"/>
+      <c r="S45" s="166">
+        <v>1</v>
+      </c>
+      <c r="T45" s="158"/>
     </row>
     <row r="46" spans="1:20" s="85" customFormat="1" ht="15" thickBot="1">
-      <c r="A46" s="354" t="s">
+      <c r="A46" s="175" t="s">
         <v>666</v>
       </c>
-      <c r="B46" s="348">
+      <c r="B46" s="169">
         <f>(B24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B24^2)</f>
         <v>-0.47851359961621548</v>
       </c>
-      <c r="C46" s="349">
+      <c r="C46" s="170">
         <f>(C24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - C24^2)</f>
         <v>0.97657287556064554</v>
       </c>
-      <c r="D46" s="349">
+      <c r="D46" s="170">
         <f>(D24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - D24^2)</f>
         <v>-0.23594617938542334</v>
       </c>
-      <c r="E46" s="350">
+      <c r="E46" s="171">
         <f>(E24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - E24^2)</f>
         <v>0.14237071809973509</v>
       </c>
-      <c r="F46" s="348">
+      <c r="F46" s="169">
         <f>(F24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - F24^2)</f>
         <v>0.38646056955876101</v>
       </c>
-      <c r="G46" s="349">
+      <c r="G46" s="170">
         <f>(G24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - G24^2)</f>
         <v>0.87363863791272334</v>
       </c>
-      <c r="H46" s="349">
+      <c r="H46" s="170">
         <f>(H24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - H24^2)</f>
         <v>-0.35885545193735718</v>
       </c>
-      <c r="I46" s="350">
+      <c r="I46" s="171">
         <f>(I24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - I24^2)</f>
         <v>-0.23686581456074352</v>
       </c>
@@ -33878,24 +33891,24 @@
         <f>(P24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - P24^2)</f>
         <v>-1.5255401427929476</v>
       </c>
-      <c r="Q46" s="348">
+      <c r="Q46" s="169">
         <f>(Q24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - Q24^2)</f>
         <v>0.20743586421036864</v>
       </c>
-      <c r="R46" s="349">
+      <c r="R46" s="170">
         <f>(R24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - R24^2)</f>
         <v>0.93612690580476343</v>
       </c>
-      <c r="S46" s="350">
+      <c r="S46" s="171">
         <f>(S24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - S24^2)</f>
         <v>0.93612690580476343</v>
       </c>
-      <c r="T46" s="339">
+      <c r="T46" s="160">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="294" t="s">
+      <c r="A47" s="347" t="s">
         <v>693</v>
       </c>
       <c r="B47" s="98"/>
@@ -33904,7 +33917,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" thickBot="1">
-      <c r="A48" s="295"/>
+      <c r="A48" s="348"/>
       <c r="B48" s="99"/>
       <c r="C48" s="93" t="s">
         <v>697</v>
@@ -33973,36 +33986,36 @@
       </c>
     </row>
     <row r="50" spans="1:20">
-      <c r="A50" s="306" t="s">
+      <c r="A50" s="127" t="s">
         <v>368</v>
       </c>
-      <c r="B50" s="318">
-        <v>1</v>
-      </c>
-      <c r="C50" s="319"/>
-      <c r="D50" s="319"/>
-      <c r="E50" s="319"/>
-      <c r="F50" s="330"/>
-      <c r="G50" s="319"/>
-      <c r="H50" s="319"/>
-      <c r="I50" s="320"/>
-      <c r="J50" s="330"/>
-      <c r="K50" s="319"/>
-      <c r="L50" s="319"/>
-      <c r="M50" s="319"/>
-      <c r="N50" s="319"/>
-      <c r="O50" s="319"/>
-      <c r="P50" s="320"/>
+      <c r="B50" s="139">
+        <v>1</v>
+      </c>
+      <c r="C50" s="140"/>
+      <c r="D50" s="140"/>
+      <c r="E50" s="140"/>
+      <c r="F50" s="151"/>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="141"/>
       <c r="Q50" s="108"/>
       <c r="R50" s="108"/>
       <c r="S50" s="96"/>
-      <c r="T50" s="335"/>
+      <c r="T50" s="156"/>
     </row>
     <row r="51" spans="1:20">
-      <c r="A51" s="307" t="s">
+      <c r="A51" s="128" t="s">
         <v>369</v>
       </c>
-      <c r="B51" s="321">
+      <c r="B51" s="142">
         <f>_xlfn.T.DIST.2T(B29, COUNT(raw_data!A:A) - 2)</f>
         <v>5.3492987351954506E-2</v>
       </c>
@@ -34011,27 +34024,27 @@
       </c>
       <c r="D51" s="109"/>
       <c r="E51" s="109"/>
-      <c r="F51" s="321"/>
+      <c r="F51" s="142"/>
       <c r="G51" s="109"/>
       <c r="H51" s="109"/>
-      <c r="I51" s="322"/>
-      <c r="J51" s="321"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="142"/>
       <c r="K51" s="109"/>
       <c r="L51" s="109"/>
       <c r="M51" s="109"/>
       <c r="N51" s="109"/>
       <c r="O51" s="109"/>
-      <c r="P51" s="322"/>
+      <c r="P51" s="143"/>
       <c r="Q51" s="109"/>
       <c r="R51" s="109"/>
       <c r="S51" s="95"/>
-      <c r="T51" s="336"/>
+      <c r="T51" s="157"/>
     </row>
     <row r="52" spans="1:20">
-      <c r="A52" s="307" t="s">
+      <c r="A52" s="128" t="s">
         <v>370</v>
       </c>
-      <c r="B52" s="321">
+      <c r="B52" s="142">
         <f>_xlfn.T.DIST.2T(B30, COUNT(raw_data!A:A) - 2)</f>
         <v>5.9944103877276325E-4</v>
       </c>
@@ -34043,27 +34056,27 @@
         <v>1</v>
       </c>
       <c r="E52" s="109"/>
-      <c r="F52" s="321"/>
+      <c r="F52" s="142"/>
       <c r="G52" s="109"/>
       <c r="H52" s="109"/>
-      <c r="I52" s="322"/>
-      <c r="J52" s="321"/>
+      <c r="I52" s="143"/>
+      <c r="J52" s="142"/>
       <c r="K52" s="109"/>
       <c r="L52" s="109"/>
       <c r="M52" s="109"/>
       <c r="N52" s="109"/>
       <c r="O52" s="109"/>
-      <c r="P52" s="322"/>
+      <c r="P52" s="143"/>
       <c r="Q52" s="109"/>
       <c r="R52" s="109"/>
       <c r="S52" s="95"/>
-      <c r="T52" s="336"/>
+      <c r="T52" s="157"/>
     </row>
     <row r="53" spans="1:20" ht="15" thickBot="1">
-      <c r="A53" s="308" t="s">
+      <c r="A53" s="129" t="s">
         <v>371</v>
       </c>
-      <c r="B53" s="323">
+      <c r="B53" s="144">
         <f>_xlfn.T.DIST.2T(B31, COUNT(raw_data!A:A) - 2)</f>
         <v>1.9363425887383614E-3</v>
       </c>
@@ -34078,27 +34091,27 @@
       <c r="E53" s="114">
         <v>1</v>
       </c>
-      <c r="F53" s="323"/>
+      <c r="F53" s="144"/>
       <c r="G53" s="110"/>
       <c r="H53" s="110"/>
-      <c r="I53" s="327"/>
-      <c r="J53" s="323"/>
+      <c r="I53" s="148"/>
+      <c r="J53" s="144"/>
       <c r="K53" s="110"/>
       <c r="L53" s="110"/>
       <c r="M53" s="110"/>
       <c r="N53" s="110"/>
       <c r="O53" s="110"/>
-      <c r="P53" s="327"/>
+      <c r="P53" s="148"/>
       <c r="Q53" s="110"/>
       <c r="R53" s="110"/>
       <c r="S53" s="79"/>
-      <c r="T53" s="337"/>
+      <c r="T53" s="158"/>
     </row>
     <row r="54" spans="1:20">
-      <c r="A54" s="309" t="s">
+      <c r="A54" s="130" t="s">
         <v>378</v>
       </c>
-      <c r="B54" s="325">
+      <c r="B54" s="146">
         <f>_xlfn.T.DIST.2T(B32, COUNT(raw_data!A:A) - 2)</f>
         <v>0.11956556433257738</v>
       </c>
@@ -34114,29 +34127,29 @@
         <f>_xlfn.T.DIST.2T(E32, COUNT(raw_data!A:A) - 2)</f>
         <v>4.1914157143436763E-2</v>
       </c>
-      <c r="F54" s="331">
+      <c r="F54" s="152">
         <v>1</v>
       </c>
       <c r="G54" s="108"/>
       <c r="H54" s="108"/>
-      <c r="I54" s="326"/>
-      <c r="J54" s="325"/>
+      <c r="I54" s="147"/>
+      <c r="J54" s="146"/>
       <c r="K54" s="108"/>
       <c r="L54" s="108"/>
       <c r="M54" s="108"/>
       <c r="N54" s="108"/>
       <c r="O54" s="108"/>
-      <c r="P54" s="326"/>
+      <c r="P54" s="147"/>
       <c r="Q54" s="108"/>
       <c r="R54" s="108"/>
       <c r="S54" s="96"/>
-      <c r="T54" s="338"/>
+      <c r="T54" s="159"/>
     </row>
     <row r="55" spans="1:20">
-      <c r="A55" s="310" t="s">
+      <c r="A55" s="131" t="s">
         <v>695</v>
       </c>
-      <c r="B55" s="321" t="e">
+      <c r="B55" s="142" t="e">
         <f>_xlfn.T.DIST.2T(B33, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
@@ -34152,7 +34165,7 @@
         <f>_xlfn.T.DIST.2T(E33, COUNT(raw_data!A:A) - 2)</f>
         <v>0.1648305918664919</v>
       </c>
-      <c r="F55" s="321">
+      <c r="F55" s="142">
         <f>_xlfn.T.DIST.2T(F33, COUNT(raw_data!A:A) - 2)</f>
         <v>3.6672163548732886E-2</v>
       </c>
@@ -34160,24 +34173,24 @@
         <v>1</v>
       </c>
       <c r="H55" s="109"/>
-      <c r="I55" s="322"/>
-      <c r="J55" s="321"/>
+      <c r="I55" s="143"/>
+      <c r="J55" s="142"/>
       <c r="K55" s="109"/>
       <c r="L55" s="109"/>
       <c r="M55" s="109"/>
       <c r="N55" s="109"/>
       <c r="O55" s="109"/>
-      <c r="P55" s="322"/>
+      <c r="P55" s="143"/>
       <c r="Q55" s="109"/>
       <c r="R55" s="109"/>
       <c r="S55" s="95"/>
-      <c r="T55" s="336"/>
+      <c r="T55" s="157"/>
     </row>
     <row r="56" spans="1:20">
-      <c r="A56" s="310" t="s">
+      <c r="A56" s="131" t="s">
         <v>661</v>
       </c>
-      <c r="B56" s="321">
+      <c r="B56" s="142">
         <f>_xlfn.T.DIST.2T(B34, COUNT(raw_data!A:A) - 2)</f>
         <v>3.5373815578938934E-3</v>
       </c>
@@ -34193,7 +34206,7 @@
         <f>_xlfn.T.DIST.2T(E34, COUNT(raw_data!A:A) - 2)</f>
         <v>2.5717702062671133E-3</v>
       </c>
-      <c r="F56" s="321">
+      <c r="F56" s="142">
         <f>_xlfn.T.DIST.2T(F34, COUNT(raw_data!A:A) - 2)</f>
         <v>1.985030458522306E-2</v>
       </c>
@@ -34204,24 +34217,24 @@
       <c r="H56" s="112">
         <v>1</v>
       </c>
-      <c r="I56" s="322"/>
-      <c r="J56" s="321"/>
+      <c r="I56" s="143"/>
+      <c r="J56" s="142"/>
       <c r="K56" s="109"/>
       <c r="L56" s="109"/>
       <c r="M56" s="109"/>
       <c r="N56" s="109"/>
       <c r="O56" s="109"/>
-      <c r="P56" s="322"/>
+      <c r="P56" s="143"/>
       <c r="Q56" s="109"/>
       <c r="R56" s="109"/>
       <c r="S56" s="95"/>
-      <c r="T56" s="336"/>
+      <c r="T56" s="157"/>
     </row>
     <row r="57" spans="1:20" ht="15" thickBot="1">
-      <c r="A57" s="311" t="s">
+      <c r="A57" s="132" t="s">
         <v>381</v>
       </c>
-      <c r="B57" s="323">
+      <c r="B57" s="144">
         <f>_xlfn.T.DIST.2T(B35, COUNT(raw_data!A:A) - 2)</f>
         <v>2.9387125873004207E-2</v>
       </c>
@@ -34237,7 +34250,7 @@
         <f>_xlfn.T.DIST.2T(E35, COUNT(raw_data!A:A) - 2)</f>
         <v>1.7608278937025549E-3</v>
       </c>
-      <c r="F57" s="323">
+      <c r="F57" s="144">
         <f>_xlfn.T.DIST.2T(F35, COUNT(raw_data!A:A) - 2)</f>
         <v>4.0918274822084225E-2</v>
       </c>
@@ -34249,26 +34262,26 @@
         <f>_xlfn.T.DIST.2T(H35, COUNT(raw_data!A:A) - 2)</f>
         <v>3.7033917102877878E-4</v>
       </c>
-      <c r="I57" s="324">
-        <v>1</v>
-      </c>
-      <c r="J57" s="323"/>
+      <c r="I57" s="145">
+        <v>1</v>
+      </c>
+      <c r="J57" s="144"/>
       <c r="K57" s="110"/>
       <c r="L57" s="110"/>
       <c r="M57" s="110"/>
       <c r="N57" s="110"/>
       <c r="O57" s="110"/>
-      <c r="P57" s="327"/>
+      <c r="P57" s="148"/>
       <c r="Q57" s="110"/>
       <c r="R57" s="110"/>
       <c r="S57" s="79"/>
-      <c r="T57" s="337"/>
+      <c r="T57" s="158"/>
     </row>
     <row r="58" spans="1:20">
-      <c r="A58" s="312" t="s">
+      <c r="A58" s="133" t="s">
         <v>660</v>
       </c>
-      <c r="B58" s="325">
+      <c r="B58" s="146">
         <f>_xlfn.T.DIST.2T(B36, COUNT(raw_data!A:A) - 2)</f>
         <v>0.39835235462415586</v>
       </c>
@@ -34284,7 +34297,7 @@
         <f>_xlfn.T.DIST.2T(E36, COUNT(raw_data!A:A) - 2)</f>
         <v>0.10562130452530297</v>
       </c>
-      <c r="F58" s="325">
+      <c r="F58" s="146">
         <f>_xlfn.T.DIST.2T(F36, COUNT(raw_data!A:A) - 2)</f>
         <v>0.17551591129771749</v>
       </c>
@@ -34296,11 +34309,11 @@
         <f>_xlfn.T.DIST.2T(H36, COUNT(raw_data!A:A) - 2)</f>
         <v>0.46605714975679402</v>
       </c>
-      <c r="I58" s="326">
+      <c r="I58" s="147">
         <f>_xlfn.T.DIST.2T(I36, COUNT(raw_data!A:A) - 2)</f>
         <v>0.35415292127047948</v>
       </c>
-      <c r="J58" s="331">
+      <c r="J58" s="152">
         <v>1</v>
       </c>
       <c r="K58" s="108"/>
@@ -34308,17 +34321,17 @@
       <c r="M58" s="108"/>
       <c r="N58" s="108"/>
       <c r="O58" s="108"/>
-      <c r="P58" s="326"/>
+      <c r="P58" s="147"/>
       <c r="Q58" s="108"/>
       <c r="R58" s="108"/>
       <c r="S58" s="96"/>
-      <c r="T58" s="338"/>
+      <c r="T58" s="159"/>
     </row>
     <row r="59" spans="1:20">
-      <c r="A59" s="313" t="s">
+      <c r="A59" s="134" t="s">
         <v>383</v>
       </c>
-      <c r="B59" s="321">
+      <c r="B59" s="142">
         <f>_xlfn.T.DIST.2T(B37, COUNT(raw_data!A:A) - 2)</f>
         <v>2.0389811632804056E-2</v>
       </c>
@@ -34334,7 +34347,7 @@
         <f>_xlfn.T.DIST.2T(E37, COUNT(raw_data!A:A) - 2)</f>
         <v>2.459615236385583E-2</v>
       </c>
-      <c r="F59" s="321">
+      <c r="F59" s="142">
         <f>_xlfn.T.DIST.2T(F37, COUNT(raw_data!A:A) - 2)</f>
         <v>9.7863914227626136E-2</v>
       </c>
@@ -34346,11 +34359,11 @@
         <f>_xlfn.T.DIST.2T(H37, COUNT(raw_data!A:A) - 2)</f>
         <v>3.8426866080435412E-2</v>
       </c>
-      <c r="I59" s="322">
+      <c r="I59" s="143">
         <f>_xlfn.T.DIST.2T(I37, COUNT(raw_data!A:A) - 2)</f>
         <v>2.2515021631707537E-2</v>
       </c>
-      <c r="J59" s="321">
+      <c r="J59" s="142">
         <f>_xlfn.T.DIST.2T(J37, COUNT(raw_data!A:A) - 2)</f>
         <v>0.85424124357479603</v>
       </c>
@@ -34361,17 +34374,17 @@
       <c r="M59" s="109"/>
       <c r="N59" s="109"/>
       <c r="O59" s="109"/>
-      <c r="P59" s="322"/>
+      <c r="P59" s="143"/>
       <c r="Q59" s="109"/>
       <c r="R59" s="109"/>
       <c r="S59" s="95"/>
-      <c r="T59" s="336"/>
+      <c r="T59" s="157"/>
     </row>
     <row r="60" spans="1:20">
-      <c r="A60" s="313" t="s">
+      <c r="A60" s="134" t="s">
         <v>402</v>
       </c>
-      <c r="B60" s="321" t="e">
+      <c r="B60" s="142" t="e">
         <f>_xlfn.T.DIST.2T(B38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
@@ -34387,7 +34400,7 @@
         <f>_xlfn.T.DIST.2T(E38, COUNT(raw_data!A:A) - 2)</f>
         <v>0.92436587730389763</v>
       </c>
-      <c r="F60" s="321" t="e">
+      <c r="F60" s="142" t="e">
         <f>_xlfn.T.DIST.2T(F38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
@@ -34399,11 +34412,11 @@
         <f>_xlfn.T.DIST.2T(H38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I60" s="322" t="e">
+      <c r="I60" s="143" t="e">
         <f>_xlfn.T.DIST.2T(I38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J60" s="321" t="e">
+      <c r="J60" s="142" t="e">
         <f>_xlfn.T.DIST.2T(J38, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
@@ -34417,17 +34430,17 @@
       <c r="M60" s="109"/>
       <c r="N60" s="109"/>
       <c r="O60" s="109"/>
-      <c r="P60" s="322"/>
+      <c r="P60" s="143"/>
       <c r="Q60" s="109"/>
       <c r="R60" s="109"/>
       <c r="S60" s="95"/>
-      <c r="T60" s="336"/>
+      <c r="T60" s="157"/>
     </row>
     <row r="61" spans="1:20">
-      <c r="A61" s="313" t="s">
+      <c r="A61" s="134" t="s">
         <v>385</v>
       </c>
-      <c r="B61" s="321">
+      <c r="B61" s="142">
         <f>_xlfn.T.DIST.2T(B39, COUNT(raw_data!A:A) - 2)</f>
         <v>0.29085583586367519</v>
       </c>
@@ -34443,7 +34456,7 @@
         <f>_xlfn.T.DIST.2T(E39, COUNT(raw_data!A:A) - 2)</f>
         <v>3.916611691639818E-2</v>
       </c>
-      <c r="F61" s="321">
+      <c r="F61" s="142">
         <f>_xlfn.T.DIST.2T(F39, COUNT(raw_data!A:A) - 2)</f>
         <v>3.2184659110941857E-2</v>
       </c>
@@ -34455,11 +34468,11 @@
         <f>_xlfn.T.DIST.2T(H39, COUNT(raw_data!A:A) - 2)</f>
         <v>5.5185127978553877E-2</v>
       </c>
-      <c r="I61" s="322">
+      <c r="I61" s="143">
         <f>_xlfn.T.DIST.2T(I39, COUNT(raw_data!A:A) - 2)</f>
         <v>9.5501335832239242E-2</v>
       </c>
-      <c r="J61" s="321">
+      <c r="J61" s="142">
         <f>_xlfn.T.DIST.2T(J39, COUNT(raw_data!A:A) - 2)</f>
         <v>4.757371817270041E-2</v>
       </c>
@@ -34476,17 +34489,17 @@
       </c>
       <c r="N61" s="109"/>
       <c r="O61" s="109"/>
-      <c r="P61" s="322"/>
+      <c r="P61" s="143"/>
       <c r="Q61" s="109"/>
       <c r="R61" s="109"/>
       <c r="S61" s="95"/>
-      <c r="T61" s="336"/>
+      <c r="T61" s="157"/>
     </row>
     <row r="62" spans="1:20">
-      <c r="A62" s="313" t="s">
+      <c r="A62" s="134" t="s">
         <v>386</v>
       </c>
-      <c r="B62" s="321">
+      <c r="B62" s="142">
         <f>_xlfn.T.DIST.2T(B40, COUNT(raw_data!A:A) - 2)</f>
         <v>0.13193332456494908</v>
       </c>
@@ -34502,7 +34515,7 @@
         <f>_xlfn.T.DIST.2T(E40, COUNT(raw_data!A:A) - 2)</f>
         <v>1.091975230536473E-2</v>
       </c>
-      <c r="F62" s="321">
+      <c r="F62" s="142">
         <f>_xlfn.T.DIST.2T(F40, COUNT(raw_data!A:A) - 2)</f>
         <v>2.0563750321241497E-2</v>
       </c>
@@ -34514,11 +34527,11 @@
         <f>_xlfn.T.DIST.2T(H40, COUNT(raw_data!A:A) - 2)</f>
         <v>1.6337715520607234E-2</v>
       </c>
-      <c r="I62" s="322">
+      <c r="I62" s="143">
         <f>_xlfn.T.DIST.2T(I40, COUNT(raw_data!A:A) - 2)</f>
         <v>6.2190711455144428E-4</v>
       </c>
-      <c r="J62" s="321">
+      <c r="J62" s="142">
         <f>_xlfn.T.DIST.2T(J40, COUNT(raw_data!A:A) - 2)</f>
         <v>0.60185785819755078</v>
       </c>
@@ -34538,17 +34551,17 @@
         <v>1</v>
       </c>
       <c r="O62" s="109"/>
-      <c r="P62" s="322"/>
+      <c r="P62" s="143"/>
       <c r="Q62" s="109"/>
       <c r="R62" s="109"/>
       <c r="S62" s="95"/>
-      <c r="T62" s="336"/>
+      <c r="T62" s="157"/>
     </row>
     <row r="63" spans="1:20">
-      <c r="A63" s="313" t="s">
+      <c r="A63" s="134" t="s">
         <v>387</v>
       </c>
-      <c r="B63" s="321">
+      <c r="B63" s="142">
         <f>_xlfn.T.DIST.2T(B41, COUNT(raw_data!A:A) - 2)</f>
         <v>6.5754408355625849E-2</v>
       </c>
@@ -34564,7 +34577,7 @@
         <f>_xlfn.T.DIST.2T(E41, COUNT(raw_data!A:A) - 2)</f>
         <v>2.5826681944493297E-3</v>
       </c>
-      <c r="F63" s="321">
+      <c r="F63" s="142">
         <f>_xlfn.T.DIST.2T(F41, COUNT(raw_data!A:A) - 2)</f>
         <v>2.5914030814610391E-2</v>
       </c>
@@ -34576,11 +34589,11 @@
         <f>_xlfn.T.DIST.2T(H41, COUNT(raw_data!A:A) - 2)</f>
         <v>1.2236243205266008E-2</v>
       </c>
-      <c r="I63" s="322">
+      <c r="I63" s="143">
         <f>_xlfn.T.DIST.2T(I41, COUNT(raw_data!A:A) - 2)</f>
         <v>8.582382120968867E-4</v>
       </c>
-      <c r="J63" s="321">
+      <c r="J63" s="142">
         <f>_xlfn.T.DIST.2T(J41, COUNT(raw_data!A:A) - 2)</f>
         <v>0.2929681268233057</v>
       </c>
@@ -34603,17 +34616,17 @@
       <c r="O63" s="112">
         <v>1</v>
       </c>
-      <c r="P63" s="322"/>
+      <c r="P63" s="143"/>
       <c r="Q63" s="109"/>
       <c r="R63" s="109"/>
       <c r="S63" s="95"/>
-      <c r="T63" s="336"/>
+      <c r="T63" s="157"/>
     </row>
     <row r="64" spans="1:20" ht="15" thickBot="1">
-      <c r="A64" s="314" t="s">
+      <c r="A64" s="135" t="s">
         <v>388</v>
       </c>
-      <c r="B64" s="323">
+      <c r="B64" s="144">
         <f>_xlfn.T.DIST.2T(B42, COUNT(raw_data!A:A) - 2)</f>
         <v>0.2312301115735306</v>
       </c>
@@ -34629,7 +34642,7 @@
         <f>_xlfn.T.DIST.2T(E42, COUNT(raw_data!A:A) - 2)</f>
         <v>0.33942543103545503</v>
       </c>
-      <c r="F64" s="323">
+      <c r="F64" s="144">
         <f>_xlfn.T.DIST.2T(F42, COUNT(raw_data!A:A) - 2)</f>
         <v>0.25031382163363347</v>
       </c>
@@ -34641,11 +34654,11 @@
         <f>_xlfn.T.DIST.2T(H42, COUNT(raw_data!A:A) - 2)</f>
         <v>4.6681257270468901E-2</v>
       </c>
-      <c r="I64" s="327">
+      <c r="I64" s="148">
         <f>_xlfn.T.DIST.2T(I42, COUNT(raw_data!A:A) - 2)</f>
         <v>5.015827529062445E-2</v>
       </c>
-      <c r="J64" s="323">
+      <c r="J64" s="144">
         <f>_xlfn.T.DIST.2T(J42, COUNT(raw_data!A:A) - 2)</f>
         <v>0.9620525274370717</v>
       </c>
@@ -34669,19 +34682,19 @@
         <f>_xlfn.T.DIST.2T(O42, COUNT(raw_data!A:A) - 2)</f>
         <v>0.20157334263205073</v>
       </c>
-      <c r="P64" s="324">
+      <c r="P64" s="145">
         <v>1</v>
       </c>
       <c r="Q64" s="110"/>
       <c r="R64" s="110"/>
       <c r="S64" s="79"/>
-      <c r="T64" s="337"/>
+      <c r="T64" s="158"/>
     </row>
     <row r="65" spans="1:20">
-      <c r="A65" s="315" t="s">
+      <c r="A65" s="136" t="s">
         <v>403</v>
       </c>
-      <c r="B65" s="325">
+      <c r="B65" s="146">
         <f>_xlfn.T.DIST.2T(B43, COUNT(raw_data!A:A) - 2)</f>
         <v>4.3491743277672634E-2</v>
       </c>
@@ -34697,7 +34710,7 @@
         <f>_xlfn.T.DIST.2T(E43, COUNT(raw_data!A:A) - 2)</f>
         <v>4.8565991928344922E-4</v>
       </c>
-      <c r="F65" s="325">
+      <c r="F65" s="146">
         <f>_xlfn.T.DIST.2T(F43, COUNT(raw_data!A:A) - 2)</f>
         <v>8.978911204705127E-2</v>
       </c>
@@ -34709,11 +34722,11 @@
         <f>_xlfn.T.DIST.2T(H43, COUNT(raw_data!A:A) - 2)</f>
         <v>3.892526480363772E-2</v>
       </c>
-      <c r="I65" s="326">
+      <c r="I65" s="147">
         <f>_xlfn.T.DIST.2T(I43, COUNT(raw_data!A:A) - 2)</f>
         <v>2.6275373959084428E-2</v>
       </c>
-      <c r="J65" s="325">
+      <c r="J65" s="146">
         <f>_xlfn.T.DIST.2T(J43, COUNT(raw_data!A:A) - 2)</f>
         <v>7.1821201998621728E-2</v>
       </c>
@@ -34737,7 +34750,7 @@
         <f>_xlfn.T.DIST.2T(O43, COUNT(raw_data!A:A) - 2)</f>
         <v>5.3162107384349684E-2</v>
       </c>
-      <c r="P65" s="326">
+      <c r="P65" s="147">
         <f>_xlfn.T.DIST.2T(P43, COUNT(raw_data!A:A) - 2)</f>
         <v>0.93585572294174746</v>
       </c>
@@ -34746,13 +34759,13 @@
       </c>
       <c r="R65" s="108"/>
       <c r="S65" s="96"/>
-      <c r="T65" s="338"/>
+      <c r="T65" s="159"/>
     </row>
     <row r="66" spans="1:20">
-      <c r="A66" s="316" t="s">
+      <c r="A66" s="137" t="s">
         <v>665</v>
       </c>
-      <c r="B66" s="321">
+      <c r="B66" s="142">
         <f>_xlfn.T.DIST.2T(B44, COUNT(raw_data!A:A) - 2)</f>
         <v>2.2557323850404386E-2</v>
       </c>
@@ -34768,7 +34781,7 @@
         <f>_xlfn.T.DIST.2T(E44, COUNT(raw_data!A:A) - 2)</f>
         <v>2.4621479157748313E-2</v>
       </c>
-      <c r="F66" s="321">
+      <c r="F66" s="142">
         <f>_xlfn.T.DIST.2T(F44, COUNT(raw_data!A:A) - 2)</f>
         <v>6.1864266885701805E-2</v>
       </c>
@@ -34780,11 +34793,11 @@
         <f>_xlfn.T.DIST.2T(H44, COUNT(raw_data!A:A) - 2)</f>
         <v>7.1700579139757359E-2</v>
       </c>
-      <c r="I66" s="322">
+      <c r="I66" s="143">
         <f>_xlfn.T.DIST.2T(I44, COUNT(raw_data!A:A) - 2)</f>
         <v>0.10096843690898651</v>
       </c>
-      <c r="J66" s="321">
+      <c r="J66" s="142">
         <f>_xlfn.T.DIST.2T(J44, COUNT(raw_data!A:A) - 2)</f>
         <v>0.49495052598830092</v>
       </c>
@@ -34808,7 +34821,7 @@
         <f>_xlfn.T.DIST.2T(O44, COUNT(raw_data!A:A) - 2)</f>
         <v>5.9989304890629071E-2</v>
       </c>
-      <c r="P66" s="322">
+      <c r="P66" s="143">
         <f>_xlfn.T.DIST.2T(P44, COUNT(raw_data!A:A) - 2)</f>
         <v>0.60236919571802416</v>
       </c>
@@ -34820,29 +34833,29 @@
         <v>1</v>
       </c>
       <c r="S66" s="95"/>
-      <c r="T66" s="336"/>
+      <c r="T66" s="157"/>
     </row>
     <row r="67" spans="1:20" ht="15" thickBot="1">
-      <c r="A67" s="317" t="s">
+      <c r="A67" s="138" t="s">
         <v>405</v>
       </c>
-      <c r="B67" s="328">
+      <c r="B67" s="149">
         <f>_xlfn.T.DIST.2T(B45, COUNT(raw_data!A:A) - 2)</f>
         <v>1.8925802902923675E-2</v>
       </c>
-      <c r="C67" s="329">
+      <c r="C67" s="150">
         <f>_xlfn.T.DIST.2T(C45, COUNT(raw_data!A:A) - 2)</f>
         <v>7.2122776635875257E-3</v>
       </c>
-      <c r="D67" s="329">
+      <c r="D67" s="150">
         <f>_xlfn.T.DIST.2T(D45, COUNT(raw_data!A:A) - 2)</f>
         <v>6.3258893636811775E-3</v>
       </c>
-      <c r="E67" s="329">
+      <c r="E67" s="150">
         <f>_xlfn.T.DIST.2T(E45, COUNT(raw_data!A:A) - 2)</f>
         <v>2.448888204657104E-3</v>
       </c>
-      <c r="F67" s="323">
+      <c r="F67" s="144">
         <f>_xlfn.T.DIST.2T(F45, COUNT(raw_data!A:A) - 2)</f>
         <v>1.866213284850439E-2</v>
       </c>
@@ -34854,11 +34867,11 @@
         <f>_xlfn.T.DIST.2T(H45, COUNT(raw_data!A:A) - 2)</f>
         <v>2.089947317888164E-2</v>
       </c>
-      <c r="I67" s="327">
+      <c r="I67" s="148">
         <f>_xlfn.T.DIST.2T(I45, COUNT(raw_data!A:A) - 2)</f>
         <v>2.2826497348971016E-2</v>
       </c>
-      <c r="J67" s="323">
+      <c r="J67" s="144">
         <f>_xlfn.T.DIST.2T(J45, COUNT(raw_data!A:A) - 2)</f>
         <v>4.9486896848190645E-2</v>
       </c>
@@ -34882,7 +34895,7 @@
         <f>_xlfn.T.DIST.2T(O45, COUNT(raw_data!A:A) - 2)</f>
         <v>1.1497293093853559E-2</v>
       </c>
-      <c r="P67" s="327">
+      <c r="P67" s="148">
         <f>_xlfn.T.DIST.2T(P45, COUNT(raw_data!A:A) - 2)</f>
         <v>0.58711882409483951</v>
       </c>
@@ -34897,10 +34910,10 @@
       <c r="S67" s="79">
         <v>1</v>
       </c>
-      <c r="T67" s="337"/>
+      <c r="T67" s="158"/>
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1">
-      <c r="A68" s="305" t="s">
+      <c r="A68" s="126" t="s">
         <v>666</v>
       </c>
       <c r="B68" s="110" t="e">
@@ -34919,47 +34932,47 @@
         <f>_xlfn.T.DIST.2T(E46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.8903074947423123</v>
       </c>
-      <c r="F68" s="332">
+      <c r="F68" s="153">
         <f>_xlfn.T.DIST.2T(F46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.70923147225775907</v>
       </c>
-      <c r="G68" s="333">
+      <c r="G68" s="154">
         <f>_xlfn.T.DIST.2T(G46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.40777371378474703</v>
       </c>
-      <c r="H68" s="333" t="e">
+      <c r="H68" s="154" t="e">
         <f>_xlfn.T.DIST.2T(H46, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="I68" s="334" t="e">
+      <c r="I68" s="155" t="e">
         <f>_xlfn.T.DIST.2T(I46, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="J68" s="332">
+      <c r="J68" s="153">
         <f>_xlfn.T.DIST.2T(J46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.23436495388223236</v>
       </c>
-      <c r="K68" s="333" t="e">
+      <c r="K68" s="154" t="e">
         <f>_xlfn.T.DIST.2T(K46, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
-      <c r="L68" s="333">
+      <c r="L68" s="154">
         <f>_xlfn.T.DIST.2T(L46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.91262592940967091</v>
       </c>
-      <c r="M68" s="333">
+      <c r="M68" s="154">
         <f>_xlfn.T.DIST.2T(M46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.26975828636538995</v>
       </c>
-      <c r="N68" s="333">
+      <c r="N68" s="154">
         <f>_xlfn.T.DIST.2T(N46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.99160378515619874</v>
       </c>
-      <c r="O68" s="333">
+      <c r="O68" s="154">
         <f>_xlfn.T.DIST.2T(O46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.4989444993943426</v>
       </c>
-      <c r="P68" s="334" t="e">
+      <c r="P68" s="155" t="e">
         <f>_xlfn.T.DIST.2T(P46, COUNT(raw_data!A:A) - 2)</f>
         <v>#NUM!</v>
       </c>
@@ -34975,7 +34988,7 @@
         <f>_xlfn.T.DIST.2T(S46, COUNT(raw_data!A:A) - 2)</f>
         <v>0.37660187226734676</v>
       </c>
-      <c r="T68" s="339">
+      <c r="T68" s="160">
         <v>1</v>
       </c>
     </row>

--- a/AMR KAP+ Vendor 2.0.xlsx
+++ b/AMR KAP+ Vendor 2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF079FC4-9079-4633-ADAA-5FE258A33EAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B546DC-CEE6-48E3-8C6E-55C84702D68A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2783" uniqueCount="725">
   <si>
     <t>education</t>
   </si>
@@ -2214,6 +2214,15 @@
   </si>
   <si>
     <t>Mode</t>
+  </si>
+  <si>
+    <t>of target</t>
+  </si>
+  <si>
+    <t>(enter target sample size)</t>
+  </si>
+  <si>
+    <t>https://github.com/JNAVillacastin/AMU-AMR-KAP-Excel-Tool-</t>
   </si>
 </sst>
 </file>
@@ -2325,7 +2334,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2467,6 +2476,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3111,7 +3126,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="364">
+  <cellXfs count="365">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3471,6 +3486,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3499,15 +3519,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3591,12 +3602,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3932,12 +3937,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3953,6 +3952,24 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3963,6 +3980,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3998,23 +4021,14 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4034,416 +4048,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4992,6 +4596,416 @@
           <color indexed="64"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6801,17 +6815,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="F3:K21" totalsRowShown="0" tableBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="F3:K21" totalsRowShown="0" tableBorderDxfId="65">
   <autoFilter ref="F3:K21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F4:K21">
     <sortCondition descending="1" ref="I3:I21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="no." dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="no." dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="question"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sample score " dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="% of correct answers" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Index" dataDxfId="102">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sample score " dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="% of correct answers" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Index" dataDxfId="61">
       <calculatedColumnFormula>IF(K4="very low",1,IF(K4="low",2,IF(K4="moderate",3,IF(K4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Quartile Index">
@@ -6829,17 +6843,17 @@
     <sortCondition descending="1" ref="I4:I8"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Array" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Array" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Min." dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Max" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Mean" dataDxfId="47">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Min." dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Max" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Mean" dataDxfId="6">
       <calculatedColumnFormula>AVERAGE(processed_data!F:F)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{80680A6E-7B95-4B8D-B5EE-986350767F66}" name="Median" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{07C2D696-8C4A-4BDC-9E25-8B5621F0CD44}" name="Mode" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Total score" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="(%) of correct" dataDxfId="43" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{80680A6E-7B95-4B8D-B5EE-986350767F66}" name="Median" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{07C2D696-8C4A-4BDC-9E25-8B5621F0CD44}" name="Mode" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Total score" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="(%) of correct" dataDxfId="2" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Quartile Index">
       <calculatedColumnFormula>IF(I5&lt;=20%,"very low",IF(I5&lt;=40%,"low",IF(I5&lt;=60%,"moderate", IF(I5&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -6862,18 +6876,18 @@
     <sortCondition descending="1" ref="U3:U28"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="no." dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="no." dataDxfId="60"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="sample score" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="% of Agreement" dataDxfId="99">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="sample score" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="% of Agreement" dataDxfId="58">
       <calculatedColumnFormula>T4/(COUNT(coded_data!A:A) * 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Index" dataDxfId="98">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Index" dataDxfId="57">
       <calculatedColumnFormula>IF(W4="very low",1,IF(W4="low",2,IF(W4="moderate",3,IF(W4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Quartile Index">
@@ -6891,14 +6905,14 @@
     <sortCondition descending="1" ref="AB3:AB20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="no." dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="no." dataDxfId="56"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="question"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sample score" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="% of correct " dataDxfId="95" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Index" dataDxfId="94" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sample score" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="% of correct " dataDxfId="54" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Index" dataDxfId="53" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(AD4="very low",1,IF(AD4="low",2,IF(AD4="moderate",3,IF(AD4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Quartile Index" dataDxfId="93">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Quartile Index" dataDxfId="52">
       <calculatedColumnFormula>IF(AB4&lt;20%,"very low",IF(AB4&lt;40%,"low",IF(AB4&lt;60%,"moderate",IF(AB4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6913,16 +6927,16 @@
     <sortCondition descending="1" ref="AI3:AI16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="no." dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="no." dataDxfId="51"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="% of correct answers" dataDxfId="91" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="% of correct answers" dataDxfId="50" dataCellStyle="Percent">
       <calculatedColumnFormula>AH4/COUNT(coded_data!A:A)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Index" dataDxfId="90">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Index" dataDxfId="49">
       <calculatedColumnFormula>IF(AK4="very low",1,IF(AK4="low",2,IF(AK4="moderate",3,IF(AK4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quartile Index" dataDxfId="89">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quartile Index" dataDxfId="48">
       <calculatedColumnFormula>IF(AI4&lt;20%,"very low",IF(AI4&lt;40%,"low",IF(AI4&lt;60%,"moderate",IF(AI4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6937,14 +6951,14 @@
     <sortCondition descending="1" ref="AP3:AP6"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="no." dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="no." dataDxfId="47"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="% of interest" dataDxfId="87" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Index" dataDxfId="86">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="% of interest" dataDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Index" dataDxfId="45">
       <calculatedColumnFormula>IF(AR4="very low",1,IF(AR4="low",2,IF(AR4="moderate",3,IF(AR4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Quartile Index" dataDxfId="85">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Quartile Index" dataDxfId="44">
       <calculatedColumnFormula>IF(AP4&lt;20%,"very low",IF(AP4&lt;40%,"low",IF(AP4&lt;60%,"moderate",IF(AP4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6959,15 +6973,15 @@
     <sortCondition descending="1" ref="I11:I15"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Array" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Array" dataDxfId="43"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Min." dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Max" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Mean" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{1B51561E-BFC5-4871-AABD-A8232A52547A}" name="Median" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{AEA4A6A9-813F-4C27-BCD6-986F8B789C2A}" name="Mode" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Total score" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="(%) of Agreement" dataDxfId="77" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Min." dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Max" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Mean" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{1B51561E-BFC5-4871-AABD-A8232A52547A}" name="Median" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{AEA4A6A9-813F-4C27-BCD6-986F8B789C2A}" name="Mode" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Total score" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="(%) of Agreement" dataDxfId="36" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Quartile Index">
       <calculatedColumnFormula>IF(I12&lt;=20%,"very low",IF(I12&lt;=40%,"low",IF(I12&lt;=60%,"moderate", IF(I12&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -6990,15 +7004,15 @@
     <sortCondition descending="1" ref="I18:I25"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Array" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Array" dataDxfId="35"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Min." dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Max" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Mean" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{79CB9442-024E-458A-9549-515C36441BBF}" name="Median" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{62394534-8A7B-46CD-B9D0-D19DC543FD75}" name="Mode" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Total score" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="(%) of correct" dataDxfId="69" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Min." dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Max" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Mean" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{79CB9442-024E-458A-9549-515C36441BBF}" name="Median" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{62394534-8A7B-46CD-B9D0-D19DC543FD75}" name="Mode" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Total score" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="(%) of correct" dataDxfId="28" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Quartile Index">
       <calculatedColumnFormula>IF(I19&lt;=20%,"very low",IF(I19&lt;=40%,"low",IF(I19&lt;=60%,"moderate", IF(I19&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -7021,15 +7035,15 @@
     <sortCondition descending="1" ref="I28:I31"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Array" dataDxfId="68"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Variables" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Min." dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Max" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Mean" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{8A107FE2-A46D-4A26-9A63-E29856770F22}" name="Median" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{D912FF90-5BCA-4056-B458-655547D96A6C}" name="Mode" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Total score" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="(%) of correct" dataDxfId="60" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Array" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Variables" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Min." dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Max" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Mean" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{8A107FE2-A46D-4A26-9A63-E29856770F22}" name="Median" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{D912FF90-5BCA-4056-B458-655547D96A6C}" name="Mode" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Total score" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="(%) of correct" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>H29/COUNT(processed_data!A:A)/ 8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Quartile Index">
@@ -7051,27 +7065,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table10" displayName="Table10" ref="A34:M35" totalsRowShown="0">
   <autoFilter ref="A34:M35" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Array" dataDxfId="59"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Variables" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Min." dataDxfId="57">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Array" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Variables" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Min." dataDxfId="16">
       <calculatedColumnFormula>MIN(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Max" dataDxfId="56">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Max" dataDxfId="15">
       <calculatedColumnFormula>MAX(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Mean" dataDxfId="55">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Mean" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B1EF64A7-5967-430C-8BE2-306885DF3C50}" name="Median" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{B1EF64A7-5967-430C-8BE2-306885DF3C50}" name="Median" dataDxfId="13">
       <calculatedColumnFormula>MEDIAN(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{08DB4703-7F26-43C2-9A14-06B119F5312B}" name="Mode" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{08DB4703-7F26-43C2-9A14-06B119F5312B}" name="Mode" dataDxfId="12">
       <calculatedColumnFormula>MODE(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Total score" dataDxfId="52">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Total score" dataDxfId="11">
       <calculatedColumnFormula>SUM(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="(%) of Interest" dataDxfId="51" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="(%) of Interest" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>H35/COUNT(processed_data!A:A)/ 8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Quartile Index"/>
@@ -7412,7 +7426,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -7435,14 +7451,14 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="181" t="s">
+      <c r="L1" s="184" t="s">
         <v>533</v>
       </c>
-      <c r="M1" s="182"/>
-      <c r="N1" s="182"/>
-      <c r="O1" s="182"/>
-      <c r="P1" s="182"/>
-      <c r="Q1" s="183"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="186"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18">
@@ -7478,11 +7494,11 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="62"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="190"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="193"/>
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18">
@@ -7498,11 +7514,11 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="62"/>
-      <c r="M4" s="189"/>
-      <c r="N4" s="189"/>
-      <c r="O4" s="189"/>
-      <c r="P4" s="189"/>
-      <c r="Q4" s="190"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="192"/>
+      <c r="Q4" s="193"/>
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1">
@@ -7517,12 +7533,12 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="187"/>
-      <c r="P5" s="187"/>
-      <c r="Q5" s="188"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="190"/>
+      <c r="Q5" s="191"/>
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18">
@@ -7541,25 +7557,25 @@
       <c r="I6" s="216"/>
       <c r="J6" s="216"/>
       <c r="K6" s="217"/>
-      <c r="L6" s="186"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="187"/>
-      <c r="P6" s="187"/>
-      <c r="Q6" s="188"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="190"/>
+      <c r="N6" s="190"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="190"/>
+      <c r="Q6" s="191"/>
       <c r="R6" s="14"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="20" t="s">
         <v>417</v>
       </c>
-      <c r="B7" s="235" t="s">
+      <c r="B7" s="233" t="s">
         <v>427</v>
       </c>
-      <c r="C7" s="236"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="236"/>
-      <c r="F7" s="236"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="234"/>
+      <c r="F7" s="234"/>
       <c r="G7" s="199" t="s">
         <v>416</v>
       </c>
@@ -7567,12 +7583,12 @@
       <c r="I7" s="200"/>
       <c r="J7" s="200"/>
       <c r="K7" s="201"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="187"/>
-      <c r="P7" s="187"/>
-      <c r="Q7" s="188"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="190"/>
+      <c r="N7" s="190"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="191"/>
       <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18">
@@ -7607,14 +7623,18 @@
       <c r="A9" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="223" t="str">
-        <f>CONCATENATE("(n =", COUNT(raw_data!A:A), ")")</f>
-        <v>(n =10)</v>
-      </c>
-      <c r="C9" s="224"/>
-      <c r="D9" s="224"/>
-      <c r="E9" s="224"/>
-      <c r="F9" s="224"/>
+      <c r="B9" s="183" t="str">
+        <f>CONCATENATE("(n = ", COUNT(raw_data!A:A), ")")</f>
+        <v>(n = 10)</v>
+      </c>
+      <c r="C9" s="181" t="s">
+        <v>722</v>
+      </c>
+      <c r="D9" s="182" t="s">
+        <v>723</v>
+      </c>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
       <c r="G9" s="26" t="s">
         <v>420</v>
       </c>
@@ -7646,12 +7666,12 @@
       <c r="G10" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="H10" s="227" t="s">
+      <c r="H10" s="225" t="s">
         <v>612</v>
       </c>
-      <c r="I10" s="228"/>
-      <c r="J10" s="228"/>
-      <c r="K10" s="229"/>
+      <c r="I10" s="226"/>
+      <c r="J10" s="226"/>
+      <c r="K10" s="227"/>
       <c r="L10" s="56"/>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
@@ -7664,22 +7684,22 @@
       <c r="A11" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="B11" s="225" t="s">
+      <c r="B11" s="223" t="s">
         <v>427</v>
       </c>
-      <c r="C11" s="226"/>
-      <c r="D11" s="226"/>
-      <c r="E11" s="226"/>
-      <c r="F11" s="226"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
       <c r="G11" s="26" t="s">
         <v>421</v>
       </c>
-      <c r="H11" s="230" t="s">
+      <c r="H11" s="228" t="s">
         <v>413</v>
       </c>
-      <c r="I11" s="230"/>
-      <c r="J11" s="230"/>
-      <c r="K11" s="231"/>
+      <c r="I11" s="228"/>
+      <c r="J11" s="228"/>
+      <c r="K11" s="229"/>
       <c r="L11" s="56"/>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
@@ -7689,23 +7709,23 @@
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1">
-      <c r="A12" s="237" t="s">
+      <c r="A12" s="235" t="s">
         <v>409</v>
       </c>
-      <c r="B12" s="238"/>
-      <c r="C12" s="238"/>
-      <c r="D12" s="238"/>
-      <c r="E12" s="238"/>
-      <c r="F12" s="238"/>
+      <c r="B12" s="236"/>
+      <c r="C12" s="236"/>
+      <c r="D12" s="236"/>
+      <c r="E12" s="236"/>
+      <c r="F12" s="236"/>
       <c r="G12" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="H12" s="232" t="s">
+      <c r="H12" s="230" t="s">
         <v>613</v>
       </c>
-      <c r="I12" s="233"/>
-      <c r="J12" s="233"/>
-      <c r="K12" s="234"/>
+      <c r="I12" s="231"/>
+      <c r="J12" s="231"/>
+      <c r="K12" s="232"/>
       <c r="L12" s="56"/>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
@@ -7774,16 +7794,16 @@
       <c r="A15" s="102" t="s">
         <v>426</v>
       </c>
-      <c r="B15" s="191" t="s">
-        <v>408</v>
-      </c>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="193"/>
+      <c r="B15" s="362" t="s">
+        <v>724</v>
+      </c>
+      <c r="C15" s="363"/>
+      <c r="D15" s="363"/>
+      <c r="E15" s="363"/>
+      <c r="F15" s="363"/>
+      <c r="G15" s="363"/>
+      <c r="H15" s="363"/>
+      <c r="I15" s="364"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="59"/>
@@ -7843,10 +7863,10 @@
     </row>
     <row r="22" spans="7:18">
       <c r="G22" s="16"/>
-      <c r="H22" s="184"/>
-      <c r="I22" s="185"/>
-      <c r="J22" s="185"/>
-      <c r="K22" s="185"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
     </row>
     <row r="23" spans="7:18">
       <c r="G23" s="17"/>
@@ -7863,17 +7883,16 @@
       <c r="K24" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
+  <mergeCells count="25">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B9:F9"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L5:Q7"/>
@@ -7930,422 +7949,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="15" thickBot="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="237" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="240" t="s">
+      <c r="B1" s="238" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="246" t="s">
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="244" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="246"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
-      <c r="S1" s="246"/>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="246"/>
-      <c r="AA1" s="246"/>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="246"/>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="246"/>
-      <c r="AG1" s="246"/>
-      <c r="AH1" s="246"/>
-      <c r="AI1" s="246"/>
-      <c r="AJ1" s="246"/>
-      <c r="AK1" s="246"/>
-      <c r="AL1" s="246"/>
-      <c r="AM1" s="246"/>
-      <c r="AN1" s="246"/>
-      <c r="AO1" s="246"/>
-      <c r="AP1" s="247"/>
-      <c r="AQ1" s="251" t="s">
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="244"/>
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="244"/>
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="244"/>
+      <c r="AG1" s="244"/>
+      <c r="AH1" s="244"/>
+      <c r="AI1" s="244"/>
+      <c r="AJ1" s="244"/>
+      <c r="AK1" s="244"/>
+      <c r="AL1" s="244"/>
+      <c r="AM1" s="244"/>
+      <c r="AN1" s="244"/>
+      <c r="AO1" s="244"/>
+      <c r="AP1" s="245"/>
+      <c r="AQ1" s="249" t="s">
         <v>398</v>
       </c>
-      <c r="AR1" s="252"/>
-      <c r="AS1" s="252"/>
-      <c r="AT1" s="252"/>
-      <c r="AU1" s="252"/>
-      <c r="AV1" s="252"/>
-      <c r="AW1" s="252"/>
-      <c r="AX1" s="252"/>
-      <c r="AY1" s="252"/>
-      <c r="AZ1" s="252"/>
-      <c r="BA1" s="252"/>
-      <c r="BB1" s="252"/>
-      <c r="BC1" s="252"/>
-      <c r="BD1" s="252"/>
-      <c r="BE1" s="252"/>
-      <c r="BF1" s="252"/>
-      <c r="BG1" s="252"/>
-      <c r="BH1" s="252"/>
-      <c r="BI1" s="252"/>
-      <c r="BJ1" s="252"/>
-      <c r="BK1" s="252"/>
-      <c r="BL1" s="252"/>
-      <c r="BM1" s="252"/>
-      <c r="BN1" s="252"/>
-      <c r="BO1" s="252"/>
-      <c r="BP1" s="253"/>
-      <c r="BQ1" s="254" t="s">
+      <c r="AR1" s="250"/>
+      <c r="AS1" s="250"/>
+      <c r="AT1" s="250"/>
+      <c r="AU1" s="250"/>
+      <c r="AV1" s="250"/>
+      <c r="AW1" s="250"/>
+      <c r="AX1" s="250"/>
+      <c r="AY1" s="250"/>
+      <c r="AZ1" s="250"/>
+      <c r="BA1" s="250"/>
+      <c r="BB1" s="250"/>
+      <c r="BC1" s="250"/>
+      <c r="BD1" s="250"/>
+      <c r="BE1" s="250"/>
+      <c r="BF1" s="250"/>
+      <c r="BG1" s="250"/>
+      <c r="BH1" s="250"/>
+      <c r="BI1" s="250"/>
+      <c r="BJ1" s="250"/>
+      <c r="BK1" s="250"/>
+      <c r="BL1" s="250"/>
+      <c r="BM1" s="250"/>
+      <c r="BN1" s="250"/>
+      <c r="BO1" s="250"/>
+      <c r="BP1" s="251"/>
+      <c r="BQ1" s="252" t="s">
         <v>399</v>
       </c>
-      <c r="BR1" s="255"/>
-      <c r="BS1" s="255"/>
-      <c r="BT1" s="255"/>
-      <c r="BU1" s="255"/>
-      <c r="BV1" s="255"/>
-      <c r="BW1" s="255"/>
-      <c r="BX1" s="255"/>
-      <c r="BY1" s="255"/>
-      <c r="BZ1" s="255"/>
-      <c r="CA1" s="255"/>
-      <c r="CB1" s="255"/>
-      <c r="CC1" s="255"/>
-      <c r="CD1" s="255"/>
-      <c r="CE1" s="255"/>
-      <c r="CF1" s="255"/>
-      <c r="CG1" s="255"/>
-      <c r="CH1" s="255"/>
-      <c r="CI1" s="255"/>
-      <c r="CJ1" s="255"/>
-      <c r="CK1" s="255"/>
-      <c r="CL1" s="255"/>
-      <c r="CM1" s="255"/>
-      <c r="CN1" s="255"/>
-      <c r="CO1" s="255"/>
-      <c r="CP1" s="255"/>
-      <c r="CQ1" s="255"/>
-      <c r="CR1" s="255"/>
-      <c r="CS1" s="255"/>
-      <c r="CT1" s="255"/>
-      <c r="CU1" s="255"/>
-      <c r="CV1" s="255"/>
-      <c r="CW1" s="255"/>
-      <c r="CX1" s="255"/>
-      <c r="CY1" s="255"/>
-      <c r="CZ1" s="255"/>
-      <c r="DA1" s="255"/>
-      <c r="DB1" s="255"/>
-      <c r="DC1" s="255"/>
-      <c r="DD1" s="255"/>
-      <c r="DE1" s="255"/>
-      <c r="DF1" s="255"/>
-      <c r="DG1" s="255"/>
-      <c r="DH1" s="255"/>
-      <c r="DI1" s="255"/>
-      <c r="DJ1" s="255"/>
-      <c r="DK1" s="255"/>
-      <c r="DL1" s="255"/>
-      <c r="DM1" s="255"/>
-      <c r="DN1" s="255"/>
-      <c r="DO1" s="255"/>
-      <c r="DP1" s="255"/>
-      <c r="DQ1" s="255"/>
-      <c r="DR1" s="255"/>
-      <c r="DS1" s="255"/>
-      <c r="DT1" s="255"/>
-      <c r="DU1" s="255"/>
-      <c r="DV1" s="255"/>
-      <c r="DW1" s="255"/>
-      <c r="DX1" s="255"/>
-      <c r="DY1" s="255"/>
-      <c r="DZ1" s="255"/>
-      <c r="EA1" s="256"/>
-      <c r="EB1" s="257" t="s">
+      <c r="BR1" s="253"/>
+      <c r="BS1" s="253"/>
+      <c r="BT1" s="253"/>
+      <c r="BU1" s="253"/>
+      <c r="BV1" s="253"/>
+      <c r="BW1" s="253"/>
+      <c r="BX1" s="253"/>
+      <c r="BY1" s="253"/>
+      <c r="BZ1" s="253"/>
+      <c r="CA1" s="253"/>
+      <c r="CB1" s="253"/>
+      <c r="CC1" s="253"/>
+      <c r="CD1" s="253"/>
+      <c r="CE1" s="253"/>
+      <c r="CF1" s="253"/>
+      <c r="CG1" s="253"/>
+      <c r="CH1" s="253"/>
+      <c r="CI1" s="253"/>
+      <c r="CJ1" s="253"/>
+      <c r="CK1" s="253"/>
+      <c r="CL1" s="253"/>
+      <c r="CM1" s="253"/>
+      <c r="CN1" s="253"/>
+      <c r="CO1" s="253"/>
+      <c r="CP1" s="253"/>
+      <c r="CQ1" s="253"/>
+      <c r="CR1" s="253"/>
+      <c r="CS1" s="253"/>
+      <c r="CT1" s="253"/>
+      <c r="CU1" s="253"/>
+      <c r="CV1" s="253"/>
+      <c r="CW1" s="253"/>
+      <c r="CX1" s="253"/>
+      <c r="CY1" s="253"/>
+      <c r="CZ1" s="253"/>
+      <c r="DA1" s="253"/>
+      <c r="DB1" s="253"/>
+      <c r="DC1" s="253"/>
+      <c r="DD1" s="253"/>
+      <c r="DE1" s="253"/>
+      <c r="DF1" s="253"/>
+      <c r="DG1" s="253"/>
+      <c r="DH1" s="253"/>
+      <c r="DI1" s="253"/>
+      <c r="DJ1" s="253"/>
+      <c r="DK1" s="253"/>
+      <c r="DL1" s="253"/>
+      <c r="DM1" s="253"/>
+      <c r="DN1" s="253"/>
+      <c r="DO1" s="253"/>
+      <c r="DP1" s="253"/>
+      <c r="DQ1" s="253"/>
+      <c r="DR1" s="253"/>
+      <c r="DS1" s="253"/>
+      <c r="DT1" s="253"/>
+      <c r="DU1" s="253"/>
+      <c r="DV1" s="253"/>
+      <c r="DW1" s="253"/>
+      <c r="DX1" s="253"/>
+      <c r="DY1" s="253"/>
+      <c r="DZ1" s="253"/>
+      <c r="EA1" s="254"/>
+      <c r="EB1" s="255" t="s">
         <v>400</v>
       </c>
-      <c r="EC1" s="258"/>
-      <c r="ED1" s="258"/>
-      <c r="EE1" s="258"/>
-      <c r="EF1" s="258"/>
-      <c r="EG1" s="258"/>
-      <c r="EH1" s="258"/>
-      <c r="EI1" s="258"/>
-      <c r="EJ1" s="258"/>
-      <c r="EK1" s="258"/>
-      <c r="EL1" s="258"/>
-      <c r="EM1" s="258"/>
-      <c r="EN1" s="258"/>
-      <c r="EO1" s="258"/>
-      <c r="EP1" s="258"/>
-      <c r="EQ1" s="258"/>
-      <c r="ER1" s="258"/>
-      <c r="ES1" s="258"/>
-      <c r="ET1" s="258"/>
-      <c r="EU1" s="258"/>
-      <c r="EV1" s="259" t="s">
+      <c r="EC1" s="256"/>
+      <c r="ED1" s="256"/>
+      <c r="EE1" s="256"/>
+      <c r="EF1" s="256"/>
+      <c r="EG1" s="256"/>
+      <c r="EH1" s="256"/>
+      <c r="EI1" s="256"/>
+      <c r="EJ1" s="256"/>
+      <c r="EK1" s="256"/>
+      <c r="EL1" s="256"/>
+      <c r="EM1" s="256"/>
+      <c r="EN1" s="256"/>
+      <c r="EO1" s="256"/>
+      <c r="EP1" s="256"/>
+      <c r="EQ1" s="256"/>
+      <c r="ER1" s="256"/>
+      <c r="ES1" s="256"/>
+      <c r="ET1" s="256"/>
+      <c r="EU1" s="256"/>
+      <c r="EV1" s="257" t="s">
         <v>392</v>
       </c>
-      <c r="EW1" s="260"/>
-      <c r="EX1" s="260"/>
-      <c r="EY1" s="261"/>
-      <c r="EZ1" s="265" t="s">
+      <c r="EW1" s="258"/>
+      <c r="EX1" s="258"/>
+      <c r="EY1" s="259"/>
+      <c r="EZ1" s="263" t="s">
         <v>401</v>
       </c>
-      <c r="FA1" s="265"/>
-      <c r="FB1" s="265"/>
-      <c r="FC1" s="265"/>
-      <c r="FD1" s="265"/>
-      <c r="FE1" s="265"/>
-      <c r="FF1" s="265"/>
-      <c r="FG1" s="265"/>
-      <c r="FH1" s="265"/>
-      <c r="FI1" s="265"/>
-      <c r="FJ1" s="265"/>
-      <c r="FK1" s="265"/>
-      <c r="FL1" s="265"/>
-      <c r="FM1" s="265"/>
-      <c r="FN1" s="265"/>
-      <c r="FO1" s="265"/>
-      <c r="FP1" s="265"/>
-      <c r="FQ1" s="265"/>
-      <c r="FR1" s="265"/>
-      <c r="FS1" s="265"/>
-      <c r="FT1" s="265"/>
-      <c r="FU1" s="266"/>
+      <c r="FA1" s="263"/>
+      <c r="FB1" s="263"/>
+      <c r="FC1" s="263"/>
+      <c r="FD1" s="263"/>
+      <c r="FE1" s="263"/>
+      <c r="FF1" s="263"/>
+      <c r="FG1" s="263"/>
+      <c r="FH1" s="263"/>
+      <c r="FI1" s="263"/>
+      <c r="FJ1" s="263"/>
+      <c r="FK1" s="263"/>
+      <c r="FL1" s="263"/>
+      <c r="FM1" s="263"/>
+      <c r="FN1" s="263"/>
+      <c r="FO1" s="263"/>
+      <c r="FP1" s="263"/>
+      <c r="FQ1" s="263"/>
+      <c r="FR1" s="263"/>
+      <c r="FS1" s="263"/>
+      <c r="FT1" s="263"/>
+      <c r="FU1" s="264"/>
     </row>
     <row r="2" spans="1:177" ht="15" thickBot="1">
-      <c r="A2" s="239"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="249" t="s">
+      <c r="A2" s="237"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="247" t="s">
         <v>368</v>
       </c>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="248" t="s">
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="246" t="s">
         <v>369</v>
       </c>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="250"/>
-      <c r="X2" s="248" t="s">
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="246" t="s">
         <v>370</v>
       </c>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="249"/>
-      <c r="AB2" s="250"/>
-      <c r="AC2" s="248" t="s">
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="247"/>
+      <c r="AA2" s="247"/>
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="246" t="s">
         <v>371</v>
       </c>
-      <c r="AD2" s="249"/>
-      <c r="AE2" s="249"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="249"/>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="249"/>
-      <c r="AJ2" s="249"/>
-      <c r="AK2" s="249"/>
-      <c r="AL2" s="249"/>
-      <c r="AM2" s="249"/>
-      <c r="AN2" s="249"/>
-      <c r="AO2" s="249"/>
-      <c r="AP2" s="250"/>
+      <c r="AD2" s="247"/>
+      <c r="AE2" s="247"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="247"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="247"/>
+      <c r="AJ2" s="247"/>
+      <c r="AK2" s="247"/>
+      <c r="AL2" s="247"/>
+      <c r="AM2" s="247"/>
+      <c r="AN2" s="247"/>
+      <c r="AO2" s="247"/>
+      <c r="AP2" s="248"/>
       <c r="AQ2" s="9" t="s">
         <v>378</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AS2" s="248" t="s">
+      <c r="AS2" s="246" t="s">
         <v>380</v>
       </c>
-      <c r="AT2" s="249"/>
-      <c r="AU2" s="249"/>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="249"/>
-      <c r="AX2" s="249"/>
-      <c r="AY2" s="249"/>
-      <c r="AZ2" s="249"/>
-      <c r="BA2" s="249"/>
-      <c r="BB2" s="249"/>
-      <c r="BC2" s="249"/>
-      <c r="BD2" s="250"/>
-      <c r="BE2" s="248" t="s">
+      <c r="AT2" s="247"/>
+      <c r="AU2" s="247"/>
+      <c r="AV2" s="247"/>
+      <c r="AW2" s="247"/>
+      <c r="AX2" s="247"/>
+      <c r="AY2" s="247"/>
+      <c r="AZ2" s="247"/>
+      <c r="BA2" s="247"/>
+      <c r="BB2" s="247"/>
+      <c r="BC2" s="247"/>
+      <c r="BD2" s="248"/>
+      <c r="BE2" s="246" t="s">
         <v>381</v>
       </c>
-      <c r="BF2" s="249"/>
-      <c r="BG2" s="249"/>
-      <c r="BH2" s="249"/>
-      <c r="BI2" s="249"/>
-      <c r="BJ2" s="249"/>
-      <c r="BK2" s="249"/>
-      <c r="BL2" s="249"/>
-      <c r="BM2" s="249"/>
-      <c r="BN2" s="249"/>
-      <c r="BO2" s="249"/>
-      <c r="BP2" s="250"/>
-      <c r="BQ2" s="248" t="s">
+      <c r="BF2" s="247"/>
+      <c r="BG2" s="247"/>
+      <c r="BH2" s="247"/>
+      <c r="BI2" s="247"/>
+      <c r="BJ2" s="247"/>
+      <c r="BK2" s="247"/>
+      <c r="BL2" s="247"/>
+      <c r="BM2" s="247"/>
+      <c r="BN2" s="247"/>
+      <c r="BO2" s="247"/>
+      <c r="BP2" s="248"/>
+      <c r="BQ2" s="246" t="s">
         <v>382</v>
       </c>
-      <c r="BR2" s="249"/>
-      <c r="BS2" s="249"/>
-      <c r="BT2" s="249"/>
-      <c r="BU2" s="249"/>
-      <c r="BV2" s="249"/>
-      <c r="BW2" s="249"/>
-      <c r="BX2" s="249"/>
-      <c r="BY2" s="249"/>
-      <c r="BZ2" s="249"/>
-      <c r="CA2" s="249"/>
-      <c r="CB2" s="249"/>
-      <c r="CC2" s="249"/>
-      <c r="CD2" s="249"/>
-      <c r="CE2" s="249"/>
-      <c r="CF2" s="249"/>
-      <c r="CG2" s="249"/>
-      <c r="CH2" s="249"/>
-      <c r="CI2" s="249"/>
-      <c r="CJ2" s="250"/>
-      <c r="CK2" s="248" t="s">
+      <c r="BR2" s="247"/>
+      <c r="BS2" s="247"/>
+      <c r="BT2" s="247"/>
+      <c r="BU2" s="247"/>
+      <c r="BV2" s="247"/>
+      <c r="BW2" s="247"/>
+      <c r="BX2" s="247"/>
+      <c r="BY2" s="247"/>
+      <c r="BZ2" s="247"/>
+      <c r="CA2" s="247"/>
+      <c r="CB2" s="247"/>
+      <c r="CC2" s="247"/>
+      <c r="CD2" s="247"/>
+      <c r="CE2" s="247"/>
+      <c r="CF2" s="247"/>
+      <c r="CG2" s="247"/>
+      <c r="CH2" s="247"/>
+      <c r="CI2" s="247"/>
+      <c r="CJ2" s="248"/>
+      <c r="CK2" s="246" t="s">
         <v>383</v>
       </c>
-      <c r="CL2" s="249"/>
-      <c r="CM2" s="249"/>
-      <c r="CN2" s="250"/>
-      <c r="CO2" s="248" t="s">
+      <c r="CL2" s="247"/>
+      <c r="CM2" s="247"/>
+      <c r="CN2" s="248"/>
+      <c r="CO2" s="246" t="s">
         <v>384</v>
       </c>
-      <c r="CP2" s="249"/>
-      <c r="CQ2" s="249"/>
-      <c r="CR2" s="249"/>
-      <c r="CS2" s="249"/>
-      <c r="CT2" s="249"/>
-      <c r="CU2" s="249"/>
-      <c r="CV2" s="249"/>
-      <c r="CW2" s="249"/>
-      <c r="CX2" s="249"/>
-      <c r="CY2" s="249"/>
-      <c r="CZ2" s="250"/>
-      <c r="DA2" s="248" t="s">
+      <c r="CP2" s="247"/>
+      <c r="CQ2" s="247"/>
+      <c r="CR2" s="247"/>
+      <c r="CS2" s="247"/>
+      <c r="CT2" s="247"/>
+      <c r="CU2" s="247"/>
+      <c r="CV2" s="247"/>
+      <c r="CW2" s="247"/>
+      <c r="CX2" s="247"/>
+      <c r="CY2" s="247"/>
+      <c r="CZ2" s="248"/>
+      <c r="DA2" s="246" t="s">
         <v>385</v>
       </c>
-      <c r="DB2" s="249"/>
-      <c r="DC2" s="249"/>
-      <c r="DD2" s="249"/>
-      <c r="DE2" s="249"/>
-      <c r="DF2" s="250"/>
-      <c r="DG2" s="248" t="s">
+      <c r="DB2" s="247"/>
+      <c r="DC2" s="247"/>
+      <c r="DD2" s="247"/>
+      <c r="DE2" s="247"/>
+      <c r="DF2" s="248"/>
+      <c r="DG2" s="246" t="s">
         <v>386</v>
       </c>
-      <c r="DH2" s="249"/>
-      <c r="DI2" s="249"/>
-      <c r="DJ2" s="249"/>
-      <c r="DK2" s="249"/>
-      <c r="DL2" s="249"/>
-      <c r="DM2" s="249"/>
-      <c r="DN2" s="249"/>
-      <c r="DO2" s="249"/>
-      <c r="DP2" s="249"/>
-      <c r="DQ2" s="249"/>
-      <c r="DR2" s="250"/>
-      <c r="DS2" s="248" t="s">
+      <c r="DH2" s="247"/>
+      <c r="DI2" s="247"/>
+      <c r="DJ2" s="247"/>
+      <c r="DK2" s="247"/>
+      <c r="DL2" s="247"/>
+      <c r="DM2" s="247"/>
+      <c r="DN2" s="247"/>
+      <c r="DO2" s="247"/>
+      <c r="DP2" s="247"/>
+      <c r="DQ2" s="247"/>
+      <c r="DR2" s="248"/>
+      <c r="DS2" s="246" t="s">
         <v>387</v>
       </c>
-      <c r="DT2" s="249"/>
-      <c r="DU2" s="249"/>
-      <c r="DV2" s="249"/>
-      <c r="DW2" s="249"/>
-      <c r="DX2" s="249"/>
-      <c r="DY2" s="249"/>
-      <c r="DZ2" s="250"/>
+      <c r="DT2" s="247"/>
+      <c r="DU2" s="247"/>
+      <c r="DV2" s="247"/>
+      <c r="DW2" s="247"/>
+      <c r="DX2" s="247"/>
+      <c r="DY2" s="247"/>
+      <c r="DZ2" s="248"/>
       <c r="EA2" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="EB2" s="248" t="s">
+      <c r="EB2" s="246" t="s">
         <v>390</v>
       </c>
-      <c r="EC2" s="249"/>
-      <c r="ED2" s="249"/>
-      <c r="EE2" s="249"/>
-      <c r="EF2" s="249"/>
-      <c r="EG2" s="250"/>
-      <c r="EH2" s="248" t="s">
+      <c r="EC2" s="247"/>
+      <c r="ED2" s="247"/>
+      <c r="EE2" s="247"/>
+      <c r="EF2" s="247"/>
+      <c r="EG2" s="248"/>
+      <c r="EH2" s="246" t="s">
         <v>389</v>
       </c>
-      <c r="EI2" s="249"/>
-      <c r="EJ2" s="249"/>
-      <c r="EK2" s="249"/>
-      <c r="EL2" s="249"/>
-      <c r="EM2" s="249"/>
-      <c r="EN2" s="249"/>
-      <c r="EO2" s="249"/>
-      <c r="EP2" s="249"/>
-      <c r="EQ2" s="249"/>
-      <c r="ER2" s="250"/>
-      <c r="ES2" s="248" t="s">
+      <c r="EI2" s="247"/>
+      <c r="EJ2" s="247"/>
+      <c r="EK2" s="247"/>
+      <c r="EL2" s="247"/>
+      <c r="EM2" s="247"/>
+      <c r="EN2" s="247"/>
+      <c r="EO2" s="247"/>
+      <c r="EP2" s="247"/>
+      <c r="EQ2" s="247"/>
+      <c r="ER2" s="248"/>
+      <c r="ES2" s="246" t="s">
         <v>391</v>
       </c>
-      <c r="ET2" s="249"/>
-      <c r="EU2" s="249"/>
-      <c r="EV2" s="262"/>
-      <c r="EW2" s="263"/>
-      <c r="EX2" s="263"/>
-      <c r="EY2" s="264"/>
-      <c r="EZ2" s="249" t="s">
+      <c r="ET2" s="247"/>
+      <c r="EU2" s="247"/>
+      <c r="EV2" s="260"/>
+      <c r="EW2" s="261"/>
+      <c r="EX2" s="261"/>
+      <c r="EY2" s="262"/>
+      <c r="EZ2" s="247" t="s">
         <v>393</v>
       </c>
-      <c r="FA2" s="249"/>
-      <c r="FB2" s="249"/>
-      <c r="FC2" s="249"/>
-      <c r="FD2" s="249"/>
-      <c r="FE2" s="250"/>
-      <c r="FF2" s="248" t="s">
+      <c r="FA2" s="247"/>
+      <c r="FB2" s="247"/>
+      <c r="FC2" s="247"/>
+      <c r="FD2" s="247"/>
+      <c r="FE2" s="248"/>
+      <c r="FF2" s="246" t="s">
         <v>702</v>
       </c>
-      <c r="FG2" s="249"/>
-      <c r="FH2" s="249"/>
-      <c r="FI2" s="249"/>
-      <c r="FJ2" s="249"/>
-      <c r="FK2" s="250"/>
+      <c r="FG2" s="247"/>
+      <c r="FH2" s="247"/>
+      <c r="FI2" s="247"/>
+      <c r="FJ2" s="247"/>
+      <c r="FK2" s="248"/>
       <c r="FL2" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="FM2" s="248" t="s">
+      <c r="FM2" s="246" t="s">
         <v>396</v>
       </c>
-      <c r="FN2" s="249"/>
-      <c r="FO2" s="249"/>
-      <c r="FP2" s="249"/>
-      <c r="FQ2" s="249"/>
-      <c r="FR2" s="249"/>
-      <c r="FS2" s="249"/>
-      <c r="FT2" s="249"/>
-      <c r="FU2" s="250"/>
+      <c r="FN2" s="247"/>
+      <c r="FO2" s="247"/>
+      <c r="FP2" s="247"/>
+      <c r="FQ2" s="247"/>
+      <c r="FR2" s="247"/>
+      <c r="FS2" s="247"/>
+      <c r="FT2" s="247"/>
+      <c r="FU2" s="248"/>
     </row>
     <row r="3" spans="1:177">
       <c r="A3" s="1" t="s">
@@ -14271,422 +14290,422 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:185" ht="15" thickBot="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="237" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="240" t="s">
+      <c r="B1" s="238" t="s">
         <v>367</v>
       </c>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="242"/>
-      <c r="K1" s="246" t="s">
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="244" t="s">
         <v>397</v>
       </c>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="246"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
-      <c r="S1" s="246"/>
-      <c r="T1" s="246"/>
-      <c r="U1" s="246"/>
-      <c r="V1" s="246"/>
-      <c r="W1" s="246"/>
-      <c r="X1" s="246"/>
-      <c r="Y1" s="246"/>
-      <c r="Z1" s="246"/>
-      <c r="AA1" s="246"/>
-      <c r="AB1" s="246"/>
-      <c r="AC1" s="246"/>
-      <c r="AD1" s="246"/>
-      <c r="AE1" s="246"/>
-      <c r="AF1" s="246"/>
-      <c r="AG1" s="246"/>
-      <c r="AH1" s="246"/>
-      <c r="AI1" s="246"/>
-      <c r="AJ1" s="246"/>
-      <c r="AK1" s="246"/>
-      <c r="AL1" s="246"/>
-      <c r="AM1" s="246"/>
-      <c r="AN1" s="246"/>
-      <c r="AO1" s="246"/>
-      <c r="AP1" s="247"/>
-      <c r="AQ1" s="251" t="s">
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
+      <c r="N1" s="244"/>
+      <c r="O1" s="244"/>
+      <c r="P1" s="244"/>
+      <c r="Q1" s="244"/>
+      <c r="R1" s="244"/>
+      <c r="S1" s="244"/>
+      <c r="T1" s="244"/>
+      <c r="U1" s="244"/>
+      <c r="V1" s="244"/>
+      <c r="W1" s="244"/>
+      <c r="X1" s="244"/>
+      <c r="Y1" s="244"/>
+      <c r="Z1" s="244"/>
+      <c r="AA1" s="244"/>
+      <c r="AB1" s="244"/>
+      <c r="AC1" s="244"/>
+      <c r="AD1" s="244"/>
+      <c r="AE1" s="244"/>
+      <c r="AF1" s="244"/>
+      <c r="AG1" s="244"/>
+      <c r="AH1" s="244"/>
+      <c r="AI1" s="244"/>
+      <c r="AJ1" s="244"/>
+      <c r="AK1" s="244"/>
+      <c r="AL1" s="244"/>
+      <c r="AM1" s="244"/>
+      <c r="AN1" s="244"/>
+      <c r="AO1" s="244"/>
+      <c r="AP1" s="245"/>
+      <c r="AQ1" s="249" t="s">
         <v>398</v>
       </c>
-      <c r="AR1" s="252"/>
-      <c r="AS1" s="252"/>
-      <c r="AT1" s="252"/>
-      <c r="AU1" s="252"/>
-      <c r="AV1" s="252"/>
-      <c r="AW1" s="252"/>
-      <c r="AX1" s="252"/>
-      <c r="AY1" s="252"/>
-      <c r="AZ1" s="252"/>
-      <c r="BA1" s="252"/>
-      <c r="BB1" s="252"/>
-      <c r="BC1" s="252"/>
-      <c r="BD1" s="252"/>
-      <c r="BE1" s="252"/>
-      <c r="BF1" s="252"/>
-      <c r="BG1" s="252"/>
-      <c r="BH1" s="252"/>
-      <c r="BI1" s="252"/>
-      <c r="BJ1" s="252"/>
-      <c r="BK1" s="252"/>
-      <c r="BL1" s="252"/>
-      <c r="BM1" s="252"/>
-      <c r="BN1" s="252"/>
-      <c r="BO1" s="252"/>
-      <c r="BP1" s="253"/>
-      <c r="BQ1" s="254" t="s">
+      <c r="AR1" s="250"/>
+      <c r="AS1" s="250"/>
+      <c r="AT1" s="250"/>
+      <c r="AU1" s="250"/>
+      <c r="AV1" s="250"/>
+      <c r="AW1" s="250"/>
+      <c r="AX1" s="250"/>
+      <c r="AY1" s="250"/>
+      <c r="AZ1" s="250"/>
+      <c r="BA1" s="250"/>
+      <c r="BB1" s="250"/>
+      <c r="BC1" s="250"/>
+      <c r="BD1" s="250"/>
+      <c r="BE1" s="250"/>
+      <c r="BF1" s="250"/>
+      <c r="BG1" s="250"/>
+      <c r="BH1" s="250"/>
+      <c r="BI1" s="250"/>
+      <c r="BJ1" s="250"/>
+      <c r="BK1" s="250"/>
+      <c r="BL1" s="250"/>
+      <c r="BM1" s="250"/>
+      <c r="BN1" s="250"/>
+      <c r="BO1" s="250"/>
+      <c r="BP1" s="251"/>
+      <c r="BQ1" s="252" t="s">
         <v>399</v>
       </c>
-      <c r="BR1" s="255"/>
-      <c r="BS1" s="255"/>
-      <c r="BT1" s="255"/>
-      <c r="BU1" s="255"/>
-      <c r="BV1" s="255"/>
-      <c r="BW1" s="255"/>
-      <c r="BX1" s="255"/>
-      <c r="BY1" s="255"/>
-      <c r="BZ1" s="255"/>
-      <c r="CA1" s="255"/>
-      <c r="CB1" s="255"/>
-      <c r="CC1" s="255"/>
-      <c r="CD1" s="255"/>
-      <c r="CE1" s="255"/>
-      <c r="CF1" s="255"/>
-      <c r="CG1" s="255"/>
-      <c r="CH1" s="255"/>
-      <c r="CI1" s="255"/>
-      <c r="CJ1" s="255"/>
-      <c r="CK1" s="255"/>
-      <c r="CL1" s="255"/>
-      <c r="CM1" s="255"/>
-      <c r="CN1" s="255"/>
-      <c r="CO1" s="255"/>
-      <c r="CP1" s="255"/>
-      <c r="CQ1" s="255"/>
-      <c r="CR1" s="255"/>
-      <c r="CS1" s="255"/>
-      <c r="CT1" s="255"/>
-      <c r="CU1" s="255"/>
-      <c r="CV1" s="255"/>
-      <c r="CW1" s="255"/>
-      <c r="CX1" s="255"/>
-      <c r="CY1" s="255"/>
-      <c r="CZ1" s="255"/>
-      <c r="DA1" s="255"/>
-      <c r="DB1" s="255"/>
-      <c r="DC1" s="255"/>
-      <c r="DD1" s="255"/>
-      <c r="DE1" s="255"/>
-      <c r="DF1" s="255"/>
-      <c r="DG1" s="255"/>
-      <c r="DH1" s="255"/>
-      <c r="DI1" s="255"/>
-      <c r="DJ1" s="255"/>
-      <c r="DK1" s="255"/>
-      <c r="DL1" s="255"/>
-      <c r="DM1" s="255"/>
-      <c r="DN1" s="255"/>
-      <c r="DO1" s="255"/>
-      <c r="DP1" s="255"/>
-      <c r="DQ1" s="255"/>
-      <c r="DR1" s="255"/>
-      <c r="DS1" s="255"/>
-      <c r="DT1" s="255"/>
-      <c r="DU1" s="255"/>
-      <c r="DV1" s="255"/>
-      <c r="DW1" s="255"/>
-      <c r="DX1" s="255"/>
-      <c r="DY1" s="255"/>
-      <c r="DZ1" s="255"/>
-      <c r="EA1" s="256"/>
-      <c r="EB1" s="257" t="s">
+      <c r="BR1" s="253"/>
+      <c r="BS1" s="253"/>
+      <c r="BT1" s="253"/>
+      <c r="BU1" s="253"/>
+      <c r="BV1" s="253"/>
+      <c r="BW1" s="253"/>
+      <c r="BX1" s="253"/>
+      <c r="BY1" s="253"/>
+      <c r="BZ1" s="253"/>
+      <c r="CA1" s="253"/>
+      <c r="CB1" s="253"/>
+      <c r="CC1" s="253"/>
+      <c r="CD1" s="253"/>
+      <c r="CE1" s="253"/>
+      <c r="CF1" s="253"/>
+      <c r="CG1" s="253"/>
+      <c r="CH1" s="253"/>
+      <c r="CI1" s="253"/>
+      <c r="CJ1" s="253"/>
+      <c r="CK1" s="253"/>
+      <c r="CL1" s="253"/>
+      <c r="CM1" s="253"/>
+      <c r="CN1" s="253"/>
+      <c r="CO1" s="253"/>
+      <c r="CP1" s="253"/>
+      <c r="CQ1" s="253"/>
+      <c r="CR1" s="253"/>
+      <c r="CS1" s="253"/>
+      <c r="CT1" s="253"/>
+      <c r="CU1" s="253"/>
+      <c r="CV1" s="253"/>
+      <c r="CW1" s="253"/>
+      <c r="CX1" s="253"/>
+      <c r="CY1" s="253"/>
+      <c r="CZ1" s="253"/>
+      <c r="DA1" s="253"/>
+      <c r="DB1" s="253"/>
+      <c r="DC1" s="253"/>
+      <c r="DD1" s="253"/>
+      <c r="DE1" s="253"/>
+      <c r="DF1" s="253"/>
+      <c r="DG1" s="253"/>
+      <c r="DH1" s="253"/>
+      <c r="DI1" s="253"/>
+      <c r="DJ1" s="253"/>
+      <c r="DK1" s="253"/>
+      <c r="DL1" s="253"/>
+      <c r="DM1" s="253"/>
+      <c r="DN1" s="253"/>
+      <c r="DO1" s="253"/>
+      <c r="DP1" s="253"/>
+      <c r="DQ1" s="253"/>
+      <c r="DR1" s="253"/>
+      <c r="DS1" s="253"/>
+      <c r="DT1" s="253"/>
+      <c r="DU1" s="253"/>
+      <c r="DV1" s="253"/>
+      <c r="DW1" s="253"/>
+      <c r="DX1" s="253"/>
+      <c r="DY1" s="253"/>
+      <c r="DZ1" s="253"/>
+      <c r="EA1" s="254"/>
+      <c r="EB1" s="255" t="s">
         <v>400</v>
       </c>
-      <c r="EC1" s="258"/>
-      <c r="ED1" s="258"/>
-      <c r="EE1" s="258"/>
-      <c r="EF1" s="258"/>
-      <c r="EG1" s="258"/>
-      <c r="EH1" s="258"/>
-      <c r="EI1" s="258"/>
-      <c r="EJ1" s="258"/>
-      <c r="EK1" s="258"/>
-      <c r="EL1" s="258"/>
-      <c r="EM1" s="258"/>
-      <c r="EN1" s="258"/>
-      <c r="EO1" s="258"/>
-      <c r="EP1" s="258"/>
-      <c r="EQ1" s="258"/>
-      <c r="ER1" s="258"/>
-      <c r="ES1" s="258"/>
-      <c r="ET1" s="258"/>
-      <c r="EU1" s="258"/>
-      <c r="EV1" s="259" t="s">
+      <c r="EC1" s="256"/>
+      <c r="ED1" s="256"/>
+      <c r="EE1" s="256"/>
+      <c r="EF1" s="256"/>
+      <c r="EG1" s="256"/>
+      <c r="EH1" s="256"/>
+      <c r="EI1" s="256"/>
+      <c r="EJ1" s="256"/>
+      <c r="EK1" s="256"/>
+      <c r="EL1" s="256"/>
+      <c r="EM1" s="256"/>
+      <c r="EN1" s="256"/>
+      <c r="EO1" s="256"/>
+      <c r="EP1" s="256"/>
+      <c r="EQ1" s="256"/>
+      <c r="ER1" s="256"/>
+      <c r="ES1" s="256"/>
+      <c r="ET1" s="256"/>
+      <c r="EU1" s="256"/>
+      <c r="EV1" s="257" t="s">
         <v>392</v>
       </c>
-      <c r="EW1" s="260"/>
-      <c r="EX1" s="260"/>
-      <c r="EY1" s="261"/>
-      <c r="EZ1" s="265" t="s">
+      <c r="EW1" s="258"/>
+      <c r="EX1" s="258"/>
+      <c r="EY1" s="259"/>
+      <c r="EZ1" s="263" t="s">
         <v>401</v>
       </c>
-      <c r="FA1" s="265"/>
-      <c r="FB1" s="265"/>
-      <c r="FC1" s="265"/>
-      <c r="FD1" s="265"/>
-      <c r="FE1" s="265"/>
-      <c r="FF1" s="265"/>
-      <c r="FG1" s="265"/>
-      <c r="FH1" s="265"/>
-      <c r="FI1" s="265"/>
-      <c r="FJ1" s="265"/>
-      <c r="FK1" s="265"/>
-      <c r="FL1" s="265"/>
-      <c r="FM1" s="265"/>
-      <c r="FN1" s="265"/>
-      <c r="FO1" s="265"/>
-      <c r="FP1" s="265"/>
-      <c r="FQ1" s="265"/>
-      <c r="FR1" s="265"/>
-      <c r="FS1" s="265"/>
-      <c r="FT1" s="265"/>
-      <c r="FU1" s="266"/>
+      <c r="FA1" s="263"/>
+      <c r="FB1" s="263"/>
+      <c r="FC1" s="263"/>
+      <c r="FD1" s="263"/>
+      <c r="FE1" s="263"/>
+      <c r="FF1" s="263"/>
+      <c r="FG1" s="263"/>
+      <c r="FH1" s="263"/>
+      <c r="FI1" s="263"/>
+      <c r="FJ1" s="263"/>
+      <c r="FK1" s="263"/>
+      <c r="FL1" s="263"/>
+      <c r="FM1" s="263"/>
+      <c r="FN1" s="263"/>
+      <c r="FO1" s="263"/>
+      <c r="FP1" s="263"/>
+      <c r="FQ1" s="263"/>
+      <c r="FR1" s="263"/>
+      <c r="FS1" s="263"/>
+      <c r="FT1" s="263"/>
+      <c r="FU1" s="264"/>
     </row>
     <row r="2" spans="1:185" ht="15" thickBot="1">
-      <c r="A2" s="239"/>
-      <c r="B2" s="243"/>
-      <c r="C2" s="244"/>
-      <c r="D2" s="244"/>
-      <c r="E2" s="244"/>
-      <c r="F2" s="244"/>
-      <c r="G2" s="244"/>
-      <c r="H2" s="244"/>
-      <c r="I2" s="244"/>
-      <c r="J2" s="245"/>
-      <c r="K2" s="249" t="s">
+      <c r="A2" s="237"/>
+      <c r="B2" s="241"/>
+      <c r="C2" s="242"/>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="243"/>
+      <c r="K2" s="247" t="s">
         <v>368</v>
       </c>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="249"/>
-      <c r="O2" s="250"/>
-      <c r="P2" s="248" t="s">
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="246" t="s">
         <v>369</v>
       </c>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="249"/>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="249"/>
-      <c r="W2" s="250"/>
-      <c r="X2" s="248" t="s">
+      <c r="Q2" s="247"/>
+      <c r="R2" s="247"/>
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="247"/>
+      <c r="W2" s="248"/>
+      <c r="X2" s="246" t="s">
         <v>370</v>
       </c>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="249"/>
-      <c r="AA2" s="249"/>
-      <c r="AB2" s="250"/>
-      <c r="AC2" s="248" t="s">
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="247"/>
+      <c r="AA2" s="247"/>
+      <c r="AB2" s="248"/>
+      <c r="AC2" s="246" t="s">
         <v>371</v>
       </c>
-      <c r="AD2" s="249"/>
-      <c r="AE2" s="249"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="249"/>
-      <c r="AH2" s="249"/>
-      <c r="AI2" s="249"/>
-      <c r="AJ2" s="249"/>
-      <c r="AK2" s="249"/>
-      <c r="AL2" s="249"/>
-      <c r="AM2" s="249"/>
-      <c r="AN2" s="249"/>
-      <c r="AO2" s="249"/>
-      <c r="AP2" s="250"/>
+      <c r="AD2" s="247"/>
+      <c r="AE2" s="247"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="247"/>
+      <c r="AH2" s="247"/>
+      <c r="AI2" s="247"/>
+      <c r="AJ2" s="247"/>
+      <c r="AK2" s="247"/>
+      <c r="AL2" s="247"/>
+      <c r="AM2" s="247"/>
+      <c r="AN2" s="247"/>
+      <c r="AO2" s="247"/>
+      <c r="AP2" s="248"/>
       <c r="AQ2" s="9" t="s">
         <v>378</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="AS2" s="248" t="s">
+      <c r="AS2" s="246" t="s">
         <v>380</v>
       </c>
-      <c r="AT2" s="249"/>
-      <c r="AU2" s="249"/>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="249"/>
-      <c r="AX2" s="249"/>
-      <c r="AY2" s="249"/>
-      <c r="AZ2" s="249"/>
-      <c r="BA2" s="249"/>
-      <c r="BB2" s="249"/>
-      <c r="BC2" s="249"/>
-      <c r="BD2" s="250"/>
-      <c r="BE2" s="248" t="s">
+      <c r="AT2" s="247"/>
+      <c r="AU2" s="247"/>
+      <c r="AV2" s="247"/>
+      <c r="AW2" s="247"/>
+      <c r="AX2" s="247"/>
+      <c r="AY2" s="247"/>
+      <c r="AZ2" s="247"/>
+      <c r="BA2" s="247"/>
+      <c r="BB2" s="247"/>
+      <c r="BC2" s="247"/>
+      <c r="BD2" s="248"/>
+      <c r="BE2" s="246" t="s">
         <v>381</v>
       </c>
-      <c r="BF2" s="249"/>
-      <c r="BG2" s="249"/>
-      <c r="BH2" s="249"/>
-      <c r="BI2" s="249"/>
-      <c r="BJ2" s="249"/>
-      <c r="BK2" s="249"/>
-      <c r="BL2" s="249"/>
-      <c r="BM2" s="249"/>
-      <c r="BN2" s="249"/>
-      <c r="BO2" s="249"/>
-      <c r="BP2" s="250"/>
-      <c r="BQ2" s="248" t="s">
+      <c r="BF2" s="247"/>
+      <c r="BG2" s="247"/>
+      <c r="BH2" s="247"/>
+      <c r="BI2" s="247"/>
+      <c r="BJ2" s="247"/>
+      <c r="BK2" s="247"/>
+      <c r="BL2" s="247"/>
+      <c r="BM2" s="247"/>
+      <c r="BN2" s="247"/>
+      <c r="BO2" s="247"/>
+      <c r="BP2" s="248"/>
+      <c r="BQ2" s="246" t="s">
         <v>382</v>
       </c>
-      <c r="BR2" s="249"/>
-      <c r="BS2" s="249"/>
-      <c r="BT2" s="249"/>
-      <c r="BU2" s="249"/>
-      <c r="BV2" s="249"/>
-      <c r="BW2" s="249"/>
-      <c r="BX2" s="249"/>
-      <c r="BY2" s="249"/>
-      <c r="BZ2" s="249"/>
-      <c r="CA2" s="249"/>
-      <c r="CB2" s="249"/>
-      <c r="CC2" s="249"/>
-      <c r="CD2" s="249"/>
-      <c r="CE2" s="249"/>
-      <c r="CF2" s="249"/>
-      <c r="CG2" s="249"/>
-      <c r="CH2" s="249"/>
-      <c r="CI2" s="249"/>
-      <c r="CJ2" s="250"/>
-      <c r="CK2" s="248" t="s">
+      <c r="BR2" s="247"/>
+      <c r="BS2" s="247"/>
+      <c r="BT2" s="247"/>
+      <c r="BU2" s="247"/>
+      <c r="BV2" s="247"/>
+      <c r="BW2" s="247"/>
+      <c r="BX2" s="247"/>
+      <c r="BY2" s="247"/>
+      <c r="BZ2" s="247"/>
+      <c r="CA2" s="247"/>
+      <c r="CB2" s="247"/>
+      <c r="CC2" s="247"/>
+      <c r="CD2" s="247"/>
+      <c r="CE2" s="247"/>
+      <c r="CF2" s="247"/>
+      <c r="CG2" s="247"/>
+      <c r="CH2" s="247"/>
+      <c r="CI2" s="247"/>
+      <c r="CJ2" s="248"/>
+      <c r="CK2" s="246" t="s">
         <v>383</v>
       </c>
-      <c r="CL2" s="249"/>
-      <c r="CM2" s="249"/>
-      <c r="CN2" s="250"/>
-      <c r="CO2" s="248" t="s">
+      <c r="CL2" s="247"/>
+      <c r="CM2" s="247"/>
+      <c r="CN2" s="248"/>
+      <c r="CO2" s="246" t="s">
         <v>384</v>
       </c>
-      <c r="CP2" s="249"/>
-      <c r="CQ2" s="249"/>
-      <c r="CR2" s="249"/>
-      <c r="CS2" s="249"/>
-      <c r="CT2" s="249"/>
-      <c r="CU2" s="249"/>
-      <c r="CV2" s="249"/>
-      <c r="CW2" s="249"/>
-      <c r="CX2" s="249"/>
-      <c r="CY2" s="249"/>
-      <c r="CZ2" s="250"/>
-      <c r="DA2" s="248" t="s">
+      <c r="CP2" s="247"/>
+      <c r="CQ2" s="247"/>
+      <c r="CR2" s="247"/>
+      <c r="CS2" s="247"/>
+      <c r="CT2" s="247"/>
+      <c r="CU2" s="247"/>
+      <c r="CV2" s="247"/>
+      <c r="CW2" s="247"/>
+      <c r="CX2" s="247"/>
+      <c r="CY2" s="247"/>
+      <c r="CZ2" s="248"/>
+      <c r="DA2" s="246" t="s">
         <v>385</v>
       </c>
-      <c r="DB2" s="249"/>
-      <c r="DC2" s="249"/>
-      <c r="DD2" s="249"/>
-      <c r="DE2" s="249"/>
-      <c r="DF2" s="250"/>
-      <c r="DG2" s="248" t="s">
+      <c r="DB2" s="247"/>
+      <c r="DC2" s="247"/>
+      <c r="DD2" s="247"/>
+      <c r="DE2" s="247"/>
+      <c r="DF2" s="248"/>
+      <c r="DG2" s="246" t="s">
         <v>386</v>
       </c>
-      <c r="DH2" s="249"/>
-      <c r="DI2" s="249"/>
-      <c r="DJ2" s="249"/>
-      <c r="DK2" s="249"/>
-      <c r="DL2" s="249"/>
-      <c r="DM2" s="249"/>
-      <c r="DN2" s="249"/>
-      <c r="DO2" s="249"/>
-      <c r="DP2" s="249"/>
-      <c r="DQ2" s="249"/>
-      <c r="DR2" s="250"/>
-      <c r="DS2" s="248" t="s">
+      <c r="DH2" s="247"/>
+      <c r="DI2" s="247"/>
+      <c r="DJ2" s="247"/>
+      <c r="DK2" s="247"/>
+      <c r="DL2" s="247"/>
+      <c r="DM2" s="247"/>
+      <c r="DN2" s="247"/>
+      <c r="DO2" s="247"/>
+      <c r="DP2" s="247"/>
+      <c r="DQ2" s="247"/>
+      <c r="DR2" s="248"/>
+      <c r="DS2" s="246" t="s">
         <v>387</v>
       </c>
-      <c r="DT2" s="249"/>
-      <c r="DU2" s="249"/>
-      <c r="DV2" s="249"/>
-      <c r="DW2" s="249"/>
-      <c r="DX2" s="249"/>
-      <c r="DY2" s="249"/>
-      <c r="DZ2" s="250"/>
+      <c r="DT2" s="247"/>
+      <c r="DU2" s="247"/>
+      <c r="DV2" s="247"/>
+      <c r="DW2" s="247"/>
+      <c r="DX2" s="247"/>
+      <c r="DY2" s="247"/>
+      <c r="DZ2" s="248"/>
       <c r="EA2" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="EB2" s="248" t="s">
+      <c r="EB2" s="246" t="s">
         <v>390</v>
       </c>
-      <c r="EC2" s="249"/>
-      <c r="ED2" s="249"/>
-      <c r="EE2" s="249"/>
-      <c r="EF2" s="249"/>
-      <c r="EG2" s="250"/>
-      <c r="EH2" s="248" t="s">
+      <c r="EC2" s="247"/>
+      <c r="ED2" s="247"/>
+      <c r="EE2" s="247"/>
+      <c r="EF2" s="247"/>
+      <c r="EG2" s="248"/>
+      <c r="EH2" s="246" t="s">
         <v>389</v>
       </c>
-      <c r="EI2" s="249"/>
-      <c r="EJ2" s="249"/>
-      <c r="EK2" s="249"/>
-      <c r="EL2" s="249"/>
-      <c r="EM2" s="249"/>
-      <c r="EN2" s="249"/>
-      <c r="EO2" s="249"/>
-      <c r="EP2" s="249"/>
-      <c r="EQ2" s="249"/>
-      <c r="ER2" s="250"/>
-      <c r="ES2" s="248" t="s">
+      <c r="EI2" s="247"/>
+      <c r="EJ2" s="247"/>
+      <c r="EK2" s="247"/>
+      <c r="EL2" s="247"/>
+      <c r="EM2" s="247"/>
+      <c r="EN2" s="247"/>
+      <c r="EO2" s="247"/>
+      <c r="EP2" s="247"/>
+      <c r="EQ2" s="247"/>
+      <c r="ER2" s="248"/>
+      <c r="ES2" s="246" t="s">
         <v>391</v>
       </c>
-      <c r="ET2" s="249"/>
-      <c r="EU2" s="249"/>
-      <c r="EV2" s="262"/>
-      <c r="EW2" s="263"/>
-      <c r="EX2" s="263"/>
-      <c r="EY2" s="264"/>
-      <c r="EZ2" s="249" t="s">
+      <c r="ET2" s="247"/>
+      <c r="EU2" s="247"/>
+      <c r="EV2" s="260"/>
+      <c r="EW2" s="261"/>
+      <c r="EX2" s="261"/>
+      <c r="EY2" s="262"/>
+      <c r="EZ2" s="247" t="s">
         <v>393</v>
       </c>
-      <c r="FA2" s="249"/>
-      <c r="FB2" s="249"/>
-      <c r="FC2" s="249"/>
-      <c r="FD2" s="249"/>
-      <c r="FE2" s="250"/>
-      <c r="FF2" s="248" t="s">
+      <c r="FA2" s="247"/>
+      <c r="FB2" s="247"/>
+      <c r="FC2" s="247"/>
+      <c r="FD2" s="247"/>
+      <c r="FE2" s="248"/>
+      <c r="FF2" s="246" t="s">
         <v>394</v>
       </c>
-      <c r="FG2" s="249"/>
-      <c r="FH2" s="249"/>
-      <c r="FI2" s="249"/>
-      <c r="FJ2" s="249"/>
-      <c r="FK2" s="250"/>
+      <c r="FG2" s="247"/>
+      <c r="FH2" s="247"/>
+      <c r="FI2" s="247"/>
+      <c r="FJ2" s="247"/>
+      <c r="FK2" s="248"/>
       <c r="FL2" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="FM2" s="248" t="s">
+      <c r="FM2" s="246" t="s">
         <v>396</v>
       </c>
-      <c r="FN2" s="249"/>
-      <c r="FO2" s="249"/>
-      <c r="FP2" s="249"/>
-      <c r="FQ2" s="249"/>
-      <c r="FR2" s="249"/>
-      <c r="FS2" s="249"/>
-      <c r="FT2" s="249"/>
-      <c r="FU2" s="250"/>
+      <c r="FN2" s="247"/>
+      <c r="FO2" s="247"/>
+      <c r="FP2" s="247"/>
+      <c r="FQ2" s="247"/>
+      <c r="FR2" s="247"/>
+      <c r="FS2" s="247"/>
+      <c r="FT2" s="247"/>
+      <c r="FU2" s="248"/>
     </row>
     <row r="3" spans="1:185">
       <c r="A3" s="1" t="s">
@@ -22428,210 +22447,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" thickBot="1">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="237" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="272" t="s">
+      <c r="B1" s="270" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="273"/>
-      <c r="K1" s="273"/>
-      <c r="L1" s="273"/>
-      <c r="M1" s="273"/>
-      <c r="N1" s="273"/>
-      <c r="O1" s="273"/>
-      <c r="P1" s="273"/>
-      <c r="Q1" s="273"/>
-      <c r="R1" s="274" t="s">
+      <c r="C1" s="271"/>
+      <c r="D1" s="271"/>
+      <c r="E1" s="271"/>
+      <c r="F1" s="271"/>
+      <c r="G1" s="271"/>
+      <c r="H1" s="271"/>
+      <c r="I1" s="271"/>
+      <c r="J1" s="271"/>
+      <c r="K1" s="271"/>
+      <c r="L1" s="271"/>
+      <c r="M1" s="271"/>
+      <c r="N1" s="271"/>
+      <c r="O1" s="271"/>
+      <c r="P1" s="271"/>
+      <c r="Q1" s="271"/>
+      <c r="R1" s="272" t="s">
         <v>406</v>
       </c>
-      <c r="S1" s="275"/>
-      <c r="T1" s="275"/>
-      <c r="U1" s="275"/>
-      <c r="V1" s="275"/>
-      <c r="W1" s="275"/>
-      <c r="X1" s="275"/>
-      <c r="Y1" s="275"/>
-      <c r="Z1" s="275"/>
-      <c r="AA1" s="275"/>
-      <c r="AB1" s="275"/>
-      <c r="AC1" s="275"/>
-      <c r="AD1" s="275"/>
-      <c r="AE1" s="275"/>
-      <c r="AF1" s="275"/>
-      <c r="AG1" s="275"/>
-      <c r="AH1" s="276" t="s">
+      <c r="S1" s="273"/>
+      <c r="T1" s="273"/>
+      <c r="U1" s="273"/>
+      <c r="V1" s="273"/>
+      <c r="W1" s="273"/>
+      <c r="X1" s="273"/>
+      <c r="Y1" s="273"/>
+      <c r="Z1" s="273"/>
+      <c r="AA1" s="273"/>
+      <c r="AB1" s="273"/>
+      <c r="AC1" s="273"/>
+      <c r="AD1" s="273"/>
+      <c r="AE1" s="273"/>
+      <c r="AF1" s="273"/>
+      <c r="AG1" s="273"/>
+      <c r="AH1" s="274" t="s">
         <v>399</v>
       </c>
-      <c r="AI1" s="277"/>
-      <c r="AJ1" s="277"/>
-      <c r="AK1" s="277"/>
-      <c r="AL1" s="277"/>
-      <c r="AM1" s="277"/>
-      <c r="AN1" s="277"/>
-      <c r="AO1" s="277"/>
-      <c r="AP1" s="277"/>
-      <c r="AQ1" s="277"/>
-      <c r="AR1" s="277"/>
-      <c r="AS1" s="277"/>
-      <c r="AT1" s="277"/>
-      <c r="AU1" s="277"/>
-      <c r="AV1" s="277"/>
-      <c r="AW1" s="277"/>
-      <c r="AX1" s="277"/>
-      <c r="AY1" s="277"/>
-      <c r="AZ1" s="277"/>
-      <c r="BA1" s="277"/>
-      <c r="BB1" s="277"/>
-      <c r="BC1" s="277"/>
-      <c r="BD1" s="277"/>
-      <c r="BE1" s="277"/>
-      <c r="BF1" s="277"/>
-      <c r="BG1" s="277"/>
-      <c r="BH1" s="277"/>
-      <c r="BI1" s="277"/>
-      <c r="BJ1" s="278" t="s">
+      <c r="AI1" s="275"/>
+      <c r="AJ1" s="275"/>
+      <c r="AK1" s="275"/>
+      <c r="AL1" s="275"/>
+      <c r="AM1" s="275"/>
+      <c r="AN1" s="275"/>
+      <c r="AO1" s="275"/>
+      <c r="AP1" s="275"/>
+      <c r="AQ1" s="275"/>
+      <c r="AR1" s="275"/>
+      <c r="AS1" s="275"/>
+      <c r="AT1" s="275"/>
+      <c r="AU1" s="275"/>
+      <c r="AV1" s="275"/>
+      <c r="AW1" s="275"/>
+      <c r="AX1" s="275"/>
+      <c r="AY1" s="275"/>
+      <c r="AZ1" s="275"/>
+      <c r="BA1" s="275"/>
+      <c r="BB1" s="275"/>
+      <c r="BC1" s="275"/>
+      <c r="BD1" s="275"/>
+      <c r="BE1" s="275"/>
+      <c r="BF1" s="275"/>
+      <c r="BG1" s="275"/>
+      <c r="BH1" s="275"/>
+      <c r="BI1" s="275"/>
+      <c r="BJ1" s="276" t="s">
         <v>407</v>
       </c>
-      <c r="BK1" s="279"/>
-      <c r="BL1" s="279"/>
-      <c r="BM1" s="279"/>
-      <c r="BN1" s="279"/>
-      <c r="BO1" s="279"/>
-      <c r="BP1" s="279"/>
-      <c r="BQ1" s="279"/>
-      <c r="BR1" s="279"/>
-      <c r="BS1" s="279"/>
-      <c r="BT1" s="279"/>
-      <c r="BU1" s="279"/>
-      <c r="BV1" s="268" t="s">
+      <c r="BK1" s="277"/>
+      <c r="BL1" s="277"/>
+      <c r="BM1" s="277"/>
+      <c r="BN1" s="277"/>
+      <c r="BO1" s="277"/>
+      <c r="BP1" s="277"/>
+      <c r="BQ1" s="277"/>
+      <c r="BR1" s="277"/>
+      <c r="BS1" s="277"/>
+      <c r="BT1" s="277"/>
+      <c r="BU1" s="277"/>
+      <c r="BV1" s="266" t="s">
         <v>392</v>
       </c>
-      <c r="BW1" s="269"/>
-      <c r="BX1" s="269"/>
-      <c r="BY1" s="269"/>
+      <c r="BW1" s="267"/>
+      <c r="BX1" s="267"/>
+      <c r="BY1" s="267"/>
     </row>
     <row r="2" spans="1:77" ht="15" thickBot="1">
-      <c r="A2" s="267"/>
-      <c r="B2" s="248" t="s">
+      <c r="A2" s="265"/>
+      <c r="B2" s="246" t="s">
         <v>374</v>
       </c>
-      <c r="C2" s="249"/>
-      <c r="D2" s="249"/>
-      <c r="E2" s="249"/>
-      <c r="F2" s="248" t="s">
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="246" t="s">
         <v>375</v>
       </c>
-      <c r="G2" s="249"/>
-      <c r="H2" s="249"/>
-      <c r="I2" s="249"/>
-      <c r="J2" s="248" t="s">
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="246" t="s">
         <v>376</v>
       </c>
-      <c r="K2" s="249"/>
-      <c r="L2" s="249"/>
-      <c r="M2" s="249"/>
-      <c r="N2" s="248" t="s">
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="246" t="s">
         <v>377</v>
       </c>
-      <c r="O2" s="249"/>
-      <c r="P2" s="249"/>
-      <c r="Q2" s="249"/>
-      <c r="R2" s="248" t="s">
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
+      <c r="R2" s="246" t="s">
         <v>378</v>
       </c>
-      <c r="S2" s="249"/>
-      <c r="T2" s="249"/>
-      <c r="U2" s="249"/>
-      <c r="V2" s="248" t="s">
+      <c r="S2" s="247"/>
+      <c r="T2" s="247"/>
+      <c r="U2" s="247"/>
+      <c r="V2" s="246" t="s">
         <v>379</v>
       </c>
-      <c r="W2" s="249"/>
-      <c r="X2" s="249"/>
-      <c r="Y2" s="249"/>
-      <c r="Z2" s="248" t="s">
+      <c r="W2" s="247"/>
+      <c r="X2" s="247"/>
+      <c r="Y2" s="247"/>
+      <c r="Z2" s="246" t="s">
         <v>380</v>
       </c>
-      <c r="AA2" s="249"/>
-      <c r="AB2" s="249"/>
-      <c r="AC2" s="249"/>
-      <c r="AD2" s="248" t="s">
+      <c r="AA2" s="247"/>
+      <c r="AB2" s="247"/>
+      <c r="AC2" s="247"/>
+      <c r="AD2" s="246" t="s">
         <v>381</v>
       </c>
-      <c r="AE2" s="249"/>
-      <c r="AF2" s="249"/>
-      <c r="AG2" s="249"/>
-      <c r="AH2" s="248" t="s">
+      <c r="AE2" s="247"/>
+      <c r="AF2" s="247"/>
+      <c r="AG2" s="247"/>
+      <c r="AH2" s="246" t="s">
         <v>382</v>
       </c>
-      <c r="AI2" s="249"/>
-      <c r="AJ2" s="249"/>
-      <c r="AK2" s="249"/>
-      <c r="AL2" s="248" t="s">
+      <c r="AI2" s="247"/>
+      <c r="AJ2" s="247"/>
+      <c r="AK2" s="247"/>
+      <c r="AL2" s="246" t="s">
         <v>383</v>
       </c>
-      <c r="AM2" s="249"/>
-      <c r="AN2" s="249"/>
-      <c r="AO2" s="249"/>
-      <c r="AP2" s="248" t="s">
+      <c r="AM2" s="247"/>
+      <c r="AN2" s="247"/>
+      <c r="AO2" s="247"/>
+      <c r="AP2" s="246" t="s">
         <v>402</v>
       </c>
-      <c r="AQ2" s="249"/>
-      <c r="AR2" s="249"/>
-      <c r="AS2" s="249"/>
-      <c r="AT2" s="248" t="s">
+      <c r="AQ2" s="247"/>
+      <c r="AR2" s="247"/>
+      <c r="AS2" s="247"/>
+      <c r="AT2" s="246" t="s">
         <v>385</v>
       </c>
-      <c r="AU2" s="249"/>
-      <c r="AV2" s="249"/>
-      <c r="AW2" s="249"/>
-      <c r="AX2" s="248" t="s">
+      <c r="AU2" s="247"/>
+      <c r="AV2" s="247"/>
+      <c r="AW2" s="247"/>
+      <c r="AX2" s="246" t="s">
         <v>386</v>
       </c>
-      <c r="AY2" s="249"/>
-      <c r="AZ2" s="249"/>
-      <c r="BA2" s="249"/>
-      <c r="BB2" s="248" t="s">
+      <c r="AY2" s="247"/>
+      <c r="AZ2" s="247"/>
+      <c r="BA2" s="247"/>
+      <c r="BB2" s="246" t="s">
         <v>387</v>
       </c>
-      <c r="BC2" s="249"/>
-      <c r="BD2" s="249"/>
-      <c r="BE2" s="249"/>
-      <c r="BF2" s="248" t="s">
+      <c r="BC2" s="247"/>
+      <c r="BD2" s="247"/>
+      <c r="BE2" s="247"/>
+      <c r="BF2" s="246" t="s">
         <v>388</v>
       </c>
-      <c r="BG2" s="249"/>
-      <c r="BH2" s="249"/>
-      <c r="BI2" s="249"/>
-      <c r="BJ2" s="248" t="s">
+      <c r="BG2" s="247"/>
+      <c r="BH2" s="247"/>
+      <c r="BI2" s="247"/>
+      <c r="BJ2" s="246" t="s">
         <v>403</v>
       </c>
-      <c r="BK2" s="249"/>
-      <c r="BL2" s="249"/>
-      <c r="BM2" s="249"/>
-      <c r="BN2" s="248" t="s">
+      <c r="BK2" s="247"/>
+      <c r="BL2" s="247"/>
+      <c r="BM2" s="247"/>
+      <c r="BN2" s="246" t="s">
         <v>404</v>
       </c>
-      <c r="BO2" s="249"/>
-      <c r="BP2" s="249"/>
-      <c r="BQ2" s="249"/>
-      <c r="BR2" s="248" t="s">
+      <c r="BO2" s="247"/>
+      <c r="BP2" s="247"/>
+      <c r="BQ2" s="247"/>
+      <c r="BR2" s="246" t="s">
         <v>405</v>
       </c>
-      <c r="BS2" s="249"/>
-      <c r="BT2" s="249"/>
-      <c r="BU2" s="249"/>
-      <c r="BV2" s="270"/>
-      <c r="BW2" s="271"/>
-      <c r="BX2" s="271"/>
-      <c r="BY2" s="271"/>
+      <c r="BS2" s="247"/>
+      <c r="BT2" s="247"/>
+      <c r="BU2" s="247"/>
+      <c r="BV2" s="268"/>
+      <c r="BW2" s="269"/>
+      <c r="BX2" s="269"/>
+      <c r="BY2" s="269"/>
     </row>
     <row r="3" spans="1:77" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
@@ -26062,130 +26081,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:60" ht="15.75" customHeight="1">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="322" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="325"/>
-      <c r="C1" s="325"/>
-      <c r="D1" s="326"/>
-      <c r="F1" s="294" t="s">
+      <c r="B1" s="323"/>
+      <c r="C1" s="323"/>
+      <c r="D1" s="324"/>
+      <c r="F1" s="292" t="s">
         <v>318</v>
       </c>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="296"/>
-      <c r="M1" s="300" t="s">
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="294"/>
+      <c r="M1" s="298" t="s">
         <v>319</v>
       </c>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
-      <c r="P1" s="301"/>
-      <c r="Q1" s="301"/>
-      <c r="R1" s="301"/>
-      <c r="S1" s="301"/>
-      <c r="T1" s="301"/>
-      <c r="U1" s="301"/>
-      <c r="V1" s="301"/>
-      <c r="W1" s="302"/>
-      <c r="Y1" s="306" t="s">
+      <c r="N1" s="299"/>
+      <c r="O1" s="299"/>
+      <c r="P1" s="299"/>
+      <c r="Q1" s="299"/>
+      <c r="R1" s="299"/>
+      <c r="S1" s="299"/>
+      <c r="T1" s="299"/>
+      <c r="U1" s="299"/>
+      <c r="V1" s="299"/>
+      <c r="W1" s="300"/>
+      <c r="Y1" s="304" t="s">
         <v>322</v>
       </c>
-      <c r="Z1" s="307"/>
-      <c r="AA1" s="307"/>
-      <c r="AB1" s="307"/>
-      <c r="AC1" s="307"/>
-      <c r="AD1" s="308"/>
-      <c r="AF1" s="318" t="s">
+      <c r="Z1" s="305"/>
+      <c r="AA1" s="305"/>
+      <c r="AB1" s="305"/>
+      <c r="AC1" s="305"/>
+      <c r="AD1" s="306"/>
+      <c r="AF1" s="316" t="s">
         <v>643</v>
       </c>
-      <c r="AG1" s="319"/>
-      <c r="AH1" s="319"/>
-      <c r="AI1" s="319"/>
-      <c r="AJ1" s="319"/>
-      <c r="AK1" s="320"/>
-      <c r="AM1" s="312" t="s">
+      <c r="AG1" s="317"/>
+      <c r="AH1" s="317"/>
+      <c r="AI1" s="317"/>
+      <c r="AJ1" s="317"/>
+      <c r="AK1" s="318"/>
+      <c r="AM1" s="310" t="s">
         <v>392</v>
       </c>
-      <c r="AN1" s="313"/>
-      <c r="AO1" s="313"/>
-      <c r="AP1" s="313"/>
-      <c r="AQ1" s="313"/>
-      <c r="AR1" s="314"/>
-      <c r="AT1" s="285" t="s">
+      <c r="AN1" s="311"/>
+      <c r="AO1" s="311"/>
+      <c r="AP1" s="311"/>
+      <c r="AQ1" s="311"/>
+      <c r="AR1" s="312"/>
+      <c r="AT1" s="283" t="s">
         <v>654</v>
       </c>
-      <c r="AU1" s="286"/>
-      <c r="AV1" s="286"/>
-      <c r="AW1" s="286"/>
-      <c r="AX1" s="286"/>
-      <c r="AY1" s="286"/>
-      <c r="AZ1" s="286"/>
-      <c r="BA1" s="286"/>
-      <c r="BB1" s="286"/>
-      <c r="BC1" s="286"/>
-      <c r="BD1" s="286"/>
-      <c r="BE1" s="286"/>
-      <c r="BF1" s="286"/>
-      <c r="BG1" s="286"/>
-      <c r="BH1" s="287"/>
+      <c r="AU1" s="284"/>
+      <c r="AV1" s="284"/>
+      <c r="AW1" s="284"/>
+      <c r="AX1" s="284"/>
+      <c r="AY1" s="284"/>
+      <c r="AZ1" s="284"/>
+      <c r="BA1" s="284"/>
+      <c r="BB1" s="284"/>
+      <c r="BC1" s="284"/>
+      <c r="BD1" s="284"/>
+      <c r="BE1" s="284"/>
+      <c r="BF1" s="284"/>
+      <c r="BG1" s="284"/>
+      <c r="BH1" s="285"/>
     </row>
     <row r="2" spans="1:60" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="327"/>
-      <c r="B2" s="328"/>
-      <c r="C2" s="328"/>
-      <c r="D2" s="329"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="298"/>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="299"/>
-      <c r="M2" s="303"/>
-      <c r="N2" s="304"/>
-      <c r="O2" s="304"/>
-      <c r="P2" s="304"/>
-      <c r="Q2" s="304"/>
-      <c r="R2" s="304"/>
-      <c r="S2" s="304"/>
-      <c r="T2" s="304"/>
-      <c r="U2" s="304"/>
-      <c r="V2" s="304"/>
-      <c r="W2" s="305"/>
-      <c r="Y2" s="309"/>
-      <c r="Z2" s="310"/>
-      <c r="AA2" s="310"/>
-      <c r="AB2" s="310"/>
-      <c r="AC2" s="310"/>
-      <c r="AD2" s="311"/>
-      <c r="AF2" s="321"/>
-      <c r="AG2" s="322"/>
-      <c r="AH2" s="322"/>
-      <c r="AI2" s="322"/>
-      <c r="AJ2" s="322"/>
-      <c r="AK2" s="323"/>
-      <c r="AM2" s="315"/>
-      <c r="AN2" s="316"/>
-      <c r="AO2" s="316"/>
-      <c r="AP2" s="316"/>
-      <c r="AQ2" s="316"/>
-      <c r="AR2" s="317"/>
-      <c r="AT2" s="288"/>
-      <c r="AU2" s="289"/>
-      <c r="AV2" s="289"/>
-      <c r="AW2" s="289"/>
-      <c r="AX2" s="289"/>
-      <c r="AY2" s="289"/>
-      <c r="AZ2" s="289"/>
-      <c r="BA2" s="289"/>
-      <c r="BB2" s="289"/>
-      <c r="BC2" s="289"/>
-      <c r="BD2" s="289"/>
-      <c r="BE2" s="289"/>
-      <c r="BF2" s="289"/>
-      <c r="BG2" s="289"/>
-      <c r="BH2" s="290"/>
+      <c r="A2" s="325"/>
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="327"/>
+      <c r="F2" s="295"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="297"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="302"/>
+      <c r="O2" s="302"/>
+      <c r="P2" s="302"/>
+      <c r="Q2" s="302"/>
+      <c r="R2" s="302"/>
+      <c r="S2" s="302"/>
+      <c r="T2" s="302"/>
+      <c r="U2" s="302"/>
+      <c r="V2" s="302"/>
+      <c r="W2" s="303"/>
+      <c r="Y2" s="307"/>
+      <c r="Z2" s="308"/>
+      <c r="AA2" s="308"/>
+      <c r="AB2" s="308"/>
+      <c r="AC2" s="308"/>
+      <c r="AD2" s="309"/>
+      <c r="AF2" s="319"/>
+      <c r="AG2" s="320"/>
+      <c r="AH2" s="320"/>
+      <c r="AI2" s="320"/>
+      <c r="AJ2" s="320"/>
+      <c r="AK2" s="321"/>
+      <c r="AM2" s="313"/>
+      <c r="AN2" s="314"/>
+      <c r="AO2" s="314"/>
+      <c r="AP2" s="314"/>
+      <c r="AQ2" s="314"/>
+      <c r="AR2" s="315"/>
+      <c r="AT2" s="286"/>
+      <c r="AU2" s="287"/>
+      <c r="AV2" s="287"/>
+      <c r="AW2" s="287"/>
+      <c r="AX2" s="287"/>
+      <c r="AY2" s="287"/>
+      <c r="AZ2" s="287"/>
+      <c r="BA2" s="287"/>
+      <c r="BB2" s="287"/>
+      <c r="BC2" s="287"/>
+      <c r="BD2" s="287"/>
+      <c r="BE2" s="287"/>
+      <c r="BF2" s="287"/>
+      <c r="BG2" s="287"/>
+      <c r="BH2" s="288"/>
     </row>
     <row r="3" spans="1:60" ht="15" thickBot="1">
       <c r="A3" s="48" t="s">
@@ -26305,28 +26324,28 @@
       <c r="AR3" t="s">
         <v>458</v>
       </c>
-      <c r="AT3" s="280" t="s">
+      <c r="AT3" s="278" t="s">
         <v>651</v>
       </c>
-      <c r="AU3" s="282"/>
-      <c r="AV3" s="282"/>
-      <c r="AW3" s="282"/>
-      <c r="AX3" s="282"/>
-      <c r="AY3" s="282"/>
-      <c r="AZ3" s="281"/>
-      <c r="BB3" s="280" t="s">
+      <c r="AU3" s="280"/>
+      <c r="AV3" s="280"/>
+      <c r="AW3" s="280"/>
+      <c r="AX3" s="280"/>
+      <c r="AY3" s="280"/>
+      <c r="AZ3" s="279"/>
+      <c r="BB3" s="278" t="s">
         <v>679</v>
       </c>
-      <c r="BC3" s="281"/>
-      <c r="BE3" s="280" t="s">
+      <c r="BC3" s="279"/>
+      <c r="BE3" s="278" t="s">
         <v>685</v>
       </c>
-      <c r="BF3" s="282"/>
-      <c r="BG3" s="282"/>
-      <c r="BH3" s="281"/>
+      <c r="BF3" s="280"/>
+      <c r="BG3" s="280"/>
+      <c r="BH3" s="279"/>
     </row>
     <row r="4" spans="1:60" ht="15" customHeight="1">
-      <c r="A4" s="330" t="s">
+      <c r="A4" s="328" t="s">
         <v>454</v>
       </c>
       <c r="B4" s="33" t="s">
@@ -26469,19 +26488,19 @@
         <f>IF(AP4&lt;20%,"very low",IF(AP4&lt;40%,"low",IF(AP4&lt;60%,"moderate",IF(AP4&lt;80%,"high","very high"))))</f>
         <v>high</v>
       </c>
-      <c r="AT4" s="293" t="s">
+      <c r="AT4" s="291" t="s">
         <v>647</v>
       </c>
-      <c r="AU4" s="291" t="s">
+      <c r="AU4" s="289" t="s">
         <v>652</v>
       </c>
-      <c r="AV4" s="291"/>
-      <c r="AW4" s="291"/>
-      <c r="AX4" s="291" t="s">
+      <c r="AV4" s="289"/>
+      <c r="AW4" s="289"/>
+      <c r="AX4" s="289" t="s">
         <v>653</v>
       </c>
-      <c r="AY4" s="291"/>
-      <c r="AZ4" s="292"/>
+      <c r="AY4" s="289"/>
+      <c r="AZ4" s="290"/>
       <c r="BB4" s="24" t="s">
         <v>286</v>
       </c>
@@ -26503,7 +26522,7 @@
       </c>
     </row>
     <row r="5" spans="1:60">
-      <c r="A5" s="332"/>
+      <c r="A5" s="330"/>
       <c r="B5" s="5" t="s">
         <v>327</v>
       </c>
@@ -26644,7 +26663,7 @@
         <f>IF(AP5&lt;20%,"very low",IF(AP5&lt;40%,"low",IF(AP5&lt;60%,"moderate",IF(AP5&lt;80%,"high","very high"))))</f>
         <v>moderate</v>
       </c>
-      <c r="AT5" s="293"/>
+      <c r="AT5" s="291"/>
       <c r="AU5" s="5" t="s">
         <v>648</v>
       </c>
@@ -26687,7 +26706,7 @@
       </c>
     </row>
     <row r="6" spans="1:60">
-      <c r="A6" s="332"/>
+      <c r="A6" s="330"/>
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
@@ -26879,7 +26898,7 @@
       </c>
     </row>
     <row r="7" spans="1:60">
-      <c r="A7" s="332"/>
+      <c r="A7" s="330"/>
       <c r="B7" s="5" t="s">
         <v>328</v>
       </c>
@@ -27049,7 +27068,7 @@
       </c>
     </row>
     <row r="8" spans="1:60" ht="15" thickBot="1">
-      <c r="A8" s="332"/>
+      <c r="A8" s="330"/>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
@@ -27219,7 +27238,7 @@
       </c>
     </row>
     <row r="9" spans="1:60" ht="15" thickBot="1">
-      <c r="A9" s="332"/>
+      <c r="A9" s="330"/>
       <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
@@ -27365,10 +27384,10 @@
         <f>COUNTIF(raw_data!FH:FH, AT9)</f>
         <v>0</v>
       </c>
-      <c r="BB9" s="283" t="s">
+      <c r="BB9" s="281" t="s">
         <v>680</v>
       </c>
-      <c r="BC9" s="284"/>
+      <c r="BC9" s="282"/>
       <c r="BE9" s="87" t="s">
         <v>689</v>
       </c>
@@ -27386,7 +27405,7 @@
       </c>
     </row>
     <row r="10" spans="1:60">
-      <c r="A10" s="332"/>
+      <c r="A10" s="330"/>
       <c r="B10" s="5" t="s">
         <v>329</v>
       </c>
@@ -27556,7 +27575,7 @@
       </c>
     </row>
     <row r="11" spans="1:60">
-      <c r="A11" s="331"/>
+      <c r="A11" s="329"/>
       <c r="B11" s="34" t="s">
         <v>330</v>
       </c>
@@ -27726,7 +27745,7 @@
       </c>
     </row>
     <row r="12" spans="1:60" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="330" t="s">
+      <c r="A12" s="328" t="s">
         <v>339</v>
       </c>
       <c r="B12" s="33" t="s">
@@ -27898,7 +27917,7 @@
       </c>
     </row>
     <row r="13" spans="1:60" ht="15" thickBot="1">
-      <c r="A13" s="332"/>
+      <c r="A13" s="330"/>
       <c r="B13" s="5" t="s">
         <v>331</v>
       </c>
@@ -28017,15 +28036,15 @@
         <f t="shared" si="7"/>
         <v>low</v>
       </c>
-      <c r="AT13" s="283" t="s">
+      <c r="AT13" s="281" t="s">
         <v>681</v>
       </c>
-      <c r="AU13" s="249"/>
-      <c r="AV13" s="249"/>
-      <c r="AW13" s="249"/>
-      <c r="AX13" s="249"/>
-      <c r="AY13" s="249"/>
-      <c r="AZ13" s="250"/>
+      <c r="AU13" s="247"/>
+      <c r="AV13" s="247"/>
+      <c r="AW13" s="247"/>
+      <c r="AX13" s="247"/>
+      <c r="AY13" s="247"/>
+      <c r="AZ13" s="248"/>
       <c r="BB13" s="24" t="s">
         <v>297</v>
       </c>
@@ -28050,7 +28069,7 @@
       </c>
     </row>
     <row r="14" spans="1:60" ht="15" thickBot="1">
-      <c r="A14" s="332"/>
+      <c r="A14" s="330"/>
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -28169,19 +28188,19 @@
         <f t="shared" si="7"/>
         <v>very low</v>
       </c>
-      <c r="AT14" s="293" t="s">
+      <c r="AT14" s="291" t="s">
         <v>655</v>
       </c>
-      <c r="AU14" s="291" t="s">
+      <c r="AU14" s="289" t="s">
         <v>652</v>
       </c>
-      <c r="AV14" s="291"/>
-      <c r="AW14" s="291"/>
-      <c r="AX14" s="291" t="s">
+      <c r="AV14" s="289"/>
+      <c r="AW14" s="289"/>
+      <c r="AX14" s="289" t="s">
         <v>653</v>
       </c>
-      <c r="AY14" s="291"/>
-      <c r="AZ14" s="292"/>
+      <c r="AY14" s="289"/>
+      <c r="AZ14" s="290"/>
       <c r="BB14" s="82" t="s">
         <v>684</v>
       </c>
@@ -28206,7 +28225,7 @@
       </c>
     </row>
     <row r="15" spans="1:60" ht="15" thickBot="1">
-      <c r="A15" s="332"/>
+      <c r="A15" s="330"/>
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
@@ -28325,7 +28344,7 @@
         <f t="shared" si="7"/>
         <v>very low</v>
       </c>
-      <c r="AT15" s="293"/>
+      <c r="AT15" s="291"/>
       <c r="AU15" s="5" t="s">
         <v>648</v>
       </c>
@@ -28357,7 +28376,7 @@
       <c r="BG15" s="3"/>
     </row>
     <row r="16" spans="1:60">
-      <c r="A16" s="331"/>
+      <c r="A16" s="329"/>
       <c r="B16" s="34" t="s">
         <v>332</v>
       </c>
@@ -28633,7 +28652,7 @@
       </c>
     </row>
     <row r="18" spans="1:52" ht="15" customHeight="1">
-      <c r="A18" s="330" t="s">
+      <c r="A18" s="328" t="s">
         <v>437</v>
       </c>
       <c r="B18" s="33" t="s">
@@ -28761,7 +28780,7 @@
       </c>
     </row>
     <row r="19" spans="1:52" ht="15" thickBot="1">
-      <c r="A19" s="332"/>
+      <c r="A19" s="330"/>
       <c r="B19" s="5" t="s">
         <v>334</v>
       </c>
@@ -28887,7 +28906,7 @@
       </c>
     </row>
     <row r="20" spans="1:52">
-      <c r="A20" s="332"/>
+      <c r="A20" s="330"/>
       <c r="B20" s="5" t="s">
         <v>335</v>
       </c>
@@ -28986,7 +29005,7 @@
       </c>
     </row>
     <row r="21" spans="1:52">
-      <c r="A21" s="332"/>
+      <c r="A21" s="330"/>
       <c r="B21" s="5" t="s">
         <v>336</v>
       </c>
@@ -29063,7 +29082,7 @@
       </c>
     </row>
     <row r="22" spans="1:52">
-      <c r="A22" s="331"/>
+      <c r="A22" s="329"/>
       <c r="B22" s="34" t="s">
         <v>337</v>
       </c>
@@ -29118,7 +29137,7 @@
       </c>
     </row>
     <row r="23" spans="1:52" ht="15" customHeight="1">
-      <c r="A23" s="330" t="s">
+      <c r="A23" s="328" t="s">
         <v>438</v>
       </c>
       <c r="B23" s="33" t="s">
@@ -29175,7 +29194,7 @@
       </c>
     </row>
     <row r="24" spans="1:52">
-      <c r="A24" s="332"/>
+      <c r="A24" s="330"/>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
@@ -29230,7 +29249,7 @@
       </c>
     </row>
     <row r="25" spans="1:52">
-      <c r="A25" s="331"/>
+      <c r="A25" s="329"/>
       <c r="B25" s="34" t="s">
         <v>18</v>
       </c>
@@ -29285,7 +29304,7 @@
       </c>
     </row>
     <row r="26" spans="1:52">
-      <c r="A26" s="333" t="s">
+      <c r="A26" s="331" t="s">
         <v>439</v>
       </c>
       <c r="B26" s="33" t="s">
@@ -29342,7 +29361,7 @@
       </c>
     </row>
     <row r="27" spans="1:52">
-      <c r="A27" s="334"/>
+      <c r="A27" s="332"/>
       <c r="B27" s="40" t="s">
         <v>436</v>
       </c>
@@ -29397,7 +29416,7 @@
       </c>
     </row>
     <row r="28" spans="1:52">
-      <c r="A28" s="335"/>
+      <c r="A28" s="333"/>
       <c r="B28" s="41" t="s">
         <v>435</v>
       </c>
@@ -29452,7 +29471,7 @@
       </c>
     </row>
     <row r="29" spans="1:52">
-      <c r="A29" s="330" t="s">
+      <c r="A29" s="328" t="s">
         <v>440</v>
       </c>
       <c r="B29" s="42" t="s">
@@ -29468,7 +29487,7 @@
       <c r="T29" s="30"/>
     </row>
     <row r="30" spans="1:52">
-      <c r="A30" s="332"/>
+      <c r="A30" s="330"/>
       <c r="B30" s="40" t="s">
         <v>442</v>
       </c>
@@ -29481,7 +29500,7 @@
       </c>
     </row>
     <row r="31" spans="1:52">
-      <c r="A31" s="332"/>
+      <c r="A31" s="330"/>
       <c r="B31" s="40" t="s">
         <v>443</v>
       </c>
@@ -29494,7 +29513,7 @@
       </c>
     </row>
     <row r="32" spans="1:52">
-      <c r="A32" s="332"/>
+      <c r="A32" s="330"/>
       <c r="B32" s="40" t="s">
         <v>445</v>
       </c>
@@ -29507,7 +29526,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="332"/>
+      <c r="A33" s="330"/>
       <c r="B33" s="40" t="s">
         <v>444</v>
       </c>
@@ -29520,7 +29539,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="332"/>
+      <c r="A34" s="330"/>
       <c r="B34" s="40" t="s">
         <v>446</v>
       </c>
@@ -29533,7 +29552,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="331"/>
+      <c r="A35" s="329"/>
       <c r="B35" s="41" t="s">
         <v>447</v>
       </c>
@@ -29546,7 +29565,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="330" t="s">
+      <c r="A36" s="328" t="s">
         <v>448</v>
       </c>
       <c r="B36" s="42" t="s">
@@ -29561,7 +29580,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="332"/>
+      <c r="A37" s="330"/>
       <c r="B37" s="40" t="s">
         <v>450</v>
       </c>
@@ -29574,7 +29593,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="331"/>
+      <c r="A38" s="329"/>
       <c r="B38" s="41" t="s">
         <v>447</v>
       </c>
@@ -29587,7 +29606,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="330" t="s">
+      <c r="A39" s="328" t="s">
         <v>451</v>
       </c>
       <c r="B39" s="42" t="s">
@@ -29602,7 +29621,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="331"/>
+      <c r="A40" s="329"/>
       <c r="B40" s="41" t="s">
         <v>453</v>
       </c>
@@ -29689,82 +29708,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:S4">
-    <cfRule type="top10" dxfId="42" priority="60" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="106" priority="60" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5:S5">
-    <cfRule type="top10" dxfId="41" priority="59" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="105" priority="59" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:S6">
-    <cfRule type="top10" dxfId="40" priority="58" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="104" priority="58" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:S7">
-    <cfRule type="top10" dxfId="39" priority="57" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="103" priority="57" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8:S8">
-    <cfRule type="top10" dxfId="38" priority="56" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="102" priority="56" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9:S9">
-    <cfRule type="top10" dxfId="37" priority="55" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="101" priority="55" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10:S10">
-    <cfRule type="top10" dxfId="36" priority="54" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="100" priority="54" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:S11">
-    <cfRule type="top10" dxfId="35" priority="53" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="99" priority="53" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12:S12">
-    <cfRule type="top10" dxfId="34" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="98" priority="52" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13:S13">
-    <cfRule type="top10" dxfId="33" priority="51" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="97" priority="51" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:S14">
-    <cfRule type="top10" dxfId="32" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="96" priority="50" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15:S15">
-    <cfRule type="top10" dxfId="31" priority="49" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="95" priority="49" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16:S16">
-    <cfRule type="top10" dxfId="30" priority="48" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="94" priority="48" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17:S17">
-    <cfRule type="top10" dxfId="29" priority="47" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="93" priority="47" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:S18">
-    <cfRule type="top10" dxfId="28" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="92" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19:S19">
-    <cfRule type="top10" dxfId="27" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="91" priority="45" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20:S20">
-    <cfRule type="top10" dxfId="26" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="90" priority="44" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21:S21">
-    <cfRule type="top10" dxfId="25" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="89" priority="43" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:S22">
-    <cfRule type="top10" dxfId="24" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="88" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23:S23">
-    <cfRule type="top10" dxfId="23" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="87" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24:S24">
-    <cfRule type="top10" dxfId="22" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="86" priority="40" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25:S25">
-    <cfRule type="top10" dxfId="21" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="85" priority="39" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26:S26">
-    <cfRule type="top10" dxfId="20" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="84" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27:S27">
-    <cfRule type="top10" dxfId="19" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:S28">
-    <cfRule type="top10" dxfId="18" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="82" priority="36" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:S29">
-    <cfRule type="top10" dxfId="17" priority="35" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="81" priority="35" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V4:V28">
     <cfRule type="colorScale" priority="33">
@@ -29883,37 +29902,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU6:AU12 AV11:AW11">
-    <cfRule type="top10" dxfId="16" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="80" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AV10 AV12">
-    <cfRule type="top10" dxfId="15" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW6:AW10 AW12">
-    <cfRule type="top10" dxfId="14" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX6:AZ12">
-    <cfRule type="top10" dxfId="13" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU16:AW19">
-    <cfRule type="top10" dxfId="12" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="76" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV16:AV19">
-    <cfRule type="top10" dxfId="11" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="75" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW16:AW19">
-    <cfRule type="top10" dxfId="10" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:AZ19">
-    <cfRule type="top10" dxfId="9" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="73" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:AZ19">
-    <cfRule type="top10" dxfId="8" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="72" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:AX19">
-    <cfRule type="top10" dxfId="7" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ16:AZ19">
-    <cfRule type="top10" dxfId="6" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC4:BC8">
     <cfRule type="dataBar" priority="10">
@@ -29944,16 +29963,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF14 BH14">
-    <cfRule type="top10" dxfId="5" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BH13">
-    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="68" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF5:BF14">
-    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG5:BG14">
-    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -30097,56 +30116,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="340" t="s">
+      <c r="A1" s="336" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="358" t="str">
+      <c r="B1" s="339" t="str">
         <f>CONCATENATE("Score summaries at (n = ", COUNT(raw_data!A:A), ")")</f>
         <v>Score summaries at (n = 10)</v>
       </c>
-      <c r="C1" s="359"/>
-      <c r="D1" s="359"/>
-      <c r="E1" s="359"/>
-      <c r="F1" s="359"/>
-      <c r="G1" s="359"/>
-      <c r="H1" s="359"/>
-      <c r="I1" s="359"/>
-      <c r="J1" s="359"/>
-      <c r="K1" s="359"/>
-      <c r="L1" s="359"/>
-      <c r="M1" s="360"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="341"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="340"/>
-      <c r="B2" s="361"/>
-      <c r="C2" s="362"/>
-      <c r="D2" s="362"/>
-      <c r="E2" s="362"/>
-      <c r="F2" s="362"/>
-      <c r="G2" s="362"/>
-      <c r="H2" s="362"/>
-      <c r="I2" s="362"/>
-      <c r="J2" s="362"/>
-      <c r="K2" s="362"/>
-      <c r="L2" s="362"/>
-      <c r="M2" s="363"/>
+      <c r="A2" s="336"/>
+      <c r="B2" s="342"/>
+      <c r="C2" s="343"/>
+      <c r="D2" s="343"/>
+      <c r="E2" s="343"/>
+      <c r="F2" s="343"/>
+      <c r="G2" s="343"/>
+      <c r="H2" s="343"/>
+      <c r="I2" s="343"/>
+      <c r="J2" s="343"/>
+      <c r="K2" s="343"/>
+      <c r="L2" s="343"/>
+      <c r="M2" s="344"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="337" t="s">
         <v>671</v>
       </c>
-      <c r="B3" s="342"/>
-      <c r="C3" s="342"/>
-      <c r="D3" s="342"/>
-      <c r="E3" s="342"/>
-      <c r="F3" s="342"/>
-      <c r="G3" s="342"/>
-      <c r="H3" s="342"/>
-      <c r="I3" s="342"/>
-      <c r="J3" s="342"/>
-      <c r="K3" s="342"/>
-      <c r="L3" s="342"/>
-      <c r="M3" s="342"/>
+      <c r="B3" s="338"/>
+      <c r="C3" s="338"/>
+      <c r="D3" s="338"/>
+      <c r="E3" s="338"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="338"/>
+      <c r="H3" s="338"/>
+      <c r="I3" s="338"/>
+      <c r="J3" s="338"/>
+      <c r="K3" s="338"/>
+      <c r="L3" s="338"/>
+      <c r="M3" s="338"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="76" t="s">
@@ -30398,21 +30417,21 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="343" t="s">
+      <c r="A10" s="345" t="s">
         <v>672</v>
       </c>
-      <c r="B10" s="344"/>
-      <c r="C10" s="344"/>
-      <c r="D10" s="344"/>
-      <c r="E10" s="344"/>
-      <c r="F10" s="344"/>
-      <c r="G10" s="344"/>
-      <c r="H10" s="344"/>
-      <c r="I10" s="344"/>
-      <c r="J10" s="344"/>
-      <c r="K10" s="344"/>
-      <c r="L10" s="344"/>
-      <c r="M10" s="344"/>
+      <c r="B10" s="346"/>
+      <c r="C10" s="346"/>
+      <c r="D10" s="346"/>
+      <c r="E10" s="346"/>
+      <c r="F10" s="346"/>
+      <c r="G10" s="346"/>
+      <c r="H10" s="346"/>
+      <c r="I10" s="346"/>
+      <c r="J10" s="346"/>
+      <c r="K10" s="346"/>
+      <c r="L10" s="346"/>
+      <c r="M10" s="346"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="76" t="s">
@@ -30664,21 +30683,21 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="345" t="s">
+      <c r="A17" s="347" t="s">
         <v>399</v>
       </c>
-      <c r="B17" s="346"/>
-      <c r="C17" s="346"/>
-      <c r="D17" s="346"/>
-      <c r="E17" s="346"/>
-      <c r="F17" s="346"/>
-      <c r="G17" s="346"/>
-      <c r="H17" s="346"/>
-      <c r="I17" s="346"/>
-      <c r="J17" s="346"/>
-      <c r="K17" s="346"/>
-      <c r="L17" s="346"/>
-      <c r="M17" s="346"/>
+      <c r="B17" s="348"/>
+      <c r="C17" s="348"/>
+      <c r="D17" s="348"/>
+      <c r="E17" s="348"/>
+      <c r="F17" s="348"/>
+      <c r="G17" s="348"/>
+      <c r="H17" s="348"/>
+      <c r="I17" s="348"/>
+      <c r="J17" s="348"/>
+      <c r="K17" s="348"/>
+      <c r="L17" s="348"/>
+      <c r="M17" s="348"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="77" t="s">
@@ -31086,21 +31105,21 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="336" t="s">
+      <c r="A27" s="349" t="s">
         <v>407</v>
       </c>
-      <c r="B27" s="337"/>
-      <c r="C27" s="337"/>
-      <c r="D27" s="337"/>
-      <c r="E27" s="337"/>
-      <c r="F27" s="337"/>
-      <c r="G27" s="337"/>
-      <c r="H27" s="337"/>
-      <c r="I27" s="337"/>
-      <c r="J27" s="337"/>
-      <c r="K27" s="337"/>
-      <c r="L27" s="337"/>
-      <c r="M27" s="337"/>
+      <c r="B27" s="350"/>
+      <c r="C27" s="350"/>
+      <c r="D27" s="350"/>
+      <c r="E27" s="350"/>
+      <c r="F27" s="350"/>
+      <c r="G27" s="350"/>
+      <c r="H27" s="350"/>
+      <c r="I27" s="350"/>
+      <c r="J27" s="350"/>
+      <c r="K27" s="350"/>
+      <c r="L27" s="350"/>
+      <c r="M27" s="350"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="78" t="s">
@@ -31300,21 +31319,21 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="338" t="s">
+      <c r="A33" s="334" t="s">
         <v>673</v>
       </c>
-      <c r="B33" s="339"/>
-      <c r="C33" s="339"/>
-      <c r="D33" s="339"/>
-      <c r="E33" s="339"/>
-      <c r="F33" s="339"/>
-      <c r="G33" s="339"/>
-      <c r="H33" s="339"/>
-      <c r="I33" s="339"/>
-      <c r="J33" s="339"/>
-      <c r="K33" s="339"/>
-      <c r="L33" s="339"/>
-      <c r="M33" s="339"/>
+      <c r="B33" s="335"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="335"/>
+      <c r="E33" s="335"/>
+      <c r="F33" s="335"/>
+      <c r="G33" s="335"/>
+      <c r="H33" s="335"/>
+      <c r="I33" s="335"/>
+      <c r="J33" s="335"/>
+      <c r="K33" s="335"/>
+      <c r="L33" s="335"/>
+      <c r="M33" s="335"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="80" t="s">
@@ -31701,50 +31720,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.5" customHeight="1">
-      <c r="A1" s="350" t="s">
+      <c r="A1" s="354" t="s">
         <v>428</v>
       </c>
-      <c r="B1" s="352" t="s">
+      <c r="B1" s="356" t="s">
         <v>700</v>
       </c>
-      <c r="C1" s="353"/>
-      <c r="D1" s="353"/>
-      <c r="E1" s="353"/>
-      <c r="F1" s="353"/>
-      <c r="G1" s="353"/>
-      <c r="H1" s="353"/>
-      <c r="I1" s="353"/>
-      <c r="J1" s="353"/>
-      <c r="K1" s="353"/>
-      <c r="L1" s="353"/>
-      <c r="M1" s="353"/>
-      <c r="N1" s="353"/>
-      <c r="O1" s="354"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
+      <c r="O1" s="358"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="351"/>
-      <c r="B2" s="355"/>
-      <c r="C2" s="356"/>
-      <c r="D2" s="356"/>
-      <c r="E2" s="356"/>
-      <c r="F2" s="356"/>
-      <c r="G2" s="356"/>
-      <c r="H2" s="356"/>
-      <c r="I2" s="356"/>
-      <c r="J2" s="356"/>
-      <c r="K2" s="356"/>
-      <c r="L2" s="356"/>
-      <c r="M2" s="356"/>
-      <c r="N2" s="356"/>
-      <c r="O2" s="357"/>
+      <c r="A2" s="355"/>
+      <c r="B2" s="359"/>
+      <c r="C2" s="360"/>
+      <c r="D2" s="360"/>
+      <c r="E2" s="360"/>
+      <c r="F2" s="360"/>
+      <c r="G2" s="360"/>
+      <c r="H2" s="360"/>
+      <c r="I2" s="360"/>
+      <c r="J2" s="360"/>
+      <c r="K2" s="360"/>
+      <c r="L2" s="360"/>
+      <c r="M2" s="360"/>
+      <c r="N2" s="360"/>
+      <c r="O2" s="361"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="349" t="s">
+      <c r="A3" s="353" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1">
-      <c r="A4" s="348"/>
+      <c r="A4" s="352"/>
       <c r="B4" s="92"/>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
@@ -32831,12 +32850,12 @@
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="349" t="s">
+      <c r="A25" s="353" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" thickBot="1">
-      <c r="A26" s="348"/>
+      <c r="A26" s="352"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="94" t="s">
@@ -33908,7 +33927,7 @@
       </c>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="347" t="s">
+      <c r="A47" s="351" t="s">
         <v>693</v>
       </c>
       <c r="B47" s="98"/>
@@ -33917,7 +33936,7 @@
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" thickBot="1">
-      <c r="A48" s="348"/>
+      <c r="A48" s="352"/>
       <c r="B48" s="99"/>
       <c r="C48" s="93" t="s">
         <v>697</v>

--- a/AMR KAP+ Vendor 2.0.xlsx
+++ b/AMR KAP+ Vendor 2.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BF4DAF-0B61-49EA-BCBB-804B074A72B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998761FD-5FF6-4A6D-A0B3-FEC04D9422FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2788" uniqueCount="729">
   <si>
     <t>education</t>
   </si>
@@ -1250,9 +1250,6 @@
   </si>
   <si>
     <t>POLICY ENVIRONMENT</t>
-  </si>
-  <si>
-    <t>to make</t>
   </si>
   <si>
     <t>RELATED DOCUMENTS</t>
@@ -2232,6 +2229,12 @@
   </si>
   <si>
     <t>How would you classify your store/company?</t>
+  </si>
+  <si>
+    <t>in github repository</t>
+  </si>
+  <si>
+    <t>OneNote Link</t>
   </si>
 </sst>
 </file>
@@ -3512,43 +3515,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3623,12 +3612,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3640,6 +3623,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3652,29 +3641,59 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3683,6 +3702,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3715,50 +3752,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3796,35 +3791,65 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3916,46 +3941,22 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4042,15 +4043,17 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4070,416 +4073,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5028,6 +4621,416 @@
           <color indexed="64"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -6837,17 +6840,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="G3:L21" totalsRowShown="0" tableBorderDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="G3:L21" totalsRowShown="0" tableBorderDxfId="65">
   <autoFilter ref="G3:L21" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="G4:L21">
     <sortCondition descending="1" ref="J3:J21"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="no." dataDxfId="105"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="no." dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="question"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sample score " dataDxfId="104"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="% of correct answers" dataDxfId="103"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Index" dataDxfId="102">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sample score " dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="% of correct answers" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Index" dataDxfId="61">
       <calculatedColumnFormula>IF(L4="very low",1,IF(L4="low",2,IF(L4="moderate",3,IF(L4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Quartile Index">
@@ -6865,17 +6868,17 @@
     <sortCondition descending="1" ref="I4:I8"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Array" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0900-00000F000000}" name="Array" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Min." dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Max" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Mean" dataDxfId="47">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Min." dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="Max" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="Mean" dataDxfId="6">
       <calculatedColumnFormula>AVERAGE(processed_data!F:F)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{80680A6E-7B95-4B8D-B5EE-986350767F66}" name="Median" dataDxfId="46"/>
-    <tableColumn id="11" xr3:uid="{07C2D696-8C4A-4BDC-9E25-8B5621F0CD44}" name="Mode" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Total score" dataDxfId="44"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="(%) of correct" dataDxfId="43" dataCellStyle="Percent"/>
+    <tableColumn id="10" xr3:uid="{80680A6E-7B95-4B8D-B5EE-986350767F66}" name="Median" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{07C2D696-8C4A-4BDC-9E25-8B5621F0CD44}" name="Mode" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Total score" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0900-000006000000}" name="(%) of correct" dataDxfId="2" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0900-000007000000}" name="Quartile Index">
       <calculatedColumnFormula>IF(I5&lt;=20%,"very low",IF(I5&lt;=40%,"low",IF(I5&lt;=60%,"moderate", IF(I5&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -6898,18 +6901,18 @@
     <sortCondition descending="1" ref="V3:V28"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="no." dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="no." dataDxfId="60"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="4"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="5"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="sample score" dataDxfId="100"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="% of Agreement" dataDxfId="99">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="sample score" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="% of Agreement" dataDxfId="58">
       <calculatedColumnFormula>U4/(COUNT(coded_data!A:A) * 5)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Index" dataDxfId="98">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Index" dataDxfId="57">
       <calculatedColumnFormula>IF(X4="very low",1,IF(X4="low",2,IF(X4="moderate",3,IF(X4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Quartile Index">
@@ -6927,14 +6930,14 @@
     <sortCondition descending="1" ref="AC3:AC20"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="no." dataDxfId="97"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="no." dataDxfId="56"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="question"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sample score" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="% of correct " dataDxfId="95" dataCellStyle="Percent"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Index" dataDxfId="94" dataCellStyle="Percent">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="sample score" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="% of correct " dataDxfId="54" dataCellStyle="Percent"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Index" dataDxfId="53" dataCellStyle="Percent">
       <calculatedColumnFormula>IF(AE4="very low",1,IF(AE4="low",2,IF(AE4="moderate",3,IF(AE4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Quartile Index" dataDxfId="93">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Quartile Index" dataDxfId="52">
       <calculatedColumnFormula>IF(AC4&lt;20%,"very low",IF(AC4&lt;40%,"low",IF(AC4&lt;60%,"moderate",IF(AC4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6949,16 +6952,16 @@
     <sortCondition descending="1" ref="AJ3:AJ16"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="no." dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="no." dataDxfId="51"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="% of correct answers" dataDxfId="91" dataCellStyle="Percent">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="% of correct answers" dataDxfId="50" dataCellStyle="Percent">
       <calculatedColumnFormula>AI4/COUNT(coded_data!A:A)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Index" dataDxfId="90">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Index" dataDxfId="49">
       <calculatedColumnFormula>IF(AL4="very low",1,IF(AL4="low",2,IF(AL4="moderate",3,IF(AL4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quartile Index" dataDxfId="89">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Quartile Index" dataDxfId="48">
       <calculatedColumnFormula>IF(AJ4&lt;20%,"very low",IF(AJ4&lt;40%,"low",IF(AJ4&lt;60%,"moderate",IF(AJ4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6973,14 +6976,14 @@
     <sortCondition descending="1" ref="AQ3:AQ6"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="no." dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="no." dataDxfId="47"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="question"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="sample score"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="% of interest" dataDxfId="87" dataCellStyle="Percent"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Index" dataDxfId="86">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="% of interest" dataDxfId="46" dataCellStyle="Percent"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Index" dataDxfId="45">
       <calculatedColumnFormula>IF(AS4="very low",1,IF(AS4="low",2,IF(AS4="moderate",3,IF(AS4="high",4,5))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Quartile Index" dataDxfId="85">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Quartile Index" dataDxfId="44">
       <calculatedColumnFormula>IF(AQ4&lt;20%,"very low",IF(AQ4&lt;40%,"low",IF(AQ4&lt;60%,"moderate",IF(AQ4&lt;80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6995,15 +6998,15 @@
     <sortCondition descending="1" ref="I11:I15"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Array" dataDxfId="84"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Array" dataDxfId="43"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Min." dataDxfId="83"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Max" dataDxfId="82"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Mean" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{1B51561E-BFC5-4871-AABD-A8232A52547A}" name="Median" dataDxfId="80"/>
-    <tableColumn id="10" xr3:uid="{AEA4A6A9-813F-4C27-BCD6-986F8B789C2A}" name="Mode" dataDxfId="79"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Total score" dataDxfId="78"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="(%) of Agreement" dataDxfId="77" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Min." dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Max" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Mean" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{1B51561E-BFC5-4871-AABD-A8232A52547A}" name="Median" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{AEA4A6A9-813F-4C27-BCD6-986F8B789C2A}" name="Mode" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Total score" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="(%) of Agreement" dataDxfId="36" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Quartile Index">
       <calculatedColumnFormula>IF(I12&lt;=20%,"very low",IF(I12&lt;=40%,"low",IF(I12&lt;=60%,"moderate", IF(I12&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -7026,15 +7029,15 @@
     <sortCondition descending="1" ref="I18:I25"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Array" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Array" dataDxfId="35"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Variables"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Min." dataDxfId="75"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Max" dataDxfId="74"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Mean" dataDxfId="73"/>
-    <tableColumn id="9" xr3:uid="{79CB9442-024E-458A-9549-515C36441BBF}" name="Median" dataDxfId="72"/>
-    <tableColumn id="10" xr3:uid="{62394534-8A7B-46CD-B9D0-D19DC543FD75}" name="Mode" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Total score" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="(%) of correct" dataDxfId="69" dataCellStyle="Percent"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Min." dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Max" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Mean" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{79CB9442-024E-458A-9549-515C36441BBF}" name="Median" dataDxfId="31"/>
+    <tableColumn id="10" xr3:uid="{62394534-8A7B-46CD-B9D0-D19DC543FD75}" name="Mode" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Total score" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="(%) of correct" dataDxfId="28" dataCellStyle="Percent"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Quartile Index">
       <calculatedColumnFormula>IF(I19&lt;=20%,"very low",IF(I19&lt;=40%,"low",IF(I19&lt;=60%,"moderate", IF(I19&lt;=80%,"high","very high"))))</calculatedColumnFormula>
     </tableColumn>
@@ -7057,15 +7060,15 @@
     <sortCondition descending="1" ref="I28:I31"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Array" dataDxfId="68"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Variables" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Min." dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Max" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Mean" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{8A107FE2-A46D-4A26-9A63-E29856770F22}" name="Median" dataDxfId="63"/>
-    <tableColumn id="10" xr3:uid="{D912FF90-5BCA-4056-B458-655547D96A6C}" name="Mode" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Total score" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="(%) of correct" dataDxfId="60" dataCellStyle="Percent">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="Array" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Variables" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Min." dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Max" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Mean" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{8A107FE2-A46D-4A26-9A63-E29856770F22}" name="Median" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{D912FF90-5BCA-4056-B458-655547D96A6C}" name="Mode" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Total score" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="(%) of correct" dataDxfId="19" dataCellStyle="Percent">
       <calculatedColumnFormula>H29/COUNT(processed_data!A:A)/ 8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="Quartile Index">
@@ -7087,27 +7090,27 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table10" displayName="Table10" ref="A34:M35" totalsRowShown="0">
   <autoFilter ref="A34:M35" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
   <tableColumns count="13">
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Array" dataDxfId="59"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Variables" dataDxfId="58"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Min." dataDxfId="57">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0800-000008000000}" name="Array" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Variables" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Min." dataDxfId="16">
       <calculatedColumnFormula>MIN(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Max" dataDxfId="56">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Max" dataDxfId="15">
       <calculatedColumnFormula>MAX(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Mean" dataDxfId="55">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Mean" dataDxfId="14">
       <calculatedColumnFormula>AVERAGE(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{B1EF64A7-5967-430C-8BE2-306885DF3C50}" name="Median" dataDxfId="54">
+    <tableColumn id="9" xr3:uid="{B1EF64A7-5967-430C-8BE2-306885DF3C50}" name="Median" dataDxfId="13">
       <calculatedColumnFormula>MEDIAN(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{08DB4703-7F26-43C2-9A14-06B119F5312B}" name="Mode" dataDxfId="53">
+    <tableColumn id="10" xr3:uid="{08DB4703-7F26-43C2-9A14-06B119F5312B}" name="Mode" dataDxfId="12">
       <calculatedColumnFormula>MODE(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Total score" dataDxfId="52">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Total score" dataDxfId="11">
       <calculatedColumnFormula>SUM(processed_data!BV:BV)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="(%) of Interest" dataDxfId="51" dataCellStyle="Percent">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="(%) of Interest" dataDxfId="10" dataCellStyle="Percent">
       <calculatedColumnFormula>H35/COUNT(processed_data!A:A)/ 8</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0800-000007000000}" name="Quartile Index"/>
@@ -7448,7 +7451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -7471,14 +7476,14 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="204" t="s">
-        <v>523</v>
-      </c>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="205"/>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="206"/>
+      <c r="L1" s="200" t="s">
+        <v>522</v>
+      </c>
+      <c r="M1" s="201"/>
+      <c r="N1" s="201"/>
+      <c r="O1" s="201"/>
+      <c r="P1" s="201"/>
+      <c r="Q1" s="202"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18">
@@ -7514,11 +7519,11 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="60"/>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="213"/>
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="209"/>
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18">
@@ -7534,11 +7539,11 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="60"/>
-      <c r="M4" s="212"/>
-      <c r="N4" s="212"/>
-      <c r="O4" s="212"/>
-      <c r="P4" s="212"/>
-      <c r="Q4" s="213"/>
+      <c r="M4" s="208"/>
+      <c r="N4" s="208"/>
+      <c r="O4" s="208"/>
+      <c r="P4" s="208"/>
+      <c r="Q4" s="209"/>
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1">
@@ -7553,84 +7558,84 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="209"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="210"/>
-      <c r="Q5" s="211"/>
+      <c r="L5" s="205"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206"/>
+      <c r="O5" s="206"/>
+      <c r="P5" s="206"/>
+      <c r="Q5" s="207"/>
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="234" t="s">
-        <v>416</v>
-      </c>
-      <c r="B6" s="235"/>
-      <c r="C6" s="235"/>
-      <c r="D6" s="235"/>
-      <c r="E6" s="235"/>
-      <c r="F6" s="235"/>
-      <c r="G6" s="236" t="s">
+      <c r="A6" s="187" t="s">
         <v>415</v>
       </c>
-      <c r="H6" s="237"/>
-      <c r="I6" s="237"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="238"/>
-      <c r="L6" s="209"/>
-      <c r="M6" s="210"/>
-      <c r="N6" s="210"/>
-      <c r="O6" s="210"/>
-      <c r="P6" s="210"/>
-      <c r="Q6" s="211"/>
+      <c r="B6" s="188"/>
+      <c r="C6" s="188"/>
+      <c r="D6" s="188"/>
+      <c r="E6" s="188"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="189" t="s">
+        <v>414</v>
+      </c>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="191"/>
+      <c r="L6" s="205"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206"/>
+      <c r="P6" s="206"/>
+      <c r="Q6" s="207"/>
       <c r="R6" s="14"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="20" t="s">
-        <v>414</v>
-      </c>
-      <c r="B7" s="183" t="s">
-        <v>424</v>
-      </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="184"/>
-      <c r="F7" s="184"/>
-      <c r="G7" s="222" t="s">
         <v>413</v>
       </c>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="224"/>
-      <c r="L7" s="209"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
-      <c r="P7" s="210"/>
-      <c r="Q7" s="211"/>
+      <c r="B7" s="227" t="s">
+        <v>423</v>
+      </c>
+      <c r="C7" s="228"/>
+      <c r="D7" s="228"/>
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="216" t="s">
+        <v>412</v>
+      </c>
+      <c r="H7" s="217"/>
+      <c r="I7" s="217"/>
+      <c r="J7" s="217"/>
+      <c r="K7" s="218"/>
+      <c r="L7" s="205"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="206"/>
+      <c r="Q7" s="207"/>
       <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="B8" s="192" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="193"/>
-      <c r="D8" s="193"/>
-      <c r="E8" s="193"/>
-      <c r="F8" s="193"/>
+        <v>411</v>
+      </c>
+      <c r="B8" s="221" t="s">
+        <v>423</v>
+      </c>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
       <c r="G8" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="H8" s="227" t="s">
-        <v>420</v>
-      </c>
-      <c r="I8" s="227"/>
-      <c r="J8" s="227"/>
-      <c r="K8" s="228"/>
+        <v>410</v>
+      </c>
+      <c r="H8" s="223" t="s">
+        <v>419</v>
+      </c>
+      <c r="I8" s="223"/>
+      <c r="J8" s="223"/>
+      <c r="K8" s="224"/>
       <c r="L8" s="54"/>
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
@@ -7641,29 +7646,29 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B9" s="181" t="str">
         <f>CONCATENATE("(n = ", COUNT(raw_data!A:A), ")")</f>
         <v>(n = 10)</v>
       </c>
       <c r="C9" s="179" t="s">
+        <v>711</v>
+      </c>
+      <c r="D9" s="180" t="s">
         <v>712</v>
-      </c>
-      <c r="D9" s="180" t="s">
-        <v>713</v>
       </c>
       <c r="E9" s="179"/>
       <c r="F9" s="179"/>
       <c r="G9" s="26" t="s">
-        <v>417</v>
-      </c>
-      <c r="H9" s="225" t="s">
-        <v>421</v>
-      </c>
-      <c r="I9" s="225"/>
-      <c r="J9" s="225"/>
-      <c r="K9" s="226"/>
+        <v>416</v>
+      </c>
+      <c r="H9" s="219" t="s">
+        <v>420</v>
+      </c>
+      <c r="I9" s="219"/>
+      <c r="J9" s="219"/>
+      <c r="K9" s="220"/>
       <c r="L9" s="54"/>
       <c r="M9" s="55"/>
       <c r="N9" s="55"/>
@@ -7674,24 +7679,24 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="B10" s="192" t="s">
-        <v>424</v>
-      </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
+        <v>407</v>
+      </c>
+      <c r="B10" s="221" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" s="222"/>
+      <c r="D10" s="222"/>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
       <c r="G10" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="H10" s="196" t="s">
-        <v>602</v>
-      </c>
-      <c r="I10" s="197"/>
-      <c r="J10" s="197"/>
-      <c r="K10" s="198"/>
+        <v>425</v>
+      </c>
+      <c r="H10" s="192" t="s">
+        <v>601</v>
+      </c>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="194"/>
       <c r="L10" s="54"/>
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
@@ -7702,24 +7707,24 @@
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1">
       <c r="A11" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="B11" s="194" t="s">
-        <v>424</v>
-      </c>
-      <c r="C11" s="195"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
+        <v>406</v>
+      </c>
+      <c r="B11" s="234" t="s">
+        <v>423</v>
+      </c>
+      <c r="C11" s="235"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="235"/>
+      <c r="F11" s="235"/>
       <c r="G11" s="26" t="s">
-        <v>418</v>
-      </c>
-      <c r="H11" s="199" t="s">
-        <v>410</v>
-      </c>
-      <c r="I11" s="199"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="200"/>
+        <v>417</v>
+      </c>
+      <c r="H11" s="195" t="s">
+        <v>409</v>
+      </c>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="196"/>
       <c r="L11" s="54"/>
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
@@ -7729,23 +7734,23 @@
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1">
-      <c r="A12" s="185" t="s">
-        <v>406</v>
-      </c>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
+      <c r="A12" s="229" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" s="230"/>
+      <c r="C12" s="230"/>
+      <c r="D12" s="230"/>
+      <c r="E12" s="230"/>
+      <c r="F12" s="230"/>
       <c r="G12" s="28" t="s">
-        <v>427</v>
-      </c>
-      <c r="H12" s="201" t="s">
-        <v>603</v>
-      </c>
-      <c r="I12" s="202"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="203"/>
+        <v>426</v>
+      </c>
+      <c r="H12" s="197" t="s">
+        <v>602</v>
+      </c>
+      <c r="I12" s="198"/>
+      <c r="J12" s="198"/>
+      <c r="K12" s="199"/>
       <c r="L12" s="54"/>
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
@@ -7755,25 +7760,25 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="187" t="s">
-        <v>429</v>
-      </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="190" t="s">
-        <v>405</v>
-      </c>
-      <c r="E13" s="191"/>
-      <c r="F13" s="191"/>
+      <c r="A13" s="231" t="s">
+        <v>428</v>
+      </c>
+      <c r="B13" s="232"/>
+      <c r="C13" s="233"/>
+      <c r="D13" s="363" t="s">
+        <v>728</v>
+      </c>
+      <c r="E13" s="364"/>
+      <c r="F13" s="364"/>
       <c r="G13" s="29" t="s">
-        <v>419</v>
-      </c>
-      <c r="H13" s="229" t="s">
-        <v>422</v>
-      </c>
-      <c r="I13" s="229"/>
-      <c r="J13" s="229"/>
-      <c r="K13" s="230"/>
+        <v>418</v>
+      </c>
+      <c r="H13" s="225" t="s">
+        <v>421</v>
+      </c>
+      <c r="I13" s="225"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="226"/>
       <c r="L13" s="54"/>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
@@ -7783,25 +7788,25 @@
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="A14" s="217" t="s">
-        <v>430</v>
-      </c>
-      <c r="B14" s="218"/>
-      <c r="C14" s="219"/>
-      <c r="D14" s="220" t="s">
-        <v>405</v>
-      </c>
-      <c r="E14" s="221"/>
-      <c r="F14" s="221"/>
+      <c r="A14" s="213" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="214"/>
+      <c r="C14" s="215"/>
+      <c r="D14" s="361" t="s">
+        <v>727</v>
+      </c>
+      <c r="E14" s="362"/>
+      <c r="F14" s="362"/>
       <c r="G14" s="99" t="s">
-        <v>428</v>
-      </c>
-      <c r="H14" s="231" t="s">
-        <v>691</v>
-      </c>
-      <c r="I14" s="231"/>
-      <c r="J14" s="232"/>
-      <c r="K14" s="233"/>
+        <v>427</v>
+      </c>
+      <c r="H14" s="184" t="s">
+        <v>690</v>
+      </c>
+      <c r="I14" s="184"/>
+      <c r="J14" s="185"/>
+      <c r="K14" s="186"/>
       <c r="L14" s="54"/>
       <c r="M14" s="55"/>
       <c r="N14" s="55"/>
@@ -7812,18 +7817,18 @@
     </row>
     <row r="15" spans="1:18" ht="15" thickBot="1">
       <c r="A15" s="100" t="s">
-        <v>423</v>
-      </c>
-      <c r="B15" s="214" t="s">
-        <v>714</v>
-      </c>
-      <c r="C15" s="215"/>
-      <c r="D15" s="215"/>
-      <c r="E15" s="215"/>
-      <c r="F15" s="215"/>
-      <c r="G15" s="215"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="216"/>
+        <v>422</v>
+      </c>
+      <c r="B15" s="210" t="s">
+        <v>713</v>
+      </c>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="212"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="57"/>
@@ -7883,10 +7888,10 @@
     </row>
     <row r="22" spans="7:18">
       <c r="G22" s="16"/>
-      <c r="H22" s="207"/>
-      <c r="I22" s="208"/>
-      <c r="J22" s="208"/>
-      <c r="K22" s="208"/>
+      <c r="H22" s="203"/>
+      <c r="I22" s="204"/>
+      <c r="J22" s="204"/>
+      <c r="K22" s="204"/>
     </row>
     <row r="23" spans="7:18">
       <c r="G23" s="17"/>
@@ -7904,12 +7909,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L5:Q7"/>
@@ -7926,6 +7925,12 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="B10:F10"/>
     <mergeCell ref="B11:F11"/>
@@ -7938,10 +7943,12 @@
     <hyperlink ref="H12:K12" location="summary!A1" display="summary!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="H14:K14" location="correlation!A1" display="correlation!A1" xr:uid="{AE4211FD-F4BD-492D-AB30-B0B526EE63D2}"/>
     <hyperlink ref="B15:I15" r:id="rId1" display="https://github.com/JNAVillacastin/AMU-AMR-KAP-Excel-Tool-" xr:uid="{86B25559-EC4A-49E9-B513-6506B7C7BE2B}"/>
+    <hyperlink ref="D14:F14" r:id="rId2" display="to make" xr:uid="{FC378E58-78E2-44D1-86E8-693935805EB8}"/>
+    <hyperlink ref="D13:F13" r:id="rId3" display="to make" xr:uid="{36E78035-742B-40F4-AE4E-D431B4A7FD2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -7970,426 +7977,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="15" thickBot="1">
-      <c r="A1" s="252" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" s="253" t="s">
+      <c r="A1" s="236" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="237" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="259" t="s">
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="243" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="259"/>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="259"/>
-      <c r="S1" s="259"/>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="259"/>
-      <c r="AA1" s="259"/>
-      <c r="AB1" s="259"/>
-      <c r="AC1" s="259"/>
-      <c r="AD1" s="259"/>
-      <c r="AE1" s="259"/>
-      <c r="AF1" s="259"/>
-      <c r="AG1" s="259"/>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="259"/>
-      <c r="AJ1" s="259"/>
-      <c r="AK1" s="259"/>
-      <c r="AL1" s="259"/>
-      <c r="AM1" s="259"/>
-      <c r="AN1" s="259"/>
-      <c r="AO1" s="259"/>
-      <c r="AP1" s="260"/>
-      <c r="AQ1" s="261" t="s">
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="243"/>
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="243"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="243"/>
+      <c r="AJ1" s="243"/>
+      <c r="AK1" s="243"/>
+      <c r="AL1" s="243"/>
+      <c r="AM1" s="243"/>
+      <c r="AN1" s="243"/>
+      <c r="AO1" s="243"/>
+      <c r="AP1" s="244"/>
+      <c r="AQ1" s="248" t="s">
         <v>395</v>
       </c>
-      <c r="AR1" s="262"/>
-      <c r="AS1" s="262"/>
-      <c r="AT1" s="262"/>
-      <c r="AU1" s="262"/>
-      <c r="AV1" s="262"/>
-      <c r="AW1" s="262"/>
-      <c r="AX1" s="262"/>
-      <c r="AY1" s="262"/>
-      <c r="AZ1" s="262"/>
-      <c r="BA1" s="262"/>
-      <c r="BB1" s="262"/>
-      <c r="BC1" s="262"/>
-      <c r="BD1" s="262"/>
-      <c r="BE1" s="262"/>
-      <c r="BF1" s="262"/>
-      <c r="BG1" s="262"/>
-      <c r="BH1" s="262"/>
-      <c r="BI1" s="262"/>
-      <c r="BJ1" s="262"/>
-      <c r="BK1" s="262"/>
-      <c r="BL1" s="262"/>
-      <c r="BM1" s="262"/>
-      <c r="BN1" s="262"/>
-      <c r="BO1" s="262"/>
-      <c r="BP1" s="263"/>
-      <c r="BQ1" s="264" t="s">
+      <c r="AR1" s="249"/>
+      <c r="AS1" s="249"/>
+      <c r="AT1" s="249"/>
+      <c r="AU1" s="249"/>
+      <c r="AV1" s="249"/>
+      <c r="AW1" s="249"/>
+      <c r="AX1" s="249"/>
+      <c r="AY1" s="249"/>
+      <c r="AZ1" s="249"/>
+      <c r="BA1" s="249"/>
+      <c r="BB1" s="249"/>
+      <c r="BC1" s="249"/>
+      <c r="BD1" s="249"/>
+      <c r="BE1" s="249"/>
+      <c r="BF1" s="249"/>
+      <c r="BG1" s="249"/>
+      <c r="BH1" s="249"/>
+      <c r="BI1" s="249"/>
+      <c r="BJ1" s="249"/>
+      <c r="BK1" s="249"/>
+      <c r="BL1" s="249"/>
+      <c r="BM1" s="249"/>
+      <c r="BN1" s="249"/>
+      <c r="BO1" s="249"/>
+      <c r="BP1" s="250"/>
+      <c r="BQ1" s="251" t="s">
         <v>396</v>
       </c>
-      <c r="BR1" s="265"/>
-      <c r="BS1" s="265"/>
-      <c r="BT1" s="265"/>
-      <c r="BU1" s="265"/>
-      <c r="BV1" s="265"/>
-      <c r="BW1" s="265"/>
-      <c r="BX1" s="265"/>
-      <c r="BY1" s="265"/>
-      <c r="BZ1" s="265"/>
-      <c r="CA1" s="265"/>
-      <c r="CB1" s="265"/>
-      <c r="CC1" s="265"/>
-      <c r="CD1" s="265"/>
-      <c r="CE1" s="265"/>
-      <c r="CF1" s="265"/>
-      <c r="CG1" s="265"/>
-      <c r="CH1" s="265"/>
-      <c r="CI1" s="265"/>
-      <c r="CJ1" s="265"/>
-      <c r="CK1" s="265"/>
-      <c r="CL1" s="265"/>
-      <c r="CM1" s="265"/>
-      <c r="CN1" s="265"/>
-      <c r="CO1" s="265"/>
-      <c r="CP1" s="265"/>
-      <c r="CQ1" s="265"/>
-      <c r="CR1" s="265"/>
-      <c r="CS1" s="265"/>
-      <c r="CT1" s="265"/>
-      <c r="CU1" s="265"/>
-      <c r="CV1" s="265"/>
-      <c r="CW1" s="265"/>
-      <c r="CX1" s="265"/>
-      <c r="CY1" s="265"/>
-      <c r="CZ1" s="265"/>
-      <c r="DA1" s="265"/>
-      <c r="DB1" s="265"/>
-      <c r="DC1" s="265"/>
-      <c r="DD1" s="265"/>
-      <c r="DE1" s="265"/>
-      <c r="DF1" s="265"/>
-      <c r="DG1" s="265"/>
-      <c r="DH1" s="265"/>
-      <c r="DI1" s="265"/>
-      <c r="DJ1" s="265"/>
-      <c r="DK1" s="265"/>
-      <c r="DL1" s="265"/>
-      <c r="DM1" s="265"/>
-      <c r="DN1" s="265"/>
-      <c r="DO1" s="265"/>
-      <c r="DP1" s="265"/>
-      <c r="DQ1" s="265"/>
-      <c r="DR1" s="265"/>
-      <c r="DS1" s="265"/>
-      <c r="DT1" s="265"/>
-      <c r="DU1" s="265"/>
-      <c r="DV1" s="265"/>
-      <c r="DW1" s="265"/>
-      <c r="DX1" s="265"/>
-      <c r="DY1" s="265"/>
-      <c r="DZ1" s="265"/>
-      <c r="EA1" s="266"/>
-      <c r="EB1" s="242" t="s">
+      <c r="BR1" s="252"/>
+      <c r="BS1" s="252"/>
+      <c r="BT1" s="252"/>
+      <c r="BU1" s="252"/>
+      <c r="BV1" s="252"/>
+      <c r="BW1" s="252"/>
+      <c r="BX1" s="252"/>
+      <c r="BY1" s="252"/>
+      <c r="BZ1" s="252"/>
+      <c r="CA1" s="252"/>
+      <c r="CB1" s="252"/>
+      <c r="CC1" s="252"/>
+      <c r="CD1" s="252"/>
+      <c r="CE1" s="252"/>
+      <c r="CF1" s="252"/>
+      <c r="CG1" s="252"/>
+      <c r="CH1" s="252"/>
+      <c r="CI1" s="252"/>
+      <c r="CJ1" s="252"/>
+      <c r="CK1" s="252"/>
+      <c r="CL1" s="252"/>
+      <c r="CM1" s="252"/>
+      <c r="CN1" s="252"/>
+      <c r="CO1" s="252"/>
+      <c r="CP1" s="252"/>
+      <c r="CQ1" s="252"/>
+      <c r="CR1" s="252"/>
+      <c r="CS1" s="252"/>
+      <c r="CT1" s="252"/>
+      <c r="CU1" s="252"/>
+      <c r="CV1" s="252"/>
+      <c r="CW1" s="252"/>
+      <c r="CX1" s="252"/>
+      <c r="CY1" s="252"/>
+      <c r="CZ1" s="252"/>
+      <c r="DA1" s="252"/>
+      <c r="DB1" s="252"/>
+      <c r="DC1" s="252"/>
+      <c r="DD1" s="252"/>
+      <c r="DE1" s="252"/>
+      <c r="DF1" s="252"/>
+      <c r="DG1" s="252"/>
+      <c r="DH1" s="252"/>
+      <c r="DI1" s="252"/>
+      <c r="DJ1" s="252"/>
+      <c r="DK1" s="252"/>
+      <c r="DL1" s="252"/>
+      <c r="DM1" s="252"/>
+      <c r="DN1" s="252"/>
+      <c r="DO1" s="252"/>
+      <c r="DP1" s="252"/>
+      <c r="DQ1" s="252"/>
+      <c r="DR1" s="252"/>
+      <c r="DS1" s="252"/>
+      <c r="DT1" s="252"/>
+      <c r="DU1" s="252"/>
+      <c r="DV1" s="252"/>
+      <c r="DW1" s="252"/>
+      <c r="DX1" s="252"/>
+      <c r="DY1" s="252"/>
+      <c r="DZ1" s="252"/>
+      <c r="EA1" s="253"/>
+      <c r="EB1" s="254" t="s">
         <v>397</v>
       </c>
-      <c r="EC1" s="243"/>
-      <c r="ED1" s="243"/>
-      <c r="EE1" s="243"/>
-      <c r="EF1" s="243"/>
-      <c r="EG1" s="243"/>
-      <c r="EH1" s="243"/>
-      <c r="EI1" s="243"/>
-      <c r="EJ1" s="243"/>
-      <c r="EK1" s="243"/>
-      <c r="EL1" s="243"/>
-      <c r="EM1" s="243"/>
-      <c r="EN1" s="243"/>
-      <c r="EO1" s="243"/>
-      <c r="EP1" s="243"/>
-      <c r="EQ1" s="243"/>
-      <c r="ER1" s="243"/>
-      <c r="ES1" s="243"/>
-      <c r="ET1" s="243"/>
-      <c r="EU1" s="243"/>
-      <c r="EV1" s="244" t="s">
+      <c r="EC1" s="255"/>
+      <c r="ED1" s="255"/>
+      <c r="EE1" s="255"/>
+      <c r="EF1" s="255"/>
+      <c r="EG1" s="255"/>
+      <c r="EH1" s="255"/>
+      <c r="EI1" s="255"/>
+      <c r="EJ1" s="255"/>
+      <c r="EK1" s="255"/>
+      <c r="EL1" s="255"/>
+      <c r="EM1" s="255"/>
+      <c r="EN1" s="255"/>
+      <c r="EO1" s="255"/>
+      <c r="EP1" s="255"/>
+      <c r="EQ1" s="255"/>
+      <c r="ER1" s="255"/>
+      <c r="ES1" s="255"/>
+      <c r="ET1" s="255"/>
+      <c r="EU1" s="255"/>
+      <c r="EV1" s="256" t="s">
         <v>389</v>
       </c>
-      <c r="EW1" s="245"/>
-      <c r="EX1" s="245"/>
-      <c r="EY1" s="246"/>
-      <c r="EZ1" s="250" t="s">
+      <c r="EW1" s="257"/>
+      <c r="EX1" s="257"/>
+      <c r="EY1" s="258"/>
+      <c r="EZ1" s="262" t="s">
         <v>398</v>
       </c>
-      <c r="FA1" s="250"/>
-      <c r="FB1" s="250"/>
-      <c r="FC1" s="250"/>
-      <c r="FD1" s="250"/>
-      <c r="FE1" s="250"/>
-      <c r="FF1" s="250"/>
-      <c r="FG1" s="250"/>
-      <c r="FH1" s="250"/>
-      <c r="FI1" s="250"/>
-      <c r="FJ1" s="250"/>
-      <c r="FK1" s="250"/>
-      <c r="FL1" s="250"/>
-      <c r="FM1" s="250"/>
-      <c r="FN1" s="250"/>
-      <c r="FO1" s="250"/>
-      <c r="FP1" s="250"/>
-      <c r="FQ1" s="250"/>
-      <c r="FR1" s="250"/>
-      <c r="FS1" s="250"/>
-      <c r="FT1" s="250"/>
-      <c r="FU1" s="251"/>
+      <c r="FA1" s="262"/>
+      <c r="FB1" s="262"/>
+      <c r="FC1" s="262"/>
+      <c r="FD1" s="262"/>
+      <c r="FE1" s="262"/>
+      <c r="FF1" s="262"/>
+      <c r="FG1" s="262"/>
+      <c r="FH1" s="262"/>
+      <c r="FI1" s="262"/>
+      <c r="FJ1" s="262"/>
+      <c r="FK1" s="262"/>
+      <c r="FL1" s="262"/>
+      <c r="FM1" s="262"/>
+      <c r="FN1" s="262"/>
+      <c r="FO1" s="262"/>
+      <c r="FP1" s="262"/>
+      <c r="FQ1" s="262"/>
+      <c r="FR1" s="262"/>
+      <c r="FS1" s="262"/>
+      <c r="FT1" s="262"/>
+      <c r="FU1" s="263"/>
     </row>
     <row r="2" spans="1:177" ht="15" thickBot="1">
-      <c r="A2" s="252"/>
-      <c r="B2" s="256"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="240" t="s">
+      <c r="A2" s="236"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="246" t="s">
         <v>365</v>
       </c>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="239" t="s">
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="245" t="s">
         <v>366</v>
       </c>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="239" t="s">
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="245" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="241"/>
-      <c r="AC2" s="239" t="s">
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="247"/>
+      <c r="AC2" s="245" t="s">
         <v>368</v>
       </c>
-      <c r="AD2" s="240"/>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="240"/>
-      <c r="AH2" s="240"/>
-      <c r="AI2" s="240"/>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="240"/>
-      <c r="AL2" s="240"/>
-      <c r="AM2" s="240"/>
-      <c r="AN2" s="240"/>
-      <c r="AO2" s="240"/>
-      <c r="AP2" s="241"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="247"/>
       <c r="AQ2" s="9" t="s">
         <v>375</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="AS2" s="239" t="s">
+      <c r="AS2" s="245" t="s">
         <v>377</v>
       </c>
-      <c r="AT2" s="240"/>
-      <c r="AU2" s="240"/>
-      <c r="AV2" s="240"/>
-      <c r="AW2" s="240"/>
-      <c r="AX2" s="240"/>
-      <c r="AY2" s="240"/>
-      <c r="AZ2" s="240"/>
-      <c r="BA2" s="240"/>
-      <c r="BB2" s="240"/>
-      <c r="BC2" s="240"/>
-      <c r="BD2" s="241"/>
-      <c r="BE2" s="239" t="s">
+      <c r="AT2" s="246"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
+      <c r="AX2" s="246"/>
+      <c r="AY2" s="246"/>
+      <c r="AZ2" s="246"/>
+      <c r="BA2" s="246"/>
+      <c r="BB2" s="246"/>
+      <c r="BC2" s="246"/>
+      <c r="BD2" s="247"/>
+      <c r="BE2" s="245" t="s">
         <v>378</v>
       </c>
-      <c r="BF2" s="240"/>
-      <c r="BG2" s="240"/>
-      <c r="BH2" s="240"/>
-      <c r="BI2" s="240"/>
-      <c r="BJ2" s="240"/>
-      <c r="BK2" s="240"/>
-      <c r="BL2" s="240"/>
-      <c r="BM2" s="240"/>
-      <c r="BN2" s="240"/>
-      <c r="BO2" s="240"/>
-      <c r="BP2" s="241"/>
-      <c r="BQ2" s="239" t="s">
+      <c r="BF2" s="246"/>
+      <c r="BG2" s="246"/>
+      <c r="BH2" s="246"/>
+      <c r="BI2" s="246"/>
+      <c r="BJ2" s="246"/>
+      <c r="BK2" s="246"/>
+      <c r="BL2" s="246"/>
+      <c r="BM2" s="246"/>
+      <c r="BN2" s="246"/>
+      <c r="BO2" s="246"/>
+      <c r="BP2" s="247"/>
+      <c r="BQ2" s="245" t="s">
         <v>379</v>
       </c>
-      <c r="BR2" s="240"/>
-      <c r="BS2" s="240"/>
-      <c r="BT2" s="240"/>
-      <c r="BU2" s="240"/>
-      <c r="BV2" s="240"/>
-      <c r="BW2" s="240"/>
-      <c r="BX2" s="240"/>
-      <c r="BY2" s="240"/>
-      <c r="BZ2" s="240"/>
-      <c r="CA2" s="240"/>
-      <c r="CB2" s="240"/>
-      <c r="CC2" s="240"/>
-      <c r="CD2" s="240"/>
-      <c r="CE2" s="240"/>
-      <c r="CF2" s="240"/>
-      <c r="CG2" s="240"/>
-      <c r="CH2" s="240"/>
-      <c r="CI2" s="240"/>
-      <c r="CJ2" s="241"/>
-      <c r="CK2" s="239" t="s">
+      <c r="BR2" s="246"/>
+      <c r="BS2" s="246"/>
+      <c r="BT2" s="246"/>
+      <c r="BU2" s="246"/>
+      <c r="BV2" s="246"/>
+      <c r="BW2" s="246"/>
+      <c r="BX2" s="246"/>
+      <c r="BY2" s="246"/>
+      <c r="BZ2" s="246"/>
+      <c r="CA2" s="246"/>
+      <c r="CB2" s="246"/>
+      <c r="CC2" s="246"/>
+      <c r="CD2" s="246"/>
+      <c r="CE2" s="246"/>
+      <c r="CF2" s="246"/>
+      <c r="CG2" s="246"/>
+      <c r="CH2" s="246"/>
+      <c r="CI2" s="246"/>
+      <c r="CJ2" s="247"/>
+      <c r="CK2" s="245" t="s">
         <v>380</v>
       </c>
-      <c r="CL2" s="240"/>
-      <c r="CM2" s="240"/>
-      <c r="CN2" s="241"/>
-      <c r="CO2" s="239" t="s">
+      <c r="CL2" s="246"/>
+      <c r="CM2" s="246"/>
+      <c r="CN2" s="247"/>
+      <c r="CO2" s="245" t="s">
         <v>381</v>
       </c>
-      <c r="CP2" s="240"/>
-      <c r="CQ2" s="240"/>
-      <c r="CR2" s="240"/>
-      <c r="CS2" s="240"/>
-      <c r="CT2" s="240"/>
-      <c r="CU2" s="240"/>
-      <c r="CV2" s="240"/>
-      <c r="CW2" s="240"/>
-      <c r="CX2" s="240"/>
-      <c r="CY2" s="240"/>
-      <c r="CZ2" s="241"/>
-      <c r="DA2" s="239" t="s">
+      <c r="CP2" s="246"/>
+      <c r="CQ2" s="246"/>
+      <c r="CR2" s="246"/>
+      <c r="CS2" s="246"/>
+      <c r="CT2" s="246"/>
+      <c r="CU2" s="246"/>
+      <c r="CV2" s="246"/>
+      <c r="CW2" s="246"/>
+      <c r="CX2" s="246"/>
+      <c r="CY2" s="246"/>
+      <c r="CZ2" s="247"/>
+      <c r="DA2" s="245" t="s">
         <v>382</v>
       </c>
-      <c r="DB2" s="240"/>
-      <c r="DC2" s="240"/>
-      <c r="DD2" s="240"/>
-      <c r="DE2" s="240"/>
-      <c r="DF2" s="241"/>
-      <c r="DG2" s="239" t="s">
+      <c r="DB2" s="246"/>
+      <c r="DC2" s="246"/>
+      <c r="DD2" s="246"/>
+      <c r="DE2" s="246"/>
+      <c r="DF2" s="247"/>
+      <c r="DG2" s="245" t="s">
         <v>383</v>
       </c>
-      <c r="DH2" s="240"/>
-      <c r="DI2" s="240"/>
-      <c r="DJ2" s="240"/>
-      <c r="DK2" s="240"/>
-      <c r="DL2" s="240"/>
-      <c r="DM2" s="240"/>
-      <c r="DN2" s="240"/>
-      <c r="DO2" s="240"/>
-      <c r="DP2" s="240"/>
-      <c r="DQ2" s="240"/>
-      <c r="DR2" s="241"/>
-      <c r="DS2" s="239" t="s">
+      <c r="DH2" s="246"/>
+      <c r="DI2" s="246"/>
+      <c r="DJ2" s="246"/>
+      <c r="DK2" s="246"/>
+      <c r="DL2" s="246"/>
+      <c r="DM2" s="246"/>
+      <c r="DN2" s="246"/>
+      <c r="DO2" s="246"/>
+      <c r="DP2" s="246"/>
+      <c r="DQ2" s="246"/>
+      <c r="DR2" s="247"/>
+      <c r="DS2" s="245" t="s">
         <v>384</v>
       </c>
-      <c r="DT2" s="240"/>
-      <c r="DU2" s="240"/>
-      <c r="DV2" s="240"/>
-      <c r="DW2" s="240"/>
-      <c r="DX2" s="240"/>
-      <c r="DY2" s="240"/>
-      <c r="DZ2" s="241"/>
+      <c r="DT2" s="246"/>
+      <c r="DU2" s="246"/>
+      <c r="DV2" s="246"/>
+      <c r="DW2" s="246"/>
+      <c r="DX2" s="246"/>
+      <c r="DY2" s="246"/>
+      <c r="DZ2" s="247"/>
       <c r="EA2" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="EB2" s="239" t="s">
+      <c r="EB2" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="EC2" s="240"/>
-      <c r="ED2" s="240"/>
-      <c r="EE2" s="240"/>
-      <c r="EF2" s="240"/>
-      <c r="EG2" s="241"/>
-      <c r="EH2" s="239" t="s">
+      <c r="EC2" s="246"/>
+      <c r="ED2" s="246"/>
+      <c r="EE2" s="246"/>
+      <c r="EF2" s="246"/>
+      <c r="EG2" s="247"/>
+      <c r="EH2" s="245" t="s">
         <v>386</v>
       </c>
-      <c r="EI2" s="240"/>
-      <c r="EJ2" s="240"/>
-      <c r="EK2" s="240"/>
-      <c r="EL2" s="240"/>
-      <c r="EM2" s="240"/>
-      <c r="EN2" s="240"/>
-      <c r="EO2" s="240"/>
-      <c r="EP2" s="240"/>
-      <c r="EQ2" s="240"/>
-      <c r="ER2" s="241"/>
-      <c r="ES2" s="239" t="s">
+      <c r="EI2" s="246"/>
+      <c r="EJ2" s="246"/>
+      <c r="EK2" s="246"/>
+      <c r="EL2" s="246"/>
+      <c r="EM2" s="246"/>
+      <c r="EN2" s="246"/>
+      <c r="EO2" s="246"/>
+      <c r="EP2" s="246"/>
+      <c r="EQ2" s="246"/>
+      <c r="ER2" s="247"/>
+      <c r="ES2" s="245" t="s">
         <v>388</v>
       </c>
-      <c r="ET2" s="240"/>
-      <c r="EU2" s="240"/>
-      <c r="EV2" s="247"/>
-      <c r="EW2" s="248"/>
-      <c r="EX2" s="248"/>
-      <c r="EY2" s="249"/>
-      <c r="EZ2" s="240" t="s">
+      <c r="ET2" s="246"/>
+      <c r="EU2" s="246"/>
+      <c r="EV2" s="259"/>
+      <c r="EW2" s="260"/>
+      <c r="EX2" s="260"/>
+      <c r="EY2" s="261"/>
+      <c r="EZ2" s="246" t="s">
         <v>390</v>
       </c>
-      <c r="FA2" s="240"/>
-      <c r="FB2" s="240"/>
-      <c r="FC2" s="240"/>
-      <c r="FD2" s="240"/>
-      <c r="FE2" s="241"/>
-      <c r="FF2" s="239" t="s">
-        <v>692</v>
-      </c>
-      <c r="FG2" s="240"/>
-      <c r="FH2" s="240"/>
-      <c r="FI2" s="240"/>
-      <c r="FJ2" s="240"/>
-      <c r="FK2" s="241"/>
+      <c r="FA2" s="246"/>
+      <c r="FB2" s="246"/>
+      <c r="FC2" s="246"/>
+      <c r="FD2" s="246"/>
+      <c r="FE2" s="247"/>
+      <c r="FF2" s="245" t="s">
+        <v>691</v>
+      </c>
+      <c r="FG2" s="246"/>
+      <c r="FH2" s="246"/>
+      <c r="FI2" s="246"/>
+      <c r="FJ2" s="246"/>
+      <c r="FK2" s="247"/>
       <c r="FL2" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="FM2" s="239" t="s">
+      <c r="FM2" s="245" t="s">
         <v>393</v>
       </c>
-      <c r="FN2" s="240"/>
-      <c r="FO2" s="240"/>
-      <c r="FP2" s="240"/>
-      <c r="FQ2" s="240"/>
-      <c r="FR2" s="240"/>
-      <c r="FS2" s="240"/>
-      <c r="FT2" s="240"/>
-      <c r="FU2" s="241"/>
+      <c r="FN2" s="246"/>
+      <c r="FO2" s="246"/>
+      <c r="FP2" s="246"/>
+      <c r="FQ2" s="246"/>
+      <c r="FR2" s="246"/>
+      <c r="FS2" s="246"/>
+      <c r="FT2" s="246"/>
+      <c r="FU2" s="247"/>
     </row>
     <row r="3" spans="1:177">
       <c r="A3" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B3" t="s">
         <v>355</v>
@@ -9953,7 +9960,7 @@
         <v>301</v>
       </c>
       <c r="FL5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="FM5" t="s">
         <v>34</v>
@@ -14256,6 +14263,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="BE2:BP2"/>
+    <mergeCell ref="EB1:EU1"/>
+    <mergeCell ref="EV1:EY2"/>
+    <mergeCell ref="EZ1:FU1"/>
+    <mergeCell ref="ES2:EU2"/>
+    <mergeCell ref="EZ2:FE2"/>
+    <mergeCell ref="FF2:FK2"/>
+    <mergeCell ref="FM2:FU2"/>
+    <mergeCell ref="EB2:EG2"/>
+    <mergeCell ref="EH2:ER2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="K1:AP1"/>
@@ -14272,16 +14289,6 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AP2"/>
     <mergeCell ref="AS2:BD2"/>
-    <mergeCell ref="BE2:BP2"/>
-    <mergeCell ref="EB1:EU1"/>
-    <mergeCell ref="EV1:EY2"/>
-    <mergeCell ref="EZ1:FU1"/>
-    <mergeCell ref="ES2:EU2"/>
-    <mergeCell ref="EZ2:FE2"/>
-    <mergeCell ref="FF2:FK2"/>
-    <mergeCell ref="FM2:FU2"/>
-    <mergeCell ref="EB2:EG2"/>
-    <mergeCell ref="EH2:ER2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -14311,426 +14318,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:185" ht="15" thickBot="1">
-      <c r="A1" s="252" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" s="253" t="s">
+      <c r="A1" s="236" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="237" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="254"/>
-      <c r="D1" s="254"/>
-      <c r="E1" s="254"/>
-      <c r="F1" s="254"/>
-      <c r="G1" s="254"/>
-      <c r="H1" s="254"/>
-      <c r="I1" s="254"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="259" t="s">
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="238"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="243" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="259"/>
-      <c r="M1" s="259"/>
-      <c r="N1" s="259"/>
-      <c r="O1" s="259"/>
-      <c r="P1" s="259"/>
-      <c r="Q1" s="259"/>
-      <c r="R1" s="259"/>
-      <c r="S1" s="259"/>
-      <c r="T1" s="259"/>
-      <c r="U1" s="259"/>
-      <c r="V1" s="259"/>
-      <c r="W1" s="259"/>
-      <c r="X1" s="259"/>
-      <c r="Y1" s="259"/>
-      <c r="Z1" s="259"/>
-      <c r="AA1" s="259"/>
-      <c r="AB1" s="259"/>
-      <c r="AC1" s="259"/>
-      <c r="AD1" s="259"/>
-      <c r="AE1" s="259"/>
-      <c r="AF1" s="259"/>
-      <c r="AG1" s="259"/>
-      <c r="AH1" s="259"/>
-      <c r="AI1" s="259"/>
-      <c r="AJ1" s="259"/>
-      <c r="AK1" s="259"/>
-      <c r="AL1" s="259"/>
-      <c r="AM1" s="259"/>
-      <c r="AN1" s="259"/>
-      <c r="AO1" s="259"/>
-      <c r="AP1" s="260"/>
-      <c r="AQ1" s="261" t="s">
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="243"/>
+      <c r="O1" s="243"/>
+      <c r="P1" s="243"/>
+      <c r="Q1" s="243"/>
+      <c r="R1" s="243"/>
+      <c r="S1" s="243"/>
+      <c r="T1" s="243"/>
+      <c r="U1" s="243"/>
+      <c r="V1" s="243"/>
+      <c r="W1" s="243"/>
+      <c r="X1" s="243"/>
+      <c r="Y1" s="243"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="243"/>
+      <c r="AB1" s="243"/>
+      <c r="AC1" s="243"/>
+      <c r="AD1" s="243"/>
+      <c r="AE1" s="243"/>
+      <c r="AF1" s="243"/>
+      <c r="AG1" s="243"/>
+      <c r="AH1" s="243"/>
+      <c r="AI1" s="243"/>
+      <c r="AJ1" s="243"/>
+      <c r="AK1" s="243"/>
+      <c r="AL1" s="243"/>
+      <c r="AM1" s="243"/>
+      <c r="AN1" s="243"/>
+      <c r="AO1" s="243"/>
+      <c r="AP1" s="244"/>
+      <c r="AQ1" s="248" t="s">
         <v>395</v>
       </c>
-      <c r="AR1" s="262"/>
-      <c r="AS1" s="262"/>
-      <c r="AT1" s="262"/>
-      <c r="AU1" s="262"/>
-      <c r="AV1" s="262"/>
-      <c r="AW1" s="262"/>
-      <c r="AX1" s="262"/>
-      <c r="AY1" s="262"/>
-      <c r="AZ1" s="262"/>
-      <c r="BA1" s="262"/>
-      <c r="BB1" s="262"/>
-      <c r="BC1" s="262"/>
-      <c r="BD1" s="262"/>
-      <c r="BE1" s="262"/>
-      <c r="BF1" s="262"/>
-      <c r="BG1" s="262"/>
-      <c r="BH1" s="262"/>
-      <c r="BI1" s="262"/>
-      <c r="BJ1" s="262"/>
-      <c r="BK1" s="262"/>
-      <c r="BL1" s="262"/>
-      <c r="BM1" s="262"/>
-      <c r="BN1" s="262"/>
-      <c r="BO1" s="262"/>
-      <c r="BP1" s="263"/>
-      <c r="BQ1" s="264" t="s">
+      <c r="AR1" s="249"/>
+      <c r="AS1" s="249"/>
+      <c r="AT1" s="249"/>
+      <c r="AU1" s="249"/>
+      <c r="AV1" s="249"/>
+      <c r="AW1" s="249"/>
+      <c r="AX1" s="249"/>
+      <c r="AY1" s="249"/>
+      <c r="AZ1" s="249"/>
+      <c r="BA1" s="249"/>
+      <c r="BB1" s="249"/>
+      <c r="BC1" s="249"/>
+      <c r="BD1" s="249"/>
+      <c r="BE1" s="249"/>
+      <c r="BF1" s="249"/>
+      <c r="BG1" s="249"/>
+      <c r="BH1" s="249"/>
+      <c r="BI1" s="249"/>
+      <c r="BJ1" s="249"/>
+      <c r="BK1" s="249"/>
+      <c r="BL1" s="249"/>
+      <c r="BM1" s="249"/>
+      <c r="BN1" s="249"/>
+      <c r="BO1" s="249"/>
+      <c r="BP1" s="250"/>
+      <c r="BQ1" s="251" t="s">
         <v>396</v>
       </c>
-      <c r="BR1" s="265"/>
-      <c r="BS1" s="265"/>
-      <c r="BT1" s="265"/>
-      <c r="BU1" s="265"/>
-      <c r="BV1" s="265"/>
-      <c r="BW1" s="265"/>
-      <c r="BX1" s="265"/>
-      <c r="BY1" s="265"/>
-      <c r="BZ1" s="265"/>
-      <c r="CA1" s="265"/>
-      <c r="CB1" s="265"/>
-      <c r="CC1" s="265"/>
-      <c r="CD1" s="265"/>
-      <c r="CE1" s="265"/>
-      <c r="CF1" s="265"/>
-      <c r="CG1" s="265"/>
-      <c r="CH1" s="265"/>
-      <c r="CI1" s="265"/>
-      <c r="CJ1" s="265"/>
-      <c r="CK1" s="265"/>
-      <c r="CL1" s="265"/>
-      <c r="CM1" s="265"/>
-      <c r="CN1" s="265"/>
-      <c r="CO1" s="265"/>
-      <c r="CP1" s="265"/>
-      <c r="CQ1" s="265"/>
-      <c r="CR1" s="265"/>
-      <c r="CS1" s="265"/>
-      <c r="CT1" s="265"/>
-      <c r="CU1" s="265"/>
-      <c r="CV1" s="265"/>
-      <c r="CW1" s="265"/>
-      <c r="CX1" s="265"/>
-      <c r="CY1" s="265"/>
-      <c r="CZ1" s="265"/>
-      <c r="DA1" s="265"/>
-      <c r="DB1" s="265"/>
-      <c r="DC1" s="265"/>
-      <c r="DD1" s="265"/>
-      <c r="DE1" s="265"/>
-      <c r="DF1" s="265"/>
-      <c r="DG1" s="265"/>
-      <c r="DH1" s="265"/>
-      <c r="DI1" s="265"/>
-      <c r="DJ1" s="265"/>
-      <c r="DK1" s="265"/>
-      <c r="DL1" s="265"/>
-      <c r="DM1" s="265"/>
-      <c r="DN1" s="265"/>
-      <c r="DO1" s="265"/>
-      <c r="DP1" s="265"/>
-      <c r="DQ1" s="265"/>
-      <c r="DR1" s="265"/>
-      <c r="DS1" s="265"/>
-      <c r="DT1" s="265"/>
-      <c r="DU1" s="265"/>
-      <c r="DV1" s="265"/>
-      <c r="DW1" s="265"/>
-      <c r="DX1" s="265"/>
-      <c r="DY1" s="265"/>
-      <c r="DZ1" s="265"/>
-      <c r="EA1" s="266"/>
-      <c r="EB1" s="242" t="s">
+      <c r="BR1" s="252"/>
+      <c r="BS1" s="252"/>
+      <c r="BT1" s="252"/>
+      <c r="BU1" s="252"/>
+      <c r="BV1" s="252"/>
+      <c r="BW1" s="252"/>
+      <c r="BX1" s="252"/>
+      <c r="BY1" s="252"/>
+      <c r="BZ1" s="252"/>
+      <c r="CA1" s="252"/>
+      <c r="CB1" s="252"/>
+      <c r="CC1" s="252"/>
+      <c r="CD1" s="252"/>
+      <c r="CE1" s="252"/>
+      <c r="CF1" s="252"/>
+      <c r="CG1" s="252"/>
+      <c r="CH1" s="252"/>
+      <c r="CI1" s="252"/>
+      <c r="CJ1" s="252"/>
+      <c r="CK1" s="252"/>
+      <c r="CL1" s="252"/>
+      <c r="CM1" s="252"/>
+      <c r="CN1" s="252"/>
+      <c r="CO1" s="252"/>
+      <c r="CP1" s="252"/>
+      <c r="CQ1" s="252"/>
+      <c r="CR1" s="252"/>
+      <c r="CS1" s="252"/>
+      <c r="CT1" s="252"/>
+      <c r="CU1" s="252"/>
+      <c r="CV1" s="252"/>
+      <c r="CW1" s="252"/>
+      <c r="CX1" s="252"/>
+      <c r="CY1" s="252"/>
+      <c r="CZ1" s="252"/>
+      <c r="DA1" s="252"/>
+      <c r="DB1" s="252"/>
+      <c r="DC1" s="252"/>
+      <c r="DD1" s="252"/>
+      <c r="DE1" s="252"/>
+      <c r="DF1" s="252"/>
+      <c r="DG1" s="252"/>
+      <c r="DH1" s="252"/>
+      <c r="DI1" s="252"/>
+      <c r="DJ1" s="252"/>
+      <c r="DK1" s="252"/>
+      <c r="DL1" s="252"/>
+      <c r="DM1" s="252"/>
+      <c r="DN1" s="252"/>
+      <c r="DO1" s="252"/>
+      <c r="DP1" s="252"/>
+      <c r="DQ1" s="252"/>
+      <c r="DR1" s="252"/>
+      <c r="DS1" s="252"/>
+      <c r="DT1" s="252"/>
+      <c r="DU1" s="252"/>
+      <c r="DV1" s="252"/>
+      <c r="DW1" s="252"/>
+      <c r="DX1" s="252"/>
+      <c r="DY1" s="252"/>
+      <c r="DZ1" s="252"/>
+      <c r="EA1" s="253"/>
+      <c r="EB1" s="254" t="s">
         <v>397</v>
       </c>
-      <c r="EC1" s="243"/>
-      <c r="ED1" s="243"/>
-      <c r="EE1" s="243"/>
-      <c r="EF1" s="243"/>
-      <c r="EG1" s="243"/>
-      <c r="EH1" s="243"/>
-      <c r="EI1" s="243"/>
-      <c r="EJ1" s="243"/>
-      <c r="EK1" s="243"/>
-      <c r="EL1" s="243"/>
-      <c r="EM1" s="243"/>
-      <c r="EN1" s="243"/>
-      <c r="EO1" s="243"/>
-      <c r="EP1" s="243"/>
-      <c r="EQ1" s="243"/>
-      <c r="ER1" s="243"/>
-      <c r="ES1" s="243"/>
-      <c r="ET1" s="243"/>
-      <c r="EU1" s="243"/>
-      <c r="EV1" s="244" t="s">
+      <c r="EC1" s="255"/>
+      <c r="ED1" s="255"/>
+      <c r="EE1" s="255"/>
+      <c r="EF1" s="255"/>
+      <c r="EG1" s="255"/>
+      <c r="EH1" s="255"/>
+      <c r="EI1" s="255"/>
+      <c r="EJ1" s="255"/>
+      <c r="EK1" s="255"/>
+      <c r="EL1" s="255"/>
+      <c r="EM1" s="255"/>
+      <c r="EN1" s="255"/>
+      <c r="EO1" s="255"/>
+      <c r="EP1" s="255"/>
+      <c r="EQ1" s="255"/>
+      <c r="ER1" s="255"/>
+      <c r="ES1" s="255"/>
+      <c r="ET1" s="255"/>
+      <c r="EU1" s="255"/>
+      <c r="EV1" s="256" t="s">
         <v>389</v>
       </c>
-      <c r="EW1" s="245"/>
-      <c r="EX1" s="245"/>
-      <c r="EY1" s="246"/>
-      <c r="EZ1" s="250" t="s">
+      <c r="EW1" s="257"/>
+      <c r="EX1" s="257"/>
+      <c r="EY1" s="258"/>
+      <c r="EZ1" s="262" t="s">
         <v>398</v>
       </c>
-      <c r="FA1" s="250"/>
-      <c r="FB1" s="250"/>
-      <c r="FC1" s="250"/>
-      <c r="FD1" s="250"/>
-      <c r="FE1" s="250"/>
-      <c r="FF1" s="250"/>
-      <c r="FG1" s="250"/>
-      <c r="FH1" s="250"/>
-      <c r="FI1" s="250"/>
-      <c r="FJ1" s="250"/>
-      <c r="FK1" s="250"/>
-      <c r="FL1" s="250"/>
-      <c r="FM1" s="250"/>
-      <c r="FN1" s="250"/>
-      <c r="FO1" s="250"/>
-      <c r="FP1" s="250"/>
-      <c r="FQ1" s="250"/>
-      <c r="FR1" s="250"/>
-      <c r="FS1" s="250"/>
-      <c r="FT1" s="250"/>
-      <c r="FU1" s="251"/>
+      <c r="FA1" s="262"/>
+      <c r="FB1" s="262"/>
+      <c r="FC1" s="262"/>
+      <c r="FD1" s="262"/>
+      <c r="FE1" s="262"/>
+      <c r="FF1" s="262"/>
+      <c r="FG1" s="262"/>
+      <c r="FH1" s="262"/>
+      <c r="FI1" s="262"/>
+      <c r="FJ1" s="262"/>
+      <c r="FK1" s="262"/>
+      <c r="FL1" s="262"/>
+      <c r="FM1" s="262"/>
+      <c r="FN1" s="262"/>
+      <c r="FO1" s="262"/>
+      <c r="FP1" s="262"/>
+      <c r="FQ1" s="262"/>
+      <c r="FR1" s="262"/>
+      <c r="FS1" s="262"/>
+      <c r="FT1" s="262"/>
+      <c r="FU1" s="263"/>
     </row>
     <row r="2" spans="1:185" ht="15" thickBot="1">
-      <c r="A2" s="252"/>
-      <c r="B2" s="256"/>
-      <c r="C2" s="257"/>
-      <c r="D2" s="257"/>
-      <c r="E2" s="257"/>
-      <c r="F2" s="257"/>
-      <c r="G2" s="257"/>
-      <c r="H2" s="257"/>
-      <c r="I2" s="257"/>
-      <c r="J2" s="258"/>
-      <c r="K2" s="240" t="s">
+      <c r="A2" s="236"/>
+      <c r="B2" s="240"/>
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="241"/>
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="246" t="s">
         <v>365</v>
       </c>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="240"/>
-      <c r="O2" s="241"/>
-      <c r="P2" s="239" t="s">
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="246"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="245" t="s">
         <v>366</v>
       </c>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="239" t="s">
+      <c r="Q2" s="246"/>
+      <c r="R2" s="246"/>
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="246"/>
+      <c r="W2" s="247"/>
+      <c r="X2" s="245" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="240"/>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="241"/>
-      <c r="AC2" s="239" t="s">
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="247"/>
+      <c r="AC2" s="245" t="s">
         <v>368</v>
       </c>
-      <c r="AD2" s="240"/>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="240"/>
-      <c r="AH2" s="240"/>
-      <c r="AI2" s="240"/>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="240"/>
-      <c r="AL2" s="240"/>
-      <c r="AM2" s="240"/>
-      <c r="AN2" s="240"/>
-      <c r="AO2" s="240"/>
-      <c r="AP2" s="241"/>
+      <c r="AD2" s="246"/>
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="246"/>
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="246"/>
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="247"/>
       <c r="AQ2" s="9" t="s">
         <v>375</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="AS2" s="239" t="s">
+      <c r="AS2" s="245" t="s">
         <v>377</v>
       </c>
-      <c r="AT2" s="240"/>
-      <c r="AU2" s="240"/>
-      <c r="AV2" s="240"/>
-      <c r="AW2" s="240"/>
-      <c r="AX2" s="240"/>
-      <c r="AY2" s="240"/>
-      <c r="AZ2" s="240"/>
-      <c r="BA2" s="240"/>
-      <c r="BB2" s="240"/>
-      <c r="BC2" s="240"/>
-      <c r="BD2" s="241"/>
-      <c r="BE2" s="239" t="s">
+      <c r="AT2" s="246"/>
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
+      <c r="AX2" s="246"/>
+      <c r="AY2" s="246"/>
+      <c r="AZ2" s="246"/>
+      <c r="BA2" s="246"/>
+      <c r="BB2" s="246"/>
+      <c r="BC2" s="246"/>
+      <c r="BD2" s="247"/>
+      <c r="BE2" s="245" t="s">
         <v>378</v>
       </c>
-      <c r="BF2" s="240"/>
-      <c r="BG2" s="240"/>
-      <c r="BH2" s="240"/>
-      <c r="BI2" s="240"/>
-      <c r="BJ2" s="240"/>
-      <c r="BK2" s="240"/>
-      <c r="BL2" s="240"/>
-      <c r="BM2" s="240"/>
-      <c r="BN2" s="240"/>
-      <c r="BO2" s="240"/>
-      <c r="BP2" s="241"/>
-      <c r="BQ2" s="239" t="s">
+      <c r="BF2" s="246"/>
+      <c r="BG2" s="246"/>
+      <c r="BH2" s="246"/>
+      <c r="BI2" s="246"/>
+      <c r="BJ2" s="246"/>
+      <c r="BK2" s="246"/>
+      <c r="BL2" s="246"/>
+      <c r="BM2" s="246"/>
+      <c r="BN2" s="246"/>
+      <c r="BO2" s="246"/>
+      <c r="BP2" s="247"/>
+      <c r="BQ2" s="245" t="s">
         <v>379</v>
       </c>
-      <c r="BR2" s="240"/>
-      <c r="BS2" s="240"/>
-      <c r="BT2" s="240"/>
-      <c r="BU2" s="240"/>
-      <c r="BV2" s="240"/>
-      <c r="BW2" s="240"/>
-      <c r="BX2" s="240"/>
-      <c r="BY2" s="240"/>
-      <c r="BZ2" s="240"/>
-      <c r="CA2" s="240"/>
-      <c r="CB2" s="240"/>
-      <c r="CC2" s="240"/>
-      <c r="CD2" s="240"/>
-      <c r="CE2" s="240"/>
-      <c r="CF2" s="240"/>
-      <c r="CG2" s="240"/>
-      <c r="CH2" s="240"/>
-      <c r="CI2" s="240"/>
-      <c r="CJ2" s="241"/>
-      <c r="CK2" s="239" t="s">
+      <c r="BR2" s="246"/>
+      <c r="BS2" s="246"/>
+      <c r="BT2" s="246"/>
+      <c r="BU2" s="246"/>
+      <c r="BV2" s="246"/>
+      <c r="BW2" s="246"/>
+      <c r="BX2" s="246"/>
+      <c r="BY2" s="246"/>
+      <c r="BZ2" s="246"/>
+      <c r="CA2" s="246"/>
+      <c r="CB2" s="246"/>
+      <c r="CC2" s="246"/>
+      <c r="CD2" s="246"/>
+      <c r="CE2" s="246"/>
+      <c r="CF2" s="246"/>
+      <c r="CG2" s="246"/>
+      <c r="CH2" s="246"/>
+      <c r="CI2" s="246"/>
+      <c r="CJ2" s="247"/>
+      <c r="CK2" s="245" t="s">
         <v>380</v>
       </c>
-      <c r="CL2" s="240"/>
-      <c r="CM2" s="240"/>
-      <c r="CN2" s="241"/>
-      <c r="CO2" s="239" t="s">
+      <c r="CL2" s="246"/>
+      <c r="CM2" s="246"/>
+      <c r="CN2" s="247"/>
+      <c r="CO2" s="245" t="s">
         <v>381</v>
       </c>
-      <c r="CP2" s="240"/>
-      <c r="CQ2" s="240"/>
-      <c r="CR2" s="240"/>
-      <c r="CS2" s="240"/>
-      <c r="CT2" s="240"/>
-      <c r="CU2" s="240"/>
-      <c r="CV2" s="240"/>
-      <c r="CW2" s="240"/>
-      <c r="CX2" s="240"/>
-      <c r="CY2" s="240"/>
-      <c r="CZ2" s="241"/>
-      <c r="DA2" s="239" t="s">
+      <c r="CP2" s="246"/>
+      <c r="CQ2" s="246"/>
+      <c r="CR2" s="246"/>
+      <c r="CS2" s="246"/>
+      <c r="CT2" s="246"/>
+      <c r="CU2" s="246"/>
+      <c r="CV2" s="246"/>
+      <c r="CW2" s="246"/>
+      <c r="CX2" s="246"/>
+      <c r="CY2" s="246"/>
+      <c r="CZ2" s="247"/>
+      <c r="DA2" s="245" t="s">
         <v>382</v>
       </c>
-      <c r="DB2" s="240"/>
-      <c r="DC2" s="240"/>
-      <c r="DD2" s="240"/>
-      <c r="DE2" s="240"/>
-      <c r="DF2" s="241"/>
-      <c r="DG2" s="239" t="s">
+      <c r="DB2" s="246"/>
+      <c r="DC2" s="246"/>
+      <c r="DD2" s="246"/>
+      <c r="DE2" s="246"/>
+      <c r="DF2" s="247"/>
+      <c r="DG2" s="245" t="s">
         <v>383</v>
       </c>
-      <c r="DH2" s="240"/>
-      <c r="DI2" s="240"/>
-      <c r="DJ2" s="240"/>
-      <c r="DK2" s="240"/>
-      <c r="DL2" s="240"/>
-      <c r="DM2" s="240"/>
-      <c r="DN2" s="240"/>
-      <c r="DO2" s="240"/>
-      <c r="DP2" s="240"/>
-      <c r="DQ2" s="240"/>
-      <c r="DR2" s="241"/>
-      <c r="DS2" s="239" t="s">
+      <c r="DH2" s="246"/>
+      <c r="DI2" s="246"/>
+      <c r="DJ2" s="246"/>
+      <c r="DK2" s="246"/>
+      <c r="DL2" s="246"/>
+      <c r="DM2" s="246"/>
+      <c r="DN2" s="246"/>
+      <c r="DO2" s="246"/>
+      <c r="DP2" s="246"/>
+      <c r="DQ2" s="246"/>
+      <c r="DR2" s="247"/>
+      <c r="DS2" s="245" t="s">
         <v>384</v>
       </c>
-      <c r="DT2" s="240"/>
-      <c r="DU2" s="240"/>
-      <c r="DV2" s="240"/>
-      <c r="DW2" s="240"/>
-      <c r="DX2" s="240"/>
-      <c r="DY2" s="240"/>
-      <c r="DZ2" s="241"/>
+      <c r="DT2" s="246"/>
+      <c r="DU2" s="246"/>
+      <c r="DV2" s="246"/>
+      <c r="DW2" s="246"/>
+      <c r="DX2" s="246"/>
+      <c r="DY2" s="246"/>
+      <c r="DZ2" s="247"/>
       <c r="EA2" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="EB2" s="239" t="s">
+      <c r="EB2" s="245" t="s">
         <v>387</v>
       </c>
-      <c r="EC2" s="240"/>
-      <c r="ED2" s="240"/>
-      <c r="EE2" s="240"/>
-      <c r="EF2" s="240"/>
-      <c r="EG2" s="241"/>
-      <c r="EH2" s="239" t="s">
+      <c r="EC2" s="246"/>
+      <c r="ED2" s="246"/>
+      <c r="EE2" s="246"/>
+      <c r="EF2" s="246"/>
+      <c r="EG2" s="247"/>
+      <c r="EH2" s="245" t="s">
         <v>386</v>
       </c>
-      <c r="EI2" s="240"/>
-      <c r="EJ2" s="240"/>
-      <c r="EK2" s="240"/>
-      <c r="EL2" s="240"/>
-      <c r="EM2" s="240"/>
-      <c r="EN2" s="240"/>
-      <c r="EO2" s="240"/>
-      <c r="EP2" s="240"/>
-      <c r="EQ2" s="240"/>
-      <c r="ER2" s="241"/>
-      <c r="ES2" s="239" t="s">
+      <c r="EI2" s="246"/>
+      <c r="EJ2" s="246"/>
+      <c r="EK2" s="246"/>
+      <c r="EL2" s="246"/>
+      <c r="EM2" s="246"/>
+      <c r="EN2" s="246"/>
+      <c r="EO2" s="246"/>
+      <c r="EP2" s="246"/>
+      <c r="EQ2" s="246"/>
+      <c r="ER2" s="247"/>
+      <c r="ES2" s="245" t="s">
         <v>388</v>
       </c>
-      <c r="ET2" s="240"/>
-      <c r="EU2" s="240"/>
-      <c r="EV2" s="247"/>
-      <c r="EW2" s="248"/>
-      <c r="EX2" s="248"/>
-      <c r="EY2" s="249"/>
-      <c r="EZ2" s="240" t="s">
+      <c r="ET2" s="246"/>
+      <c r="EU2" s="246"/>
+      <c r="EV2" s="259"/>
+      <c r="EW2" s="260"/>
+      <c r="EX2" s="260"/>
+      <c r="EY2" s="261"/>
+      <c r="EZ2" s="246" t="s">
         <v>390</v>
       </c>
-      <c r="FA2" s="240"/>
-      <c r="FB2" s="240"/>
-      <c r="FC2" s="240"/>
-      <c r="FD2" s="240"/>
-      <c r="FE2" s="241"/>
-      <c r="FF2" s="239" t="s">
+      <c r="FA2" s="246"/>
+      <c r="FB2" s="246"/>
+      <c r="FC2" s="246"/>
+      <c r="FD2" s="246"/>
+      <c r="FE2" s="247"/>
+      <c r="FF2" s="245" t="s">
         <v>391</v>
       </c>
-      <c r="FG2" s="240"/>
-      <c r="FH2" s="240"/>
-      <c r="FI2" s="240"/>
-      <c r="FJ2" s="240"/>
-      <c r="FK2" s="241"/>
+      <c r="FG2" s="246"/>
+      <c r="FH2" s="246"/>
+      <c r="FI2" s="246"/>
+      <c r="FJ2" s="246"/>
+      <c r="FK2" s="247"/>
       <c r="FL2" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="FM2" s="239" t="s">
+      <c r="FM2" s="245" t="s">
         <v>393</v>
       </c>
-      <c r="FN2" s="240"/>
-      <c r="FO2" s="240"/>
-      <c r="FP2" s="240"/>
-      <c r="FQ2" s="240"/>
-      <c r="FR2" s="240"/>
-      <c r="FS2" s="240"/>
-      <c r="FT2" s="240"/>
-      <c r="FU2" s="241"/>
+      <c r="FN2" s="246"/>
+      <c r="FO2" s="246"/>
+      <c r="FP2" s="246"/>
+      <c r="FQ2" s="246"/>
+      <c r="FR2" s="246"/>
+      <c r="FS2" s="246"/>
+      <c r="FT2" s="246"/>
+      <c r="FU2" s="247"/>
     </row>
     <row r="3" spans="1:185">
       <c r="A3" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -22361,16 +22368,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="DA2:DF2"/>
-    <mergeCell ref="DG2:DR2"/>
-    <mergeCell ref="DS2:DZ2"/>
-    <mergeCell ref="BE2:BP2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AP2"/>
-    <mergeCell ref="AS2:BD2"/>
     <mergeCell ref="FF2:FK2"/>
     <mergeCell ref="FM2:FU2"/>
     <mergeCell ref="B1:J2"/>
@@ -22387,6 +22384,16 @@
     <mergeCell ref="BQ2:CJ2"/>
     <mergeCell ref="CK2:CN2"/>
     <mergeCell ref="CO2:CZ2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="DA2:DF2"/>
+    <mergeCell ref="DG2:DR2"/>
+    <mergeCell ref="DS2:DZ2"/>
+    <mergeCell ref="BE2:BP2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AP2"/>
+    <mergeCell ref="AS2:BD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -22468,442 +22475,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" thickBot="1">
-      <c r="A1" s="252" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" s="271" t="s">
+      <c r="A1" s="236" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="269" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
-      <c r="I1" s="272"/>
-      <c r="J1" s="272"/>
-      <c r="K1" s="272"/>
-      <c r="L1" s="272"/>
-      <c r="M1" s="272"/>
-      <c r="N1" s="272"/>
-      <c r="O1" s="272"/>
-      <c r="P1" s="272"/>
-      <c r="Q1" s="272"/>
-      <c r="R1" s="273" t="s">
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="270"/>
+      <c r="L1" s="270"/>
+      <c r="M1" s="270"/>
+      <c r="N1" s="270"/>
+      <c r="O1" s="270"/>
+      <c r="P1" s="270"/>
+      <c r="Q1" s="270"/>
+      <c r="R1" s="271" t="s">
         <v>403</v>
       </c>
-      <c r="S1" s="274"/>
-      <c r="T1" s="274"/>
-      <c r="U1" s="274"/>
-      <c r="V1" s="274"/>
-      <c r="W1" s="274"/>
-      <c r="X1" s="274"/>
-      <c r="Y1" s="274"/>
-      <c r="Z1" s="274"/>
-      <c r="AA1" s="274"/>
-      <c r="AB1" s="274"/>
-      <c r="AC1" s="274"/>
-      <c r="AD1" s="274"/>
-      <c r="AE1" s="274"/>
-      <c r="AF1" s="274"/>
-      <c r="AG1" s="274"/>
-      <c r="AH1" s="275" t="s">
+      <c r="S1" s="272"/>
+      <c r="T1" s="272"/>
+      <c r="U1" s="272"/>
+      <c r="V1" s="272"/>
+      <c r="W1" s="272"/>
+      <c r="X1" s="272"/>
+      <c r="Y1" s="272"/>
+      <c r="Z1" s="272"/>
+      <c r="AA1" s="272"/>
+      <c r="AB1" s="272"/>
+      <c r="AC1" s="272"/>
+      <c r="AD1" s="272"/>
+      <c r="AE1" s="272"/>
+      <c r="AF1" s="272"/>
+      <c r="AG1" s="272"/>
+      <c r="AH1" s="273" t="s">
         <v>396</v>
       </c>
-      <c r="AI1" s="276"/>
-      <c r="AJ1" s="276"/>
-      <c r="AK1" s="276"/>
-      <c r="AL1" s="276"/>
-      <c r="AM1" s="276"/>
-      <c r="AN1" s="276"/>
-      <c r="AO1" s="276"/>
-      <c r="AP1" s="276"/>
-      <c r="AQ1" s="276"/>
-      <c r="AR1" s="276"/>
-      <c r="AS1" s="276"/>
-      <c r="AT1" s="276"/>
-      <c r="AU1" s="276"/>
-      <c r="AV1" s="276"/>
-      <c r="AW1" s="276"/>
-      <c r="AX1" s="276"/>
-      <c r="AY1" s="276"/>
-      <c r="AZ1" s="276"/>
-      <c r="BA1" s="276"/>
-      <c r="BB1" s="276"/>
-      <c r="BC1" s="276"/>
-      <c r="BD1" s="276"/>
-      <c r="BE1" s="276"/>
-      <c r="BF1" s="276"/>
-      <c r="BG1" s="276"/>
-      <c r="BH1" s="276"/>
-      <c r="BI1" s="276"/>
-      <c r="BJ1" s="277" t="s">
+      <c r="AI1" s="274"/>
+      <c r="AJ1" s="274"/>
+      <c r="AK1" s="274"/>
+      <c r="AL1" s="274"/>
+      <c r="AM1" s="274"/>
+      <c r="AN1" s="274"/>
+      <c r="AO1" s="274"/>
+      <c r="AP1" s="274"/>
+      <c r="AQ1" s="274"/>
+      <c r="AR1" s="274"/>
+      <c r="AS1" s="274"/>
+      <c r="AT1" s="274"/>
+      <c r="AU1" s="274"/>
+      <c r="AV1" s="274"/>
+      <c r="AW1" s="274"/>
+      <c r="AX1" s="274"/>
+      <c r="AY1" s="274"/>
+      <c r="AZ1" s="274"/>
+      <c r="BA1" s="274"/>
+      <c r="BB1" s="274"/>
+      <c r="BC1" s="274"/>
+      <c r="BD1" s="274"/>
+      <c r="BE1" s="274"/>
+      <c r="BF1" s="274"/>
+      <c r="BG1" s="274"/>
+      <c r="BH1" s="274"/>
+      <c r="BI1" s="274"/>
+      <c r="BJ1" s="275" t="s">
         <v>404</v>
       </c>
-      <c r="BK1" s="278"/>
-      <c r="BL1" s="278"/>
-      <c r="BM1" s="278"/>
-      <c r="BN1" s="278"/>
-      <c r="BO1" s="278"/>
-      <c r="BP1" s="278"/>
-      <c r="BQ1" s="278"/>
-      <c r="BR1" s="278"/>
-      <c r="BS1" s="278"/>
-      <c r="BT1" s="278"/>
-      <c r="BU1" s="278"/>
-      <c r="BV1" s="267" t="s">
+      <c r="BK1" s="276"/>
+      <c r="BL1" s="276"/>
+      <c r="BM1" s="276"/>
+      <c r="BN1" s="276"/>
+      <c r="BO1" s="276"/>
+      <c r="BP1" s="276"/>
+      <c r="BQ1" s="276"/>
+      <c r="BR1" s="276"/>
+      <c r="BS1" s="276"/>
+      <c r="BT1" s="276"/>
+      <c r="BU1" s="276"/>
+      <c r="BV1" s="265" t="s">
         <v>389</v>
       </c>
-      <c r="BW1" s="268"/>
-      <c r="BX1" s="268"/>
-      <c r="BY1" s="268"/>
+      <c r="BW1" s="266"/>
+      <c r="BX1" s="266"/>
+      <c r="BY1" s="266"/>
     </row>
     <row r="2" spans="1:77" ht="15" thickBot="1">
-      <c r="A2" s="279"/>
-      <c r="B2" s="239" t="s">
+      <c r="A2" s="264"/>
+      <c r="B2" s="245" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="240"/>
-      <c r="D2" s="240"/>
-      <c r="E2" s="240"/>
-      <c r="F2" s="239" t="s">
+      <c r="C2" s="246"/>
+      <c r="D2" s="246"/>
+      <c r="E2" s="246"/>
+      <c r="F2" s="245" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="240"/>
-      <c r="H2" s="240"/>
-      <c r="I2" s="240"/>
-      <c r="J2" s="239" t="s">
+      <c r="G2" s="246"/>
+      <c r="H2" s="246"/>
+      <c r="I2" s="246"/>
+      <c r="J2" s="245" t="s">
         <v>373</v>
       </c>
-      <c r="K2" s="240"/>
-      <c r="L2" s="240"/>
-      <c r="M2" s="240"/>
-      <c r="N2" s="239" t="s">
+      <c r="K2" s="246"/>
+      <c r="L2" s="246"/>
+      <c r="M2" s="246"/>
+      <c r="N2" s="245" t="s">
         <v>374</v>
       </c>
-      <c r="O2" s="240"/>
-      <c r="P2" s="240"/>
-      <c r="Q2" s="240"/>
-      <c r="R2" s="239" t="s">
+      <c r="O2" s="246"/>
+      <c r="P2" s="246"/>
+      <c r="Q2" s="246"/>
+      <c r="R2" s="245" t="s">
         <v>375</v>
       </c>
-      <c r="S2" s="240"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="239" t="s">
+      <c r="S2" s="246"/>
+      <c r="T2" s="246"/>
+      <c r="U2" s="246"/>
+      <c r="V2" s="245" t="s">
         <v>376</v>
       </c>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="239" t="s">
+      <c r="W2" s="246"/>
+      <c r="X2" s="246"/>
+      <c r="Y2" s="246"/>
+      <c r="Z2" s="245" t="s">
         <v>377</v>
       </c>
-      <c r="AA2" s="240"/>
-      <c r="AB2" s="240"/>
-      <c r="AC2" s="240"/>
-      <c r="AD2" s="239" t="s">
+      <c r="AA2" s="246"/>
+      <c r="AB2" s="246"/>
+      <c r="AC2" s="246"/>
+      <c r="AD2" s="245" t="s">
         <v>378</v>
       </c>
-      <c r="AE2" s="240"/>
-      <c r="AF2" s="240"/>
-      <c r="AG2" s="240"/>
-      <c r="AH2" s="239" t="s">
+      <c r="AE2" s="246"/>
+      <c r="AF2" s="246"/>
+      <c r="AG2" s="246"/>
+      <c r="AH2" s="245" t="s">
         <v>379</v>
       </c>
-      <c r="AI2" s="240"/>
-      <c r="AJ2" s="240"/>
-      <c r="AK2" s="240"/>
-      <c r="AL2" s="239" t="s">
+      <c r="AI2" s="246"/>
+      <c r="AJ2" s="246"/>
+      <c r="AK2" s="246"/>
+      <c r="AL2" s="245" t="s">
         <v>380</v>
       </c>
-      <c r="AM2" s="240"/>
-      <c r="AN2" s="240"/>
-      <c r="AO2" s="240"/>
-      <c r="AP2" s="239" t="s">
+      <c r="AM2" s="246"/>
+      <c r="AN2" s="246"/>
+      <c r="AO2" s="246"/>
+      <c r="AP2" s="245" t="s">
         <v>399</v>
       </c>
-      <c r="AQ2" s="240"/>
-      <c r="AR2" s="240"/>
-      <c r="AS2" s="240"/>
-      <c r="AT2" s="239" t="s">
+      <c r="AQ2" s="246"/>
+      <c r="AR2" s="246"/>
+      <c r="AS2" s="246"/>
+      <c r="AT2" s="245" t="s">
         <v>382</v>
       </c>
-      <c r="AU2" s="240"/>
-      <c r="AV2" s="240"/>
-      <c r="AW2" s="240"/>
-      <c r="AX2" s="239" t="s">
+      <c r="AU2" s="246"/>
+      <c r="AV2" s="246"/>
+      <c r="AW2" s="246"/>
+      <c r="AX2" s="245" t="s">
         <v>383</v>
       </c>
-      <c r="AY2" s="240"/>
-      <c r="AZ2" s="240"/>
-      <c r="BA2" s="240"/>
-      <c r="BB2" s="239" t="s">
+      <c r="AY2" s="246"/>
+      <c r="AZ2" s="246"/>
+      <c r="BA2" s="246"/>
+      <c r="BB2" s="245" t="s">
         <v>384</v>
       </c>
-      <c r="BC2" s="240"/>
-      <c r="BD2" s="240"/>
-      <c r="BE2" s="240"/>
-      <c r="BF2" s="239" t="s">
+      <c r="BC2" s="246"/>
+      <c r="BD2" s="246"/>
+      <c r="BE2" s="246"/>
+      <c r="BF2" s="245" t="s">
         <v>385</v>
       </c>
-      <c r="BG2" s="240"/>
-      <c r="BH2" s="240"/>
-      <c r="BI2" s="240"/>
-      <c r="BJ2" s="239" t="s">
+      <c r="BG2" s="246"/>
+      <c r="BH2" s="246"/>
+      <c r="BI2" s="246"/>
+      <c r="BJ2" s="245" t="s">
         <v>400</v>
       </c>
-      <c r="BK2" s="240"/>
-      <c r="BL2" s="240"/>
-      <c r="BM2" s="240"/>
-      <c r="BN2" s="239" t="s">
+      <c r="BK2" s="246"/>
+      <c r="BL2" s="246"/>
+      <c r="BM2" s="246"/>
+      <c r="BN2" s="245" t="s">
         <v>401</v>
       </c>
-      <c r="BO2" s="240"/>
-      <c r="BP2" s="240"/>
-      <c r="BQ2" s="240"/>
-      <c r="BR2" s="239" t="s">
+      <c r="BO2" s="246"/>
+      <c r="BP2" s="246"/>
+      <c r="BQ2" s="246"/>
+      <c r="BR2" s="245" t="s">
         <v>402</v>
       </c>
-      <c r="BS2" s="240"/>
-      <c r="BT2" s="240"/>
-      <c r="BU2" s="240"/>
-      <c r="BV2" s="269"/>
-      <c r="BW2" s="270"/>
-      <c r="BX2" s="270"/>
-      <c r="BY2" s="270"/>
+      <c r="BS2" s="246"/>
+      <c r="BT2" s="246"/>
+      <c r="BU2" s="246"/>
+      <c r="BV2" s="267"/>
+      <c r="BW2" s="268"/>
+      <c r="BX2" s="268"/>
+      <c r="BY2" s="268"/>
     </row>
     <row r="3" spans="1:77" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>541</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="49" t="s">
         <v>542</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="E3" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="H3" s="49" t="s">
         <v>546</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="I3" s="11" t="s">
         <v>547</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="49" t="s">
         <v>549</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="L3" s="49" t="s">
         <v>550</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="M3" s="11" t="s">
         <v>551</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="49" t="s">
         <v>553</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="P3" s="49" t="s">
         <v>554</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="Q3" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="49" t="s">
         <v>557</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="T3" s="49" t="s">
         <v>558</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="U3" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="W3" s="49" t="s">
+      <c r="X3" s="49" t="s">
         <v>562</v>
       </c>
-      <c r="X3" s="49" t="s">
+      <c r="Y3" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AC3" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AD3" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="AE3" s="49" t="s">
+      <c r="AF3" s="49" t="s">
         <v>570</v>
       </c>
-      <c r="AF3" s="49" t="s">
+      <c r="AG3" s="11" t="s">
         <v>571</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="AI3" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AJ3" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="AL3" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="AI3" s="49" t="s">
-        <v>573</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>575</v>
-      </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AM3" s="49" t="s">
         <v>577</v>
       </c>
-      <c r="AM3" s="49" t="s">
+      <c r="AN3" s="49" t="s">
         <v>578</v>
       </c>
-      <c r="AN3" s="49" t="s">
+      <c r="AO3" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AQ3" s="49" t="s">
         <v>581</v>
       </c>
-      <c r="AQ3" s="49" t="s">
+      <c r="AR3" s="49" t="s">
         <v>582</v>
       </c>
-      <c r="AR3" s="49" t="s">
+      <c r="AS3" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AT3" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AU3" s="49" t="s">
         <v>585</v>
       </c>
-      <c r="AU3" s="49" t="s">
+      <c r="AV3" s="49" t="s">
         <v>586</v>
       </c>
-      <c r="AV3" s="49" t="s">
+      <c r="AW3" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AX3" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AY3" s="49" t="s">
         <v>589</v>
       </c>
-      <c r="AY3" s="49" t="s">
+      <c r="AZ3" s="49" t="s">
         <v>590</v>
       </c>
-      <c r="AZ3" s="49" t="s">
+      <c r="BA3" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BB3" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BC3" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="BC3" s="49" t="s">
+      <c r="BD3" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="BD3" s="49" t="s">
+      <c r="BE3" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="BE3" s="11" t="s">
+      <c r="BF3" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="BF3" s="10" t="s">
+      <c r="BG3" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="BG3" s="11" t="s">
+      <c r="BH3" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="BH3" s="11" t="s">
+      <c r="BI3" s="11" t="s">
         <v>599</v>
       </c>
-      <c r="BI3" s="11" t="s">
-        <v>600</v>
-      </c>
       <c r="BJ3" s="10" t="s">
+        <v>603</v>
+      </c>
+      <c r="BK3" s="49" t="s">
         <v>604</v>
       </c>
-      <c r="BK3" s="49" t="s">
+      <c r="BL3" s="49" t="s">
         <v>605</v>
       </c>
-      <c r="BL3" s="49" t="s">
+      <c r="BM3" s="11" t="s">
         <v>606</v>
       </c>
-      <c r="BM3" s="11" t="s">
+      <c r="BN3" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="BN3" s="10" t="s">
+      <c r="BO3" s="49" t="s">
         <v>608</v>
       </c>
-      <c r="BO3" s="49" t="s">
+      <c r="BP3" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="BQ3" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BR3" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="BQ3" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="BR3" s="10" t="s">
+      <c r="BS3" s="49" t="s">
         <v>612</v>
       </c>
-      <c r="BS3" s="49" t="s">
+      <c r="BT3" s="49" t="s">
         <v>613</v>
       </c>
-      <c r="BT3" s="49" t="s">
+      <c r="BU3" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BV3" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="BV3" s="10" t="s">
+      <c r="BW3" s="49" t="s">
         <v>616</v>
       </c>
-      <c r="BW3" s="49" t="s">
+      <c r="BX3" s="49" t="s">
         <v>617</v>
       </c>
-      <c r="BX3" s="49" t="s">
+      <c r="BY3" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="BY3" s="11" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="4" spans="1:77">
@@ -26001,14 +26008,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R2:U2"/>
     <mergeCell ref="BV1:BY2"/>
     <mergeCell ref="BR2:BU2"/>
     <mergeCell ref="B1:Q1"/>
@@ -26025,6 +26024,14 @@
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -26103,138 +26110,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15.75" customHeight="1">
-      <c r="A1" s="252" t="s">
-        <v>425</v>
-      </c>
-      <c r="B1" s="280" t="s">
+      <c r="A1" s="236" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" s="327" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="282"/>
-      <c r="G1" s="289" t="s">
+      <c r="C1" s="328"/>
+      <c r="D1" s="328"/>
+      <c r="E1" s="329"/>
+      <c r="G1" s="297" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="291"/>
-      <c r="N1" s="295" t="s">
+      <c r="H1" s="298"/>
+      <c r="I1" s="298"/>
+      <c r="J1" s="298"/>
+      <c r="K1" s="298"/>
+      <c r="L1" s="299"/>
+      <c r="N1" s="303" t="s">
         <v>319</v>
       </c>
-      <c r="O1" s="296"/>
-      <c r="P1" s="296"/>
-      <c r="Q1" s="296"/>
-      <c r="R1" s="296"/>
-      <c r="S1" s="296"/>
-      <c r="T1" s="296"/>
-      <c r="U1" s="296"/>
-      <c r="V1" s="296"/>
-      <c r="W1" s="296"/>
-      <c r="X1" s="297"/>
-      <c r="Z1" s="301" t="s">
+      <c r="O1" s="304"/>
+      <c r="P1" s="304"/>
+      <c r="Q1" s="304"/>
+      <c r="R1" s="304"/>
+      <c r="S1" s="304"/>
+      <c r="T1" s="304"/>
+      <c r="U1" s="304"/>
+      <c r="V1" s="304"/>
+      <c r="W1" s="304"/>
+      <c r="X1" s="305"/>
+      <c r="Z1" s="309" t="s">
         <v>322</v>
       </c>
-      <c r="AA1" s="302"/>
-      <c r="AB1" s="302"/>
-      <c r="AC1" s="302"/>
-      <c r="AD1" s="302"/>
-      <c r="AE1" s="303"/>
-      <c r="AG1" s="313" t="s">
-        <v>633</v>
-      </c>
-      <c r="AH1" s="314"/>
-      <c r="AI1" s="314"/>
-      <c r="AJ1" s="314"/>
-      <c r="AK1" s="314"/>
-      <c r="AL1" s="315"/>
-      <c r="AN1" s="307" t="s">
+      <c r="AA1" s="310"/>
+      <c r="AB1" s="310"/>
+      <c r="AC1" s="310"/>
+      <c r="AD1" s="310"/>
+      <c r="AE1" s="311"/>
+      <c r="AG1" s="321" t="s">
+        <v>632</v>
+      </c>
+      <c r="AH1" s="322"/>
+      <c r="AI1" s="322"/>
+      <c r="AJ1" s="322"/>
+      <c r="AK1" s="322"/>
+      <c r="AL1" s="323"/>
+      <c r="AN1" s="315" t="s">
         <v>389</v>
       </c>
-      <c r="AO1" s="308"/>
-      <c r="AP1" s="308"/>
-      <c r="AQ1" s="308"/>
-      <c r="AR1" s="308"/>
-      <c r="AS1" s="309"/>
-      <c r="AU1" s="324" t="s">
-        <v>644</v>
-      </c>
-      <c r="AV1" s="325"/>
-      <c r="AW1" s="325"/>
-      <c r="AX1" s="325"/>
-      <c r="AY1" s="325"/>
-      <c r="AZ1" s="325"/>
-      <c r="BA1" s="325"/>
-      <c r="BB1" s="325"/>
-      <c r="BC1" s="325"/>
-      <c r="BD1" s="325"/>
-      <c r="BE1" s="325"/>
-      <c r="BF1" s="325"/>
-      <c r="BG1" s="325"/>
-      <c r="BH1" s="325"/>
-      <c r="BI1" s="326"/>
+      <c r="AO1" s="316"/>
+      <c r="AP1" s="316"/>
+      <c r="AQ1" s="316"/>
+      <c r="AR1" s="316"/>
+      <c r="AS1" s="317"/>
+      <c r="AU1" s="288" t="s">
+        <v>643</v>
+      </c>
+      <c r="AV1" s="289"/>
+      <c r="AW1" s="289"/>
+      <c r="AX1" s="289"/>
+      <c r="AY1" s="289"/>
+      <c r="AZ1" s="289"/>
+      <c r="BA1" s="289"/>
+      <c r="BB1" s="289"/>
+      <c r="BC1" s="289"/>
+      <c r="BD1" s="289"/>
+      <c r="BE1" s="289"/>
+      <c r="BF1" s="289"/>
+      <c r="BG1" s="289"/>
+      <c r="BH1" s="289"/>
+      <c r="BI1" s="290"/>
     </row>
     <row r="2" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="252"/>
-      <c r="B2" s="283"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="285"/>
-      <c r="G2" s="292"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="294"/>
-      <c r="N2" s="298"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
-      <c r="Q2" s="299"/>
-      <c r="R2" s="299"/>
-      <c r="S2" s="299"/>
-      <c r="T2" s="299"/>
-      <c r="U2" s="299"/>
-      <c r="V2" s="299"/>
-      <c r="W2" s="299"/>
-      <c r="X2" s="300"/>
-      <c r="Z2" s="304"/>
-      <c r="AA2" s="305"/>
-      <c r="AB2" s="305"/>
-      <c r="AC2" s="305"/>
-      <c r="AD2" s="305"/>
-      <c r="AE2" s="306"/>
-      <c r="AG2" s="316"/>
-      <c r="AH2" s="317"/>
-      <c r="AI2" s="317"/>
-      <c r="AJ2" s="317"/>
-      <c r="AK2" s="317"/>
-      <c r="AL2" s="318"/>
-      <c r="AN2" s="310"/>
-      <c r="AO2" s="311"/>
-      <c r="AP2" s="311"/>
-      <c r="AQ2" s="311"/>
-      <c r="AR2" s="311"/>
-      <c r="AS2" s="312"/>
-      <c r="AU2" s="327"/>
-      <c r="AV2" s="328"/>
-      <c r="AW2" s="328"/>
-      <c r="AX2" s="328"/>
-      <c r="AY2" s="328"/>
-      <c r="AZ2" s="328"/>
-      <c r="BA2" s="328"/>
-      <c r="BB2" s="328"/>
-      <c r="BC2" s="328"/>
-      <c r="BD2" s="328"/>
-      <c r="BE2" s="328"/>
-      <c r="BF2" s="328"/>
-      <c r="BG2" s="328"/>
-      <c r="BH2" s="328"/>
-      <c r="BI2" s="329"/>
+      <c r="A2" s="236"/>
+      <c r="B2" s="330"/>
+      <c r="C2" s="331"/>
+      <c r="D2" s="331"/>
+      <c r="E2" s="332"/>
+      <c r="G2" s="300"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="302"/>
+      <c r="N2" s="306"/>
+      <c r="O2" s="307"/>
+      <c r="P2" s="307"/>
+      <c r="Q2" s="307"/>
+      <c r="R2" s="307"/>
+      <c r="S2" s="307"/>
+      <c r="T2" s="307"/>
+      <c r="U2" s="307"/>
+      <c r="V2" s="307"/>
+      <c r="W2" s="307"/>
+      <c r="X2" s="308"/>
+      <c r="Z2" s="312"/>
+      <c r="AA2" s="313"/>
+      <c r="AB2" s="313"/>
+      <c r="AC2" s="313"/>
+      <c r="AD2" s="313"/>
+      <c r="AE2" s="314"/>
+      <c r="AG2" s="324"/>
+      <c r="AH2" s="325"/>
+      <c r="AI2" s="325"/>
+      <c r="AJ2" s="325"/>
+      <c r="AK2" s="325"/>
+      <c r="AL2" s="326"/>
+      <c r="AN2" s="318"/>
+      <c r="AO2" s="319"/>
+      <c r="AP2" s="319"/>
+      <c r="AQ2" s="319"/>
+      <c r="AR2" s="319"/>
+      <c r="AS2" s="320"/>
+      <c r="AU2" s="291"/>
+      <c r="AV2" s="292"/>
+      <c r="AW2" s="292"/>
+      <c r="AX2" s="292"/>
+      <c r="AY2" s="292"/>
+      <c r="AZ2" s="292"/>
+      <c r="BA2" s="292"/>
+      <c r="BB2" s="292"/>
+      <c r="BC2" s="292"/>
+      <c r="BD2" s="292"/>
+      <c r="BE2" s="292"/>
+      <c r="BF2" s="292"/>
+      <c r="BG2" s="292"/>
+      <c r="BH2" s="292"/>
+      <c r="BI2" s="293"/>
     </row>
     <row r="3" spans="1:61" ht="15" thickBot="1">
       <c r="A3" s="91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B3" s="46" t="s">
         <v>324</v>
@@ -26243,142 +26250,142 @@
         <v>325</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E3" s="38" t="s">
         <v>326</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H3" s="46" t="s">
         <v>324</v>
       </c>
       <c r="I3" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K3" s="65" t="s">
         <v>369</v>
       </c>
       <c r="L3" s="66" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O3" t="s">
         <v>324</v>
       </c>
       <c r="P3" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q3" t="s">
         <v>515</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>516</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>517</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>518</v>
       </c>
-      <c r="T3" t="s">
-        <v>519</v>
-      </c>
       <c r="U3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="V3" s="43" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="W3" s="62" t="s">
         <v>369</v>
       </c>
       <c r="X3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="Z3" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AA3" t="s">
         <v>324</v>
       </c>
       <c r="AB3" s="31" t="s">
+        <v>520</v>
+      </c>
+      <c r="AC3" s="50" t="s">
         <v>521</v>
-      </c>
-      <c r="AC3" s="50" t="s">
-        <v>522</v>
       </c>
       <c r="AD3" s="50" t="s">
         <v>369</v>
       </c>
       <c r="AE3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AG3" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AH3" t="s">
         <v>324</v>
       </c>
       <c r="AI3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AJ3" s="50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AK3" t="s">
         <v>369</v>
       </c>
       <c r="AL3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AN3" s="31" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="AO3" t="s">
         <v>324</v>
       </c>
       <c r="AP3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AQ3" s="50" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AR3" t="s">
         <v>369</v>
       </c>
       <c r="AS3" t="s">
-        <v>448</v>
-      </c>
-      <c r="AU3" s="319" t="s">
-        <v>641</v>
-      </c>
-      <c r="AV3" s="321"/>
-      <c r="AW3" s="321"/>
-      <c r="AX3" s="321"/>
-      <c r="AY3" s="321"/>
-      <c r="AZ3" s="321"/>
-      <c r="BA3" s="320"/>
-      <c r="BC3" s="319" t="s">
-        <v>669</v>
-      </c>
-      <c r="BD3" s="320"/>
-      <c r="BF3" s="319" t="s">
-        <v>675</v>
-      </c>
-      <c r="BG3" s="321"/>
-      <c r="BH3" s="321"/>
-      <c r="BI3" s="320"/>
+        <v>447</v>
+      </c>
+      <c r="AU3" s="283" t="s">
+        <v>640</v>
+      </c>
+      <c r="AV3" s="285"/>
+      <c r="AW3" s="285"/>
+      <c r="AX3" s="285"/>
+      <c r="AY3" s="285"/>
+      <c r="AZ3" s="285"/>
+      <c r="BA3" s="284"/>
+      <c r="BC3" s="283" t="s">
+        <v>668</v>
+      </c>
+      <c r="BD3" s="284"/>
+      <c r="BF3" s="283" t="s">
+        <v>674</v>
+      </c>
+      <c r="BG3" s="285"/>
+      <c r="BH3" s="285"/>
+      <c r="BI3" s="284"/>
     </row>
     <row r="4" spans="1:61" ht="15" customHeight="1">
-      <c r="A4" s="362">
-        <v>1</v>
-      </c>
-      <c r="B4" s="286" t="s">
-        <v>715</v>
+      <c r="A4" s="280">
+        <v>1</v>
+      </c>
+      <c r="B4" s="277" t="s">
+        <v>714</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>2</v>
@@ -26394,7 +26401,7 @@
         <v>3</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I4" s="48">
         <f>SUM(coded_data!M:M) + SUM(coded_data!N:N) + SUM(coded_data!O:O)</f>
@@ -26413,10 +26420,10 @@
         <v>moderate</v>
       </c>
       <c r="N4" s="30" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P4">
         <f>COUNTIF(coded_data!AT:AT, 1)</f>
@@ -26458,7 +26465,7 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB4" s="31">
         <f>SUM(coded_data!BQ:BQ) + SUM(coded_data!BR:BR) + SUM(coded_data!BS:BS)</f>
@@ -26480,7 +26487,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AI4">
         <f>SUM(coded_data!EU:EU)</f>
@@ -26502,7 +26509,7 @@
         <v>1</v>
       </c>
       <c r="AO4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP4">
         <f>SUM(coded_data!EV:EV)</f>
@@ -26520,19 +26527,19 @@
         <f>IF(AQ4&lt;20%,"very low",IF(AQ4&lt;40%,"low",IF(AQ4&lt;60%,"moderate",IF(AQ4&lt;80%,"high","very high"))))</f>
         <v>high</v>
       </c>
-      <c r="AU4" s="332" t="s">
-        <v>637</v>
-      </c>
-      <c r="AV4" s="330" t="s">
+      <c r="AU4" s="296" t="s">
+        <v>636</v>
+      </c>
+      <c r="AV4" s="294" t="s">
+        <v>641</v>
+      </c>
+      <c r="AW4" s="294"/>
+      <c r="AX4" s="294"/>
+      <c r="AY4" s="294" t="s">
         <v>642</v>
       </c>
-      <c r="AW4" s="330"/>
-      <c r="AX4" s="330"/>
-      <c r="AY4" s="330" t="s">
-        <v>643</v>
-      </c>
-      <c r="AZ4" s="330"/>
-      <c r="BA4" s="331"/>
+      <c r="AZ4" s="294"/>
+      <c r="BA4" s="295"/>
       <c r="BC4" s="24" t="s">
         <v>286</v>
       </c>
@@ -26541,21 +26548,21 @@
         <v>2</v>
       </c>
       <c r="BF4" s="84" t="s">
+        <v>636</v>
+      </c>
+      <c r="BG4" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="BG4" s="23" t="s">
+      <c r="BH4" s="23" t="s">
         <v>638</v>
       </c>
-      <c r="BH4" s="23" t="s">
+      <c r="BI4" s="113" t="s">
         <v>639</v>
-      </c>
-      <c r="BI4" s="113" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="5" spans="1:61">
-      <c r="A5" s="364"/>
-      <c r="B5" s="288"/>
+      <c r="A5" s="281"/>
+      <c r="B5" s="278"/>
       <c r="C5" s="5" t="s">
         <v>327</v>
       </c>
@@ -26570,7 +26577,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I5" s="36">
         <f>SUM(coded_data!AB:AB)</f>
@@ -26589,10 +26596,10 @@
         <v>moderate</v>
       </c>
       <c r="N5" s="30" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="O5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="P5">
         <f>COUNTIF(coded_data!BB:BB, 1)</f>
@@ -26634,7 +26641,7 @@
         <v>2</v>
       </c>
       <c r="AA5" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB5" s="31">
         <f>SUM(coded_data!BT:BT) + SUM(coded_data!BU:BU) + SUM(coded_data!BV:BV)</f>
@@ -26656,7 +26663,7 @@
         <v>5</v>
       </c>
       <c r="AH5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AI5">
         <f>SUM(coded_data!EH:EH)</f>
@@ -26678,7 +26685,7 @@
         <v>3</v>
       </c>
       <c r="AO5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="AP5">
         <f>SUM(coded_data!EX:EX)</f>
@@ -26696,34 +26703,34 @@
         <f>IF(AQ5&lt;20%,"very low",IF(AQ5&lt;40%,"low",IF(AQ5&lt;60%,"moderate",IF(AQ5&lt;80%,"high","very high"))))</f>
         <v>moderate</v>
       </c>
-      <c r="AU5" s="332"/>
+      <c r="AU5" s="296"/>
       <c r="AV5" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="AW5" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="AX5" s="5" t="s">
-        <v>640</v>
-      </c>
       <c r="AY5" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="69" t="s">
         <v>639</v>
       </c>
-      <c r="BA5" s="69" t="s">
-        <v>640</v>
-      </c>
       <c r="BC5" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="BD5" s="69">
         <f>COUNTIF(raw_data!FL:FL, BC5)</f>
         <v>1</v>
       </c>
       <c r="BF5" s="85" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BG5" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF5)</f>
@@ -26739,8 +26746,8 @@
       </c>
     </row>
     <row r="6" spans="1:61">
-      <c r="A6" s="364"/>
-      <c r="B6" s="288"/>
+      <c r="A6" s="281"/>
+      <c r="B6" s="278"/>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
@@ -26755,7 +26762,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I6" s="48">
         <f>SUM(coded_data!K:K)</f>
@@ -26774,10 +26781,10 @@
         <v>moderate</v>
       </c>
       <c r="N6" s="30" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P6">
         <f>COUNTIF(coded_data!BC:BC, 1)</f>
@@ -26819,7 +26826,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AB6" s="31">
         <f>SUM(coded_data!DY:DY)</f>
@@ -26841,7 +26848,7 @@
         <v>11</v>
       </c>
       <c r="AH6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AI6">
         <f>SUM(coded_data!ES:ES)</f>
@@ -26863,7 +26870,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AP6">
         <f>SUM(coded_data!EW:EW)</f>
@@ -26932,8 +26939,8 @@
       </c>
     </row>
     <row r="7" spans="1:61">
-      <c r="A7" s="364"/>
-      <c r="B7" s="288"/>
+      <c r="A7" s="281"/>
+      <c r="B7" s="278"/>
       <c r="C7" s="5" t="s">
         <v>328</v>
       </c>
@@ -26948,7 +26955,7 @@
         <v>12</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I7" s="36">
         <f>SUM(coded_data!AE:AE)</f>
@@ -26967,10 +26974,10 @@
         <v>moderate</v>
       </c>
       <c r="N7" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="O7" t="s">
         <v>507</v>
-      </c>
-      <c r="O7" t="s">
-        <v>508</v>
       </c>
       <c r="P7">
         <f>COUNTIF(coded_data!BM:BM, 1)</f>
@@ -27012,7 +27019,7 @@
         <v>16</v>
       </c>
       <c r="AA7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AB7" s="31">
         <f>SUM(coded_data!DZ:DZ)</f>
@@ -27034,7 +27041,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AI7">
         <f>SUM(coded_data!EK:EK)</f>
@@ -27080,14 +27087,14 @@
         <v>3</v>
       </c>
       <c r="BC7" s="24" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="BD7" s="69">
         <f>COUNTIF(raw_data!FL:FL, BC7)</f>
         <v>0</v>
       </c>
       <c r="BF7" s="85" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="BG7" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF7)</f>
@@ -27103,8 +27110,8 @@
       </c>
     </row>
     <row r="8" spans="1:61" ht="15" thickBot="1">
-      <c r="A8" s="364"/>
-      <c r="B8" s="288"/>
+      <c r="A8" s="281"/>
+      <c r="B8" s="278"/>
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
@@ -27119,7 +27126,7 @@
         <v>13</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I8" s="36">
         <f>SUM(coded_data!AF:AF)</f>
@@ -27138,10 +27145,10 @@
         <v>low</v>
       </c>
       <c r="N8" s="30" t="s">
+        <v>504</v>
+      </c>
+      <c r="O8" t="s">
         <v>505</v>
-      </c>
-      <c r="O8" t="s">
-        <v>506</v>
       </c>
       <c r="P8">
         <f>COUNTIF(coded_data!BL:BL, 1)</f>
@@ -27183,7 +27190,7 @@
         <v>11</v>
       </c>
       <c r="AA8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AB8" s="31">
         <f>SUM(coded_data!DB:DB) + SUM(coded_data!DC:DC) + SUM(coded_data!DD:DD) + SUM(coded_data!DE:DE) + SUM(coded_data!DF:DF)</f>
@@ -27205,7 +27212,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AI8">
         <f>SUM(coded_data!ET:ET)</f>
@@ -27258,7 +27265,7 @@
         <v>1</v>
       </c>
       <c r="BF8" s="85" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="BG8" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF8)</f>
@@ -27274,8 +27281,8 @@
       </c>
     </row>
     <row r="9" spans="1:61" ht="15" thickBot="1">
-      <c r="A9" s="364"/>
-      <c r="B9" s="288"/>
+      <c r="A9" s="281"/>
+      <c r="B9" s="278"/>
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
@@ -27290,7 +27297,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="44" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I9" s="36">
         <f>SUM(coded_data!AD:AD)</f>
@@ -27309,10 +27316,10 @@
         <v>low</v>
       </c>
       <c r="N9" s="30" t="s">
+        <v>494</v>
+      </c>
+      <c r="O9" t="s">
         <v>495</v>
-      </c>
-      <c r="O9" t="s">
-        <v>496</v>
       </c>
       <c r="P9">
         <f>COUNTIF(coded_data!BG:BG, 1)</f>
@@ -27354,7 +27361,7 @@
         <v>8</v>
       </c>
       <c r="AA9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AB9" s="31">
         <f>SUM(coded_data!CV:CV) + SUM(coded_data!CW:CW) + SUM(coded_data!CX:CX) + SUM(coded_data!CY:CY)</f>
@@ -27376,7 +27383,7 @@
         <v>8</v>
       </c>
       <c r="AH9" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AI9">
         <f>SUM(coded_data!EL:EL) + SUM(coded_data!EM:EM) + SUM(coded_data!EN:EN)</f>
@@ -27421,12 +27428,12 @@
         <f>COUNTIF(raw_data!FH:FH, AU9)</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="322" t="s">
-        <v>670</v>
-      </c>
-      <c r="BD9" s="323"/>
+      <c r="BC9" s="286" t="s">
+        <v>669</v>
+      </c>
+      <c r="BD9" s="287"/>
       <c r="BF9" s="85" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="BG9" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF9)</f>
@@ -27442,8 +27449,8 @@
       </c>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10" s="364"/>
-      <c r="B10" s="288"/>
+      <c r="A10" s="281"/>
+      <c r="B10" s="278"/>
       <c r="C10" s="5" t="s">
         <v>329</v>
       </c>
@@ -27458,7 +27465,7 @@
         <v>10</v>
       </c>
       <c r="H10" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I10" s="36">
         <f>SUM(coded_data!AC:AC)</f>
@@ -27477,10 +27484,10 @@
         <v>low</v>
       </c>
       <c r="N10" s="30" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="O10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="P10">
         <f>COUNTIF(coded_data!AW:AW, 1)</f>
@@ -27522,7 +27529,7 @@
         <v>6</v>
       </c>
       <c r="AA10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB10" s="31">
         <f>SUM(coded_data!CO:CO)</f>
@@ -27544,7 +27551,7 @@
         <v>1</v>
       </c>
       <c r="AH10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AI10">
         <f>SUM(coded_data!EB:EB)</f>
@@ -27613,8 +27620,8 @@
       </c>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11" s="363"/>
-      <c r="B11" s="287"/>
+      <c r="A11" s="282"/>
+      <c r="B11" s="279"/>
       <c r="C11" s="33" t="s">
         <v>330</v>
       </c>
@@ -27629,7 +27636,7 @@
         <v>7</v>
       </c>
       <c r="H11" s="44" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I11" s="36">
         <f>SUM(coded_data!X:X)</f>
@@ -27648,10 +27655,10 @@
         <v>low</v>
       </c>
       <c r="N11" s="30" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P11">
         <f>COUNTIF(coded_data!AS:AS, 1)</f>
@@ -27693,7 +27700,7 @@
         <v>13</v>
       </c>
       <c r="AA11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AB11" s="31">
         <f>SUM(coded_data!DM:DM) + SUM(coded_data!DN:DN) + SUM(coded_data!DO:DO) + SUM(coded_data!DP:DP) + SUM(coded_data!DQ:DQ) + SUM(coded_data!DR:DR)</f>
@@ -27715,7 +27722,7 @@
         <v>3</v>
       </c>
       <c r="AH11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AI11">
         <f>SUM(coded_data!EE:EE)</f>
@@ -27784,11 +27791,11 @@
       </c>
     </row>
     <row r="12" spans="1:61" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="362">
+      <c r="A12" s="280">
         <v>2</v>
       </c>
-      <c r="B12" s="286" t="s">
-        <v>716</v>
+      <c r="B12" s="277" t="s">
+        <v>715</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>6</v>
@@ -27804,7 +27811,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I12" s="48">
         <f>SUM(coded_data!P:P)</f>
@@ -27823,10 +27830,10 @@
         <v>low</v>
       </c>
       <c r="N12" s="30" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P12">
         <f>COUNTIF(coded_data!AU:AU, 1)</f>
@@ -27868,7 +27875,7 @@
         <v>14</v>
       </c>
       <c r="AA12" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AB12" s="31">
         <f>SUM(coded_data!DS:DS)+SUM(coded_data!DT:DT)+SUM(coded_data!DU:DU)+(SUM(coded_data!DV:DV)+SUM(coded_data!DW:DW)+SUM(coded_data!DX:DX))</f>
@@ -27890,7 +27897,7 @@
         <v>2</v>
       </c>
       <c r="AH12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AI12">
         <f>SUM(coded_data!EC:EC) + SUM(coded_data!ED:ED)</f>
@@ -27943,7 +27950,7 @@
         <v>2</v>
       </c>
       <c r="BF12" s="85" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="BG12" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF12)</f>
@@ -27959,8 +27966,8 @@
       </c>
     </row>
     <row r="13" spans="1:61" ht="15" thickBot="1">
-      <c r="A13" s="364"/>
-      <c r="B13" s="288"/>
+      <c r="A13" s="281"/>
+      <c r="B13" s="278"/>
       <c r="C13" s="5" t="s">
         <v>331</v>
       </c>
@@ -27975,7 +27982,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I13" s="36">
         <f>SUM(coded_data!AP:AP)</f>
@@ -27994,10 +28001,10 @@
         <v>low</v>
       </c>
       <c r="N13" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="O13" t="s">
         <v>497</v>
-      </c>
-      <c r="O13" t="s">
-        <v>498</v>
       </c>
       <c r="P13">
         <f>COUNTIF(coded_data!BH:BH, 1)</f>
@@ -28039,7 +28046,7 @@
         <v>10</v>
       </c>
       <c r="AA13" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AB13" s="31">
         <f>SUM(coded_data!DA:DA)</f>
@@ -28061,7 +28068,7 @@
         <v>4</v>
       </c>
       <c r="AH13" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AI13">
         <f>SUM(coded_data!EF:EF) + SUM(coded_data!EG:EG)</f>
@@ -28079,15 +28086,15 @@
         <f t="shared" si="7"/>
         <v>low</v>
       </c>
-      <c r="AU13" s="322" t="s">
-        <v>671</v>
-      </c>
-      <c r="AV13" s="240"/>
-      <c r="AW13" s="240"/>
-      <c r="AX13" s="240"/>
-      <c r="AY13" s="240"/>
-      <c r="AZ13" s="240"/>
-      <c r="BA13" s="241"/>
+      <c r="AU13" s="286" t="s">
+        <v>670</v>
+      </c>
+      <c r="AV13" s="246"/>
+      <c r="AW13" s="246"/>
+      <c r="AX13" s="246"/>
+      <c r="AY13" s="246"/>
+      <c r="AZ13" s="246"/>
+      <c r="BA13" s="247"/>
       <c r="BC13" s="24" t="s">
         <v>297</v>
       </c>
@@ -28112,8 +28119,8 @@
       </c>
     </row>
     <row r="14" spans="1:61" ht="15" thickBot="1">
-      <c r="A14" s="364"/>
-      <c r="B14" s="288"/>
+      <c r="A14" s="281"/>
+      <c r="B14" s="278"/>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
@@ -28128,7 +28135,7 @@
         <v>16</v>
       </c>
       <c r="H14" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I14" s="48">
         <f>SUM(coded_data!AN:AN)</f>
@@ -28147,10 +28154,10 @@
         <v>low</v>
       </c>
       <c r="N14" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="O14" t="s">
         <v>509</v>
-      </c>
-      <c r="O14" t="s">
-        <v>510</v>
       </c>
       <c r="P14">
         <f>COUNTIF(coded_data!BN:BN, 1)</f>
@@ -28192,7 +28199,7 @@
         <v>12</v>
       </c>
       <c r="AA14" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AB14" s="31">
         <f>SUM(coded_data!DG:DG) + SUM(coded_data!DH:DH) + SUM(coded_data!DI:DI) + SUM(coded_data!DJ:DJ) + SUM(coded_data!DK:DK) + SUM(coded_data!DL:DL)</f>
@@ -28214,7 +28221,7 @@
         <v>9</v>
       </c>
       <c r="AH14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AI14">
         <f>SUM(coded_data!EO:EO)</f>
@@ -28232,21 +28239,21 @@
         <f t="shared" si="7"/>
         <v>very low</v>
       </c>
-      <c r="AU14" s="332" t="s">
-        <v>645</v>
-      </c>
-      <c r="AV14" s="330" t="s">
+      <c r="AU14" s="296" t="s">
+        <v>644</v>
+      </c>
+      <c r="AV14" s="294" t="s">
+        <v>641</v>
+      </c>
+      <c r="AW14" s="294"/>
+      <c r="AX14" s="294"/>
+      <c r="AY14" s="294" t="s">
         <v>642</v>
       </c>
-      <c r="AW14" s="330"/>
-      <c r="AX14" s="330"/>
-      <c r="AY14" s="330" t="s">
-        <v>643</v>
-      </c>
-      <c r="AZ14" s="330"/>
-      <c r="BA14" s="331"/>
+      <c r="AZ14" s="294"/>
+      <c r="BA14" s="295"/>
       <c r="BC14" s="80" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BD14" s="69">
         <f>COUNTIF(raw_data!FQ:FQ, "yes")</f>
@@ -28269,8 +28276,8 @@
       </c>
     </row>
     <row r="15" spans="1:61" ht="15" thickBot="1">
-      <c r="A15" s="364"/>
-      <c r="B15" s="288"/>
+      <c r="A15" s="281"/>
+      <c r="B15" s="278"/>
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
@@ -28285,7 +28292,7 @@
         <v>15</v>
       </c>
       <c r="H15" s="44" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I15" s="36">
         <f>SUM(coded_data!AM:AM)</f>
@@ -28304,10 +28311,10 @@
         <v>low</v>
       </c>
       <c r="N15" s="30" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="P15">
         <f>COUNTIF(coded_data!BA:BA, 1)</f>
@@ -28349,7 +28356,7 @@
         <v>5</v>
       </c>
       <c r="AA15" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB15" s="31">
         <f>SUM(coded_data!CK:CK) + SUM(coded_data!CL:CL) + SUM(coded_data!CM:CM) + SUM(coded_data!CN:CN)</f>
@@ -28371,7 +28378,7 @@
         <v>10</v>
       </c>
       <c r="AH15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AI15">
         <f>SUM(coded_data!EP:EP) + SUM(coded_data!EQ:EQ) + SUM(coded_data!ER:ER)</f>
@@ -28389,24 +28396,24 @@
         <f t="shared" si="7"/>
         <v>very low</v>
       </c>
-      <c r="AU15" s="332"/>
+      <c r="AU15" s="296"/>
       <c r="AV15" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="AW15" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AW15" s="5" t="s">
+      <c r="AX15" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="AX15" s="5" t="s">
-        <v>640</v>
-      </c>
       <c r="AY15" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="AZ15" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AZ15" s="5" t="s">
+      <c r="BA15" s="69" t="s">
         <v>639</v>
-      </c>
-      <c r="BA15" s="69" t="s">
-        <v>640</v>
       </c>
       <c r="BC15" s="81" t="s">
         <v>41</v>
@@ -28421,8 +28428,8 @@
       <c r="BH15" s="3"/>
     </row>
     <row r="16" spans="1:61">
-      <c r="A16" s="363"/>
-      <c r="B16" s="288"/>
+      <c r="A16" s="282"/>
+      <c r="B16" s="278"/>
       <c r="C16" s="86" t="s">
         <v>332</v>
       </c>
@@ -28437,7 +28444,7 @@
         <v>5</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I16" s="36">
         <f>SUM(coded_data!Q:Q)</f>
@@ -28456,10 +28463,10 @@
         <v>low</v>
       </c>
       <c r="N16" s="30" t="s">
+        <v>502</v>
+      </c>
+      <c r="O16" t="s">
         <v>503</v>
-      </c>
-      <c r="O16" t="s">
-        <v>504</v>
       </c>
       <c r="P16">
         <f>COUNTIF(coded_data!BK:BK, 1)</f>
@@ -28501,7 +28508,7 @@
         <v>3</v>
       </c>
       <c r="AA16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB16" s="31">
         <f>SUM(coded_data!BW:BW) + SUM(coded_data!BX:BX) + SUM(coded_data!BY:BY) + SUM(coded_data!BZ:BZ) + SUM(coded_data!CA:CA) + SUM(coded_data!CB:CB) +SUM(coded_data!CC:CC) + SUM(coded_data!CD:CD)</f>
@@ -28523,7 +28530,7 @@
         <v>6</v>
       </c>
       <c r="AH16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AI16">
         <f>SUM(coded_data!EI:EI) + SUM(coded_data!EJ:EJ)</f>
@@ -28570,14 +28577,14 @@
       </c>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="362">
+      <c r="A17" s="280">
         <v>3</v>
       </c>
-      <c r="B17" s="286" t="s">
-        <v>717</v>
+      <c r="B17" s="277" t="s">
+        <v>716</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="35">
@@ -28588,7 +28595,7 @@
         <v>2</v>
       </c>
       <c r="H17" s="44" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="I17" s="48">
         <f>SUM(coded_data!L:L)</f>
@@ -28607,10 +28614,10 @@
         <v>low</v>
       </c>
       <c r="N17" s="30" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="O17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="P17">
         <f>COUNTIF(coded_data!AV:AV, 1)</f>
@@ -28652,7 +28659,7 @@
         <v>4</v>
       </c>
       <c r="AA17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB17" s="31">
         <f>SUM(coded_data!CE:CE) + SUM(coded_data!CF:CF) + SUM(coded_data!CG:CG) + SUM(coded_data!CH:CH) + SUM(coded_data!CI:CI) + SUM(coded_data!CJ:CJ)</f>
@@ -28699,10 +28706,10 @@
       </c>
     </row>
     <row r="18" spans="1:53" ht="15" customHeight="1">
-      <c r="A18" s="364"/>
-      <c r="B18" s="288"/>
+      <c r="A18" s="281"/>
+      <c r="B18" s="278"/>
       <c r="C18" s="89" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D18" s="182"/>
       <c r="E18" s="1">
@@ -28713,7 +28720,7 @@
         <v>8</v>
       </c>
       <c r="H18" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I18" s="36">
         <f>SUM(coded_data!Y:Y) + SUM(coded_data!Z:Z) + SUM(coded_data!AA:AA)</f>
@@ -28732,10 +28739,10 @@
         <v>low</v>
       </c>
       <c r="N18" s="30" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O18" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P18">
         <f>COUNTIF(coded_data!AY:AY, 1)</f>
@@ -28777,7 +28784,7 @@
         <v>9</v>
       </c>
       <c r="AA18" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AB18" s="31">
         <f>SUM(coded_data!CZ:CZ)</f>
@@ -28824,10 +28831,10 @@
       </c>
     </row>
     <row r="19" spans="1:53" ht="15" thickBot="1">
-      <c r="A19" s="364"/>
-      <c r="B19" s="288"/>
+      <c r="A19" s="281"/>
+      <c r="B19" s="278"/>
       <c r="C19" s="89" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D19" s="182"/>
       <c r="E19" s="1">
@@ -28838,7 +28845,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I19" s="36">
         <f>SUM(coded_data!AO:AO)</f>
@@ -28857,10 +28864,10 @@
         <v>very low</v>
       </c>
       <c r="N19" s="30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="O19" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="P19">
         <f>COUNTIF(coded_data!BD:BD, 1)</f>
@@ -28902,7 +28909,7 @@
         <v>17</v>
       </c>
       <c r="AA19" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AB19" s="31">
         <f>SUM(coded_data!EA:EA)</f>
@@ -28949,10 +28956,10 @@
       </c>
     </row>
     <row r="20" spans="1:53">
-      <c r="A20" s="364"/>
-      <c r="B20" s="288"/>
+      <c r="A20" s="281"/>
+      <c r="B20" s="278"/>
       <c r="C20" s="89" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D20" s="182"/>
       <c r="E20" s="1">
@@ -28963,7 +28970,7 @@
         <v>6</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I20" s="36">
         <f>SUM(coded_data!R:R) + SUM(coded_data!S:S) + SUM(coded_data!T:T) + SUM(coded_data!U:U) + SUM(coded_data!V:V) + SUM(coded_data!W:W)</f>
@@ -28982,10 +28989,10 @@
         <v>very low</v>
       </c>
       <c r="N20" s="30" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P20">
         <f>COUNTIF(coded_data!AZ:AZ, 1)</f>
@@ -29027,7 +29034,7 @@
         <v>7</v>
       </c>
       <c r="AA20" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AB20" s="31">
         <f>SUM(coded_data!CP:CP) + SUM(coded_data!CQ:CQ) + (coded_data!CR:CR) + (coded_data!CS:CS) + (coded_data!CT:CT) + (coded_data!CU:CU)</f>
@@ -29047,10 +29054,10 @@
       </c>
     </row>
     <row r="21" spans="1:53" ht="16" customHeight="1">
-      <c r="A21" s="363"/>
-      <c r="B21" s="287"/>
-      <c r="C21" s="361" t="s">
-        <v>725</v>
+      <c r="A21" s="282"/>
+      <c r="B21" s="279"/>
+      <c r="C21" s="183" t="s">
+        <v>724</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="38">
@@ -29061,7 +29068,7 @@
         <v>14</v>
       </c>
       <c r="H21" s="46" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I21" s="42">
         <f>SUM(coded_data!AG:AG) + SUM(coded_data!AH:AH) + SUM(coded_data!AI:AI) + SUM(coded_data!AJ:AJ) + SUM(coded_data!AK:AK) + SUM(coded_data!AL:AL)</f>
@@ -29080,10 +29087,10 @@
         <v>very low</v>
       </c>
       <c r="N21" s="30" t="s">
+        <v>492</v>
+      </c>
+      <c r="O21" t="s">
         <v>493</v>
-      </c>
-      <c r="O21" t="s">
-        <v>494</v>
       </c>
       <c r="P21">
         <f>COUNTIF(coded_data!BF:BF, 1)</f>
@@ -29123,11 +29130,11 @@
       </c>
     </row>
     <row r="22" spans="1:53" ht="15.5" customHeight="1">
-      <c r="A22" s="362">
+      <c r="A22" s="280">
         <v>4</v>
       </c>
-      <c r="B22" s="286" t="s">
-        <v>726</v>
+      <c r="B22" s="277" t="s">
+        <v>725</v>
       </c>
       <c r="C22" s="86" t="s">
         <v>12</v>
@@ -29140,10 +29147,10 @@
         <v>1</v>
       </c>
       <c r="N22" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="O22" t="s">
         <v>499</v>
-      </c>
-      <c r="O22" t="s">
-        <v>500</v>
       </c>
       <c r="P22">
         <f>COUNTIF(coded_data!BI:BI, 1)</f>
@@ -29183,8 +29190,8 @@
       </c>
     </row>
     <row r="23" spans="1:53" ht="15" customHeight="1">
-      <c r="A23" s="364"/>
-      <c r="B23" s="288"/>
+      <c r="A23" s="281"/>
+      <c r="B23" s="278"/>
       <c r="C23" s="5" t="s">
         <v>333</v>
       </c>
@@ -29199,7 +29206,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P23">
         <f>COUNTIF(coded_data!AQ:AQ, 1)</f>
@@ -29239,8 +29246,8 @@
       </c>
     </row>
     <row r="24" spans="1:53">
-      <c r="A24" s="364"/>
-      <c r="B24" s="288"/>
+      <c r="A24" s="281"/>
+      <c r="B24" s="278"/>
       <c r="C24" s="5" t="s">
         <v>334</v>
       </c>
@@ -29252,10 +29259,10 @@
         <v>3</v>
       </c>
       <c r="N24" s="30" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="O24" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P24">
         <f>COUNTIF(coded_data!AX:AX, 1)</f>
@@ -29295,8 +29302,8 @@
       </c>
     </row>
     <row r="25" spans="1:53">
-      <c r="A25" s="364"/>
-      <c r="B25" s="288"/>
+      <c r="A25" s="281"/>
+      <c r="B25" s="278"/>
       <c r="C25" s="5" t="s">
         <v>335</v>
       </c>
@@ -29311,7 +29318,7 @@
         <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P25">
         <f>COUNTIF(coded_data!AR:AR, 1)</f>
@@ -29351,8 +29358,8 @@
       </c>
     </row>
     <row r="26" spans="1:53" ht="14.5" customHeight="1">
-      <c r="A26" s="363"/>
-      <c r="B26" s="287"/>
+      <c r="A26" s="282"/>
+      <c r="B26" s="279"/>
       <c r="C26" s="33" t="s">
         <v>336</v>
       </c>
@@ -29364,10 +29371,10 @@
         <v>2</v>
       </c>
       <c r="N26" s="30" t="s">
+        <v>500</v>
+      </c>
+      <c r="O26" t="s">
         <v>501</v>
-      </c>
-      <c r="O26" t="s">
-        <v>502</v>
       </c>
       <c r="P26">
         <f>COUNTIF(coded_data!BJ:BJ, 1)</f>
@@ -29407,11 +29414,11 @@
       </c>
     </row>
     <row r="27" spans="1:53" ht="14" customHeight="1">
-      <c r="A27" s="362">
+      <c r="A27" s="280">
         <v>5</v>
       </c>
-      <c r="B27" s="286" t="s">
-        <v>727</v>
+      <c r="B27" s="277" t="s">
+        <v>726</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>17</v>
@@ -29424,10 +29431,10 @@
         <v>2</v>
       </c>
       <c r="N27" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="O27" t="s">
         <v>491</v>
-      </c>
-      <c r="O27" t="s">
-        <v>492</v>
       </c>
       <c r="P27">
         <f>COUNTIF(coded_data!BE:BE, 1)</f>
@@ -29467,8 +29474,8 @@
       </c>
     </row>
     <row r="28" spans="1:53">
-      <c r="A28" s="364"/>
-      <c r="B28" s="288"/>
+      <c r="A28" s="281"/>
+      <c r="B28" s="278"/>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
@@ -29480,10 +29487,10 @@
         <v>4</v>
       </c>
       <c r="N28" s="30" t="s">
+        <v>510</v>
+      </c>
+      <c r="O28" t="s">
         <v>511</v>
-      </c>
-      <c r="O28" t="s">
-        <v>512</v>
       </c>
       <c r="P28">
         <f>COUNTIF(coded_data!BO:BO, 1)</f>
@@ -29523,8 +29530,8 @@
       </c>
     </row>
     <row r="29" spans="1:53" ht="14.5" customHeight="1">
-      <c r="A29" s="363"/>
-      <c r="B29" s="287"/>
+      <c r="A29" s="282"/>
+      <c r="B29" s="279"/>
       <c r="C29" s="33" t="s">
         <v>18</v>
       </c>
@@ -29538,14 +29545,14 @@
       <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:53" ht="17" customHeight="1">
-      <c r="A30" s="362">
+      <c r="A30" s="280">
         <v>6</v>
       </c>
-      <c r="B30" s="286" t="s">
-        <v>718</v>
+      <c r="B30" s="277" t="s">
+        <v>717</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D30" s="34">
         <v>2</v>
@@ -29556,10 +29563,10 @@
       </c>
     </row>
     <row r="31" spans="1:53">
-      <c r="A31" s="364"/>
-      <c r="B31" s="288"/>
+      <c r="A31" s="281"/>
+      <c r="B31" s="278"/>
       <c r="C31" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D31" s="36">
         <v>1</v>
@@ -29570,10 +29577,10 @@
       </c>
     </row>
     <row r="32" spans="1:53">
-      <c r="A32" s="363"/>
-      <c r="B32" s="287"/>
+      <c r="A32" s="282"/>
+      <c r="B32" s="279"/>
       <c r="C32" s="40" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D32" s="37">
         <v>0</v>
@@ -29584,14 +29591,14 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" customHeight="1">
-      <c r="A33" s="362">
+      <c r="A33" s="280">
         <v>7</v>
       </c>
-      <c r="B33" s="286" t="s">
-        <v>719</v>
+      <c r="B33" s="277" t="s">
+        <v>718</v>
       </c>
       <c r="C33" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D33" s="34">
         <v>6</v>
@@ -29602,10 +29609,10 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="364"/>
-      <c r="B34" s="288"/>
+      <c r="A34" s="281"/>
+      <c r="B34" s="278"/>
       <c r="C34" s="39" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D34" s="36">
         <v>5</v>
@@ -29616,10 +29623,10 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="364"/>
-      <c r="B35" s="288"/>
+      <c r="A35" s="281"/>
+      <c r="B35" s="278"/>
       <c r="C35" s="39" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D35" s="36">
         <v>4</v>
@@ -29630,10 +29637,10 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="364"/>
-      <c r="B36" s="288"/>
+      <c r="A36" s="281"/>
+      <c r="B36" s="278"/>
       <c r="C36" s="39" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D36" s="36">
         <v>3</v>
@@ -29644,10 +29651,10 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="364"/>
-      <c r="B37" s="288"/>
+      <c r="A37" s="281"/>
+      <c r="B37" s="278"/>
       <c r="C37" s="39" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D37" s="36">
         <v>2</v>
@@ -29658,10 +29665,10 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="364"/>
-      <c r="B38" s="288"/>
+      <c r="A38" s="281"/>
+      <c r="B38" s="278"/>
       <c r="C38" s="39" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D38" s="36">
         <v>1</v>
@@ -29672,10 +29679,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="363"/>
-      <c r="B39" s="287"/>
+      <c r="A39" s="282"/>
+      <c r="B39" s="279"/>
       <c r="C39" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D39" s="37">
         <v>0</v>
@@ -29686,14 +29693,14 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="362">
+      <c r="A40" s="280">
         <v>8</v>
       </c>
-      <c r="B40" s="286" t="s">
-        <v>720</v>
+      <c r="B40" s="277" t="s">
+        <v>719</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D40" s="34">
         <v>0</v>
@@ -29704,10 +29711,10 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="364"/>
-      <c r="B41" s="288"/>
+      <c r="A41" s="281"/>
+      <c r="B41" s="278"/>
       <c r="C41" s="39" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D41" s="36">
         <v>1</v>
@@ -29718,10 +29725,10 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="363"/>
-      <c r="B42" s="287"/>
+      <c r="A42" s="282"/>
+      <c r="B42" s="279"/>
       <c r="C42" s="40" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D42" s="37">
         <v>2</v>
@@ -29732,14 +29739,14 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1">
-      <c r="A43" s="362">
+      <c r="A43" s="280">
         <v>9</v>
       </c>
-      <c r="B43" s="286" t="s">
-        <v>721</v>
+      <c r="B43" s="277" t="s">
+        <v>720</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D43" s="34">
         <v>1</v>
@@ -29750,10 +29757,10 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="363"/>
-      <c r="B44" s="287"/>
+      <c r="A44" s="282"/>
+      <c r="B44" s="279"/>
       <c r="C44" s="40" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D44" s="37">
         <v>0</v>
@@ -29765,6 +29772,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="AN1:AS2"/>
+    <mergeCell ref="AG1:AL2"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="BC3:BD3"/>
+    <mergeCell ref="BF3:BI3"/>
+    <mergeCell ref="BC9:BD9"/>
+    <mergeCell ref="AU1:BI2"/>
+    <mergeCell ref="AV14:AX14"/>
+    <mergeCell ref="AY14:BA14"/>
+    <mergeCell ref="AU3:BA3"/>
+    <mergeCell ref="AV4:AX4"/>
+    <mergeCell ref="AY4:BA4"/>
+    <mergeCell ref="AU13:BA13"/>
+    <mergeCell ref="AU4:AU5"/>
+    <mergeCell ref="AU14:AU15"/>
+    <mergeCell ref="G1:L2"/>
+    <mergeCell ref="N1:X2"/>
+    <mergeCell ref="Z1:AE2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="B43:B44"/>
@@ -29781,27 +29809,6 @@
     <mergeCell ref="B22:B26"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="BC3:BD3"/>
-    <mergeCell ref="BF3:BI3"/>
-    <mergeCell ref="BC9:BD9"/>
-    <mergeCell ref="AU1:BI2"/>
-    <mergeCell ref="AV14:AX14"/>
-    <mergeCell ref="AY14:BA14"/>
-    <mergeCell ref="AU3:BA3"/>
-    <mergeCell ref="AV4:AX4"/>
-    <mergeCell ref="AY4:BA4"/>
-    <mergeCell ref="AU13:BA13"/>
-    <mergeCell ref="AU4:AU5"/>
-    <mergeCell ref="AU14:AU15"/>
-    <mergeCell ref="G1:L2"/>
-    <mergeCell ref="N1:X2"/>
-    <mergeCell ref="Z1:AE2"/>
-    <mergeCell ref="AN1:AS2"/>
-    <mergeCell ref="AG1:AL2"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="dataBar" priority="63">
@@ -29846,82 +29853,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:T4">
-    <cfRule type="top10" dxfId="42" priority="60" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="106" priority="60" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5:T5">
-    <cfRule type="top10" dxfId="41" priority="59" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="105" priority="59" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:T6">
-    <cfRule type="top10" dxfId="40" priority="58" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="104" priority="58" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:T7">
-    <cfRule type="top10" dxfId="39" priority="57" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="103" priority="57" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P8:T8">
-    <cfRule type="top10" dxfId="38" priority="56" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="102" priority="56" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P9:T9">
-    <cfRule type="top10" dxfId="37" priority="55" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="101" priority="55" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P10:T10">
-    <cfRule type="top10" dxfId="36" priority="54" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="100" priority="54" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:T11">
-    <cfRule type="top10" dxfId="35" priority="53" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="99" priority="53" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P12:T12">
-    <cfRule type="top10" dxfId="34" priority="52" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="98" priority="52" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P13:T13">
-    <cfRule type="top10" dxfId="33" priority="51" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="97" priority="51" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:T14">
-    <cfRule type="top10" dxfId="32" priority="50" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="96" priority="50" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P15:T15">
-    <cfRule type="top10" dxfId="31" priority="49" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="95" priority="49" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P16:T16">
-    <cfRule type="top10" dxfId="30" priority="48" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="94" priority="48" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P17:T17">
-    <cfRule type="top10" dxfId="29" priority="47" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="93" priority="47" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:T18">
-    <cfRule type="top10" dxfId="28" priority="46" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="92" priority="46" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P19:T19">
-    <cfRule type="top10" dxfId="27" priority="45" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="91" priority="45" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P20:T20">
-    <cfRule type="top10" dxfId="26" priority="44" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="90" priority="44" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P21:T21">
-    <cfRule type="top10" dxfId="25" priority="43" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="89" priority="43" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:T22">
-    <cfRule type="top10" dxfId="24" priority="42" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="88" priority="42" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P23:T23">
-    <cfRule type="top10" dxfId="23" priority="41" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="87" priority="41" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:T24">
-    <cfRule type="top10" dxfId="22" priority="40" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="86" priority="40" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:T25">
-    <cfRule type="top10" dxfId="21" priority="39" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="85" priority="39" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P26:T26">
-    <cfRule type="top10" dxfId="20" priority="38" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="84" priority="38" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P27:T27">
-    <cfRule type="top10" dxfId="19" priority="37" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="83" priority="37" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P28:T28">
-    <cfRule type="top10" dxfId="18" priority="36" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="82" priority="36" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P29:T29">
-    <cfRule type="top10" dxfId="17" priority="35" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="81" priority="35" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:W28">
     <cfRule type="colorScale" priority="33">
@@ -30040,37 +30047,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV6:AV12 AW11:AX11">
-    <cfRule type="top10" dxfId="16" priority="21" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="80" priority="21" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW6:AW10 AW12">
-    <cfRule type="top10" dxfId="15" priority="20" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="79" priority="20" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX6:AX10 AX12">
-    <cfRule type="top10" dxfId="14" priority="19" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="78" priority="19" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY6:BA12">
-    <cfRule type="top10" dxfId="13" priority="18" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="77" priority="18" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV16:AX19">
-    <cfRule type="top10" dxfId="12" priority="17" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="76" priority="17" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW16:AW19">
-    <cfRule type="top10" dxfId="11" priority="16" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="75" priority="16" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:AX19">
-    <cfRule type="top10" dxfId="10" priority="15" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="74" priority="15" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY16:BA19">
-    <cfRule type="top10" dxfId="9" priority="14" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="73" priority="14" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY16:BA19">
-    <cfRule type="top10" dxfId="8" priority="13" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="72" priority="13" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY16:AY19">
-    <cfRule type="top10" dxfId="7" priority="12" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="71" priority="12" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA16:BA19">
-    <cfRule type="top10" dxfId="6" priority="11" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="70" priority="11" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD4:BD8">
     <cfRule type="dataBar" priority="10">
@@ -30101,16 +30108,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG5:BG14 BI14">
-    <cfRule type="top10" dxfId="5" priority="7" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="69" priority="7" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI5:BI13">
-    <cfRule type="top10" dxfId="4" priority="3" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="68" priority="3" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG5:BG14">
-    <cfRule type="top10" dxfId="3" priority="2" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="67" priority="2" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH5:BH14">
-    <cfRule type="top10" dxfId="2" priority="1" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="66" priority="1" percent="1" rank="10"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="A1:A2" location="Intro!A1" display="Intro!A1" xr:uid="{C0C2F9D2-DBBF-46E9-A496-997E40B630E1}"/>
@@ -30258,7 +30265,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="335" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1" s="338" t="str">
         <f>CONCATENATE("Score summaries at (n = ", COUNT(raw_data!A:A), ")")</f>
@@ -30293,7 +30300,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="336" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B3" s="337"/>
       <c r="C3" s="337"/>
@@ -30310,10 +30317,10 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="74" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>320</v>
@@ -30325,36 +30332,36 @@
         <v>370</v>
       </c>
       <c r="F4" s="101" t="s">
+        <v>709</v>
+      </c>
+      <c r="G4" s="101" t="s">
         <v>710</v>
       </c>
-      <c r="G4" s="101" t="s">
-        <v>711</v>
-      </c>
       <c r="H4" s="48" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K4" t="s">
         <v>369</v>
       </c>
       <c r="L4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C5" s="101">
         <f>MIN(processed_data!B:B)</f>
@@ -30403,10 +30410,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C6" s="101">
         <f>MIN(processed_data!J:J)</f>
@@ -30455,10 +30462,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C7" s="101">
         <f>MIN(processed_data!F:F)</f>
@@ -30507,10 +30514,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="31" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C8" s="101">
         <f>MIN(processed_data!N:N)</f>
@@ -30559,7 +30566,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="344" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B10" s="345"/>
       <c r="C10" s="345"/>
@@ -30576,10 +30583,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="74" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C11" s="178" t="s">
         <v>320</v>
@@ -30591,36 +30598,36 @@
         <v>370</v>
       </c>
       <c r="F11" s="178" t="s">
+        <v>709</v>
+      </c>
+      <c r="G11" s="178" t="s">
         <v>710</v>
       </c>
-      <c r="G11" s="178" t="s">
-        <v>711</v>
-      </c>
       <c r="H11" s="178" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J11" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K11" s="83" t="s">
         <v>369</v>
       </c>
       <c r="L11" s="83" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M11" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="91" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C12" s="178">
         <f>MIN(processed_data!Z:Z)</f>
@@ -30669,7 +30676,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="91" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B13" s="86" t="s">
         <v>378</v>
@@ -30721,7 +30728,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="91" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B14" s="86" t="s">
         <v>375</v>
@@ -30773,10 +30780,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="91" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C15" s="178">
         <f>MIN(processed_data!V:V)</f>
@@ -30842,10 +30849,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="75" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C18" s="178" t="s">
         <v>320</v>
@@ -30857,33 +30864,33 @@
         <v>370</v>
       </c>
       <c r="F18" s="178" t="s">
+        <v>709</v>
+      </c>
+      <c r="G18" s="178" t="s">
         <v>710</v>
       </c>
-      <c r="G18" s="178" t="s">
-        <v>711</v>
-      </c>
       <c r="H18" s="178" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J18" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K18" s="83" t="s">
         <v>369</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="91" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B19" s="86" t="s">
         <v>382</v>
@@ -30935,7 +30942,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="91" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B20" s="86" t="s">
         <v>384</v>
@@ -30987,10 +30994,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C21" s="178">
         <f>MIN(processed_data!AH:AH)</f>
@@ -31039,7 +31046,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="91" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B22" s="86" t="s">
         <v>383</v>
@@ -31091,7 +31098,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="91" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B23" s="86" t="s">
         <v>380</v>
@@ -31143,7 +31150,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="91" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B24" s="86" t="s">
         <v>399</v>
@@ -31195,7 +31202,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="91" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B25" s="86" t="s">
         <v>385</v>
@@ -31264,10 +31271,10 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="76" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B28" s="103" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C28" s="178" t="s">
         <v>320</v>
@@ -31279,36 +31286,36 @@
         <v>370</v>
       </c>
       <c r="F28" s="178" t="s">
+        <v>709</v>
+      </c>
+      <c r="G28" s="178" t="s">
         <v>710</v>
       </c>
-      <c r="G28" s="178" t="s">
-        <v>711</v>
-      </c>
       <c r="H28" s="178" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I28" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J28" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K28" s="83" t="s">
         <v>369</v>
       </c>
       <c r="L28" s="83" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M28" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="91" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B29" s="89" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C29" s="178">
         <f>MIN(processed_data!BN:BN)</f>
@@ -31357,7 +31364,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="91" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B30" s="89" t="s">
         <v>402</v>
@@ -31409,7 +31416,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="91" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B31" s="89" t="s">
         <v>400</v>
@@ -31461,7 +31468,7 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="333" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B33" s="334"/>
       <c r="C33" s="334"/>
@@ -31478,10 +31485,10 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="78" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C34" s="178" t="s">
         <v>320</v>
@@ -31493,36 +31500,36 @@
         <v>370</v>
       </c>
       <c r="F34" s="178" t="s">
+        <v>709</v>
+      </c>
+      <c r="G34" s="178" t="s">
         <v>710</v>
       </c>
-      <c r="G34" s="178" t="s">
-        <v>711</v>
-      </c>
       <c r="H34" s="178" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I34" s="79" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J34" s="69" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K34" s="83" t="s">
         <v>369</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="91" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C35" s="178">
         <f>MIN(processed_data!BV:BV)</f>
@@ -31862,10 +31869,10 @@
   <sheetData>
     <row r="1" spans="1:20" ht="14.5" customHeight="1">
       <c r="A1" s="353" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B1" s="355" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C1" s="356"/>
       <c r="D1" s="356"/>
@@ -31900,7 +31907,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="352" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1">
@@ -31923,10 +31930,10 @@
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="92" t="s">
+        <v>680</v>
+      </c>
+      <c r="B5" s="115" t="s">
         <v>681</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>682</v>
       </c>
       <c r="C5" s="116" t="s">
         <v>366</v>
@@ -31941,16 +31948,16 @@
         <v>375</v>
       </c>
       <c r="G5" s="118" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I5" s="117" t="s">
         <v>378</v>
       </c>
       <c r="J5" s="119" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K5" s="119" t="s">
         <v>380</v>
@@ -31974,13 +31981,13 @@
         <v>400</v>
       </c>
       <c r="R5" s="122" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S5" s="122" t="s">
         <v>402</v>
       </c>
       <c r="T5" s="123" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -32145,7 +32152,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="129" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B11" s="161">
         <f>PEARSON(processed_data!B:B, processed_data!A:A)</f>
@@ -32186,7 +32193,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="129" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B12" s="161">
         <f>PEARSON(processed_data!B:B, processed_data!Z:Z)</f>
@@ -32277,7 +32284,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="131" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B14" s="165">
         <f>PEARSON(processed_data!B:B, processed_data!AH:AH)</f>
@@ -32761,7 +32768,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="171" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B22" s="161">
         <f>PEARSON(processed_data!B:B, processed_data!BN:BN)</f>
@@ -32912,7 +32919,7 @@
     </row>
     <row r="24" spans="1:20" s="83" customFormat="1" ht="15" thickBot="1">
       <c r="A24" s="177" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B24" s="167">
         <f>PEARSON(processed_data!B:B, processed_data!BV:BV)</f>
@@ -32992,7 +32999,7 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="352" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" thickBot="1">
@@ -33000,10 +33007,10 @@
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="92" t="s">
+        <v>680</v>
+      </c>
+      <c r="B27" s="115" t="s">
         <v>681</v>
-      </c>
-      <c r="B27" s="115" t="s">
-        <v>682</v>
       </c>
       <c r="C27" s="116" t="s">
         <v>366</v>
@@ -33018,16 +33025,16 @@
         <v>375</v>
       </c>
       <c r="G27" s="118" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H27" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I27" s="117" t="s">
         <v>378</v>
       </c>
       <c r="J27" s="119" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K27" s="119" t="s">
         <v>380</v>
@@ -33051,13 +33058,13 @@
         <v>400</v>
       </c>
       <c r="R27" s="122" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S27" s="122" t="s">
         <v>402</v>
       </c>
       <c r="T27" s="123" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -33222,7 +33229,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="129" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B33" s="161">
         <f>(B11 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B11^2)</f>
@@ -33263,7 +33270,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="129" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B34" s="161">
         <f>(B12 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B12^2)</f>
@@ -33354,7 +33361,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="131" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B36" s="165">
         <f>(B14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B14^2)</f>
@@ -33838,7 +33845,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="171" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B44" s="161">
         <f>(B22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B22^2)</f>
@@ -33989,7 +33996,7 @@
     </row>
     <row r="46" spans="1:20" s="83" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="173" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B46" s="167">
         <f>(B24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B24^2)</f>
@@ -34069,26 +34076,26 @@
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="350" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B47" s="96"/>
       <c r="C47" s="91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" thickBot="1">
       <c r="A48" s="351"/>
       <c r="B48" s="97"/>
       <c r="C48" s="91" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" thickBot="1">
       <c r="A49" s="92" t="s">
+        <v>680</v>
+      </c>
+      <c r="B49" s="115" t="s">
         <v>681</v>
-      </c>
-      <c r="B49" s="115" t="s">
-        <v>682</v>
       </c>
       <c r="C49" s="116" t="s">
         <v>366</v>
@@ -34103,16 +34110,16 @@
         <v>375</v>
       </c>
       <c r="G49" s="118" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H49" s="117" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I49" s="117" t="s">
         <v>378</v>
       </c>
       <c r="J49" s="119" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K49" s="119" t="s">
         <v>380</v>
@@ -34136,13 +34143,13 @@
         <v>400</v>
       </c>
       <c r="R49" s="122" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="S49" s="122" t="s">
         <v>402</v>
       </c>
       <c r="T49" s="123" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -34307,7 +34314,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="129" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B55" s="140" t="e">
         <f>_xlfn.T.DIST.2T(B33, COUNT(raw_data!A:A) - 2)</f>
@@ -34348,7 +34355,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="129" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B56" s="140">
         <f>_xlfn.T.DIST.2T(B34, COUNT(raw_data!A:A) - 2)</f>
@@ -34439,7 +34446,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="131" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B58" s="144">
         <f>_xlfn.T.DIST.2T(B36, COUNT(raw_data!A:A) - 2)</f>
@@ -34923,7 +34930,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="135" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B66" s="140">
         <f>_xlfn.T.DIST.2T(B44, COUNT(raw_data!A:A) - 2)</f>
@@ -35074,7 +35081,7 @@
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1">
       <c r="A68" s="124" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B68" s="108" t="e">
         <f>_xlfn.T.DIST.2T(B46, COUNT(raw_data!A:A) - 2)</f>

--- a/AMR KAP+ Vendor 2.0.xlsx
+++ b/AMR KAP+ Vendor 2.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998761FD-5FF6-4A6D-A0B3-FEC04D9422FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33C4807-FABF-4594-9A75-E327A571D868}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18470" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18490" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="8" r:id="rId1"/>
@@ -1616,9 +1616,6 @@
     <t xml:space="preserve">% of correct </t>
   </si>
   <si>
-    <t>DATABASE ARCHITECTURE</t>
-  </si>
-  <si>
     <t>What are the three bestselling OTC drugs in your store?</t>
   </si>
   <si>
@@ -2235,6 +2232,9 @@
   </si>
   <si>
     <t>OneNote Link</t>
+  </si>
+  <si>
+    <t>HOW THE TOOL WORKS</t>
   </si>
 </sst>
 </file>
@@ -3516,54 +3516,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3610,6 +3562,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3662,38 +3620,65 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="16" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="30" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3702,24 +3687,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3752,8 +3719,50 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3791,6 +3800,63 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3799,15 +3865,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3905,58 +3962,13 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4041,18 +4053,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5221,23 +5221,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>35639</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>911192</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>48677</xdr:rowOff>
+      <xdr:colOff>429282</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>68140</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73CAB37-96DD-4773-87E7-D06A9F75896E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5253,8 +5253,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="3346710"/>
-          <a:ext cx="3956600" cy="2397528"/>
+          <a:off x="7886700" y="323850"/>
+          <a:ext cx="2867682" cy="2163640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7452,7 +7452,7 @@
   <dimension ref="A1:R24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="84" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:F14"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7476,14 +7476,14 @@
       <c r="I1" s="23"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="200" t="s">
-        <v>522</v>
-      </c>
-      <c r="M1" s="201"/>
-      <c r="N1" s="201"/>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="202"/>
+      <c r="L1" s="184" t="s">
+        <v>728</v>
+      </c>
+      <c r="M1" s="185"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="185"/>
+      <c r="P1" s="185"/>
+      <c r="Q1" s="186"/>
       <c r="R1" s="14"/>
     </row>
     <row r="2" spans="1:18">
@@ -7519,11 +7519,11 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="60"/>
-      <c r="M3" s="208"/>
-      <c r="N3" s="208"/>
-      <c r="O3" s="208"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="209"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="192"/>
+      <c r="O3" s="192"/>
+      <c r="P3" s="192"/>
+      <c r="Q3" s="193"/>
       <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18">
@@ -7539,11 +7539,11 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="60"/>
-      <c r="M4" s="208"/>
-      <c r="N4" s="208"/>
-      <c r="O4" s="208"/>
-      <c r="P4" s="208"/>
-      <c r="Q4" s="209"/>
+      <c r="M4" s="192"/>
+      <c r="N4" s="192"/>
+      <c r="O4" s="192"/>
+      <c r="P4" s="192"/>
+      <c r="Q4" s="193"/>
       <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" ht="15" thickBot="1">
@@ -7558,84 +7558,84 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="205"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206"/>
-      <c r="P5" s="206"/>
-      <c r="Q5" s="207"/>
+      <c r="L5" s="189"/>
+      <c r="M5" s="190"/>
+      <c r="N5" s="190"/>
+      <c r="O5" s="190"/>
+      <c r="P5" s="190"/>
+      <c r="Q5" s="191"/>
       <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="187" t="s">
+      <c r="A6" s="223" t="s">
         <v>415</v>
       </c>
-      <c r="B6" s="188"/>
-      <c r="C6" s="188"/>
-      <c r="D6" s="188"/>
-      <c r="E6" s="188"/>
-      <c r="F6" s="188"/>
-      <c r="G6" s="189" t="s">
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="225" t="s">
         <v>414</v>
       </c>
-      <c r="H6" s="190"/>
-      <c r="I6" s="190"/>
-      <c r="J6" s="190"/>
-      <c r="K6" s="191"/>
-      <c r="L6" s="205"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206"/>
-      <c r="P6" s="206"/>
-      <c r="Q6" s="207"/>
+      <c r="H6" s="226"/>
+      <c r="I6" s="226"/>
+      <c r="J6" s="226"/>
+      <c r="K6" s="227"/>
+      <c r="L6" s="189"/>
+      <c r="M6" s="190"/>
+      <c r="N6" s="190"/>
+      <c r="O6" s="190"/>
+      <c r="P6" s="190"/>
+      <c r="Q6" s="191"/>
       <c r="R6" s="14"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="B7" s="227" t="s">
+      <c r="B7" s="213" t="s">
         <v>423</v>
       </c>
-      <c r="C7" s="228"/>
-      <c r="D7" s="228"/>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="216" t="s">
+      <c r="C7" s="214"/>
+      <c r="D7" s="214"/>
+      <c r="E7" s="214"/>
+      <c r="F7" s="214"/>
+      <c r="G7" s="202" t="s">
         <v>412</v>
       </c>
-      <c r="H7" s="217"/>
-      <c r="I7" s="217"/>
-      <c r="J7" s="217"/>
-      <c r="K7" s="218"/>
-      <c r="L7" s="205"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="206"/>
-      <c r="Q7" s="207"/>
+      <c r="H7" s="203"/>
+      <c r="I7" s="203"/>
+      <c r="J7" s="203"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="190"/>
+      <c r="N7" s="190"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="190"/>
+      <c r="Q7" s="191"/>
       <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="B8" s="221" t="s">
+      <c r="B8" s="207" t="s">
         <v>423</v>
       </c>
-      <c r="C8" s="222"/>
-      <c r="D8" s="222"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
       <c r="G8" s="25" t="s">
         <v>410</v>
       </c>
-      <c r="H8" s="223" t="s">
+      <c r="H8" s="209" t="s">
         <v>419</v>
       </c>
-      <c r="I8" s="223"/>
-      <c r="J8" s="223"/>
-      <c r="K8" s="224"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="209"/>
+      <c r="K8" s="210"/>
       <c r="L8" s="54"/>
       <c r="M8" s="55"/>
       <c r="N8" s="55"/>
@@ -7653,22 +7653,22 @@
         <v>(n = 10)</v>
       </c>
       <c r="C9" s="179" t="s">
+        <v>710</v>
+      </c>
+      <c r="D9" s="180" t="s">
         <v>711</v>
-      </c>
-      <c r="D9" s="180" t="s">
-        <v>712</v>
       </c>
       <c r="E9" s="179"/>
       <c r="F9" s="179"/>
       <c r="G9" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="H9" s="219" t="s">
+      <c r="H9" s="205" t="s">
         <v>420</v>
       </c>
-      <c r="I9" s="219"/>
-      <c r="J9" s="219"/>
-      <c r="K9" s="220"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="206"/>
       <c r="L9" s="54"/>
       <c r="M9" s="55"/>
       <c r="N9" s="55"/>
@@ -7681,22 +7681,22 @@
       <c r="A10" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B10" s="221" t="s">
+      <c r="B10" s="207" t="s">
         <v>423</v>
       </c>
-      <c r="C10" s="222"/>
-      <c r="D10" s="222"/>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
+      <c r="C10" s="208"/>
+      <c r="D10" s="208"/>
+      <c r="E10" s="208"/>
+      <c r="F10" s="208"/>
       <c r="G10" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="H10" s="192" t="s">
-        <v>601</v>
-      </c>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="194"/>
+      <c r="H10" s="228" t="s">
+        <v>600</v>
+      </c>
+      <c r="I10" s="229"/>
+      <c r="J10" s="229"/>
+      <c r="K10" s="230"/>
       <c r="L10" s="54"/>
       <c r="M10" s="55"/>
       <c r="N10" s="55"/>
@@ -7709,22 +7709,22 @@
       <c r="A11" s="21" t="s">
         <v>406</v>
       </c>
-      <c r="B11" s="234" t="s">
+      <c r="B11" s="238" t="s">
         <v>423</v>
       </c>
-      <c r="C11" s="235"/>
-      <c r="D11" s="235"/>
-      <c r="E11" s="235"/>
-      <c r="F11" s="235"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="239"/>
+      <c r="E11" s="239"/>
+      <c r="F11" s="239"/>
       <c r="G11" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="H11" s="195" t="s">
+      <c r="H11" s="231" t="s">
         <v>409</v>
       </c>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="196"/>
+      <c r="I11" s="231"/>
+      <c r="J11" s="231"/>
+      <c r="K11" s="232"/>
       <c r="L11" s="54"/>
       <c r="M11" s="55"/>
       <c r="N11" s="55"/>
@@ -7734,23 +7734,23 @@
       <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="15" thickBot="1">
-      <c r="A12" s="229" t="s">
+      <c r="A12" s="215" t="s">
         <v>405</v>
       </c>
-      <c r="B12" s="230"/>
-      <c r="C12" s="230"/>
-      <c r="D12" s="230"/>
-      <c r="E12" s="230"/>
-      <c r="F12" s="230"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="216"/>
+      <c r="E12" s="216"/>
+      <c r="F12" s="216"/>
       <c r="G12" s="28" t="s">
         <v>426</v>
       </c>
-      <c r="H12" s="197" t="s">
-        <v>602</v>
-      </c>
-      <c r="I12" s="198"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="199"/>
+      <c r="H12" s="233" t="s">
+        <v>601</v>
+      </c>
+      <c r="I12" s="234"/>
+      <c r="J12" s="234"/>
+      <c r="K12" s="235"/>
       <c r="L12" s="54"/>
       <c r="M12" s="55"/>
       <c r="N12" s="55"/>
@@ -7760,25 +7760,25 @@
       <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="231" t="s">
+      <c r="A13" s="217" t="s">
         <v>428</v>
       </c>
-      <c r="B13" s="232"/>
-      <c r="C13" s="233"/>
-      <c r="D13" s="363" t="s">
-        <v>728</v>
-      </c>
-      <c r="E13" s="364"/>
-      <c r="F13" s="364"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="236" t="s">
+        <v>727</v>
+      </c>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
       <c r="G13" s="29" t="s">
         <v>418</v>
       </c>
-      <c r="H13" s="225" t="s">
+      <c r="H13" s="211" t="s">
         <v>421</v>
       </c>
-      <c r="I13" s="225"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="226"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="212"/>
       <c r="L13" s="54"/>
       <c r="M13" s="55"/>
       <c r="N13" s="55"/>
@@ -7788,25 +7788,25 @@
       <c r="R13" s="14"/>
     </row>
     <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="A14" s="213" t="s">
+      <c r="A14" s="197" t="s">
         <v>429</v>
       </c>
-      <c r="B14" s="214"/>
-      <c r="C14" s="215"/>
-      <c r="D14" s="361" t="s">
-        <v>727</v>
-      </c>
-      <c r="E14" s="362"/>
-      <c r="F14" s="362"/>
+      <c r="B14" s="198"/>
+      <c r="C14" s="199"/>
+      <c r="D14" s="200" t="s">
+        <v>726</v>
+      </c>
+      <c r="E14" s="201"/>
+      <c r="F14" s="201"/>
       <c r="G14" s="99" t="s">
         <v>427</v>
       </c>
-      <c r="H14" s="184" t="s">
-        <v>690</v>
-      </c>
-      <c r="I14" s="184"/>
-      <c r="J14" s="185"/>
-      <c r="K14" s="186"/>
+      <c r="H14" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="I14" s="220"/>
+      <c r="J14" s="221"/>
+      <c r="K14" s="222"/>
       <c r="L14" s="54"/>
       <c r="M14" s="55"/>
       <c r="N14" s="55"/>
@@ -7819,16 +7819,16 @@
       <c r="A15" s="100" t="s">
         <v>422</v>
       </c>
-      <c r="B15" s="210" t="s">
-        <v>713</v>
-      </c>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="212"/>
+      <c r="B15" s="194" t="s">
+        <v>712</v>
+      </c>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="196"/>
       <c r="J15" s="14"/>
       <c r="K15" s="14"/>
       <c r="L15" s="57"/>
@@ -7888,10 +7888,10 @@
     </row>
     <row r="22" spans="7:18">
       <c r="G22" s="16"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="204"/>
-      <c r="J22" s="204"/>
-      <c r="K22" s="204"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="188"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
     </row>
     <row r="23" spans="7:18">
       <c r="G23" s="17"/>
@@ -7909,6 +7909,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
     <mergeCell ref="L1:Q1"/>
     <mergeCell ref="H22:K22"/>
     <mergeCell ref="L5:Q7"/>
@@ -7925,15 +7934,6 @@
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G10" location="raw_data!A1" display="raw_data!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -7977,426 +7977,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="15" thickBot="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="253" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="254" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="243" t="s">
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="260" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="243"/>
-      <c r="AJ1" s="243"/>
-      <c r="AK1" s="243"/>
-      <c r="AL1" s="243"/>
-      <c r="AM1" s="243"/>
-      <c r="AN1" s="243"/>
-      <c r="AO1" s="243"/>
-      <c r="AP1" s="244"/>
-      <c r="AQ1" s="248" t="s">
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
+      <c r="X1" s="260"/>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="260"/>
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="260"/>
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="260"/>
+      <c r="AG1" s="260"/>
+      <c r="AH1" s="260"/>
+      <c r="AI1" s="260"/>
+      <c r="AJ1" s="260"/>
+      <c r="AK1" s="260"/>
+      <c r="AL1" s="260"/>
+      <c r="AM1" s="260"/>
+      <c r="AN1" s="260"/>
+      <c r="AO1" s="260"/>
+      <c r="AP1" s="261"/>
+      <c r="AQ1" s="262" t="s">
         <v>395</v>
       </c>
-      <c r="AR1" s="249"/>
-      <c r="AS1" s="249"/>
-      <c r="AT1" s="249"/>
-      <c r="AU1" s="249"/>
-      <c r="AV1" s="249"/>
-      <c r="AW1" s="249"/>
-      <c r="AX1" s="249"/>
-      <c r="AY1" s="249"/>
-      <c r="AZ1" s="249"/>
-      <c r="BA1" s="249"/>
-      <c r="BB1" s="249"/>
-      <c r="BC1" s="249"/>
-      <c r="BD1" s="249"/>
-      <c r="BE1" s="249"/>
-      <c r="BF1" s="249"/>
-      <c r="BG1" s="249"/>
-      <c r="BH1" s="249"/>
-      <c r="BI1" s="249"/>
-      <c r="BJ1" s="249"/>
-      <c r="BK1" s="249"/>
-      <c r="BL1" s="249"/>
-      <c r="BM1" s="249"/>
-      <c r="BN1" s="249"/>
-      <c r="BO1" s="249"/>
-      <c r="BP1" s="250"/>
-      <c r="BQ1" s="251" t="s">
+      <c r="AR1" s="263"/>
+      <c r="AS1" s="263"/>
+      <c r="AT1" s="263"/>
+      <c r="AU1" s="263"/>
+      <c r="AV1" s="263"/>
+      <c r="AW1" s="263"/>
+      <c r="AX1" s="263"/>
+      <c r="AY1" s="263"/>
+      <c r="AZ1" s="263"/>
+      <c r="BA1" s="263"/>
+      <c r="BB1" s="263"/>
+      <c r="BC1" s="263"/>
+      <c r="BD1" s="263"/>
+      <c r="BE1" s="263"/>
+      <c r="BF1" s="263"/>
+      <c r="BG1" s="263"/>
+      <c r="BH1" s="263"/>
+      <c r="BI1" s="263"/>
+      <c r="BJ1" s="263"/>
+      <c r="BK1" s="263"/>
+      <c r="BL1" s="263"/>
+      <c r="BM1" s="263"/>
+      <c r="BN1" s="263"/>
+      <c r="BO1" s="263"/>
+      <c r="BP1" s="264"/>
+      <c r="BQ1" s="265" t="s">
         <v>396</v>
       </c>
-      <c r="BR1" s="252"/>
-      <c r="BS1" s="252"/>
-      <c r="BT1" s="252"/>
-      <c r="BU1" s="252"/>
-      <c r="BV1" s="252"/>
-      <c r="BW1" s="252"/>
-      <c r="BX1" s="252"/>
-      <c r="BY1" s="252"/>
-      <c r="BZ1" s="252"/>
-      <c r="CA1" s="252"/>
-      <c r="CB1" s="252"/>
-      <c r="CC1" s="252"/>
-      <c r="CD1" s="252"/>
-      <c r="CE1" s="252"/>
-      <c r="CF1" s="252"/>
-      <c r="CG1" s="252"/>
-      <c r="CH1" s="252"/>
-      <c r="CI1" s="252"/>
-      <c r="CJ1" s="252"/>
-      <c r="CK1" s="252"/>
-      <c r="CL1" s="252"/>
-      <c r="CM1" s="252"/>
-      <c r="CN1" s="252"/>
-      <c r="CO1" s="252"/>
-      <c r="CP1" s="252"/>
-      <c r="CQ1" s="252"/>
-      <c r="CR1" s="252"/>
-      <c r="CS1" s="252"/>
-      <c r="CT1" s="252"/>
-      <c r="CU1" s="252"/>
-      <c r="CV1" s="252"/>
-      <c r="CW1" s="252"/>
-      <c r="CX1" s="252"/>
-      <c r="CY1" s="252"/>
-      <c r="CZ1" s="252"/>
-      <c r="DA1" s="252"/>
-      <c r="DB1" s="252"/>
-      <c r="DC1" s="252"/>
-      <c r="DD1" s="252"/>
-      <c r="DE1" s="252"/>
-      <c r="DF1" s="252"/>
-      <c r="DG1" s="252"/>
-      <c r="DH1" s="252"/>
-      <c r="DI1" s="252"/>
-      <c r="DJ1" s="252"/>
-      <c r="DK1" s="252"/>
-      <c r="DL1" s="252"/>
-      <c r="DM1" s="252"/>
-      <c r="DN1" s="252"/>
-      <c r="DO1" s="252"/>
-      <c r="DP1" s="252"/>
-      <c r="DQ1" s="252"/>
-      <c r="DR1" s="252"/>
-      <c r="DS1" s="252"/>
-      <c r="DT1" s="252"/>
-      <c r="DU1" s="252"/>
-      <c r="DV1" s="252"/>
-      <c r="DW1" s="252"/>
-      <c r="DX1" s="252"/>
-      <c r="DY1" s="252"/>
-      <c r="DZ1" s="252"/>
-      <c r="EA1" s="253"/>
-      <c r="EB1" s="254" t="s">
+      <c r="BR1" s="266"/>
+      <c r="BS1" s="266"/>
+      <c r="BT1" s="266"/>
+      <c r="BU1" s="266"/>
+      <c r="BV1" s="266"/>
+      <c r="BW1" s="266"/>
+      <c r="BX1" s="266"/>
+      <c r="BY1" s="266"/>
+      <c r="BZ1" s="266"/>
+      <c r="CA1" s="266"/>
+      <c r="CB1" s="266"/>
+      <c r="CC1" s="266"/>
+      <c r="CD1" s="266"/>
+      <c r="CE1" s="266"/>
+      <c r="CF1" s="266"/>
+      <c r="CG1" s="266"/>
+      <c r="CH1" s="266"/>
+      <c r="CI1" s="266"/>
+      <c r="CJ1" s="266"/>
+      <c r="CK1" s="266"/>
+      <c r="CL1" s="266"/>
+      <c r="CM1" s="266"/>
+      <c r="CN1" s="266"/>
+      <c r="CO1" s="266"/>
+      <c r="CP1" s="266"/>
+      <c r="CQ1" s="266"/>
+      <c r="CR1" s="266"/>
+      <c r="CS1" s="266"/>
+      <c r="CT1" s="266"/>
+      <c r="CU1" s="266"/>
+      <c r="CV1" s="266"/>
+      <c r="CW1" s="266"/>
+      <c r="CX1" s="266"/>
+      <c r="CY1" s="266"/>
+      <c r="CZ1" s="266"/>
+      <c r="DA1" s="266"/>
+      <c r="DB1" s="266"/>
+      <c r="DC1" s="266"/>
+      <c r="DD1" s="266"/>
+      <c r="DE1" s="266"/>
+      <c r="DF1" s="266"/>
+      <c r="DG1" s="266"/>
+      <c r="DH1" s="266"/>
+      <c r="DI1" s="266"/>
+      <c r="DJ1" s="266"/>
+      <c r="DK1" s="266"/>
+      <c r="DL1" s="266"/>
+      <c r="DM1" s="266"/>
+      <c r="DN1" s="266"/>
+      <c r="DO1" s="266"/>
+      <c r="DP1" s="266"/>
+      <c r="DQ1" s="266"/>
+      <c r="DR1" s="266"/>
+      <c r="DS1" s="266"/>
+      <c r="DT1" s="266"/>
+      <c r="DU1" s="266"/>
+      <c r="DV1" s="266"/>
+      <c r="DW1" s="266"/>
+      <c r="DX1" s="266"/>
+      <c r="DY1" s="266"/>
+      <c r="DZ1" s="266"/>
+      <c r="EA1" s="267"/>
+      <c r="EB1" s="243" t="s">
         <v>397</v>
       </c>
-      <c r="EC1" s="255"/>
-      <c r="ED1" s="255"/>
-      <c r="EE1" s="255"/>
-      <c r="EF1" s="255"/>
-      <c r="EG1" s="255"/>
-      <c r="EH1" s="255"/>
-      <c r="EI1" s="255"/>
-      <c r="EJ1" s="255"/>
-      <c r="EK1" s="255"/>
-      <c r="EL1" s="255"/>
-      <c r="EM1" s="255"/>
-      <c r="EN1" s="255"/>
-      <c r="EO1" s="255"/>
-      <c r="EP1" s="255"/>
-      <c r="EQ1" s="255"/>
-      <c r="ER1" s="255"/>
-      <c r="ES1" s="255"/>
-      <c r="ET1" s="255"/>
-      <c r="EU1" s="255"/>
-      <c r="EV1" s="256" t="s">
+      <c r="EC1" s="244"/>
+      <c r="ED1" s="244"/>
+      <c r="EE1" s="244"/>
+      <c r="EF1" s="244"/>
+      <c r="EG1" s="244"/>
+      <c r="EH1" s="244"/>
+      <c r="EI1" s="244"/>
+      <c r="EJ1" s="244"/>
+      <c r="EK1" s="244"/>
+      <c r="EL1" s="244"/>
+      <c r="EM1" s="244"/>
+      <c r="EN1" s="244"/>
+      <c r="EO1" s="244"/>
+      <c r="EP1" s="244"/>
+      <c r="EQ1" s="244"/>
+      <c r="ER1" s="244"/>
+      <c r="ES1" s="244"/>
+      <c r="ET1" s="244"/>
+      <c r="EU1" s="244"/>
+      <c r="EV1" s="245" t="s">
         <v>389</v>
       </c>
-      <c r="EW1" s="257"/>
-      <c r="EX1" s="257"/>
-      <c r="EY1" s="258"/>
-      <c r="EZ1" s="262" t="s">
+      <c r="EW1" s="246"/>
+      <c r="EX1" s="246"/>
+      <c r="EY1" s="247"/>
+      <c r="EZ1" s="251" t="s">
         <v>398</v>
       </c>
-      <c r="FA1" s="262"/>
-      <c r="FB1" s="262"/>
-      <c r="FC1" s="262"/>
-      <c r="FD1" s="262"/>
-      <c r="FE1" s="262"/>
-      <c r="FF1" s="262"/>
-      <c r="FG1" s="262"/>
-      <c r="FH1" s="262"/>
-      <c r="FI1" s="262"/>
-      <c r="FJ1" s="262"/>
-      <c r="FK1" s="262"/>
-      <c r="FL1" s="262"/>
-      <c r="FM1" s="262"/>
-      <c r="FN1" s="262"/>
-      <c r="FO1" s="262"/>
-      <c r="FP1" s="262"/>
-      <c r="FQ1" s="262"/>
-      <c r="FR1" s="262"/>
-      <c r="FS1" s="262"/>
-      <c r="FT1" s="262"/>
-      <c r="FU1" s="263"/>
+      <c r="FA1" s="251"/>
+      <c r="FB1" s="251"/>
+      <c r="FC1" s="251"/>
+      <c r="FD1" s="251"/>
+      <c r="FE1" s="251"/>
+      <c r="FF1" s="251"/>
+      <c r="FG1" s="251"/>
+      <c r="FH1" s="251"/>
+      <c r="FI1" s="251"/>
+      <c r="FJ1" s="251"/>
+      <c r="FK1" s="251"/>
+      <c r="FL1" s="251"/>
+      <c r="FM1" s="251"/>
+      <c r="FN1" s="251"/>
+      <c r="FO1" s="251"/>
+      <c r="FP1" s="251"/>
+      <c r="FQ1" s="251"/>
+      <c r="FR1" s="251"/>
+      <c r="FS1" s="251"/>
+      <c r="FT1" s="251"/>
+      <c r="FU1" s="252"/>
     </row>
     <row r="2" spans="1:177" ht="15" thickBot="1">
-      <c r="A2" s="236"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="246" t="s">
+      <c r="A2" s="253"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="241" t="s">
         <v>365</v>
       </c>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="245" t="s">
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="241"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="240" t="s">
         <v>366</v>
       </c>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="246"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="245" t="s">
+      <c r="Q2" s="241"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="241"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="240" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="246"/>
-      <c r="AB2" s="247"/>
-      <c r="AC2" s="245" t="s">
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="241"/>
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="240" t="s">
         <v>368</v>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="246"/>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="246"/>
-      <c r="AK2" s="246"/>
-      <c r="AL2" s="246"/>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="247"/>
+      <c r="AD2" s="241"/>
+      <c r="AE2" s="241"/>
+      <c r="AF2" s="241"/>
+      <c r="AG2" s="241"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="241"/>
+      <c r="AJ2" s="241"/>
+      <c r="AK2" s="241"/>
+      <c r="AL2" s="241"/>
+      <c r="AM2" s="241"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="242"/>
       <c r="AQ2" s="9" t="s">
         <v>375</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="AS2" s="245" t="s">
+      <c r="AS2" s="240" t="s">
         <v>377</v>
       </c>
-      <c r="AT2" s="246"/>
-      <c r="AU2" s="246"/>
-      <c r="AV2" s="246"/>
-      <c r="AW2" s="246"/>
-      <c r="AX2" s="246"/>
-      <c r="AY2" s="246"/>
-      <c r="AZ2" s="246"/>
-      <c r="BA2" s="246"/>
-      <c r="BB2" s="246"/>
-      <c r="BC2" s="246"/>
-      <c r="BD2" s="247"/>
-      <c r="BE2" s="245" t="s">
+      <c r="AT2" s="241"/>
+      <c r="AU2" s="241"/>
+      <c r="AV2" s="241"/>
+      <c r="AW2" s="241"/>
+      <c r="AX2" s="241"/>
+      <c r="AY2" s="241"/>
+      <c r="AZ2" s="241"/>
+      <c r="BA2" s="241"/>
+      <c r="BB2" s="241"/>
+      <c r="BC2" s="241"/>
+      <c r="BD2" s="242"/>
+      <c r="BE2" s="240" t="s">
         <v>378</v>
       </c>
-      <c r="BF2" s="246"/>
-      <c r="BG2" s="246"/>
-      <c r="BH2" s="246"/>
-      <c r="BI2" s="246"/>
-      <c r="BJ2" s="246"/>
-      <c r="BK2" s="246"/>
-      <c r="BL2" s="246"/>
-      <c r="BM2" s="246"/>
-      <c r="BN2" s="246"/>
-      <c r="BO2" s="246"/>
-      <c r="BP2" s="247"/>
-      <c r="BQ2" s="245" t="s">
+      <c r="BF2" s="241"/>
+      <c r="BG2" s="241"/>
+      <c r="BH2" s="241"/>
+      <c r="BI2" s="241"/>
+      <c r="BJ2" s="241"/>
+      <c r="BK2" s="241"/>
+      <c r="BL2" s="241"/>
+      <c r="BM2" s="241"/>
+      <c r="BN2" s="241"/>
+      <c r="BO2" s="241"/>
+      <c r="BP2" s="242"/>
+      <c r="BQ2" s="240" t="s">
         <v>379</v>
       </c>
-      <c r="BR2" s="246"/>
-      <c r="BS2" s="246"/>
-      <c r="BT2" s="246"/>
-      <c r="BU2" s="246"/>
-      <c r="BV2" s="246"/>
-      <c r="BW2" s="246"/>
-      <c r="BX2" s="246"/>
-      <c r="BY2" s="246"/>
-      <c r="BZ2" s="246"/>
-      <c r="CA2" s="246"/>
-      <c r="CB2" s="246"/>
-      <c r="CC2" s="246"/>
-      <c r="CD2" s="246"/>
-      <c r="CE2" s="246"/>
-      <c r="CF2" s="246"/>
-      <c r="CG2" s="246"/>
-      <c r="CH2" s="246"/>
-      <c r="CI2" s="246"/>
-      <c r="CJ2" s="247"/>
-      <c r="CK2" s="245" t="s">
+      <c r="BR2" s="241"/>
+      <c r="BS2" s="241"/>
+      <c r="BT2" s="241"/>
+      <c r="BU2" s="241"/>
+      <c r="BV2" s="241"/>
+      <c r="BW2" s="241"/>
+      <c r="BX2" s="241"/>
+      <c r="BY2" s="241"/>
+      <c r="BZ2" s="241"/>
+      <c r="CA2" s="241"/>
+      <c r="CB2" s="241"/>
+      <c r="CC2" s="241"/>
+      <c r="CD2" s="241"/>
+      <c r="CE2" s="241"/>
+      <c r="CF2" s="241"/>
+      <c r="CG2" s="241"/>
+      <c r="CH2" s="241"/>
+      <c r="CI2" s="241"/>
+      <c r="CJ2" s="242"/>
+      <c r="CK2" s="240" t="s">
         <v>380</v>
       </c>
-      <c r="CL2" s="246"/>
-      <c r="CM2" s="246"/>
-      <c r="CN2" s="247"/>
-      <c r="CO2" s="245" t="s">
+      <c r="CL2" s="241"/>
+      <c r="CM2" s="241"/>
+      <c r="CN2" s="242"/>
+      <c r="CO2" s="240" t="s">
         <v>381</v>
       </c>
-      <c r="CP2" s="246"/>
-      <c r="CQ2" s="246"/>
-      <c r="CR2" s="246"/>
-      <c r="CS2" s="246"/>
-      <c r="CT2" s="246"/>
-      <c r="CU2" s="246"/>
-      <c r="CV2" s="246"/>
-      <c r="CW2" s="246"/>
-      <c r="CX2" s="246"/>
-      <c r="CY2" s="246"/>
-      <c r="CZ2" s="247"/>
-      <c r="DA2" s="245" t="s">
+      <c r="CP2" s="241"/>
+      <c r="CQ2" s="241"/>
+      <c r="CR2" s="241"/>
+      <c r="CS2" s="241"/>
+      <c r="CT2" s="241"/>
+      <c r="CU2" s="241"/>
+      <c r="CV2" s="241"/>
+      <c r="CW2" s="241"/>
+      <c r="CX2" s="241"/>
+      <c r="CY2" s="241"/>
+      <c r="CZ2" s="242"/>
+      <c r="DA2" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="DB2" s="246"/>
-      <c r="DC2" s="246"/>
-      <c r="DD2" s="246"/>
-      <c r="DE2" s="246"/>
-      <c r="DF2" s="247"/>
-      <c r="DG2" s="245" t="s">
+      <c r="DB2" s="241"/>
+      <c r="DC2" s="241"/>
+      <c r="DD2" s="241"/>
+      <c r="DE2" s="241"/>
+      <c r="DF2" s="242"/>
+      <c r="DG2" s="240" t="s">
         <v>383</v>
       </c>
-      <c r="DH2" s="246"/>
-      <c r="DI2" s="246"/>
-      <c r="DJ2" s="246"/>
-      <c r="DK2" s="246"/>
-      <c r="DL2" s="246"/>
-      <c r="DM2" s="246"/>
-      <c r="DN2" s="246"/>
-      <c r="DO2" s="246"/>
-      <c r="DP2" s="246"/>
-      <c r="DQ2" s="246"/>
-      <c r="DR2" s="247"/>
-      <c r="DS2" s="245" t="s">
+      <c r="DH2" s="241"/>
+      <c r="DI2" s="241"/>
+      <c r="DJ2" s="241"/>
+      <c r="DK2" s="241"/>
+      <c r="DL2" s="241"/>
+      <c r="DM2" s="241"/>
+      <c r="DN2" s="241"/>
+      <c r="DO2" s="241"/>
+      <c r="DP2" s="241"/>
+      <c r="DQ2" s="241"/>
+      <c r="DR2" s="242"/>
+      <c r="DS2" s="240" t="s">
         <v>384</v>
       </c>
-      <c r="DT2" s="246"/>
-      <c r="DU2" s="246"/>
-      <c r="DV2" s="246"/>
-      <c r="DW2" s="246"/>
-      <c r="DX2" s="246"/>
-      <c r="DY2" s="246"/>
-      <c r="DZ2" s="247"/>
+      <c r="DT2" s="241"/>
+      <c r="DU2" s="241"/>
+      <c r="DV2" s="241"/>
+      <c r="DW2" s="241"/>
+      <c r="DX2" s="241"/>
+      <c r="DY2" s="241"/>
+      <c r="DZ2" s="242"/>
       <c r="EA2" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="EB2" s="245" t="s">
+      <c r="EB2" s="240" t="s">
         <v>387</v>
       </c>
-      <c r="EC2" s="246"/>
-      <c r="ED2" s="246"/>
-      <c r="EE2" s="246"/>
-      <c r="EF2" s="246"/>
-      <c r="EG2" s="247"/>
-      <c r="EH2" s="245" t="s">
+      <c r="EC2" s="241"/>
+      <c r="ED2" s="241"/>
+      <c r="EE2" s="241"/>
+      <c r="EF2" s="241"/>
+      <c r="EG2" s="242"/>
+      <c r="EH2" s="240" t="s">
         <v>386</v>
       </c>
-      <c r="EI2" s="246"/>
-      <c r="EJ2" s="246"/>
-      <c r="EK2" s="246"/>
-      <c r="EL2" s="246"/>
-      <c r="EM2" s="246"/>
-      <c r="EN2" s="246"/>
-      <c r="EO2" s="246"/>
-      <c r="EP2" s="246"/>
-      <c r="EQ2" s="246"/>
-      <c r="ER2" s="247"/>
-      <c r="ES2" s="245" t="s">
+      <c r="EI2" s="241"/>
+      <c r="EJ2" s="241"/>
+      <c r="EK2" s="241"/>
+      <c r="EL2" s="241"/>
+      <c r="EM2" s="241"/>
+      <c r="EN2" s="241"/>
+      <c r="EO2" s="241"/>
+      <c r="EP2" s="241"/>
+      <c r="EQ2" s="241"/>
+      <c r="ER2" s="242"/>
+      <c r="ES2" s="240" t="s">
         <v>388</v>
       </c>
-      <c r="ET2" s="246"/>
-      <c r="EU2" s="246"/>
-      <c r="EV2" s="259"/>
-      <c r="EW2" s="260"/>
-      <c r="EX2" s="260"/>
-      <c r="EY2" s="261"/>
-      <c r="EZ2" s="246" t="s">
+      <c r="ET2" s="241"/>
+      <c r="EU2" s="241"/>
+      <c r="EV2" s="248"/>
+      <c r="EW2" s="249"/>
+      <c r="EX2" s="249"/>
+      <c r="EY2" s="250"/>
+      <c r="EZ2" s="241" t="s">
         <v>390</v>
       </c>
-      <c r="FA2" s="246"/>
-      <c r="FB2" s="246"/>
-      <c r="FC2" s="246"/>
-      <c r="FD2" s="246"/>
-      <c r="FE2" s="247"/>
-      <c r="FF2" s="245" t="s">
-        <v>691</v>
-      </c>
-      <c r="FG2" s="246"/>
-      <c r="FH2" s="246"/>
-      <c r="FI2" s="246"/>
-      <c r="FJ2" s="246"/>
-      <c r="FK2" s="247"/>
+      <c r="FA2" s="241"/>
+      <c r="FB2" s="241"/>
+      <c r="FC2" s="241"/>
+      <c r="FD2" s="241"/>
+      <c r="FE2" s="242"/>
+      <c r="FF2" s="240" t="s">
+        <v>690</v>
+      </c>
+      <c r="FG2" s="241"/>
+      <c r="FH2" s="241"/>
+      <c r="FI2" s="241"/>
+      <c r="FJ2" s="241"/>
+      <c r="FK2" s="242"/>
       <c r="FL2" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="FM2" s="245" t="s">
+      <c r="FM2" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="FN2" s="246"/>
-      <c r="FO2" s="246"/>
-      <c r="FP2" s="246"/>
-      <c r="FQ2" s="246"/>
-      <c r="FR2" s="246"/>
-      <c r="FS2" s="246"/>
-      <c r="FT2" s="246"/>
-      <c r="FU2" s="247"/>
+      <c r="FN2" s="241"/>
+      <c r="FO2" s="241"/>
+      <c r="FP2" s="241"/>
+      <c r="FQ2" s="241"/>
+      <c r="FR2" s="241"/>
+      <c r="FS2" s="241"/>
+      <c r="FT2" s="241"/>
+      <c r="FU2" s="242"/>
     </row>
     <row r="3" spans="1:177">
       <c r="A3" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B3" t="s">
         <v>355</v>
@@ -9960,7 +9960,7 @@
         <v>301</v>
       </c>
       <c r="FL5" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="FM5" t="s">
         <v>34</v>
@@ -14263,16 +14263,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="BE2:BP2"/>
-    <mergeCell ref="EB1:EU1"/>
-    <mergeCell ref="EV1:EY2"/>
-    <mergeCell ref="EZ1:FU1"/>
-    <mergeCell ref="ES2:EU2"/>
-    <mergeCell ref="EZ2:FE2"/>
-    <mergeCell ref="FF2:FK2"/>
-    <mergeCell ref="FM2:FU2"/>
-    <mergeCell ref="EB2:EG2"/>
-    <mergeCell ref="EH2:ER2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:J2"/>
     <mergeCell ref="K1:AP1"/>
@@ -14289,6 +14279,16 @@
     <mergeCell ref="X2:AB2"/>
     <mergeCell ref="AC2:AP2"/>
     <mergeCell ref="AS2:BD2"/>
+    <mergeCell ref="BE2:BP2"/>
+    <mergeCell ref="EB1:EU1"/>
+    <mergeCell ref="EV1:EY2"/>
+    <mergeCell ref="EZ1:FU1"/>
+    <mergeCell ref="ES2:EU2"/>
+    <mergeCell ref="EZ2:FE2"/>
+    <mergeCell ref="FF2:FK2"/>
+    <mergeCell ref="FM2:FU2"/>
+    <mergeCell ref="EB2:EG2"/>
+    <mergeCell ref="EH2:ER2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
@@ -14318,426 +14318,426 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:185" ht="15" thickBot="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="253" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="237" t="s">
+      <c r="B1" s="254" t="s">
         <v>364</v>
       </c>
-      <c r="C1" s="238"/>
-      <c r="D1" s="238"/>
-      <c r="E1" s="238"/>
-      <c r="F1" s="238"/>
-      <c r="G1" s="238"/>
-      <c r="H1" s="238"/>
-      <c r="I1" s="238"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="243" t="s">
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="256"/>
+      <c r="K1" s="260" t="s">
         <v>394</v>
       </c>
-      <c r="L1" s="243"/>
-      <c r="M1" s="243"/>
-      <c r="N1" s="243"/>
-      <c r="O1" s="243"/>
-      <c r="P1" s="243"/>
-      <c r="Q1" s="243"/>
-      <c r="R1" s="243"/>
-      <c r="S1" s="243"/>
-      <c r="T1" s="243"/>
-      <c r="U1" s="243"/>
-      <c r="V1" s="243"/>
-      <c r="W1" s="243"/>
-      <c r="X1" s="243"/>
-      <c r="Y1" s="243"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="243"/>
-      <c r="AB1" s="243"/>
-      <c r="AC1" s="243"/>
-      <c r="AD1" s="243"/>
-      <c r="AE1" s="243"/>
-      <c r="AF1" s="243"/>
-      <c r="AG1" s="243"/>
-      <c r="AH1" s="243"/>
-      <c r="AI1" s="243"/>
-      <c r="AJ1" s="243"/>
-      <c r="AK1" s="243"/>
-      <c r="AL1" s="243"/>
-      <c r="AM1" s="243"/>
-      <c r="AN1" s="243"/>
-      <c r="AO1" s="243"/>
-      <c r="AP1" s="244"/>
-      <c r="AQ1" s="248" t="s">
+      <c r="L1" s="260"/>
+      <c r="M1" s="260"/>
+      <c r="N1" s="260"/>
+      <c r="O1" s="260"/>
+      <c r="P1" s="260"/>
+      <c r="Q1" s="260"/>
+      <c r="R1" s="260"/>
+      <c r="S1" s="260"/>
+      <c r="T1" s="260"/>
+      <c r="U1" s="260"/>
+      <c r="V1" s="260"/>
+      <c r="W1" s="260"/>
+      <c r="X1" s="260"/>
+      <c r="Y1" s="260"/>
+      <c r="Z1" s="260"/>
+      <c r="AA1" s="260"/>
+      <c r="AB1" s="260"/>
+      <c r="AC1" s="260"/>
+      <c r="AD1" s="260"/>
+      <c r="AE1" s="260"/>
+      <c r="AF1" s="260"/>
+      <c r="AG1" s="260"/>
+      <c r="AH1" s="260"/>
+      <c r="AI1" s="260"/>
+      <c r="AJ1" s="260"/>
+      <c r="AK1" s="260"/>
+      <c r="AL1" s="260"/>
+      <c r="AM1" s="260"/>
+      <c r="AN1" s="260"/>
+      <c r="AO1" s="260"/>
+      <c r="AP1" s="261"/>
+      <c r="AQ1" s="262" t="s">
         <v>395</v>
       </c>
-      <c r="AR1" s="249"/>
-      <c r="AS1" s="249"/>
-      <c r="AT1" s="249"/>
-      <c r="AU1" s="249"/>
-      <c r="AV1" s="249"/>
-      <c r="AW1" s="249"/>
-      <c r="AX1" s="249"/>
-      <c r="AY1" s="249"/>
-      <c r="AZ1" s="249"/>
-      <c r="BA1" s="249"/>
-      <c r="BB1" s="249"/>
-      <c r="BC1" s="249"/>
-      <c r="BD1" s="249"/>
-      <c r="BE1" s="249"/>
-      <c r="BF1" s="249"/>
-      <c r="BG1" s="249"/>
-      <c r="BH1" s="249"/>
-      <c r="BI1" s="249"/>
-      <c r="BJ1" s="249"/>
-      <c r="BK1" s="249"/>
-      <c r="BL1" s="249"/>
-      <c r="BM1" s="249"/>
-      <c r="BN1" s="249"/>
-      <c r="BO1" s="249"/>
-      <c r="BP1" s="250"/>
-      <c r="BQ1" s="251" t="s">
+      <c r="AR1" s="263"/>
+      <c r="AS1" s="263"/>
+      <c r="AT1" s="263"/>
+      <c r="AU1" s="263"/>
+      <c r="AV1" s="263"/>
+      <c r="AW1" s="263"/>
+      <c r="AX1" s="263"/>
+      <c r="AY1" s="263"/>
+      <c r="AZ1" s="263"/>
+      <c r="BA1" s="263"/>
+      <c r="BB1" s="263"/>
+      <c r="BC1" s="263"/>
+      <c r="BD1" s="263"/>
+      <c r="BE1" s="263"/>
+      <c r="BF1" s="263"/>
+      <c r="BG1" s="263"/>
+      <c r="BH1" s="263"/>
+      <c r="BI1" s="263"/>
+      <c r="BJ1" s="263"/>
+      <c r="BK1" s="263"/>
+      <c r="BL1" s="263"/>
+      <c r="BM1" s="263"/>
+      <c r="BN1" s="263"/>
+      <c r="BO1" s="263"/>
+      <c r="BP1" s="264"/>
+      <c r="BQ1" s="265" t="s">
         <v>396</v>
       </c>
-      <c r="BR1" s="252"/>
-      <c r="BS1" s="252"/>
-      <c r="BT1" s="252"/>
-      <c r="BU1" s="252"/>
-      <c r="BV1" s="252"/>
-      <c r="BW1" s="252"/>
-      <c r="BX1" s="252"/>
-      <c r="BY1" s="252"/>
-      <c r="BZ1" s="252"/>
-      <c r="CA1" s="252"/>
-      <c r="CB1" s="252"/>
-      <c r="CC1" s="252"/>
-      <c r="CD1" s="252"/>
-      <c r="CE1" s="252"/>
-      <c r="CF1" s="252"/>
-      <c r="CG1" s="252"/>
-      <c r="CH1" s="252"/>
-      <c r="CI1" s="252"/>
-      <c r="CJ1" s="252"/>
-      <c r="CK1" s="252"/>
-      <c r="CL1" s="252"/>
-      <c r="CM1" s="252"/>
-      <c r="CN1" s="252"/>
-      <c r="CO1" s="252"/>
-      <c r="CP1" s="252"/>
-      <c r="CQ1" s="252"/>
-      <c r="CR1" s="252"/>
-      <c r="CS1" s="252"/>
-      <c r="CT1" s="252"/>
-      <c r="CU1" s="252"/>
-      <c r="CV1" s="252"/>
-      <c r="CW1" s="252"/>
-      <c r="CX1" s="252"/>
-      <c r="CY1" s="252"/>
-      <c r="CZ1" s="252"/>
-      <c r="DA1" s="252"/>
-      <c r="DB1" s="252"/>
-      <c r="DC1" s="252"/>
-      <c r="DD1" s="252"/>
-      <c r="DE1" s="252"/>
-      <c r="DF1" s="252"/>
-      <c r="DG1" s="252"/>
-      <c r="DH1" s="252"/>
-      <c r="DI1" s="252"/>
-      <c r="DJ1" s="252"/>
-      <c r="DK1" s="252"/>
-      <c r="DL1" s="252"/>
-      <c r="DM1" s="252"/>
-      <c r="DN1" s="252"/>
-      <c r="DO1" s="252"/>
-      <c r="DP1" s="252"/>
-      <c r="DQ1" s="252"/>
-      <c r="DR1" s="252"/>
-      <c r="DS1" s="252"/>
-      <c r="DT1" s="252"/>
-      <c r="DU1" s="252"/>
-      <c r="DV1" s="252"/>
-      <c r="DW1" s="252"/>
-      <c r="DX1" s="252"/>
-      <c r="DY1" s="252"/>
-      <c r="DZ1" s="252"/>
-      <c r="EA1" s="253"/>
-      <c r="EB1" s="254" t="s">
+      <c r="BR1" s="266"/>
+      <c r="BS1" s="266"/>
+      <c r="BT1" s="266"/>
+      <c r="BU1" s="266"/>
+      <c r="BV1" s="266"/>
+      <c r="BW1" s="266"/>
+      <c r="BX1" s="266"/>
+      <c r="BY1" s="266"/>
+      <c r="BZ1" s="266"/>
+      <c r="CA1" s="266"/>
+      <c r="CB1" s="266"/>
+      <c r="CC1" s="266"/>
+      <c r="CD1" s="266"/>
+      <c r="CE1" s="266"/>
+      <c r="CF1" s="266"/>
+      <c r="CG1" s="266"/>
+      <c r="CH1" s="266"/>
+      <c r="CI1" s="266"/>
+      <c r="CJ1" s="266"/>
+      <c r="CK1" s="266"/>
+      <c r="CL1" s="266"/>
+      <c r="CM1" s="266"/>
+      <c r="CN1" s="266"/>
+      <c r="CO1" s="266"/>
+      <c r="CP1" s="266"/>
+      <c r="CQ1" s="266"/>
+      <c r="CR1" s="266"/>
+      <c r="CS1" s="266"/>
+      <c r="CT1" s="266"/>
+      <c r="CU1" s="266"/>
+      <c r="CV1" s="266"/>
+      <c r="CW1" s="266"/>
+      <c r="CX1" s="266"/>
+      <c r="CY1" s="266"/>
+      <c r="CZ1" s="266"/>
+      <c r="DA1" s="266"/>
+      <c r="DB1" s="266"/>
+      <c r="DC1" s="266"/>
+      <c r="DD1" s="266"/>
+      <c r="DE1" s="266"/>
+      <c r="DF1" s="266"/>
+      <c r="DG1" s="266"/>
+      <c r="DH1" s="266"/>
+      <c r="DI1" s="266"/>
+      <c r="DJ1" s="266"/>
+      <c r="DK1" s="266"/>
+      <c r="DL1" s="266"/>
+      <c r="DM1" s="266"/>
+      <c r="DN1" s="266"/>
+      <c r="DO1" s="266"/>
+      <c r="DP1" s="266"/>
+      <c r="DQ1" s="266"/>
+      <c r="DR1" s="266"/>
+      <c r="DS1" s="266"/>
+      <c r="DT1" s="266"/>
+      <c r="DU1" s="266"/>
+      <c r="DV1" s="266"/>
+      <c r="DW1" s="266"/>
+      <c r="DX1" s="266"/>
+      <c r="DY1" s="266"/>
+      <c r="DZ1" s="266"/>
+      <c r="EA1" s="267"/>
+      <c r="EB1" s="243" t="s">
         <v>397</v>
       </c>
-      <c r="EC1" s="255"/>
-      <c r="ED1" s="255"/>
-      <c r="EE1" s="255"/>
-      <c r="EF1" s="255"/>
-      <c r="EG1" s="255"/>
-      <c r="EH1" s="255"/>
-      <c r="EI1" s="255"/>
-      <c r="EJ1" s="255"/>
-      <c r="EK1" s="255"/>
-      <c r="EL1" s="255"/>
-      <c r="EM1" s="255"/>
-      <c r="EN1" s="255"/>
-      <c r="EO1" s="255"/>
-      <c r="EP1" s="255"/>
-      <c r="EQ1" s="255"/>
-      <c r="ER1" s="255"/>
-      <c r="ES1" s="255"/>
-      <c r="ET1" s="255"/>
-      <c r="EU1" s="255"/>
-      <c r="EV1" s="256" t="s">
+      <c r="EC1" s="244"/>
+      <c r="ED1" s="244"/>
+      <c r="EE1" s="244"/>
+      <c r="EF1" s="244"/>
+      <c r="EG1" s="244"/>
+      <c r="EH1" s="244"/>
+      <c r="EI1" s="244"/>
+      <c r="EJ1" s="244"/>
+      <c r="EK1" s="244"/>
+      <c r="EL1" s="244"/>
+      <c r="EM1" s="244"/>
+      <c r="EN1" s="244"/>
+      <c r="EO1" s="244"/>
+      <c r="EP1" s="244"/>
+      <c r="EQ1" s="244"/>
+      <c r="ER1" s="244"/>
+      <c r="ES1" s="244"/>
+      <c r="ET1" s="244"/>
+      <c r="EU1" s="244"/>
+      <c r="EV1" s="245" t="s">
         <v>389</v>
       </c>
-      <c r="EW1" s="257"/>
-      <c r="EX1" s="257"/>
-      <c r="EY1" s="258"/>
-      <c r="EZ1" s="262" t="s">
+      <c r="EW1" s="246"/>
+      <c r="EX1" s="246"/>
+      <c r="EY1" s="247"/>
+      <c r="EZ1" s="251" t="s">
         <v>398</v>
       </c>
-      <c r="FA1" s="262"/>
-      <c r="FB1" s="262"/>
-      <c r="FC1" s="262"/>
-      <c r="FD1" s="262"/>
-      <c r="FE1" s="262"/>
-      <c r="FF1" s="262"/>
-      <c r="FG1" s="262"/>
-      <c r="FH1" s="262"/>
-      <c r="FI1" s="262"/>
-      <c r="FJ1" s="262"/>
-      <c r="FK1" s="262"/>
-      <c r="FL1" s="262"/>
-      <c r="FM1" s="262"/>
-      <c r="FN1" s="262"/>
-      <c r="FO1" s="262"/>
-      <c r="FP1" s="262"/>
-      <c r="FQ1" s="262"/>
-      <c r="FR1" s="262"/>
-      <c r="FS1" s="262"/>
-      <c r="FT1" s="262"/>
-      <c r="FU1" s="263"/>
+      <c r="FA1" s="251"/>
+      <c r="FB1" s="251"/>
+      <c r="FC1" s="251"/>
+      <c r="FD1" s="251"/>
+      <c r="FE1" s="251"/>
+      <c r="FF1" s="251"/>
+      <c r="FG1" s="251"/>
+      <c r="FH1" s="251"/>
+      <c r="FI1" s="251"/>
+      <c r="FJ1" s="251"/>
+      <c r="FK1" s="251"/>
+      <c r="FL1" s="251"/>
+      <c r="FM1" s="251"/>
+      <c r="FN1" s="251"/>
+      <c r="FO1" s="251"/>
+      <c r="FP1" s="251"/>
+      <c r="FQ1" s="251"/>
+      <c r="FR1" s="251"/>
+      <c r="FS1" s="251"/>
+      <c r="FT1" s="251"/>
+      <c r="FU1" s="252"/>
     </row>
     <row r="2" spans="1:185" ht="15" thickBot="1">
-      <c r="A2" s="236"/>
-      <c r="B2" s="240"/>
-      <c r="C2" s="241"/>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-      <c r="F2" s="241"/>
-      <c r="G2" s="241"/>
-      <c r="H2" s="241"/>
-      <c r="I2" s="241"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="246" t="s">
+      <c r="A2" s="253"/>
+      <c r="B2" s="257"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="259"/>
+      <c r="K2" s="241" t="s">
         <v>365</v>
       </c>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="246"/>
-      <c r="O2" s="247"/>
-      <c r="P2" s="245" t="s">
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="241"/>
+      <c r="O2" s="242"/>
+      <c r="P2" s="240" t="s">
         <v>366</v>
       </c>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="246"/>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="246"/>
-      <c r="V2" s="246"/>
-      <c r="W2" s="247"/>
-      <c r="X2" s="245" t="s">
+      <c r="Q2" s="241"/>
+      <c r="R2" s="241"/>
+      <c r="S2" s="241"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="242"/>
+      <c r="X2" s="240" t="s">
         <v>367</v>
       </c>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="246"/>
-      <c r="AB2" s="247"/>
-      <c r="AC2" s="245" t="s">
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="241"/>
+      <c r="AA2" s="241"/>
+      <c r="AB2" s="242"/>
+      <c r="AC2" s="240" t="s">
         <v>368</v>
       </c>
-      <c r="AD2" s="246"/>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="246"/>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="246"/>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="246"/>
-      <c r="AK2" s="246"/>
-      <c r="AL2" s="246"/>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="247"/>
+      <c r="AD2" s="241"/>
+      <c r="AE2" s="241"/>
+      <c r="AF2" s="241"/>
+      <c r="AG2" s="241"/>
+      <c r="AH2" s="241"/>
+      <c r="AI2" s="241"/>
+      <c r="AJ2" s="241"/>
+      <c r="AK2" s="241"/>
+      <c r="AL2" s="241"/>
+      <c r="AM2" s="241"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="242"/>
       <c r="AQ2" s="9" t="s">
         <v>375</v>
       </c>
       <c r="AR2" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="AS2" s="245" t="s">
+      <c r="AS2" s="240" t="s">
         <v>377</v>
       </c>
-      <c r="AT2" s="246"/>
-      <c r="AU2" s="246"/>
-      <c r="AV2" s="246"/>
-      <c r="AW2" s="246"/>
-      <c r="AX2" s="246"/>
-      <c r="AY2" s="246"/>
-      <c r="AZ2" s="246"/>
-      <c r="BA2" s="246"/>
-      <c r="BB2" s="246"/>
-      <c r="BC2" s="246"/>
-      <c r="BD2" s="247"/>
-      <c r="BE2" s="245" t="s">
+      <c r="AT2" s="241"/>
+      <c r="AU2" s="241"/>
+      <c r="AV2" s="241"/>
+      <c r="AW2" s="241"/>
+      <c r="AX2" s="241"/>
+      <c r="AY2" s="241"/>
+      <c r="AZ2" s="241"/>
+      <c r="BA2" s="241"/>
+      <c r="BB2" s="241"/>
+      <c r="BC2" s="241"/>
+      <c r="BD2" s="242"/>
+      <c r="BE2" s="240" t="s">
         <v>378</v>
       </c>
-      <c r="BF2" s="246"/>
-      <c r="BG2" s="246"/>
-      <c r="BH2" s="246"/>
-      <c r="BI2" s="246"/>
-      <c r="BJ2" s="246"/>
-      <c r="BK2" s="246"/>
-      <c r="BL2" s="246"/>
-      <c r="BM2" s="246"/>
-      <c r="BN2" s="246"/>
-      <c r="BO2" s="246"/>
-      <c r="BP2" s="247"/>
-      <c r="BQ2" s="245" t="s">
+      <c r="BF2" s="241"/>
+      <c r="BG2" s="241"/>
+      <c r="BH2" s="241"/>
+      <c r="BI2" s="241"/>
+      <c r="BJ2" s="241"/>
+      <c r="BK2" s="241"/>
+      <c r="BL2" s="241"/>
+      <c r="BM2" s="241"/>
+      <c r="BN2" s="241"/>
+      <c r="BO2" s="241"/>
+      <c r="BP2" s="242"/>
+      <c r="BQ2" s="240" t="s">
         <v>379</v>
       </c>
-      <c r="BR2" s="246"/>
-      <c r="BS2" s="246"/>
-      <c r="BT2" s="246"/>
-      <c r="BU2" s="246"/>
-      <c r="BV2" s="246"/>
-      <c r="BW2" s="246"/>
-      <c r="BX2" s="246"/>
-      <c r="BY2" s="246"/>
-      <c r="BZ2" s="246"/>
-      <c r="CA2" s="246"/>
-      <c r="CB2" s="246"/>
-      <c r="CC2" s="246"/>
-      <c r="CD2" s="246"/>
-      <c r="CE2" s="246"/>
-      <c r="CF2" s="246"/>
-      <c r="CG2" s="246"/>
-      <c r="CH2" s="246"/>
-      <c r="CI2" s="246"/>
-      <c r="CJ2" s="247"/>
-      <c r="CK2" s="245" t="s">
+      <c r="BR2" s="241"/>
+      <c r="BS2" s="241"/>
+      <c r="BT2" s="241"/>
+      <c r="BU2" s="241"/>
+      <c r="BV2" s="241"/>
+      <c r="BW2" s="241"/>
+      <c r="BX2" s="241"/>
+      <c r="BY2" s="241"/>
+      <c r="BZ2" s="241"/>
+      <c r="CA2" s="241"/>
+      <c r="CB2" s="241"/>
+      <c r="CC2" s="241"/>
+      <c r="CD2" s="241"/>
+      <c r="CE2" s="241"/>
+      <c r="CF2" s="241"/>
+      <c r="CG2" s="241"/>
+      <c r="CH2" s="241"/>
+      <c r="CI2" s="241"/>
+      <c r="CJ2" s="242"/>
+      <c r="CK2" s="240" t="s">
         <v>380</v>
       </c>
-      <c r="CL2" s="246"/>
-      <c r="CM2" s="246"/>
-      <c r="CN2" s="247"/>
-      <c r="CO2" s="245" t="s">
+      <c r="CL2" s="241"/>
+      <c r="CM2" s="241"/>
+      <c r="CN2" s="242"/>
+      <c r="CO2" s="240" t="s">
         <v>381</v>
       </c>
-      <c r="CP2" s="246"/>
-      <c r="CQ2" s="246"/>
-      <c r="CR2" s="246"/>
-      <c r="CS2" s="246"/>
-      <c r="CT2" s="246"/>
-      <c r="CU2" s="246"/>
-      <c r="CV2" s="246"/>
-      <c r="CW2" s="246"/>
-      <c r="CX2" s="246"/>
-      <c r="CY2" s="246"/>
-      <c r="CZ2" s="247"/>
-      <c r="DA2" s="245" t="s">
+      <c r="CP2" s="241"/>
+      <c r="CQ2" s="241"/>
+      <c r="CR2" s="241"/>
+      <c r="CS2" s="241"/>
+      <c r="CT2" s="241"/>
+      <c r="CU2" s="241"/>
+      <c r="CV2" s="241"/>
+      <c r="CW2" s="241"/>
+      <c r="CX2" s="241"/>
+      <c r="CY2" s="241"/>
+      <c r="CZ2" s="242"/>
+      <c r="DA2" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="DB2" s="246"/>
-      <c r="DC2" s="246"/>
-      <c r="DD2" s="246"/>
-      <c r="DE2" s="246"/>
-      <c r="DF2" s="247"/>
-      <c r="DG2" s="245" t="s">
+      <c r="DB2" s="241"/>
+      <c r="DC2" s="241"/>
+      <c r="DD2" s="241"/>
+      <c r="DE2" s="241"/>
+      <c r="DF2" s="242"/>
+      <c r="DG2" s="240" t="s">
         <v>383</v>
       </c>
-      <c r="DH2" s="246"/>
-      <c r="DI2" s="246"/>
-      <c r="DJ2" s="246"/>
-      <c r="DK2" s="246"/>
-      <c r="DL2" s="246"/>
-      <c r="DM2" s="246"/>
-      <c r="DN2" s="246"/>
-      <c r="DO2" s="246"/>
-      <c r="DP2" s="246"/>
-      <c r="DQ2" s="246"/>
-      <c r="DR2" s="247"/>
-      <c r="DS2" s="245" t="s">
+      <c r="DH2" s="241"/>
+      <c r="DI2" s="241"/>
+      <c r="DJ2" s="241"/>
+      <c r="DK2" s="241"/>
+      <c r="DL2" s="241"/>
+      <c r="DM2" s="241"/>
+      <c r="DN2" s="241"/>
+      <c r="DO2" s="241"/>
+      <c r="DP2" s="241"/>
+      <c r="DQ2" s="241"/>
+      <c r="DR2" s="242"/>
+      <c r="DS2" s="240" t="s">
         <v>384</v>
       </c>
-      <c r="DT2" s="246"/>
-      <c r="DU2" s="246"/>
-      <c r="DV2" s="246"/>
-      <c r="DW2" s="246"/>
-      <c r="DX2" s="246"/>
-      <c r="DY2" s="246"/>
-      <c r="DZ2" s="247"/>
+      <c r="DT2" s="241"/>
+      <c r="DU2" s="241"/>
+      <c r="DV2" s="241"/>
+      <c r="DW2" s="241"/>
+      <c r="DX2" s="241"/>
+      <c r="DY2" s="241"/>
+      <c r="DZ2" s="242"/>
       <c r="EA2" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="EB2" s="245" t="s">
+      <c r="EB2" s="240" t="s">
         <v>387</v>
       </c>
-      <c r="EC2" s="246"/>
-      <c r="ED2" s="246"/>
-      <c r="EE2" s="246"/>
-      <c r="EF2" s="246"/>
-      <c r="EG2" s="247"/>
-      <c r="EH2" s="245" t="s">
+      <c r="EC2" s="241"/>
+      <c r="ED2" s="241"/>
+      <c r="EE2" s="241"/>
+      <c r="EF2" s="241"/>
+      <c r="EG2" s="242"/>
+      <c r="EH2" s="240" t="s">
         <v>386</v>
       </c>
-      <c r="EI2" s="246"/>
-      <c r="EJ2" s="246"/>
-      <c r="EK2" s="246"/>
-      <c r="EL2" s="246"/>
-      <c r="EM2" s="246"/>
-      <c r="EN2" s="246"/>
-      <c r="EO2" s="246"/>
-      <c r="EP2" s="246"/>
-      <c r="EQ2" s="246"/>
-      <c r="ER2" s="247"/>
-      <c r="ES2" s="245" t="s">
+      <c r="EI2" s="241"/>
+      <c r="EJ2" s="241"/>
+      <c r="EK2" s="241"/>
+      <c r="EL2" s="241"/>
+      <c r="EM2" s="241"/>
+      <c r="EN2" s="241"/>
+      <c r="EO2" s="241"/>
+      <c r="EP2" s="241"/>
+      <c r="EQ2" s="241"/>
+      <c r="ER2" s="242"/>
+      <c r="ES2" s="240" t="s">
         <v>388</v>
       </c>
-      <c r="ET2" s="246"/>
-      <c r="EU2" s="246"/>
-      <c r="EV2" s="259"/>
-      <c r="EW2" s="260"/>
-      <c r="EX2" s="260"/>
-      <c r="EY2" s="261"/>
-      <c r="EZ2" s="246" t="s">
+      <c r="ET2" s="241"/>
+      <c r="EU2" s="241"/>
+      <c r="EV2" s="248"/>
+      <c r="EW2" s="249"/>
+      <c r="EX2" s="249"/>
+      <c r="EY2" s="250"/>
+      <c r="EZ2" s="241" t="s">
         <v>390</v>
       </c>
-      <c r="FA2" s="246"/>
-      <c r="FB2" s="246"/>
-      <c r="FC2" s="246"/>
-      <c r="FD2" s="246"/>
-      <c r="FE2" s="247"/>
-      <c r="FF2" s="245" t="s">
+      <c r="FA2" s="241"/>
+      <c r="FB2" s="241"/>
+      <c r="FC2" s="241"/>
+      <c r="FD2" s="241"/>
+      <c r="FE2" s="242"/>
+      <c r="FF2" s="240" t="s">
         <v>391</v>
       </c>
-      <c r="FG2" s="246"/>
-      <c r="FH2" s="246"/>
-      <c r="FI2" s="246"/>
-      <c r="FJ2" s="246"/>
-      <c r="FK2" s="247"/>
+      <c r="FG2" s="241"/>
+      <c r="FH2" s="241"/>
+      <c r="FI2" s="241"/>
+      <c r="FJ2" s="241"/>
+      <c r="FK2" s="242"/>
       <c r="FL2" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="FM2" s="245" t="s">
+      <c r="FM2" s="240" t="s">
         <v>393</v>
       </c>
-      <c r="FN2" s="246"/>
-      <c r="FO2" s="246"/>
-      <c r="FP2" s="246"/>
-      <c r="FQ2" s="246"/>
-      <c r="FR2" s="246"/>
-      <c r="FS2" s="246"/>
-      <c r="FT2" s="246"/>
-      <c r="FU2" s="247"/>
+      <c r="FN2" s="241"/>
+      <c r="FO2" s="241"/>
+      <c r="FP2" s="241"/>
+      <c r="FQ2" s="241"/>
+      <c r="FR2" s="241"/>
+      <c r="FS2" s="241"/>
+      <c r="FT2" s="241"/>
+      <c r="FU2" s="242"/>
     </row>
     <row r="3" spans="1:185">
       <c r="A3" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>0</v>
@@ -22368,6 +22368,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="DA2:DF2"/>
+    <mergeCell ref="DG2:DR2"/>
+    <mergeCell ref="DS2:DZ2"/>
+    <mergeCell ref="BE2:BP2"/>
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="X2:AB2"/>
+    <mergeCell ref="AC2:AP2"/>
+    <mergeCell ref="AS2:BD2"/>
     <mergeCell ref="FF2:FK2"/>
     <mergeCell ref="FM2:FU2"/>
     <mergeCell ref="B1:J2"/>
@@ -22384,16 +22394,6 @@
     <mergeCell ref="BQ2:CJ2"/>
     <mergeCell ref="CK2:CN2"/>
     <mergeCell ref="CO2:CZ2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="DA2:DF2"/>
-    <mergeCell ref="DG2:DR2"/>
-    <mergeCell ref="DS2:DZ2"/>
-    <mergeCell ref="BE2:BP2"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="X2:AB2"/>
-    <mergeCell ref="AC2:AP2"/>
-    <mergeCell ref="AS2:BD2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -22475,442 +22475,442 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:77" ht="15" thickBot="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="253" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="269" t="s">
+      <c r="B1" s="272" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="270"/>
-      <c r="L1" s="270"/>
-      <c r="M1" s="270"/>
-      <c r="N1" s="270"/>
-      <c r="O1" s="270"/>
-      <c r="P1" s="270"/>
-      <c r="Q1" s="270"/>
-      <c r="R1" s="271" t="s">
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="273"/>
+      <c r="K1" s="273"/>
+      <c r="L1" s="273"/>
+      <c r="M1" s="273"/>
+      <c r="N1" s="273"/>
+      <c r="O1" s="273"/>
+      <c r="P1" s="273"/>
+      <c r="Q1" s="273"/>
+      <c r="R1" s="274" t="s">
         <v>403</v>
       </c>
-      <c r="S1" s="272"/>
-      <c r="T1" s="272"/>
-      <c r="U1" s="272"/>
-      <c r="V1" s="272"/>
-      <c r="W1" s="272"/>
-      <c r="X1" s="272"/>
-      <c r="Y1" s="272"/>
-      <c r="Z1" s="272"/>
-      <c r="AA1" s="272"/>
-      <c r="AB1" s="272"/>
-      <c r="AC1" s="272"/>
-      <c r="AD1" s="272"/>
-      <c r="AE1" s="272"/>
-      <c r="AF1" s="272"/>
-      <c r="AG1" s="272"/>
-      <c r="AH1" s="273" t="s">
+      <c r="S1" s="275"/>
+      <c r="T1" s="275"/>
+      <c r="U1" s="275"/>
+      <c r="V1" s="275"/>
+      <c r="W1" s="275"/>
+      <c r="X1" s="275"/>
+      <c r="Y1" s="275"/>
+      <c r="Z1" s="275"/>
+      <c r="AA1" s="275"/>
+      <c r="AB1" s="275"/>
+      <c r="AC1" s="275"/>
+      <c r="AD1" s="275"/>
+      <c r="AE1" s="275"/>
+      <c r="AF1" s="275"/>
+      <c r="AG1" s="275"/>
+      <c r="AH1" s="276" t="s">
         <v>396</v>
       </c>
-      <c r="AI1" s="274"/>
-      <c r="AJ1" s="274"/>
-      <c r="AK1" s="274"/>
-      <c r="AL1" s="274"/>
-      <c r="AM1" s="274"/>
-      <c r="AN1" s="274"/>
-      <c r="AO1" s="274"/>
-      <c r="AP1" s="274"/>
-      <c r="AQ1" s="274"/>
-      <c r="AR1" s="274"/>
-      <c r="AS1" s="274"/>
-      <c r="AT1" s="274"/>
-      <c r="AU1" s="274"/>
-      <c r="AV1" s="274"/>
-      <c r="AW1" s="274"/>
-      <c r="AX1" s="274"/>
-      <c r="AY1" s="274"/>
-      <c r="AZ1" s="274"/>
-      <c r="BA1" s="274"/>
-      <c r="BB1" s="274"/>
-      <c r="BC1" s="274"/>
-      <c r="BD1" s="274"/>
-      <c r="BE1" s="274"/>
-      <c r="BF1" s="274"/>
-      <c r="BG1" s="274"/>
-      <c r="BH1" s="274"/>
-      <c r="BI1" s="274"/>
-      <c r="BJ1" s="275" t="s">
+      <c r="AI1" s="277"/>
+      <c r="AJ1" s="277"/>
+      <c r="AK1" s="277"/>
+      <c r="AL1" s="277"/>
+      <c r="AM1" s="277"/>
+      <c r="AN1" s="277"/>
+      <c r="AO1" s="277"/>
+      <c r="AP1" s="277"/>
+      <c r="AQ1" s="277"/>
+      <c r="AR1" s="277"/>
+      <c r="AS1" s="277"/>
+      <c r="AT1" s="277"/>
+      <c r="AU1" s="277"/>
+      <c r="AV1" s="277"/>
+      <c r="AW1" s="277"/>
+      <c r="AX1" s="277"/>
+      <c r="AY1" s="277"/>
+      <c r="AZ1" s="277"/>
+      <c r="BA1" s="277"/>
+      <c r="BB1" s="277"/>
+      <c r="BC1" s="277"/>
+      <c r="BD1" s="277"/>
+      <c r="BE1" s="277"/>
+      <c r="BF1" s="277"/>
+      <c r="BG1" s="277"/>
+      <c r="BH1" s="277"/>
+      <c r="BI1" s="277"/>
+      <c r="BJ1" s="278" t="s">
         <v>404</v>
       </c>
-      <c r="BK1" s="276"/>
-      <c r="BL1" s="276"/>
-      <c r="BM1" s="276"/>
-      <c r="BN1" s="276"/>
-      <c r="BO1" s="276"/>
-      <c r="BP1" s="276"/>
-      <c r="BQ1" s="276"/>
-      <c r="BR1" s="276"/>
-      <c r="BS1" s="276"/>
-      <c r="BT1" s="276"/>
-      <c r="BU1" s="276"/>
-      <c r="BV1" s="265" t="s">
+      <c r="BK1" s="279"/>
+      <c r="BL1" s="279"/>
+      <c r="BM1" s="279"/>
+      <c r="BN1" s="279"/>
+      <c r="BO1" s="279"/>
+      <c r="BP1" s="279"/>
+      <c r="BQ1" s="279"/>
+      <c r="BR1" s="279"/>
+      <c r="BS1" s="279"/>
+      <c r="BT1" s="279"/>
+      <c r="BU1" s="279"/>
+      <c r="BV1" s="268" t="s">
         <v>389</v>
       </c>
-      <c r="BW1" s="266"/>
-      <c r="BX1" s="266"/>
-      <c r="BY1" s="266"/>
+      <c r="BW1" s="269"/>
+      <c r="BX1" s="269"/>
+      <c r="BY1" s="269"/>
     </row>
     <row r="2" spans="1:77" ht="15" thickBot="1">
-      <c r="A2" s="264"/>
-      <c r="B2" s="245" t="s">
+      <c r="A2" s="280"/>
+      <c r="B2" s="240" t="s">
         <v>371</v>
       </c>
-      <c r="C2" s="246"/>
-      <c r="D2" s="246"/>
-      <c r="E2" s="246"/>
-      <c r="F2" s="245" t="s">
+      <c r="C2" s="241"/>
+      <c r="D2" s="241"/>
+      <c r="E2" s="241"/>
+      <c r="F2" s="240" t="s">
         <v>372</v>
       </c>
-      <c r="G2" s="246"/>
-      <c r="H2" s="246"/>
-      <c r="I2" s="246"/>
-      <c r="J2" s="245" t="s">
+      <c r="G2" s="241"/>
+      <c r="H2" s="241"/>
+      <c r="I2" s="241"/>
+      <c r="J2" s="240" t="s">
         <v>373</v>
       </c>
-      <c r="K2" s="246"/>
-      <c r="L2" s="246"/>
-      <c r="M2" s="246"/>
-      <c r="N2" s="245" t="s">
+      <c r="K2" s="241"/>
+      <c r="L2" s="241"/>
+      <c r="M2" s="241"/>
+      <c r="N2" s="240" t="s">
         <v>374</v>
       </c>
-      <c r="O2" s="246"/>
-      <c r="P2" s="246"/>
-      <c r="Q2" s="246"/>
-      <c r="R2" s="245" t="s">
+      <c r="O2" s="241"/>
+      <c r="P2" s="241"/>
+      <c r="Q2" s="241"/>
+      <c r="R2" s="240" t="s">
         <v>375</v>
       </c>
-      <c r="S2" s="246"/>
-      <c r="T2" s="246"/>
-      <c r="U2" s="246"/>
-      <c r="V2" s="245" t="s">
+      <c r="S2" s="241"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="240" t="s">
         <v>376</v>
       </c>
-      <c r="W2" s="246"/>
-      <c r="X2" s="246"/>
-      <c r="Y2" s="246"/>
-      <c r="Z2" s="245" t="s">
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="240" t="s">
         <v>377</v>
       </c>
-      <c r="AA2" s="246"/>
-      <c r="AB2" s="246"/>
-      <c r="AC2" s="246"/>
-      <c r="AD2" s="245" t="s">
+      <c r="AA2" s="241"/>
+      <c r="AB2" s="241"/>
+      <c r="AC2" s="241"/>
+      <c r="AD2" s="240" t="s">
         <v>378</v>
       </c>
-      <c r="AE2" s="246"/>
-      <c r="AF2" s="246"/>
-      <c r="AG2" s="246"/>
-      <c r="AH2" s="245" t="s">
+      <c r="AE2" s="241"/>
+      <c r="AF2" s="241"/>
+      <c r="AG2" s="241"/>
+      <c r="AH2" s="240" t="s">
         <v>379</v>
       </c>
-      <c r="AI2" s="246"/>
-      <c r="AJ2" s="246"/>
-      <c r="AK2" s="246"/>
-      <c r="AL2" s="245" t="s">
+      <c r="AI2" s="241"/>
+      <c r="AJ2" s="241"/>
+      <c r="AK2" s="241"/>
+      <c r="AL2" s="240" t="s">
         <v>380</v>
       </c>
-      <c r="AM2" s="246"/>
-      <c r="AN2" s="246"/>
-      <c r="AO2" s="246"/>
-      <c r="AP2" s="245" t="s">
+      <c r="AM2" s="241"/>
+      <c r="AN2" s="241"/>
+      <c r="AO2" s="241"/>
+      <c r="AP2" s="240" t="s">
         <v>399</v>
       </c>
-      <c r="AQ2" s="246"/>
-      <c r="AR2" s="246"/>
-      <c r="AS2" s="246"/>
-      <c r="AT2" s="245" t="s">
+      <c r="AQ2" s="241"/>
+      <c r="AR2" s="241"/>
+      <c r="AS2" s="241"/>
+      <c r="AT2" s="240" t="s">
         <v>382</v>
       </c>
-      <c r="AU2" s="246"/>
-      <c r="AV2" s="246"/>
-      <c r="AW2" s="246"/>
-      <c r="AX2" s="245" t="s">
+      <c r="AU2" s="241"/>
+      <c r="AV2" s="241"/>
+      <c r="AW2" s="241"/>
+      <c r="AX2" s="240" t="s">
         <v>383</v>
       </c>
-      <c r="AY2" s="246"/>
-      <c r="AZ2" s="246"/>
-      <c r="BA2" s="246"/>
-      <c r="BB2" s="245" t="s">
+      <c r="AY2" s="241"/>
+      <c r="AZ2" s="241"/>
+      <c r="BA2" s="241"/>
+      <c r="BB2" s="240" t="s">
         <v>384</v>
       </c>
-      <c r="BC2" s="246"/>
-      <c r="BD2" s="246"/>
-      <c r="BE2" s="246"/>
-      <c r="BF2" s="245" t="s">
+      <c r="BC2" s="241"/>
+      <c r="BD2" s="241"/>
+      <c r="BE2" s="241"/>
+      <c r="BF2" s="240" t="s">
         <v>385</v>
       </c>
-      <c r="BG2" s="246"/>
-      <c r="BH2" s="246"/>
-      <c r="BI2" s="246"/>
-      <c r="BJ2" s="245" t="s">
+      <c r="BG2" s="241"/>
+      <c r="BH2" s="241"/>
+      <c r="BI2" s="241"/>
+      <c r="BJ2" s="240" t="s">
         <v>400</v>
       </c>
-      <c r="BK2" s="246"/>
-      <c r="BL2" s="246"/>
-      <c r="BM2" s="246"/>
-      <c r="BN2" s="245" t="s">
+      <c r="BK2" s="241"/>
+      <c r="BL2" s="241"/>
+      <c r="BM2" s="241"/>
+      <c r="BN2" s="240" t="s">
         <v>401</v>
       </c>
-      <c r="BO2" s="246"/>
-      <c r="BP2" s="246"/>
-      <c r="BQ2" s="246"/>
-      <c r="BR2" s="245" t="s">
+      <c r="BO2" s="241"/>
+      <c r="BP2" s="241"/>
+      <c r="BQ2" s="241"/>
+      <c r="BR2" s="240" t="s">
         <v>402</v>
       </c>
-      <c r="BS2" s="246"/>
-      <c r="BT2" s="246"/>
-      <c r="BU2" s="246"/>
-      <c r="BV2" s="267"/>
-      <c r="BW2" s="268"/>
-      <c r="BX2" s="268"/>
-      <c r="BY2" s="268"/>
+      <c r="BS2" s="241"/>
+      <c r="BT2" s="241"/>
+      <c r="BU2" s="241"/>
+      <c r="BV2" s="270"/>
+      <c r="BW2" s="271"/>
+      <c r="BX2" s="271"/>
+      <c r="BY2" s="271"/>
     </row>
     <row r="3" spans="1:77" ht="15" thickBot="1">
       <c r="A3" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>540</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="D3" s="49" t="s">
         <v>541</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="E3" s="11" t="s">
         <v>542</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="49" t="s">
         <v>544</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="H3" s="49" t="s">
         <v>545</v>
       </c>
-      <c r="H3" s="49" t="s">
+      <c r="I3" s="11" t="s">
         <v>546</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="49" t="s">
         <v>548</v>
       </c>
-      <c r="K3" s="49" t="s">
+      <c r="L3" s="49" t="s">
         <v>549</v>
       </c>
-      <c r="L3" s="49" t="s">
+      <c r="M3" s="11" t="s">
         <v>550</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="O3" s="49" t="s">
         <v>552</v>
       </c>
-      <c r="O3" s="49" t="s">
+      <c r="P3" s="49" t="s">
         <v>553</v>
       </c>
-      <c r="P3" s="49" t="s">
+      <c r="Q3" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="S3" s="49" t="s">
         <v>556</v>
       </c>
-      <c r="S3" s="49" t="s">
+      <c r="T3" s="49" t="s">
         <v>557</v>
       </c>
-      <c r="T3" s="49" t="s">
+      <c r="U3" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="W3" s="49" t="s">
         <v>560</v>
       </c>
-      <c r="W3" s="49" t="s">
+      <c r="X3" s="49" t="s">
         <v>561</v>
       </c>
-      <c r="X3" s="49" t="s">
+      <c r="Y3" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="AA3" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="AA3" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="AB3" s="11" t="s">
+      <c r="AC3" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="AC3" s="11" t="s">
+      <c r="AD3" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AE3" s="49" t="s">
         <v>568</v>
       </c>
-      <c r="AE3" s="49" t="s">
+      <c r="AF3" s="49" t="s">
         <v>569</v>
       </c>
-      <c r="AF3" s="49" t="s">
+      <c r="AG3" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AH3" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI3" s="49" t="s">
         <v>571</v>
       </c>
-      <c r="AH3" s="10" t="s">
+      <c r="AJ3" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AK3" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="AL3" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="AI3" s="49" t="s">
-        <v>572</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>573</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="AL3" s="10" t="s">
+      <c r="AM3" s="49" t="s">
         <v>576</v>
       </c>
-      <c r="AM3" s="49" t="s">
+      <c r="AN3" s="49" t="s">
         <v>577</v>
       </c>
-      <c r="AN3" s="49" t="s">
+      <c r="AO3" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="AO3" s="11" t="s">
+      <c r="AP3" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="AP3" s="10" t="s">
+      <c r="AQ3" s="49" t="s">
         <v>580</v>
       </c>
-      <c r="AQ3" s="49" t="s">
+      <c r="AR3" s="49" t="s">
         <v>581</v>
       </c>
-      <c r="AR3" s="49" t="s">
+      <c r="AS3" s="11" t="s">
         <v>582</v>
       </c>
-      <c r="AS3" s="11" t="s">
+      <c r="AT3" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AU3" s="49" t="s">
         <v>584</v>
       </c>
-      <c r="AU3" s="49" t="s">
+      <c r="AV3" s="49" t="s">
         <v>585</v>
       </c>
-      <c r="AV3" s="49" t="s">
+      <c r="AW3" s="11" t="s">
         <v>586</v>
       </c>
-      <c r="AW3" s="11" t="s">
+      <c r="AX3" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="AX3" s="10" t="s">
+      <c r="AY3" s="49" t="s">
         <v>588</v>
       </c>
-      <c r="AY3" s="49" t="s">
+      <c r="AZ3" s="49" t="s">
         <v>589</v>
       </c>
-      <c r="AZ3" s="49" t="s">
+      <c r="BA3" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="BA3" s="11" t="s">
+      <c r="BB3" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BC3" s="49" t="s">
         <v>592</v>
       </c>
-      <c r="BC3" s="49" t="s">
+      <c r="BD3" s="49" t="s">
         <v>593</v>
       </c>
-      <c r="BD3" s="49" t="s">
+      <c r="BE3" s="11" t="s">
         <v>594</v>
       </c>
-      <c r="BE3" s="11" t="s">
+      <c r="BF3" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="BF3" s="10" t="s">
+      <c r="BG3" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="BG3" s="11" t="s">
+      <c r="BH3" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="BH3" s="11" t="s">
+      <c r="BI3" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="BI3" s="11" t="s">
-        <v>599</v>
-      </c>
       <c r="BJ3" s="10" t="s">
+        <v>602</v>
+      </c>
+      <c r="BK3" s="49" t="s">
         <v>603</v>
       </c>
-      <c r="BK3" s="49" t="s">
+      <c r="BL3" s="49" t="s">
         <v>604</v>
       </c>
-      <c r="BL3" s="49" t="s">
+      <c r="BM3" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="BM3" s="11" t="s">
+      <c r="BN3" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="BN3" s="10" t="s">
+      <c r="BO3" s="49" t="s">
         <v>607</v>
       </c>
-      <c r="BO3" s="49" t="s">
+      <c r="BP3" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="BQ3" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="BP3" s="11" t="s">
+      <c r="BR3" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="BQ3" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="BR3" s="10" t="s">
+      <c r="BS3" s="49" t="s">
         <v>611</v>
       </c>
-      <c r="BS3" s="49" t="s">
+      <c r="BT3" s="49" t="s">
         <v>612</v>
       </c>
-      <c r="BT3" s="49" t="s">
+      <c r="BU3" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="BU3" s="11" t="s">
+      <c r="BV3" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="BV3" s="10" t="s">
+      <c r="BW3" s="49" t="s">
         <v>615</v>
       </c>
-      <c r="BW3" s="49" t="s">
+      <c r="BX3" s="49" t="s">
         <v>616</v>
       </c>
-      <c r="BX3" s="49" t="s">
+      <c r="BY3" s="11" t="s">
         <v>617</v>
-      </c>
-      <c r="BY3" s="11" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="4" spans="1:77">
@@ -26008,6 +26008,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="AD2:AG2"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="V2:Y2"/>
+    <mergeCell ref="R2:U2"/>
     <mergeCell ref="BV1:BY2"/>
     <mergeCell ref="BR2:BU2"/>
     <mergeCell ref="B1:Q1"/>
@@ -26024,14 +26032,6 @@
     <mergeCell ref="AL2:AO2"/>
     <mergeCell ref="AP2:AS2"/>
     <mergeCell ref="AT2:AW2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="AD2:AG2"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="V2:Y2"/>
-    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Intro!A1" display="Intro!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -26110,134 +26110,134 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="15.75" customHeight="1">
-      <c r="A1" s="236" t="s">
+      <c r="A1" s="253" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="327" t="s">
+      <c r="B1" s="293" t="s">
         <v>323</v>
       </c>
-      <c r="C1" s="328"/>
-      <c r="D1" s="328"/>
-      <c r="E1" s="329"/>
-      <c r="G1" s="297" t="s">
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="295"/>
+      <c r="G1" s="316" t="s">
         <v>318</v>
       </c>
-      <c r="H1" s="298"/>
-      <c r="I1" s="298"/>
-      <c r="J1" s="298"/>
-      <c r="K1" s="298"/>
-      <c r="L1" s="299"/>
-      <c r="N1" s="303" t="s">
+      <c r="H1" s="317"/>
+      <c r="I1" s="317"/>
+      <c r="J1" s="317"/>
+      <c r="K1" s="317"/>
+      <c r="L1" s="318"/>
+      <c r="N1" s="322" t="s">
         <v>319</v>
       </c>
-      <c r="O1" s="304"/>
-      <c r="P1" s="304"/>
-      <c r="Q1" s="304"/>
-      <c r="R1" s="304"/>
-      <c r="S1" s="304"/>
-      <c r="T1" s="304"/>
-      <c r="U1" s="304"/>
-      <c r="V1" s="304"/>
-      <c r="W1" s="304"/>
-      <c r="X1" s="305"/>
-      <c r="Z1" s="309" t="s">
+      <c r="O1" s="323"/>
+      <c r="P1" s="323"/>
+      <c r="Q1" s="323"/>
+      <c r="R1" s="323"/>
+      <c r="S1" s="323"/>
+      <c r="T1" s="323"/>
+      <c r="U1" s="323"/>
+      <c r="V1" s="323"/>
+      <c r="W1" s="323"/>
+      <c r="X1" s="324"/>
+      <c r="Z1" s="328" t="s">
         <v>322</v>
       </c>
-      <c r="AA1" s="310"/>
-      <c r="AB1" s="310"/>
-      <c r="AC1" s="310"/>
-      <c r="AD1" s="310"/>
-      <c r="AE1" s="311"/>
-      <c r="AG1" s="321" t="s">
-        <v>632</v>
-      </c>
-      <c r="AH1" s="322"/>
-      <c r="AI1" s="322"/>
-      <c r="AJ1" s="322"/>
-      <c r="AK1" s="322"/>
-      <c r="AL1" s="323"/>
-      <c r="AN1" s="315" t="s">
+      <c r="AA1" s="329"/>
+      <c r="AB1" s="329"/>
+      <c r="AC1" s="329"/>
+      <c r="AD1" s="329"/>
+      <c r="AE1" s="330"/>
+      <c r="AG1" s="287" t="s">
+        <v>631</v>
+      </c>
+      <c r="AH1" s="288"/>
+      <c r="AI1" s="288"/>
+      <c r="AJ1" s="288"/>
+      <c r="AK1" s="288"/>
+      <c r="AL1" s="289"/>
+      <c r="AN1" s="281" t="s">
         <v>389</v>
       </c>
-      <c r="AO1" s="316"/>
-      <c r="AP1" s="316"/>
-      <c r="AQ1" s="316"/>
-      <c r="AR1" s="316"/>
-      <c r="AS1" s="317"/>
-      <c r="AU1" s="288" t="s">
-        <v>643</v>
-      </c>
-      <c r="AV1" s="289"/>
-      <c r="AW1" s="289"/>
-      <c r="AX1" s="289"/>
-      <c r="AY1" s="289"/>
-      <c r="AZ1" s="289"/>
-      <c r="BA1" s="289"/>
-      <c r="BB1" s="289"/>
-      <c r="BC1" s="289"/>
-      <c r="BD1" s="289"/>
-      <c r="BE1" s="289"/>
-      <c r="BF1" s="289"/>
-      <c r="BG1" s="289"/>
-      <c r="BH1" s="289"/>
-      <c r="BI1" s="290"/>
+      <c r="AO1" s="282"/>
+      <c r="AP1" s="282"/>
+      <c r="AQ1" s="282"/>
+      <c r="AR1" s="282"/>
+      <c r="AS1" s="283"/>
+      <c r="AU1" s="307" t="s">
+        <v>642</v>
+      </c>
+      <c r="AV1" s="308"/>
+      <c r="AW1" s="308"/>
+      <c r="AX1" s="308"/>
+      <c r="AY1" s="308"/>
+      <c r="AZ1" s="308"/>
+      <c r="BA1" s="308"/>
+      <c r="BB1" s="308"/>
+      <c r="BC1" s="308"/>
+      <c r="BD1" s="308"/>
+      <c r="BE1" s="308"/>
+      <c r="BF1" s="308"/>
+      <c r="BG1" s="308"/>
+      <c r="BH1" s="308"/>
+      <c r="BI1" s="309"/>
     </row>
     <row r="2" spans="1:61" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="236"/>
-      <c r="B2" s="330"/>
-      <c r="C2" s="331"/>
-      <c r="D2" s="331"/>
-      <c r="E2" s="332"/>
-      <c r="G2" s="300"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="301"/>
-      <c r="K2" s="301"/>
-      <c r="L2" s="302"/>
-      <c r="N2" s="306"/>
-      <c r="O2" s="307"/>
-      <c r="P2" s="307"/>
-      <c r="Q2" s="307"/>
-      <c r="R2" s="307"/>
-      <c r="S2" s="307"/>
-      <c r="T2" s="307"/>
-      <c r="U2" s="307"/>
-      <c r="V2" s="307"/>
-      <c r="W2" s="307"/>
-      <c r="X2" s="308"/>
-      <c r="Z2" s="312"/>
-      <c r="AA2" s="313"/>
-      <c r="AB2" s="313"/>
-      <c r="AC2" s="313"/>
-      <c r="AD2" s="313"/>
-      <c r="AE2" s="314"/>
-      <c r="AG2" s="324"/>
-      <c r="AH2" s="325"/>
-      <c r="AI2" s="325"/>
-      <c r="AJ2" s="325"/>
-      <c r="AK2" s="325"/>
-      <c r="AL2" s="326"/>
-      <c r="AN2" s="318"/>
-      <c r="AO2" s="319"/>
-      <c r="AP2" s="319"/>
-      <c r="AQ2" s="319"/>
-      <c r="AR2" s="319"/>
-      <c r="AS2" s="320"/>
-      <c r="AU2" s="291"/>
-      <c r="AV2" s="292"/>
-      <c r="AW2" s="292"/>
-      <c r="AX2" s="292"/>
-      <c r="AY2" s="292"/>
-      <c r="AZ2" s="292"/>
-      <c r="BA2" s="292"/>
-      <c r="BB2" s="292"/>
-      <c r="BC2" s="292"/>
-      <c r="BD2" s="292"/>
-      <c r="BE2" s="292"/>
-      <c r="BF2" s="292"/>
-      <c r="BG2" s="292"/>
-      <c r="BH2" s="292"/>
-      <c r="BI2" s="293"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="297"/>
+      <c r="D2" s="297"/>
+      <c r="E2" s="298"/>
+      <c r="G2" s="319"/>
+      <c r="H2" s="320"/>
+      <c r="I2" s="320"/>
+      <c r="J2" s="320"/>
+      <c r="K2" s="320"/>
+      <c r="L2" s="321"/>
+      <c r="N2" s="325"/>
+      <c r="O2" s="326"/>
+      <c r="P2" s="326"/>
+      <c r="Q2" s="326"/>
+      <c r="R2" s="326"/>
+      <c r="S2" s="326"/>
+      <c r="T2" s="326"/>
+      <c r="U2" s="326"/>
+      <c r="V2" s="326"/>
+      <c r="W2" s="326"/>
+      <c r="X2" s="327"/>
+      <c r="Z2" s="331"/>
+      <c r="AA2" s="332"/>
+      <c r="AB2" s="332"/>
+      <c r="AC2" s="332"/>
+      <c r="AD2" s="332"/>
+      <c r="AE2" s="333"/>
+      <c r="AG2" s="290"/>
+      <c r="AH2" s="291"/>
+      <c r="AI2" s="291"/>
+      <c r="AJ2" s="291"/>
+      <c r="AK2" s="291"/>
+      <c r="AL2" s="292"/>
+      <c r="AN2" s="284"/>
+      <c r="AO2" s="285"/>
+      <c r="AP2" s="285"/>
+      <c r="AQ2" s="285"/>
+      <c r="AR2" s="285"/>
+      <c r="AS2" s="286"/>
+      <c r="AU2" s="310"/>
+      <c r="AV2" s="311"/>
+      <c r="AW2" s="311"/>
+      <c r="AX2" s="311"/>
+      <c r="AY2" s="311"/>
+      <c r="AZ2" s="311"/>
+      <c r="BA2" s="311"/>
+      <c r="BB2" s="311"/>
+      <c r="BC2" s="311"/>
+      <c r="BD2" s="311"/>
+      <c r="BE2" s="311"/>
+      <c r="BF2" s="311"/>
+      <c r="BG2" s="311"/>
+      <c r="BH2" s="311"/>
+      <c r="BI2" s="312"/>
     </row>
     <row r="3" spans="1:61" ht="15" thickBot="1">
       <c r="A3" s="91" t="s">
@@ -26298,7 +26298,7 @@
         <v>520</v>
       </c>
       <c r="V3" s="43" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="W3" s="62" t="s">
         <v>369</v>
@@ -26352,7 +26352,7 @@
         <v>520</v>
       </c>
       <c r="AQ3" s="50" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AR3" t="s">
         <v>369</v>
@@ -26360,32 +26360,32 @@
       <c r="AS3" t="s">
         <v>447</v>
       </c>
-      <c r="AU3" s="283" t="s">
-        <v>640</v>
-      </c>
-      <c r="AV3" s="285"/>
-      <c r="AW3" s="285"/>
-      <c r="AX3" s="285"/>
-      <c r="AY3" s="285"/>
-      <c r="AZ3" s="285"/>
-      <c r="BA3" s="284"/>
-      <c r="BC3" s="283" t="s">
-        <v>668</v>
-      </c>
-      <c r="BD3" s="284"/>
-      <c r="BF3" s="283" t="s">
-        <v>674</v>
-      </c>
-      <c r="BG3" s="285"/>
-      <c r="BH3" s="285"/>
-      <c r="BI3" s="284"/>
+      <c r="AU3" s="302" t="s">
+        <v>639</v>
+      </c>
+      <c r="AV3" s="304"/>
+      <c r="AW3" s="304"/>
+      <c r="AX3" s="304"/>
+      <c r="AY3" s="304"/>
+      <c r="AZ3" s="304"/>
+      <c r="BA3" s="303"/>
+      <c r="BC3" s="302" t="s">
+        <v>667</v>
+      </c>
+      <c r="BD3" s="303"/>
+      <c r="BF3" s="302" t="s">
+        <v>673</v>
+      </c>
+      <c r="BG3" s="304"/>
+      <c r="BH3" s="304"/>
+      <c r="BI3" s="303"/>
     </row>
     <row r="4" spans="1:61" ht="15" customHeight="1">
-      <c r="A4" s="280">
-        <v>1</v>
-      </c>
-      <c r="B4" s="277" t="s">
-        <v>714</v>
+      <c r="A4" s="334">
+        <v>1</v>
+      </c>
+      <c r="B4" s="299" t="s">
+        <v>713</v>
       </c>
       <c r="C4" s="32" t="s">
         <v>2</v>
@@ -26465,7 +26465,7 @@
         <v>1</v>
       </c>
       <c r="AA4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AB4" s="31">
         <f>SUM(coded_data!BQ:BQ) + SUM(coded_data!BR:BR) + SUM(coded_data!BS:BS)</f>
@@ -26487,7 +26487,7 @@
         <v>13</v>
       </c>
       <c r="AH4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="AI4">
         <f>SUM(coded_data!EU:EU)</f>
@@ -26509,7 +26509,7 @@
         <v>1</v>
       </c>
       <c r="AO4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="AP4">
         <f>SUM(coded_data!EV:EV)</f>
@@ -26527,19 +26527,19 @@
         <f>IF(AQ4&lt;20%,"very low",IF(AQ4&lt;40%,"low",IF(AQ4&lt;60%,"moderate",IF(AQ4&lt;80%,"high","very high"))))</f>
         <v>high</v>
       </c>
-      <c r="AU4" s="296" t="s">
-        <v>636</v>
-      </c>
-      <c r="AV4" s="294" t="s">
+      <c r="AU4" s="315" t="s">
+        <v>635</v>
+      </c>
+      <c r="AV4" s="313" t="s">
+        <v>640</v>
+      </c>
+      <c r="AW4" s="313"/>
+      <c r="AX4" s="313"/>
+      <c r="AY4" s="313" t="s">
         <v>641</v>
       </c>
-      <c r="AW4" s="294"/>
-      <c r="AX4" s="294"/>
-      <c r="AY4" s="294" t="s">
-        <v>642</v>
-      </c>
-      <c r="AZ4" s="294"/>
-      <c r="BA4" s="295"/>
+      <c r="AZ4" s="313"/>
+      <c r="BA4" s="314"/>
       <c r="BC4" s="24" t="s">
         <v>286</v>
       </c>
@@ -26548,21 +26548,21 @@
         <v>2</v>
       </c>
       <c r="BF4" s="84" t="s">
+        <v>635</v>
+      </c>
+      <c r="BG4" s="23" t="s">
         <v>636</v>
       </c>
-      <c r="BG4" s="23" t="s">
+      <c r="BH4" s="23" t="s">
         <v>637</v>
       </c>
-      <c r="BH4" s="23" t="s">
+      <c r="BI4" s="113" t="s">
         <v>638</v>
-      </c>
-      <c r="BI4" s="113" t="s">
-        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:61">
-      <c r="A5" s="281"/>
-      <c r="B5" s="278"/>
+      <c r="A5" s="335"/>
+      <c r="B5" s="300"/>
       <c r="C5" s="5" t="s">
         <v>327</v>
       </c>
@@ -26641,7 +26641,7 @@
         <v>2</v>
       </c>
       <c r="AA5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AB5" s="31">
         <f>SUM(coded_data!BT:BT) + SUM(coded_data!BU:BU) + SUM(coded_data!BV:BV)</f>
@@ -26663,7 +26663,7 @@
         <v>5</v>
       </c>
       <c r="AH5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AI5">
         <f>SUM(coded_data!EH:EH)</f>
@@ -26685,7 +26685,7 @@
         <v>3</v>
       </c>
       <c r="AO5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AP5">
         <f>SUM(coded_data!EX:EX)</f>
@@ -26703,34 +26703,34 @@
         <f>IF(AQ5&lt;20%,"very low",IF(AQ5&lt;40%,"low",IF(AQ5&lt;60%,"moderate",IF(AQ5&lt;80%,"high","very high"))))</f>
         <v>moderate</v>
       </c>
-      <c r="AU5" s="296"/>
+      <c r="AU5" s="315"/>
       <c r="AV5" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="AW5" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="AW5" s="5" t="s">
+      <c r="AX5" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AX5" s="5" t="s">
-        <v>639</v>
-      </c>
       <c r="AY5" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="AZ5" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="AZ5" s="5" t="s">
+      <c r="BA5" s="69" t="s">
         <v>638</v>
       </c>
-      <c r="BA5" s="69" t="s">
-        <v>639</v>
-      </c>
       <c r="BC5" s="24" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="BD5" s="69">
         <f>COUNTIF(raw_data!FL:FL, BC5)</f>
         <v>1</v>
       </c>
       <c r="BF5" s="85" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BG5" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF5)</f>
@@ -26746,8 +26746,8 @@
       </c>
     </row>
     <row r="6" spans="1:61">
-      <c r="A6" s="281"/>
-      <c r="B6" s="278"/>
+      <c r="A6" s="335"/>
+      <c r="B6" s="300"/>
       <c r="C6" s="5" t="s">
         <v>4</v>
       </c>
@@ -26826,7 +26826,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AB6" s="31">
         <f>SUM(coded_data!DY:DY)</f>
@@ -26848,7 +26848,7 @@
         <v>11</v>
       </c>
       <c r="AH6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AI6">
         <f>SUM(coded_data!ES:ES)</f>
@@ -26870,7 +26870,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AP6">
         <f>SUM(coded_data!EW:EW)</f>
@@ -26939,8 +26939,8 @@
       </c>
     </row>
     <row r="7" spans="1:61">
-      <c r="A7" s="281"/>
-      <c r="B7" s="278"/>
+      <c r="A7" s="335"/>
+      <c r="B7" s="300"/>
       <c r="C7" s="5" t="s">
         <v>328</v>
       </c>
@@ -27019,7 +27019,7 @@
         <v>16</v>
       </c>
       <c r="AA7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AB7" s="31">
         <f>SUM(coded_data!DZ:DZ)</f>
@@ -27041,7 +27041,7 @@
         <v>7</v>
       </c>
       <c r="AH7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="AI7">
         <f>SUM(coded_data!EK:EK)</f>
@@ -27087,14 +27087,14 @@
         <v>3</v>
       </c>
       <c r="BC7" s="24" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="BD7" s="69">
         <f>COUNTIF(raw_data!FL:FL, BC7)</f>
         <v>0</v>
       </c>
       <c r="BF7" s="85" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BG7" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF7)</f>
@@ -27110,8 +27110,8 @@
       </c>
     </row>
     <row r="8" spans="1:61" ht="15" thickBot="1">
-      <c r="A8" s="281"/>
-      <c r="B8" s="278"/>
+      <c r="A8" s="335"/>
+      <c r="B8" s="300"/>
       <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
@@ -27190,7 +27190,7 @@
         <v>11</v>
       </c>
       <c r="AA8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AB8" s="31">
         <f>SUM(coded_data!DB:DB) + SUM(coded_data!DC:DC) + SUM(coded_data!DD:DD) + SUM(coded_data!DE:DE) + SUM(coded_data!DF:DF)</f>
@@ -27212,7 +27212,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="AI8">
         <f>SUM(coded_data!ET:ET)</f>
@@ -27265,7 +27265,7 @@
         <v>1</v>
       </c>
       <c r="BF8" s="85" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="BG8" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF8)</f>
@@ -27281,8 +27281,8 @@
       </c>
     </row>
     <row r="9" spans="1:61" ht="15" thickBot="1">
-      <c r="A9" s="281"/>
-      <c r="B9" s="278"/>
+      <c r="A9" s="335"/>
+      <c r="B9" s="300"/>
       <c r="C9" s="5" t="s">
         <v>1</v>
       </c>
@@ -27361,7 +27361,7 @@
         <v>8</v>
       </c>
       <c r="AA9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AB9" s="31">
         <f>SUM(coded_data!CV:CV) + SUM(coded_data!CW:CW) + SUM(coded_data!CX:CX) + SUM(coded_data!CY:CY)</f>
@@ -27383,7 +27383,7 @@
         <v>8</v>
       </c>
       <c r="AH9" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AI9">
         <f>SUM(coded_data!EL:EL) + SUM(coded_data!EM:EM) + SUM(coded_data!EN:EN)</f>
@@ -27428,12 +27428,12 @@
         <f>COUNTIF(raw_data!FH:FH, AU9)</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="286" t="s">
-        <v>669</v>
-      </c>
-      <c r="BD9" s="287"/>
+      <c r="BC9" s="305" t="s">
+        <v>668</v>
+      </c>
+      <c r="BD9" s="306"/>
       <c r="BF9" s="85" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="BG9" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF9)</f>
@@ -27449,8 +27449,8 @@
       </c>
     </row>
     <row r="10" spans="1:61">
-      <c r="A10" s="281"/>
-      <c r="B10" s="278"/>
+      <c r="A10" s="335"/>
+      <c r="B10" s="300"/>
       <c r="C10" s="5" t="s">
         <v>329</v>
       </c>
@@ -27529,7 +27529,7 @@
         <v>6</v>
       </c>
       <c r="AA10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AB10" s="31">
         <f>SUM(coded_data!CO:CO)</f>
@@ -27551,7 +27551,7 @@
         <v>1</v>
       </c>
       <c r="AH10" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AI10">
         <f>SUM(coded_data!EB:EB)</f>
@@ -27620,8 +27620,8 @@
       </c>
     </row>
     <row r="11" spans="1:61">
-      <c r="A11" s="282"/>
-      <c r="B11" s="279"/>
+      <c r="A11" s="336"/>
+      <c r="B11" s="301"/>
       <c r="C11" s="33" t="s">
         <v>330</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>13</v>
       </c>
       <c r="AA11" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AB11" s="31">
         <f>SUM(coded_data!DM:DM) + SUM(coded_data!DN:DN) + SUM(coded_data!DO:DO) + SUM(coded_data!DP:DP) + SUM(coded_data!DQ:DQ) + SUM(coded_data!DR:DR)</f>
@@ -27722,7 +27722,7 @@
         <v>3</v>
       </c>
       <c r="AH11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AI11">
         <f>SUM(coded_data!EE:EE)</f>
@@ -27791,11 +27791,11 @@
       </c>
     </row>
     <row r="12" spans="1:61" ht="15" customHeight="1" thickBot="1">
-      <c r="A12" s="280">
+      <c r="A12" s="334">
         <v>2</v>
       </c>
-      <c r="B12" s="277" t="s">
-        <v>715</v>
+      <c r="B12" s="299" t="s">
+        <v>714</v>
       </c>
       <c r="C12" s="32" t="s">
         <v>6</v>
@@ -27875,7 +27875,7 @@
         <v>14</v>
       </c>
       <c r="AA12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AB12" s="31">
         <f>SUM(coded_data!DS:DS)+SUM(coded_data!DT:DT)+SUM(coded_data!DU:DU)+(SUM(coded_data!DV:DV)+SUM(coded_data!DW:DW)+SUM(coded_data!DX:DX))</f>
@@ -27897,7 +27897,7 @@
         <v>2</v>
       </c>
       <c r="AH12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AI12">
         <f>SUM(coded_data!EC:EC) + SUM(coded_data!ED:ED)</f>
@@ -27950,7 +27950,7 @@
         <v>2</v>
       </c>
       <c r="BF12" s="85" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="BG12" s="86">
         <f>COUNTIF(raw_data!FS:FS, BF12)</f>
@@ -27966,8 +27966,8 @@
       </c>
     </row>
     <row r="13" spans="1:61" ht="15" thickBot="1">
-      <c r="A13" s="281"/>
-      <c r="B13" s="278"/>
+      <c r="A13" s="335"/>
+      <c r="B13" s="300"/>
       <c r="C13" s="5" t="s">
         <v>331</v>
       </c>
@@ -28046,7 +28046,7 @@
         <v>10</v>
       </c>
       <c r="AA13" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AB13" s="31">
         <f>SUM(coded_data!DA:DA)</f>
@@ -28068,7 +28068,7 @@
         <v>4</v>
       </c>
       <c r="AH13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AI13">
         <f>SUM(coded_data!EF:EF) + SUM(coded_data!EG:EG)</f>
@@ -28086,15 +28086,15 @@
         <f t="shared" si="7"/>
         <v>low</v>
       </c>
-      <c r="AU13" s="286" t="s">
-        <v>670</v>
-      </c>
-      <c r="AV13" s="246"/>
-      <c r="AW13" s="246"/>
-      <c r="AX13" s="246"/>
-      <c r="AY13" s="246"/>
-      <c r="AZ13" s="246"/>
-      <c r="BA13" s="247"/>
+      <c r="AU13" s="305" t="s">
+        <v>669</v>
+      </c>
+      <c r="AV13" s="241"/>
+      <c r="AW13" s="241"/>
+      <c r="AX13" s="241"/>
+      <c r="AY13" s="241"/>
+      <c r="AZ13" s="241"/>
+      <c r="BA13" s="242"/>
       <c r="BC13" s="24" t="s">
         <v>297</v>
       </c>
@@ -28119,8 +28119,8 @@
       </c>
     </row>
     <row r="14" spans="1:61" ht="15" thickBot="1">
-      <c r="A14" s="281"/>
-      <c r="B14" s="278"/>
+      <c r="A14" s="335"/>
+      <c r="B14" s="300"/>
       <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
@@ -28199,7 +28199,7 @@
         <v>12</v>
       </c>
       <c r="AA14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AB14" s="31">
         <f>SUM(coded_data!DG:DG) + SUM(coded_data!DH:DH) + SUM(coded_data!DI:DI) + SUM(coded_data!DJ:DJ) + SUM(coded_data!DK:DK) + SUM(coded_data!DL:DL)</f>
@@ -28221,7 +28221,7 @@
         <v>9</v>
       </c>
       <c r="AH14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AI14">
         <f>SUM(coded_data!EO:EO)</f>
@@ -28239,21 +28239,21 @@
         <f t="shared" si="7"/>
         <v>very low</v>
       </c>
-      <c r="AU14" s="296" t="s">
-        <v>644</v>
-      </c>
-      <c r="AV14" s="294" t="s">
+      <c r="AU14" s="315" t="s">
+        <v>643</v>
+      </c>
+      <c r="AV14" s="313" t="s">
+        <v>640</v>
+      </c>
+      <c r="AW14" s="313"/>
+      <c r="AX14" s="313"/>
+      <c r="AY14" s="313" t="s">
         <v>641</v>
       </c>
-      <c r="AW14" s="294"/>
-      <c r="AX14" s="294"/>
-      <c r="AY14" s="294" t="s">
-        <v>642</v>
-      </c>
-      <c r="AZ14" s="294"/>
-      <c r="BA14" s="295"/>
+      <c r="AZ14" s="313"/>
+      <c r="BA14" s="314"/>
       <c r="BC14" s="80" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="BD14" s="69">
         <f>COUNTIF(raw_data!FQ:FQ, "yes")</f>
@@ -28276,8 +28276,8 @@
       </c>
     </row>
     <row r="15" spans="1:61" ht="15" thickBot="1">
-      <c r="A15" s="281"/>
-      <c r="B15" s="278"/>
+      <c r="A15" s="335"/>
+      <c r="B15" s="300"/>
       <c r="C15" s="5" t="s">
         <v>8</v>
       </c>
@@ -28356,7 +28356,7 @@
         <v>5</v>
       </c>
       <c r="AA15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AB15" s="31">
         <f>SUM(coded_data!CK:CK) + SUM(coded_data!CL:CL) + SUM(coded_data!CM:CM) + SUM(coded_data!CN:CN)</f>
@@ -28378,7 +28378,7 @@
         <v>10</v>
       </c>
       <c r="AH15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AI15">
         <f>SUM(coded_data!EP:EP) + SUM(coded_data!EQ:EQ) + SUM(coded_data!ER:ER)</f>
@@ -28396,24 +28396,24 @@
         <f t="shared" si="7"/>
         <v>very low</v>
       </c>
-      <c r="AU15" s="296"/>
+      <c r="AU15" s="315"/>
       <c r="AV15" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="AW15" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="AW15" s="5" t="s">
+      <c r="AX15" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AX15" s="5" t="s">
-        <v>639</v>
-      </c>
       <c r="AY15" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="AZ15" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="AZ15" s="5" t="s">
+      <c r="BA15" s="69" t="s">
         <v>638</v>
-      </c>
-      <c r="BA15" s="69" t="s">
-        <v>639</v>
       </c>
       <c r="BC15" s="81" t="s">
         <v>41</v>
@@ -28428,8 +28428,8 @@
       <c r="BH15" s="3"/>
     </row>
     <row r="16" spans="1:61">
-      <c r="A16" s="282"/>
-      <c r="B16" s="278"/>
+      <c r="A16" s="336"/>
+      <c r="B16" s="300"/>
       <c r="C16" s="86" t="s">
         <v>332</v>
       </c>
@@ -28508,7 +28508,7 @@
         <v>3</v>
       </c>
       <c r="AA16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AB16" s="31">
         <f>SUM(coded_data!BW:BW) + SUM(coded_data!BX:BX) + SUM(coded_data!BY:BY) + SUM(coded_data!BZ:BZ) + SUM(coded_data!CA:CA) + SUM(coded_data!CB:CB) +SUM(coded_data!CC:CC) + SUM(coded_data!CD:CD)</f>
@@ -28530,7 +28530,7 @@
         <v>6</v>
       </c>
       <c r="AH16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="AI16">
         <f>SUM(coded_data!EI:EI) + SUM(coded_data!EJ:EJ)</f>
@@ -28577,14 +28577,14 @@
       </c>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="280">
+      <c r="A17" s="334">
         <v>3</v>
       </c>
-      <c r="B17" s="277" t="s">
-        <v>716</v>
+      <c r="B17" s="299" t="s">
+        <v>715</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D17" s="34"/>
       <c r="E17" s="35">
@@ -28659,7 +28659,7 @@
         <v>4</v>
       </c>
       <c r="AA17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AB17" s="31">
         <f>SUM(coded_data!CE:CE) + SUM(coded_data!CF:CF) + SUM(coded_data!CG:CG) + SUM(coded_data!CH:CH) + SUM(coded_data!CI:CI) + SUM(coded_data!CJ:CJ)</f>
@@ -28706,10 +28706,10 @@
       </c>
     </row>
     <row r="18" spans="1:53" ht="15" customHeight="1">
-      <c r="A18" s="281"/>
-      <c r="B18" s="278"/>
+      <c r="A18" s="335"/>
+      <c r="B18" s="300"/>
       <c r="C18" s="89" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D18" s="182"/>
       <c r="E18" s="1">
@@ -28784,7 +28784,7 @@
         <v>9</v>
       </c>
       <c r="AA18" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AB18" s="31">
         <f>SUM(coded_data!CZ:CZ)</f>
@@ -28831,10 +28831,10 @@
       </c>
     </row>
     <row r="19" spans="1:53" ht="15" thickBot="1">
-      <c r="A19" s="281"/>
-      <c r="B19" s="278"/>
+      <c r="A19" s="335"/>
+      <c r="B19" s="300"/>
       <c r="C19" s="89" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D19" s="182"/>
       <c r="E19" s="1">
@@ -28909,7 +28909,7 @@
         <v>17</v>
       </c>
       <c r="AA19" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="AB19" s="31">
         <f>SUM(coded_data!EA:EA)</f>
@@ -28956,10 +28956,10 @@
       </c>
     </row>
     <row r="20" spans="1:53">
-      <c r="A20" s="281"/>
-      <c r="B20" s="278"/>
+      <c r="A20" s="335"/>
+      <c r="B20" s="300"/>
       <c r="C20" s="89" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D20" s="182"/>
       <c r="E20" s="1">
@@ -29034,7 +29034,7 @@
         <v>7</v>
       </c>
       <c r="AA20" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AB20" s="31">
         <f>SUM(coded_data!CP:CP) + SUM(coded_data!CQ:CQ) + (coded_data!CR:CR) + (coded_data!CS:CS) + (coded_data!CT:CT) + (coded_data!CU:CU)</f>
@@ -29054,10 +29054,10 @@
       </c>
     </row>
     <row r="21" spans="1:53" ht="16" customHeight="1">
-      <c r="A21" s="282"/>
-      <c r="B21" s="279"/>
+      <c r="A21" s="336"/>
+      <c r="B21" s="301"/>
       <c r="C21" s="183" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D21" s="42"/>
       <c r="E21" s="38">
@@ -29130,11 +29130,11 @@
       </c>
     </row>
     <row r="22" spans="1:53" ht="15.5" customHeight="1">
-      <c r="A22" s="280">
+      <c r="A22" s="334">
         <v>4</v>
       </c>
-      <c r="B22" s="277" t="s">
-        <v>725</v>
+      <c r="B22" s="299" t="s">
+        <v>724</v>
       </c>
       <c r="C22" s="86" t="s">
         <v>12</v>
@@ -29190,8 +29190,8 @@
       </c>
     </row>
     <row r="23" spans="1:53" ht="15" customHeight="1">
-      <c r="A23" s="281"/>
-      <c r="B23" s="278"/>
+      <c r="A23" s="335"/>
+      <c r="B23" s="300"/>
       <c r="C23" s="5" t="s">
         <v>333</v>
       </c>
@@ -29246,8 +29246,8 @@
       </c>
     </row>
     <row r="24" spans="1:53">
-      <c r="A24" s="281"/>
-      <c r="B24" s="278"/>
+      <c r="A24" s="335"/>
+      <c r="B24" s="300"/>
       <c r="C24" s="5" t="s">
         <v>334</v>
       </c>
@@ -29302,8 +29302,8 @@
       </c>
     </row>
     <row r="25" spans="1:53">
-      <c r="A25" s="281"/>
-      <c r="B25" s="278"/>
+      <c r="A25" s="335"/>
+      <c r="B25" s="300"/>
       <c r="C25" s="5" t="s">
         <v>335</v>
       </c>
@@ -29358,8 +29358,8 @@
       </c>
     </row>
     <row r="26" spans="1:53" ht="14.5" customHeight="1">
-      <c r="A26" s="282"/>
-      <c r="B26" s="279"/>
+      <c r="A26" s="336"/>
+      <c r="B26" s="301"/>
       <c r="C26" s="33" t="s">
         <v>336</v>
       </c>
@@ -29414,11 +29414,11 @@
       </c>
     </row>
     <row r="27" spans="1:53" ht="14" customHeight="1">
-      <c r="A27" s="280">
+      <c r="A27" s="334">
         <v>5</v>
       </c>
-      <c r="B27" s="277" t="s">
-        <v>726</v>
+      <c r="B27" s="299" t="s">
+        <v>725</v>
       </c>
       <c r="C27" s="32" t="s">
         <v>17</v>
@@ -29474,8 +29474,8 @@
       </c>
     </row>
     <row r="28" spans="1:53">
-      <c r="A28" s="281"/>
-      <c r="B28" s="278"/>
+      <c r="A28" s="335"/>
+      <c r="B28" s="300"/>
       <c r="C28" s="5" t="s">
         <v>19</v>
       </c>
@@ -29530,8 +29530,8 @@
       </c>
     </row>
     <row r="29" spans="1:53" ht="14.5" customHeight="1">
-      <c r="A29" s="282"/>
-      <c r="B29" s="279"/>
+      <c r="A29" s="336"/>
+      <c r="B29" s="301"/>
       <c r="C29" s="33" t="s">
         <v>18</v>
       </c>
@@ -29545,11 +29545,11 @@
       <c r="U29" s="30"/>
     </row>
     <row r="30" spans="1:53" ht="17" customHeight="1">
-      <c r="A30" s="280">
+      <c r="A30" s="334">
         <v>6</v>
       </c>
-      <c r="B30" s="277" t="s">
-        <v>717</v>
+      <c r="B30" s="299" t="s">
+        <v>716</v>
       </c>
       <c r="C30" s="32" t="s">
         <v>430</v>
@@ -29563,8 +29563,8 @@
       </c>
     </row>
     <row r="31" spans="1:53">
-      <c r="A31" s="281"/>
-      <c r="B31" s="278"/>
+      <c r="A31" s="335"/>
+      <c r="B31" s="300"/>
       <c r="C31" s="39" t="s">
         <v>432</v>
       </c>
@@ -29577,8 +29577,8 @@
       </c>
     </row>
     <row r="32" spans="1:53">
-      <c r="A32" s="282"/>
-      <c r="B32" s="279"/>
+      <c r="A32" s="336"/>
+      <c r="B32" s="301"/>
       <c r="C32" s="40" t="s">
         <v>431</v>
       </c>
@@ -29591,11 +29591,11 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="17" customHeight="1">
-      <c r="A33" s="280">
+      <c r="A33" s="334">
         <v>7</v>
       </c>
-      <c r="B33" s="277" t="s">
-        <v>718</v>
+      <c r="B33" s="299" t="s">
+        <v>717</v>
       </c>
       <c r="C33" s="41" t="s">
         <v>433</v>
@@ -29609,8 +29609,8 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="281"/>
-      <c r="B34" s="278"/>
+      <c r="A34" s="335"/>
+      <c r="B34" s="300"/>
       <c r="C34" s="39" t="s">
         <v>434</v>
       </c>
@@ -29623,8 +29623,8 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="281"/>
-      <c r="B35" s="278"/>
+      <c r="A35" s="335"/>
+      <c r="B35" s="300"/>
       <c r="C35" s="39" t="s">
         <v>435</v>
       </c>
@@ -29637,8 +29637,8 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="281"/>
-      <c r="B36" s="278"/>
+      <c r="A36" s="335"/>
+      <c r="B36" s="300"/>
       <c r="C36" s="39" t="s">
         <v>437</v>
       </c>
@@ -29651,8 +29651,8 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="281"/>
-      <c r="B37" s="278"/>
+      <c r="A37" s="335"/>
+      <c r="B37" s="300"/>
       <c r="C37" s="39" t="s">
         <v>436</v>
       </c>
@@ -29665,8 +29665,8 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="281"/>
-      <c r="B38" s="278"/>
+      <c r="A38" s="335"/>
+      <c r="B38" s="300"/>
       <c r="C38" s="39" t="s">
         <v>438</v>
       </c>
@@ -29679,8 +29679,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1">
-      <c r="A39" s="282"/>
-      <c r="B39" s="279"/>
+      <c r="A39" s="336"/>
+      <c r="B39" s="301"/>
       <c r="C39" s="40" t="s">
         <v>439</v>
       </c>
@@ -29693,11 +29693,11 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="280">
+      <c r="A40" s="334">
         <v>8</v>
       </c>
-      <c r="B40" s="277" t="s">
-        <v>719</v>
+      <c r="B40" s="299" t="s">
+        <v>718</v>
       </c>
       <c r="C40" s="41" t="s">
         <v>440</v>
@@ -29711,8 +29711,8 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="281"/>
-      <c r="B41" s="278"/>
+      <c r="A41" s="335"/>
+      <c r="B41" s="300"/>
       <c r="C41" s="39" t="s">
         <v>441</v>
       </c>
@@ -29725,8 +29725,8 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="282"/>
-      <c r="B42" s="279"/>
+      <c r="A42" s="336"/>
+      <c r="B42" s="301"/>
       <c r="C42" s="40" t="s">
         <v>439</v>
       </c>
@@ -29739,11 +29739,11 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1">
-      <c r="A43" s="280">
+      <c r="A43" s="334">
         <v>9</v>
       </c>
-      <c r="B43" s="277" t="s">
-        <v>720</v>
+      <c r="B43" s="299" t="s">
+        <v>719</v>
       </c>
       <c r="C43" s="41" t="s">
         <v>442</v>
@@ -29757,8 +29757,8 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="282"/>
-      <c r="B44" s="279"/>
+      <c r="A44" s="336"/>
+      <c r="B44" s="301"/>
       <c r="C44" s="40" t="s">
         <v>443</v>
       </c>
@@ -29772,11 +29772,22 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="AN1:AS2"/>
-    <mergeCell ref="AG1:AL2"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="B4:B11"/>
-    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="A40:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="BC3:BD3"/>
     <mergeCell ref="BF3:BI3"/>
@@ -29793,22 +29804,11 @@
     <mergeCell ref="G1:L2"/>
     <mergeCell ref="N1:X2"/>
     <mergeCell ref="Z1:AE2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A4:A11"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="A40:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="AN1:AS2"/>
+    <mergeCell ref="AG1:AL2"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B4:B11"/>
+    <mergeCell ref="B12:B16"/>
   </mergeCells>
   <conditionalFormatting sqref="E4:E11">
     <cfRule type="dataBar" priority="63">
@@ -30264,63 +30264,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="335" t="s">
+      <c r="A1" s="339" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="338" t="str">
+      <c r="B1" s="342" t="str">
         <f>CONCATENATE("Score summaries at (n = ", COUNT(raw_data!A:A), ")")</f>
         <v>Score summaries at (n = 10)</v>
       </c>
-      <c r="C1" s="339"/>
-      <c r="D1" s="339"/>
-      <c r="E1" s="339"/>
-      <c r="F1" s="339"/>
-      <c r="G1" s="339"/>
-      <c r="H1" s="339"/>
-      <c r="I1" s="339"/>
-      <c r="J1" s="339"/>
-      <c r="K1" s="339"/>
-      <c r="L1" s="339"/>
-      <c r="M1" s="340"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="344"/>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1">
-      <c r="A2" s="335"/>
-      <c r="B2" s="341"/>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
-      <c r="F2" s="342"/>
-      <c r="G2" s="342"/>
-      <c r="H2" s="342"/>
-      <c r="I2" s="342"/>
-      <c r="J2" s="342"/>
-      <c r="K2" s="342"/>
-      <c r="L2" s="342"/>
-      <c r="M2" s="343"/>
+      <c r="A2" s="339"/>
+      <c r="B2" s="345"/>
+      <c r="C2" s="346"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
+      <c r="J2" s="346"/>
+      <c r="K2" s="346"/>
+      <c r="L2" s="346"/>
+      <c r="M2" s="347"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="336" t="s">
-        <v>660</v>
-      </c>
-      <c r="B3" s="337"/>
-      <c r="C3" s="337"/>
-      <c r="D3" s="337"/>
-      <c r="E3" s="337"/>
-      <c r="F3" s="337"/>
-      <c r="G3" s="337"/>
-      <c r="H3" s="337"/>
-      <c r="I3" s="337"/>
-      <c r="J3" s="337"/>
-      <c r="K3" s="337"/>
-      <c r="L3" s="337"/>
-      <c r="M3" s="337"/>
+      <c r="A3" s="340" t="s">
+        <v>659</v>
+      </c>
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
+      <c r="M3" s="341"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="74" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C4" s="48" t="s">
         <v>320</v>
@@ -30332,16 +30332,16 @@
         <v>370</v>
       </c>
       <c r="F4" s="101" t="s">
+        <v>708</v>
+      </c>
+      <c r="G4" s="101" t="s">
         <v>709</v>
       </c>
-      <c r="G4" s="101" t="s">
-        <v>710</v>
-      </c>
       <c r="H4" s="48" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J4" s="69" t="s">
         <v>447</v>
@@ -30350,18 +30350,18 @@
         <v>369</v>
       </c>
       <c r="L4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="31" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B5" s="86" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C5" s="101">
         <f>MIN(processed_data!B:B)</f>
@@ -30410,10 +30410,10 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="31" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C6" s="101">
         <f>MIN(processed_data!J:J)</f>
@@ -30462,10 +30462,10 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="31" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C7" s="101">
         <f>MIN(processed_data!F:F)</f>
@@ -30514,10 +30514,10 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="31" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C8" s="101">
         <f>MIN(processed_data!N:N)</f>
@@ -30565,28 +30565,28 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="344" t="s">
-        <v>661</v>
-      </c>
-      <c r="B10" s="345"/>
-      <c r="C10" s="345"/>
-      <c r="D10" s="345"/>
-      <c r="E10" s="345"/>
-      <c r="F10" s="345"/>
-      <c r="G10" s="345"/>
-      <c r="H10" s="345"/>
-      <c r="I10" s="345"/>
-      <c r="J10" s="345"/>
-      <c r="K10" s="345"/>
-      <c r="L10" s="345"/>
-      <c r="M10" s="345"/>
+      <c r="A10" s="348" t="s">
+        <v>660</v>
+      </c>
+      <c r="B10" s="349"/>
+      <c r="C10" s="349"/>
+      <c r="D10" s="349"/>
+      <c r="E10" s="349"/>
+      <c r="F10" s="349"/>
+      <c r="G10" s="349"/>
+      <c r="H10" s="349"/>
+      <c r="I10" s="349"/>
+      <c r="J10" s="349"/>
+      <c r="K10" s="349"/>
+      <c r="L10" s="349"/>
+      <c r="M10" s="349"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="74" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B11" s="73" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C11" s="178" t="s">
         <v>320</v>
@@ -30598,16 +30598,16 @@
         <v>370</v>
       </c>
       <c r="F11" s="178" t="s">
+        <v>708</v>
+      </c>
+      <c r="G11" s="178" t="s">
         <v>709</v>
       </c>
-      <c r="G11" s="178" t="s">
-        <v>710</v>
-      </c>
       <c r="H11" s="178" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I11" s="79" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="J11" s="69" t="s">
         <v>447</v>
@@ -30616,18 +30616,18 @@
         <v>369</v>
       </c>
       <c r="L11" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M11" s="83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="91" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C12" s="178">
         <f>MIN(processed_data!Z:Z)</f>
@@ -30676,7 +30676,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="91" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B13" s="86" t="s">
         <v>378</v>
@@ -30728,7 +30728,7 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="91" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B14" s="86" t="s">
         <v>375</v>
@@ -30780,10 +30780,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="91" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B15" s="86" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C15" s="178">
         <f>MIN(processed_data!V:V)</f>
@@ -30831,28 +30831,28 @@
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="346" t="s">
+      <c r="A17" s="350" t="s">
         <v>396</v>
       </c>
-      <c r="B17" s="347"/>
-      <c r="C17" s="347"/>
-      <c r="D17" s="347"/>
-      <c r="E17" s="347"/>
-      <c r="F17" s="347"/>
-      <c r="G17" s="347"/>
-      <c r="H17" s="347"/>
-      <c r="I17" s="347"/>
-      <c r="J17" s="347"/>
-      <c r="K17" s="347"/>
-      <c r="L17" s="347"/>
-      <c r="M17" s="347"/>
+      <c r="B17" s="351"/>
+      <c r="C17" s="351"/>
+      <c r="D17" s="351"/>
+      <c r="E17" s="351"/>
+      <c r="F17" s="351"/>
+      <c r="G17" s="351"/>
+      <c r="H17" s="351"/>
+      <c r="I17" s="351"/>
+      <c r="J17" s="351"/>
+      <c r="K17" s="351"/>
+      <c r="L17" s="351"/>
+      <c r="M17" s="351"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="75" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B18" s="102" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C18" s="178" t="s">
         <v>320</v>
@@ -30864,16 +30864,16 @@
         <v>370</v>
       </c>
       <c r="F18" s="178" t="s">
+        <v>708</v>
+      </c>
+      <c r="G18" s="178" t="s">
         <v>709</v>
       </c>
-      <c r="G18" s="178" t="s">
-        <v>710</v>
-      </c>
       <c r="H18" s="178" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I18" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J18" s="69" t="s">
         <v>447</v>
@@ -30882,15 +30882,15 @@
         <v>369</v>
       </c>
       <c r="L18" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M18" s="83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="91" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B19" s="86" t="s">
         <v>382</v>
@@ -30942,7 +30942,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="91" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B20" s="86" t="s">
         <v>384</v>
@@ -30994,10 +30994,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="91" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B21" s="86" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C21" s="178">
         <f>MIN(processed_data!AH:AH)</f>
@@ -31046,7 +31046,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="91" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B22" s="86" t="s">
         <v>383</v>
@@ -31098,7 +31098,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="91" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B23" s="86" t="s">
         <v>380</v>
@@ -31150,7 +31150,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="91" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B24" s="86" t="s">
         <v>399</v>
@@ -31202,7 +31202,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="91" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B25" s="86" t="s">
         <v>385</v>
@@ -31253,28 +31253,28 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="348" t="s">
+      <c r="A27" s="352" t="s">
         <v>404</v>
       </c>
-      <c r="B27" s="349"/>
-      <c r="C27" s="349"/>
-      <c r="D27" s="349"/>
-      <c r="E27" s="349"/>
-      <c r="F27" s="349"/>
-      <c r="G27" s="349"/>
-      <c r="H27" s="349"/>
-      <c r="I27" s="349"/>
-      <c r="J27" s="349"/>
-      <c r="K27" s="349"/>
-      <c r="L27" s="349"/>
-      <c r="M27" s="349"/>
+      <c r="B27" s="353"/>
+      <c r="C27" s="353"/>
+      <c r="D27" s="353"/>
+      <c r="E27" s="353"/>
+      <c r="F27" s="353"/>
+      <c r="G27" s="353"/>
+      <c r="H27" s="353"/>
+      <c r="I27" s="353"/>
+      <c r="J27" s="353"/>
+      <c r="K27" s="353"/>
+      <c r="L27" s="353"/>
+      <c r="M27" s="353"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="76" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B28" s="103" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C28" s="178" t="s">
         <v>320</v>
@@ -31286,16 +31286,16 @@
         <v>370</v>
       </c>
       <c r="F28" s="178" t="s">
+        <v>708</v>
+      </c>
+      <c r="G28" s="178" t="s">
         <v>709</v>
       </c>
-      <c r="G28" s="178" t="s">
-        <v>710</v>
-      </c>
       <c r="H28" s="178" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I28" s="79" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J28" s="69" t="s">
         <v>447</v>
@@ -31304,18 +31304,18 @@
         <v>369</v>
       </c>
       <c r="L28" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M28" s="83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="91" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B29" s="89" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C29" s="178">
         <f>MIN(processed_data!BN:BN)</f>
@@ -31364,7 +31364,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="91" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B30" s="89" t="s">
         <v>402</v>
@@ -31416,7 +31416,7 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="91" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B31" s="89" t="s">
         <v>400</v>
@@ -31467,28 +31467,28 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="333" t="s">
-        <v>662</v>
-      </c>
-      <c r="B33" s="334"/>
-      <c r="C33" s="334"/>
-      <c r="D33" s="334"/>
-      <c r="E33" s="334"/>
-      <c r="F33" s="334"/>
-      <c r="G33" s="334"/>
-      <c r="H33" s="334"/>
-      <c r="I33" s="334"/>
-      <c r="J33" s="334"/>
-      <c r="K33" s="334"/>
-      <c r="L33" s="334"/>
-      <c r="M33" s="334"/>
+      <c r="A33" s="337" t="s">
+        <v>661</v>
+      </c>
+      <c r="B33" s="338"/>
+      <c r="C33" s="338"/>
+      <c r="D33" s="338"/>
+      <c r="E33" s="338"/>
+      <c r="F33" s="338"/>
+      <c r="G33" s="338"/>
+      <c r="H33" s="338"/>
+      <c r="I33" s="338"/>
+      <c r="J33" s="338"/>
+      <c r="K33" s="338"/>
+      <c r="L33" s="338"/>
+      <c r="M33" s="338"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="78" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B34" s="104" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C34" s="178" t="s">
         <v>320</v>
@@ -31500,16 +31500,16 @@
         <v>370</v>
       </c>
       <c r="F34" s="178" t="s">
+        <v>708</v>
+      </c>
+      <c r="G34" s="178" t="s">
         <v>709</v>
       </c>
-      <c r="G34" s="178" t="s">
-        <v>710</v>
-      </c>
       <c r="H34" s="178" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I34" s="79" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J34" s="69" t="s">
         <v>447</v>
@@ -31518,18 +31518,18 @@
         <v>369</v>
       </c>
       <c r="L34" s="83" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M34" s="83" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="91" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C35" s="178">
         <f>MIN(processed_data!BV:BV)</f>
@@ -31868,50 +31868,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="14.5" customHeight="1">
-      <c r="A1" s="353" t="s">
+      <c r="A1" s="357" t="s">
         <v>424</v>
       </c>
-      <c r="B1" s="355" t="s">
-        <v>689</v>
-      </c>
-      <c r="C1" s="356"/>
-      <c r="D1" s="356"/>
-      <c r="E1" s="356"/>
-      <c r="F1" s="356"/>
-      <c r="G1" s="356"/>
-      <c r="H1" s="356"/>
-      <c r="I1" s="356"/>
-      <c r="J1" s="356"/>
-      <c r="K1" s="356"/>
-      <c r="L1" s="356"/>
-      <c r="M1" s="356"/>
-      <c r="N1" s="356"/>
-      <c r="O1" s="357"/>
+      <c r="B1" s="359" t="s">
+        <v>688</v>
+      </c>
+      <c r="C1" s="360"/>
+      <c r="D1" s="360"/>
+      <c r="E1" s="360"/>
+      <c r="F1" s="360"/>
+      <c r="G1" s="360"/>
+      <c r="H1" s="360"/>
+      <c r="I1" s="360"/>
+      <c r="J1" s="360"/>
+      <c r="K1" s="360"/>
+      <c r="L1" s="360"/>
+      <c r="M1" s="360"/>
+      <c r="N1" s="360"/>
+      <c r="O1" s="361"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1">
-      <c r="A2" s="354"/>
-      <c r="B2" s="358"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
-      <c r="G2" s="359"/>
-      <c r="H2" s="359"/>
-      <c r="I2" s="359"/>
-      <c r="J2" s="359"/>
-      <c r="K2" s="359"/>
-      <c r="L2" s="359"/>
-      <c r="M2" s="359"/>
-      <c r="N2" s="359"/>
-      <c r="O2" s="360"/>
+      <c r="A2" s="358"/>
+      <c r="B2" s="362"/>
+      <c r="C2" s="363"/>
+      <c r="D2" s="363"/>
+      <c r="E2" s="363"/>
+      <c r="F2" s="363"/>
+      <c r="G2" s="363"/>
+      <c r="H2" s="363"/>
+      <c r="I2" s="363"/>
+      <c r="J2" s="363"/>
+      <c r="K2" s="363"/>
+      <c r="L2" s="363"/>
+      <c r="M2" s="363"/>
+      <c r="N2" s="363"/>
+      <c r="O2" s="364"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="352" t="s">
-        <v>688</v>
+      <c r="A3" s="356" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15" thickBot="1">
-      <c r="A4" s="351"/>
+      <c r="A4" s="355"/>
       <c r="B4" s="90"/>
       <c r="C4" s="90"/>
       <c r="D4" s="90"/>
@@ -31930,10 +31930,10 @@
     </row>
     <row r="5" spans="1:20" ht="15" thickBot="1">
       <c r="A5" s="92" t="s">
+        <v>679</v>
+      </c>
+      <c r="B5" s="115" t="s">
         <v>680</v>
-      </c>
-      <c r="B5" s="115" t="s">
-        <v>681</v>
       </c>
       <c r="C5" s="116" t="s">
         <v>366</v>
@@ -31948,16 +31948,16 @@
         <v>375</v>
       </c>
       <c r="G5" s="118" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H5" s="117" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I5" s="117" t="s">
         <v>378</v>
       </c>
       <c r="J5" s="119" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K5" s="119" t="s">
         <v>380</v>
@@ -31981,13 +31981,13 @@
         <v>400</v>
       </c>
       <c r="R5" s="122" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S5" s="122" t="s">
         <v>402</v>
       </c>
       <c r="T5" s="123" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -32152,7 +32152,7 @@
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="129" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B11" s="161">
         <f>PEARSON(processed_data!B:B, processed_data!A:A)</f>
@@ -32193,7 +32193,7 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="129" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B12" s="161">
         <f>PEARSON(processed_data!B:B, processed_data!Z:Z)</f>
@@ -32284,7 +32284,7 @@
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="131" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B14" s="165">
         <f>PEARSON(processed_data!B:B, processed_data!AH:AH)</f>
@@ -32768,7 +32768,7 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="171" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B22" s="161">
         <f>PEARSON(processed_data!B:B, processed_data!BN:BN)</f>
@@ -32919,7 +32919,7 @@
     </row>
     <row r="24" spans="1:20" s="83" customFormat="1" ht="15" thickBot="1">
       <c r="A24" s="177" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B24" s="167">
         <f>PEARSON(processed_data!B:B, processed_data!BV:BV)</f>
@@ -32998,19 +32998,19 @@
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="352" t="s">
-        <v>687</v>
+      <c r="A25" s="356" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="15" thickBot="1">
-      <c r="A26" s="351"/>
+      <c r="A26" s="355"/>
     </row>
     <row r="27" spans="1:20" ht="15" thickBot="1">
       <c r="A27" s="92" t="s">
+        <v>679</v>
+      </c>
+      <c r="B27" s="115" t="s">
         <v>680</v>
-      </c>
-      <c r="B27" s="115" t="s">
-        <v>681</v>
       </c>
       <c r="C27" s="116" t="s">
         <v>366</v>
@@ -33025,16 +33025,16 @@
         <v>375</v>
       </c>
       <c r="G27" s="118" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H27" s="117" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I27" s="117" t="s">
         <v>378</v>
       </c>
       <c r="J27" s="119" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K27" s="119" t="s">
         <v>380</v>
@@ -33058,13 +33058,13 @@
         <v>400</v>
       </c>
       <c r="R27" s="122" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S27" s="122" t="s">
         <v>402</v>
       </c>
       <c r="T27" s="123" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -33229,7 +33229,7 @@
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="129" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B33" s="161">
         <f>(B11 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B11^2)</f>
@@ -33270,7 +33270,7 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="129" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B34" s="161">
         <f>(B12 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B12^2)</f>
@@ -33361,7 +33361,7 @@
     </row>
     <row r="36" spans="1:20">
       <c r="A36" s="131" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B36" s="165">
         <f>(B14 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B14^2)</f>
@@ -33845,7 +33845,7 @@
     </row>
     <row r="44" spans="1:20">
       <c r="A44" s="171" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B44" s="161">
         <f>(B22 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B22^2)</f>
@@ -33996,7 +33996,7 @@
     </row>
     <row r="46" spans="1:20" s="83" customFormat="1" ht="15" thickBot="1">
       <c r="A46" s="173" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B46" s="167">
         <f>(B24 * SQRT(COUNT(raw_data!A:A) - 2)) / SQRT(1 - B24^2)</f>
@@ -34075,27 +34075,27 @@
       </c>
     </row>
     <row r="47" spans="1:20">
-      <c r="A47" s="350" t="s">
-        <v>682</v>
+      <c r="A47" s="354" t="s">
+        <v>681</v>
       </c>
       <c r="B47" s="96"/>
       <c r="C47" s="91" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="48" spans="1:20" ht="15" thickBot="1">
-      <c r="A48" s="351"/>
+      <c r="A48" s="355"/>
       <c r="B48" s="97"/>
       <c r="C48" s="91" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="49" spans="1:20" ht="15" thickBot="1">
       <c r="A49" s="92" t="s">
+        <v>679</v>
+      </c>
+      <c r="B49" s="115" t="s">
         <v>680</v>
-      </c>
-      <c r="B49" s="115" t="s">
-        <v>681</v>
       </c>
       <c r="C49" s="116" t="s">
         <v>366</v>
@@ -34110,16 +34110,16 @@
         <v>375</v>
       </c>
       <c r="G49" s="118" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H49" s="117" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I49" s="117" t="s">
         <v>378</v>
       </c>
       <c r="J49" s="119" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K49" s="119" t="s">
         <v>380</v>
@@ -34143,13 +34143,13 @@
         <v>400</v>
       </c>
       <c r="R49" s="122" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S49" s="122" t="s">
         <v>402</v>
       </c>
       <c r="T49" s="123" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -34314,7 +34314,7 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="129" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B55" s="140" t="e">
         <f>_xlfn.T.DIST.2T(B33, COUNT(raw_data!A:A) - 2)</f>
@@ -34355,7 +34355,7 @@
     </row>
     <row r="56" spans="1:20">
       <c r="A56" s="129" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B56" s="140">
         <f>_xlfn.T.DIST.2T(B34, COUNT(raw_data!A:A) - 2)</f>
@@ -34446,7 +34446,7 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="131" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B58" s="144">
         <f>_xlfn.T.DIST.2T(B36, COUNT(raw_data!A:A) - 2)</f>
@@ -34930,7 +34930,7 @@
     </row>
     <row r="66" spans="1:20">
       <c r="A66" s="135" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B66" s="140">
         <f>_xlfn.T.DIST.2T(B44, COUNT(raw_data!A:A) - 2)</f>
@@ -35081,7 +35081,7 @@
     </row>
     <row r="68" spans="1:20" ht="15" thickBot="1">
       <c r="A68" s="124" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B68" s="108" t="e">
         <f>_xlfn.T.DIST.2T(B46, COUNT(raw_data!A:A) - 2)</f>
